--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="414">
   <si>
     <t>id</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>随机复制一个已有的魔物</t>
+  </si>
+  <si>
+    <t>时光沙漏</t>
+  </si>
+  <si>
+    <t>减少10%魔物复活CD时间</t>
   </si>
   <si>
     <t>excel_item_type</t>
@@ -2230,10 +2236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3354,390 +3360,384 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>20000000001</v>
+        <v>10000000003</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>20000000002</v>
+        <v>10000000004</v>
       </c>
       <c r="B91" t="s">
         <v>137</v>
       </c>
-      <c r="C91" t="s">
-        <v>138</v>
-      </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>20000000003</v>
+        <v>20000000001</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>20000000004</v>
+        <v>20000000002</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>20000000010</v>
+        <v>20000000003</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>30000000001</v>
+        <v>20000000004</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>30000000002</v>
+        <v>20000000010</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>30000000003</v>
+        <v>30000000001</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>30000000101</v>
+        <v>30000000002</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>30000000102</v>
+        <v>30000000003</v>
       </c>
       <c r="B99" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D99" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>30000000103</v>
+        <v>30000000101</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>30000000201</v>
+        <v>30000000102</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D101" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>30000000202</v>
+        <v>30000000103</v>
       </c>
       <c r="B102" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>30000000203</v>
+        <v>30000000201</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>30000000301</v>
+        <v>30000000202</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D104" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>30000000302</v>
+        <v>30000000203</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>30000000303</v>
+        <v>30000000301</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>30000000401</v>
+        <v>30000000302</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>30000000402</v>
+        <v>30000000303</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C108" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>30000000403</v>
+        <v>30000000401</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>30000999999</v>
+        <v>30000000402</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C110" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D110" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>40000000001</v>
+        <v>30000000403</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D111" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>40000000002</v>
+        <v>30000999999</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="C112" t="s">
+        <v>179</v>
       </c>
       <c r="D112" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>40000000003</v>
+        <v>40000000001</v>
       </c>
       <c r="B113" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" t="s">
+        <v>180</v>
+      </c>
+      <c r="D113" t="s">
         <v>181</v>
-      </c>
-      <c r="D113" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>40000000004</v>
+        <v>40000000002</v>
       </c>
       <c r="B114" t="s">
         <v>182</v>
       </c>
       <c r="D114" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>50000000001</v>
+        <v>40000000003</v>
       </c>
       <c r="B115" t="s">
         <v>183</v>
       </c>
-      <c r="C115" t="s">
-        <v>153</v>
-      </c>
       <c r="D115" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>50000000002</v>
+        <v>40000000004</v>
       </c>
       <c r="B116" t="s">
-        <v>185</v>
-      </c>
-      <c r="C116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D116" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>50000001001</v>
+        <v>50000000001</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D117" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>50000002001</v>
+        <v>50000000002</v>
       </c>
       <c r="B118" t="s">
         <v>187</v>
@@ -3746,2393 +3746,2421 @@
         <v>188</v>
       </c>
       <c r="D118" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>50000002002</v>
+        <v>50000001001</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>50000002003</v>
+        <v>50000002001</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C120" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D120" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>50000002004</v>
+        <v>50000002002</v>
       </c>
       <c r="B121" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D121" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>50000003001</v>
+        <v>50000002003</v>
       </c>
       <c r="B122" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D122" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>50000003002</v>
+        <v>50000002004</v>
       </c>
       <c r="B123" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C123" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D123" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>50000003003</v>
+        <v>50000003001</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C124" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D124" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>50000003004</v>
+        <v>50000003002</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C125" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D125" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>50000004001</v>
+        <v>50000003003</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D126" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>50000004002</v>
+        <v>50000003004</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D127" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>50000004003</v>
+        <v>50000004001</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C128" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D128" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>50000004004</v>
+        <v>50000004002</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C129" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D129" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>50000004005</v>
+        <v>50000004003</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D130" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>50000005001</v>
+        <v>50000004004</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C131" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D131" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>50000005002</v>
+        <v>50000004005</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C132" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D132" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>50000005003</v>
+        <v>50000005001</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>50000005004</v>
+        <v>50000005002</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C134" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D134" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>50000006001</v>
+        <v>50000005003</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D135" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>50000006002</v>
+        <v>50000005004</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C136" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D136" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>50000006003</v>
+        <v>50000006001</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D137" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>50000006004</v>
+        <v>50000006002</v>
       </c>
       <c r="B138" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D138" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>50000006005</v>
+        <v>50000006003</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C139" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D139" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>50000007001</v>
+        <v>50000006004</v>
       </c>
       <c r="B140" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C140" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D140" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>50000007002</v>
+        <v>50000006005</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C141" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D141" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>50000007003</v>
+        <v>50000007001</v>
       </c>
       <c r="B142" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C142" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D142" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>50000007004</v>
+        <v>50000007002</v>
       </c>
       <c r="B143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C143" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>50000101001</v>
+        <v>50000007003</v>
       </c>
       <c r="B144" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C144" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D144" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>50000102001</v>
+        <v>50000007004</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C145" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D145" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>50000103001</v>
+        <v>50000101001</v>
       </c>
       <c r="B146" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C146" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D146" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>50000103002</v>
+        <v>50000102001</v>
       </c>
       <c r="B147" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C147" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D147" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>60010100001</v>
+        <v>50000103001</v>
       </c>
       <c r="B148" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="C148" t="s">
+        <v>246</v>
       </c>
       <c r="D148" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>60010100002</v>
+        <v>50000103002</v>
       </c>
       <c r="B149" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="C149" t="s">
+        <v>248</v>
       </c>
       <c r="D149" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>60010100003</v>
+        <v>60010100001</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D150" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>60010100004</v>
+        <v>60010100002</v>
       </c>
       <c r="B151" t="s">
         <v>251</v>
       </c>
       <c r="D151" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>60010200001</v>
+        <v>60010100003</v>
       </c>
       <c r="B152" t="s">
         <v>252</v>
       </c>
       <c r="D152" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>60010200002</v>
+        <v>60010100004</v>
       </c>
       <c r="B153" t="s">
         <v>253</v>
       </c>
       <c r="D153" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>60010200003</v>
+        <v>60010200001</v>
       </c>
       <c r="B154" t="s">
         <v>254</v>
       </c>
       <c r="D154" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>60010200004</v>
+        <v>60010200002</v>
       </c>
       <c r="B155" t="s">
         <v>255</v>
       </c>
       <c r="D155" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>60010300001</v>
+        <v>60010200003</v>
       </c>
       <c r="B156" t="s">
         <v>256</v>
       </c>
       <c r="D156" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>60010300002</v>
+        <v>60010200004</v>
       </c>
       <c r="B157" t="s">
         <v>257</v>
       </c>
       <c r="D157" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>60010300003</v>
+        <v>60010300001</v>
       </c>
       <c r="B158" t="s">
         <v>258</v>
       </c>
       <c r="D158" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>60010300004</v>
+        <v>60010300002</v>
       </c>
       <c r="B159" t="s">
         <v>259</v>
       </c>
       <c r="D159" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>60011000001</v>
+        <v>60010300003</v>
       </c>
       <c r="B160" t="s">
         <v>260</v>
       </c>
       <c r="D160" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>60011000002</v>
+        <v>60010300004</v>
       </c>
       <c r="B161" t="s">
         <v>261</v>
       </c>
       <c r="D161" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>60011000003</v>
+        <v>60011000001</v>
       </c>
       <c r="B162" t="s">
         <v>262</v>
       </c>
       <c r="D162" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>60011000004</v>
+        <v>60011000002</v>
       </c>
       <c r="B163" t="s">
         <v>263</v>
       </c>
       <c r="D163" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>60011000005</v>
+        <v>60011000003</v>
       </c>
       <c r="B164" t="s">
         <v>264</v>
       </c>
       <c r="D164" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>60011000006</v>
+        <v>60011000004</v>
       </c>
       <c r="B165" t="s">
         <v>265</v>
       </c>
       <c r="D165" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>60011000007</v>
+        <v>60011000005</v>
       </c>
       <c r="B166" t="s">
         <v>266</v>
       </c>
       <c r="D166" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>60011000008</v>
+        <v>60011000006</v>
       </c>
       <c r="B167" t="s">
         <v>267</v>
       </c>
       <c r="D167" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>60011000009</v>
+        <v>60011000007</v>
       </c>
       <c r="B168" t="s">
         <v>268</v>
       </c>
       <c r="D168" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>60011010001</v>
+        <v>60011000008</v>
       </c>
       <c r="B169" t="s">
         <v>269</v>
       </c>
       <c r="D169" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>60020100001</v>
+        <v>60011000009</v>
       </c>
       <c r="B170" t="s">
         <v>270</v>
       </c>
       <c r="D170" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>60020100002</v>
+        <v>60011010001</v>
       </c>
       <c r="B171" t="s">
         <v>271</v>
       </c>
       <c r="D171" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>60020100003</v>
+        <v>60020100001</v>
       </c>
       <c r="B172" t="s">
         <v>272</v>
       </c>
       <c r="D172" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>60020100004</v>
+        <v>60020100002</v>
       </c>
       <c r="B173" t="s">
         <v>273</v>
       </c>
       <c r="D173" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>60020100005</v>
+        <v>60020100003</v>
       </c>
       <c r="B174" t="s">
         <v>274</v>
       </c>
       <c r="D174" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>60020100006</v>
+        <v>60020100004</v>
       </c>
       <c r="B175" t="s">
         <v>275</v>
       </c>
       <c r="D175" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>60020100007</v>
+        <v>60020100005</v>
       </c>
       <c r="B176" t="s">
         <v>276</v>
       </c>
       <c r="D176" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>60020200001</v>
+        <v>60020100006</v>
       </c>
       <c r="B177" t="s">
         <v>277</v>
       </c>
       <c r="D177" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>60020200002</v>
+        <v>60020100007</v>
       </c>
       <c r="B178" t="s">
         <v>278</v>
       </c>
       <c r="D178" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>60020200003</v>
+        <v>60020200001</v>
       </c>
       <c r="B179" t="s">
         <v>279</v>
       </c>
       <c r="D179" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>60020200004</v>
+        <v>60020200002</v>
       </c>
       <c r="B180" t="s">
         <v>280</v>
       </c>
       <c r="D180" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>60020200005</v>
+        <v>60020200003</v>
       </c>
       <c r="B181" t="s">
         <v>281</v>
       </c>
       <c r="D181" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>60020200006</v>
+        <v>60020200004</v>
       </c>
       <c r="B182" t="s">
         <v>282</v>
       </c>
       <c r="D182" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>60020200007</v>
+        <v>60020200005</v>
       </c>
       <c r="B183" t="s">
         <v>283</v>
       </c>
       <c r="D183" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>60020200008</v>
+        <v>60020200006</v>
       </c>
       <c r="B184" t="s">
         <v>284</v>
       </c>
       <c r="D184" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>60020200009</v>
+        <v>60020200007</v>
       </c>
       <c r="B185" t="s">
         <v>285</v>
       </c>
       <c r="D185" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>60020200010</v>
+        <v>60020200008</v>
       </c>
       <c r="B186" t="s">
         <v>286</v>
       </c>
       <c r="D186" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>60020200011</v>
+        <v>60020200009</v>
       </c>
       <c r="B187" t="s">
         <v>287</v>
       </c>
       <c r="D187" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>60020300001</v>
+        <v>60020200010</v>
       </c>
       <c r="B188" t="s">
         <v>288</v>
       </c>
       <c r="D188" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>60020300002</v>
+        <v>60020200011</v>
       </c>
       <c r="B189" t="s">
         <v>289</v>
       </c>
       <c r="D189" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>60020300003</v>
+        <v>60020300001</v>
       </c>
       <c r="B190" t="s">
         <v>290</v>
       </c>
       <c r="D190" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>60020300004</v>
+        <v>60020300002</v>
       </c>
       <c r="B191" t="s">
         <v>291</v>
       </c>
       <c r="D191" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>60020300005</v>
+        <v>60020300003</v>
       </c>
       <c r="B192" t="s">
         <v>292</v>
       </c>
       <c r="D192" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>60021000001</v>
+        <v>60020300004</v>
       </c>
       <c r="B193" t="s">
         <v>293</v>
       </c>
       <c r="D193" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>60021000002</v>
+        <v>60020300005</v>
       </c>
       <c r="B194" t="s">
         <v>294</v>
       </c>
       <c r="D194" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>60021000003</v>
+        <v>60021000001</v>
       </c>
       <c r="B195" t="s">
         <v>295</v>
       </c>
       <c r="D195" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>60021000004</v>
+        <v>60021000002</v>
       </c>
       <c r="B196" t="s">
         <v>296</v>
       </c>
       <c r="D196" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>60021000005</v>
+        <v>60021000003</v>
       </c>
       <c r="B197" t="s">
         <v>297</v>
       </c>
       <c r="D197" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>60021000006</v>
+        <v>60021000004</v>
       </c>
       <c r="B198" t="s">
         <v>298</v>
       </c>
       <c r="D198" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>60021000007</v>
+        <v>60021000005</v>
       </c>
       <c r="B199" t="s">
         <v>299</v>
       </c>
       <c r="D199" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>60021000008</v>
+        <v>60021000006</v>
       </c>
       <c r="B200" t="s">
         <v>300</v>
       </c>
       <c r="D200" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>60021000009</v>
+        <v>60021000007</v>
       </c>
       <c r="B201" t="s">
         <v>301</v>
       </c>
       <c r="D201" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>60021000010</v>
+        <v>60021000008</v>
       </c>
       <c r="B202" t="s">
         <v>302</v>
       </c>
       <c r="D202" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>60021010001</v>
+        <v>60021000009</v>
       </c>
       <c r="B203" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="D203" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>60021010002</v>
+        <v>60021000010</v>
       </c>
       <c r="B204" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D204" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>60021010003</v>
+        <v>60021010001</v>
       </c>
       <c r="B205" t="s">
         <v>263</v>
       </c>
       <c r="D205" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>60021010004</v>
+        <v>60021010002</v>
       </c>
       <c r="B206" t="s">
         <v>264</v>
       </c>
       <c r="D206" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>60021010005</v>
+        <v>60021010003</v>
       </c>
       <c r="B207" t="s">
         <v>265</v>
       </c>
       <c r="D207" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>60021010006</v>
+        <v>60021010004</v>
       </c>
       <c r="B208" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="D208" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>60021010007</v>
+        <v>60021010005</v>
       </c>
       <c r="B209" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="D209" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>60021010008</v>
+        <v>60021010006</v>
       </c>
       <c r="B210" t="s">
         <v>305</v>
       </c>
       <c r="D210" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>60021010009</v>
+        <v>60021010007</v>
       </c>
       <c r="B211" t="s">
         <v>306</v>
       </c>
       <c r="D211" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>60021010010</v>
+        <v>60021010008</v>
       </c>
       <c r="B212" t="s">
         <v>307</v>
       </c>
       <c r="D212" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>60021010011</v>
+        <v>60021010009</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D213" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>60021010012</v>
+        <v>60021010010</v>
       </c>
       <c r="B214" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D214" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>60021010013</v>
+        <v>60021010011</v>
       </c>
       <c r="B215" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="D215" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>60021010014</v>
+        <v>60021010012</v>
       </c>
       <c r="B216" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D216" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>60021010015</v>
+        <v>60021010013</v>
       </c>
       <c r="B217" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D217" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>60021010016</v>
+        <v>60021010014</v>
       </c>
       <c r="B218" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="D218" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>60021010017</v>
+        <v>60021010015</v>
       </c>
       <c r="B219" t="s">
         <v>311</v>
       </c>
       <c r="D219" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>60021010018</v>
+        <v>60021010016</v>
       </c>
       <c r="B220" t="s">
         <v>312</v>
       </c>
       <c r="D220" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>60021010019</v>
+        <v>60021010017</v>
       </c>
       <c r="B221" t="s">
         <v>313</v>
       </c>
       <c r="D221" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>60021010020</v>
+        <v>60021010018</v>
       </c>
       <c r="B222" t="s">
         <v>314</v>
       </c>
       <c r="D222" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>60030100001</v>
+        <v>60021010019</v>
       </c>
       <c r="B223" t="s">
         <v>315</v>
       </c>
       <c r="D223" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>60030100002</v>
+        <v>60021010020</v>
       </c>
       <c r="B224" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="D224" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>60030100003</v>
+        <v>60030100001</v>
       </c>
       <c r="B225" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D225" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>60030100004</v>
+        <v>60030100002</v>
       </c>
       <c r="B226" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D226" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>60030100005</v>
+        <v>60030100003</v>
       </c>
       <c r="B227" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D227" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>60030100006</v>
+        <v>60030100004</v>
       </c>
       <c r="B228" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="D228" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>60030100007</v>
+        <v>60030100005</v>
       </c>
       <c r="B229" t="s">
         <v>319</v>
       </c>
       <c r="D229" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>60030100008</v>
+        <v>60030100006</v>
       </c>
       <c r="B230" t="s">
         <v>320</v>
       </c>
       <c r="D230" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>60030100009</v>
+        <v>60030100007</v>
       </c>
       <c r="B231" t="s">
         <v>321</v>
       </c>
       <c r="D231" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>60030100010</v>
+        <v>60030100008</v>
       </c>
       <c r="B232" t="s">
         <v>322</v>
       </c>
       <c r="D232" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>60030100011</v>
+        <v>60030100009</v>
       </c>
       <c r="B233" t="s">
         <v>323</v>
       </c>
       <c r="D233" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>60030100012</v>
+        <v>60030100010</v>
       </c>
       <c r="B234" t="s">
         <v>324</v>
       </c>
       <c r="D234" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>60030100013</v>
+        <v>60030100011</v>
       </c>
       <c r="B235" t="s">
         <v>325</v>
       </c>
       <c r="D235" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>60030100014</v>
+        <v>60030100012</v>
       </c>
       <c r="B236" t="s">
         <v>326</v>
       </c>
       <c r="D236" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>60030100015</v>
+        <v>60030100013</v>
       </c>
       <c r="B237" t="s">
         <v>327</v>
       </c>
       <c r="D237" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>60030100016</v>
+        <v>60030100014</v>
       </c>
       <c r="B238" t="s">
         <v>328</v>
       </c>
       <c r="D238" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>60030100017</v>
+        <v>60030100015</v>
       </c>
       <c r="B239" t="s">
         <v>329</v>
       </c>
       <c r="D239" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>60030100018</v>
+        <v>60030100016</v>
       </c>
       <c r="B240" t="s">
         <v>330</v>
       </c>
       <c r="D240" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>60030100019</v>
+        <v>60030100017</v>
       </c>
       <c r="B241" t="s">
         <v>331</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>60030100020</v>
+        <v>60030100018</v>
       </c>
       <c r="B242" t="s">
         <v>332</v>
       </c>
       <c r="D242" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>60040100001</v>
+        <v>60030100019</v>
       </c>
       <c r="B243" t="s">
         <v>333</v>
       </c>
       <c r="D243" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>60040200001</v>
+        <v>60030100020</v>
       </c>
       <c r="B244" t="s">
         <v>334</v>
       </c>
       <c r="D244" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>60040200002</v>
+        <v>60040100001</v>
       </c>
       <c r="B245" t="s">
         <v>335</v>
       </c>
       <c r="D245" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>60040200003</v>
+        <v>60040200001</v>
       </c>
       <c r="B246" t="s">
         <v>336</v>
       </c>
       <c r="D246" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>60040200004</v>
+        <v>60040200002</v>
       </c>
       <c r="B247" t="s">
         <v>337</v>
       </c>
       <c r="D247" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>60040200005</v>
+        <v>60040200003</v>
       </c>
       <c r="B248" t="s">
         <v>338</v>
       </c>
       <c r="D248" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>60040200006</v>
+        <v>60040200004</v>
       </c>
       <c r="B249" t="s">
         <v>339</v>
       </c>
       <c r="D249" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>60040300001</v>
+        <v>60040200005</v>
       </c>
       <c r="B250" t="s">
         <v>340</v>
       </c>
       <c r="D250" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>60040300002</v>
+        <v>60040200006</v>
       </c>
       <c r="B251" t="s">
         <v>341</v>
       </c>
       <c r="D251" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>60040300003</v>
+        <v>60040300001</v>
       </c>
       <c r="B252" t="s">
         <v>342</v>
       </c>
       <c r="D252" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>60040300004</v>
+        <v>60040300002</v>
       </c>
       <c r="B253" t="s">
         <v>343</v>
       </c>
       <c r="D253" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>60041000001</v>
+        <v>60040300003</v>
       </c>
       <c r="B254" t="s">
         <v>344</v>
       </c>
       <c r="D254" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>60041000002</v>
+        <v>60040300004</v>
       </c>
       <c r="B255" t="s">
         <v>345</v>
       </c>
       <c r="D255" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>60041000003</v>
+        <v>60041000001</v>
       </c>
       <c r="B256" t="s">
         <v>346</v>
       </c>
       <c r="D256" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>60041000004</v>
+        <v>60041000002</v>
       </c>
       <c r="B257" t="s">
         <v>347</v>
       </c>
       <c r="D257" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>60041000005</v>
+        <v>60041000003</v>
       </c>
       <c r="B258" t="s">
         <v>348</v>
       </c>
       <c r="D258" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>60050100001</v>
+        <v>60041000004</v>
       </c>
       <c r="B259" t="s">
         <v>349</v>
       </c>
       <c r="D259" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>60050100002</v>
+        <v>60041000005</v>
       </c>
       <c r="B260" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="D260" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>60050100003</v>
+        <v>60050100001</v>
       </c>
       <c r="B261" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D261" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>60050200001</v>
+        <v>60050100002</v>
       </c>
       <c r="B262" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D262" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>60050200002</v>
+        <v>60050100003</v>
       </c>
       <c r="B263" t="s">
         <v>352</v>
       </c>
       <c r="D263" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>60050200003</v>
+        <v>60050200001</v>
       </c>
       <c r="B264" t="s">
         <v>353</v>
       </c>
       <c r="D264" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>60050300001</v>
+        <v>60050200002</v>
       </c>
       <c r="B265" t="s">
         <v>354</v>
       </c>
       <c r="D265" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>60050300002</v>
+        <v>60050200003</v>
       </c>
       <c r="B266" t="s">
         <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>60050500001</v>
+        <v>60050300001</v>
       </c>
       <c r="B267" t="s">
         <v>356</v>
       </c>
       <c r="D267" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>60050500002</v>
+        <v>60050300002</v>
       </c>
       <c r="B268" t="s">
         <v>357</v>
       </c>
       <c r="D268" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>60050500003</v>
+        <v>60050500001</v>
       </c>
       <c r="B269" t="s">
         <v>358</v>
       </c>
       <c r="D269" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>60050500004</v>
+        <v>60050500002</v>
       </c>
       <c r="B270" t="s">
         <v>359</v>
       </c>
       <c r="D270" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>60050500005</v>
+        <v>60050500003</v>
       </c>
       <c r="B271" t="s">
         <v>360</v>
       </c>
       <c r="D271" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>60051010001</v>
+        <v>60050500004</v>
       </c>
       <c r="B272" t="s">
         <v>361</v>
       </c>
       <c r="D272" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>60051010002</v>
+        <v>60050500005</v>
       </c>
       <c r="B273" t="s">
         <v>362</v>
       </c>
       <c r="D273" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>60051010003</v>
+        <v>60051010001</v>
       </c>
       <c r="B274" t="s">
         <v>363</v>
       </c>
       <c r="D274" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>60060100001</v>
+        <v>60051010002</v>
       </c>
       <c r="B275" t="s">
         <v>364</v>
       </c>
       <c r="D275" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>60060100002</v>
+        <v>60051010003</v>
       </c>
       <c r="B276" t="s">
         <v>365</v>
       </c>
       <c r="D276" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>60060100003</v>
+        <v>60060100001</v>
       </c>
       <c r="B277" t="s">
         <v>366</v>
       </c>
       <c r="D277" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>60060100004</v>
+        <v>60060100002</v>
       </c>
       <c r="B278" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D278" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>60060100005</v>
+        <v>60060100003</v>
       </c>
       <c r="B279" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D279" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>60060100006</v>
+        <v>60060100004</v>
       </c>
       <c r="B280" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D280" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>60060100007</v>
+        <v>60060100005</v>
       </c>
       <c r="B281" t="s">
         <v>369</v>
       </c>
       <c r="D281" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>60060100008</v>
+        <v>60060100006</v>
       </c>
       <c r="B282" t="s">
         <v>370</v>
       </c>
       <c r="D282" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>60060100009</v>
+        <v>60060100007</v>
       </c>
       <c r="B283" t="s">
         <v>371</v>
       </c>
       <c r="D283" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>60060100010</v>
+        <v>60060100008</v>
       </c>
       <c r="B284" t="s">
         <v>372</v>
       </c>
       <c r="D284" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>60060200001</v>
+        <v>60060100009</v>
       </c>
       <c r="B285" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="D285" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>60060200002</v>
+        <v>60060100010</v>
       </c>
       <c r="B286" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D286" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>60060300001</v>
+        <v>60060200001</v>
       </c>
       <c r="B287" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="D287" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>60060300002</v>
+        <v>60060200002</v>
       </c>
       <c r="B288" t="s">
         <v>375</v>
       </c>
       <c r="D288" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>60060300003</v>
+        <v>60060300001</v>
       </c>
       <c r="B289" t="s">
         <v>376</v>
       </c>
       <c r="D289" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>60060300004</v>
+        <v>60060300002</v>
       </c>
       <c r="B290" t="s">
         <v>377</v>
       </c>
       <c r="D290" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>60060300005</v>
+        <v>60060300003</v>
       </c>
       <c r="B291" t="s">
         <v>378</v>
       </c>
       <c r="D291" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>60061010001</v>
+        <v>60060300004</v>
       </c>
       <c r="B292" t="s">
         <v>379</v>
       </c>
       <c r="D292" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>60061010002</v>
+        <v>60060300005</v>
       </c>
       <c r="B293" t="s">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="D293" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>60061010003</v>
+        <v>60061010001</v>
       </c>
       <c r="B294" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D294" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>60061010004</v>
+        <v>60061010002</v>
       </c>
       <c r="B295" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
       <c r="D295" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>60061010005</v>
+        <v>60061010003</v>
       </c>
       <c r="B296" t="s">
         <v>382</v>
       </c>
       <c r="D296" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>60061010006</v>
+        <v>60061010004</v>
       </c>
       <c r="B297" t="s">
         <v>383</v>
       </c>
       <c r="D297" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>60061010007</v>
+        <v>60061010005</v>
       </c>
       <c r="B298" t="s">
         <v>384</v>
       </c>
       <c r="D298" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>60061010008</v>
+        <v>60061010006</v>
       </c>
       <c r="B299" t="s">
         <v>385</v>
       </c>
       <c r="D299" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>60061010009</v>
+        <v>60061010007</v>
       </c>
       <c r="B300" t="s">
-        <v>261</v>
+        <v>386</v>
       </c>
       <c r="D300" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>60061010010</v>
+        <v>60061010008</v>
       </c>
       <c r="B301" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D301" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>60061010011</v>
+        <v>60061010009</v>
       </c>
       <c r="B302" t="s">
-        <v>387</v>
+        <v>263</v>
       </c>
       <c r="D302" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>60061010012</v>
+        <v>60061010010</v>
       </c>
       <c r="B303" t="s">
         <v>388</v>
       </c>
       <c r="D303" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>60061010013</v>
+        <v>60061010011</v>
       </c>
       <c r="B304" t="s">
         <v>389</v>
       </c>
       <c r="D304" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>60061010014</v>
+        <v>60061010012</v>
       </c>
       <c r="B305" t="s">
         <v>390</v>
       </c>
       <c r="D305" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>60061010015</v>
+        <v>60061010013</v>
       </c>
       <c r="B306" t="s">
         <v>391</v>
       </c>
       <c r="D306" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>60061010016</v>
+        <v>60061010014</v>
       </c>
       <c r="B307" t="s">
         <v>392</v>
       </c>
       <c r="D307" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>60061010017</v>
+        <v>60061010015</v>
       </c>
       <c r="B308" t="s">
         <v>393</v>
       </c>
       <c r="D308" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>60061010018</v>
+        <v>60061010016</v>
       </c>
       <c r="B309" t="s">
         <v>394</v>
       </c>
       <c r="D309" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>60061010019</v>
+        <v>60061010017</v>
       </c>
       <c r="B310" t="s">
         <v>395</v>
       </c>
       <c r="D310" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>60061010020</v>
+        <v>60061010018</v>
       </c>
       <c r="B311" t="s">
         <v>396</v>
       </c>
       <c r="D311" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>60070100001</v>
+        <v>60061010019</v>
       </c>
       <c r="B312" t="s">
         <v>397</v>
       </c>
       <c r="D312" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>60070200001</v>
+        <v>60061010020</v>
       </c>
       <c r="B313" t="s">
         <v>398</v>
       </c>
       <c r="D313" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>60070200002</v>
+        <v>60070100001</v>
       </c>
       <c r="B314" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="D314" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>60070300001</v>
+        <v>60070200001</v>
       </c>
       <c r="B315" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D315" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>60070300002</v>
+        <v>60070200002</v>
       </c>
       <c r="B316" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="D316" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>60070300003</v>
+        <v>60070300001</v>
       </c>
       <c r="B317" t="s">
         <v>401</v>
       </c>
       <c r="D317" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>60070300004</v>
+        <v>60070300002</v>
       </c>
       <c r="B318" t="s">
         <v>402</v>
       </c>
       <c r="D318" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>60071000001</v>
+        <v>60070300003</v>
       </c>
       <c r="B319" t="s">
         <v>403</v>
       </c>
       <c r="D319" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>60071000002</v>
+        <v>60070300004</v>
       </c>
       <c r="B320" t="s">
         <v>404</v>
       </c>
       <c r="D320" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>60071000003</v>
+        <v>60071000001</v>
       </c>
       <c r="B321" t="s">
         <v>405</v>
       </c>
       <c r="D321" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>60071010001</v>
+        <v>60071000002</v>
       </c>
       <c r="B322" t="s">
         <v>406</v>
       </c>
       <c r="D322" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>60071010002</v>
+        <v>60071000003</v>
       </c>
       <c r="B323" t="s">
         <v>407</v>
       </c>
       <c r="D323" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>60071010003</v>
+        <v>60071010001</v>
       </c>
       <c r="B324" t="s">
         <v>408</v>
       </c>
       <c r="D324" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>60071010004</v>
+        <v>60071010002</v>
       </c>
       <c r="B325" t="s">
         <v>409</v>
       </c>
       <c r="D325" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>60071010005</v>
+        <v>60071010003</v>
       </c>
       <c r="B326" t="s">
         <v>410</v>
       </c>
       <c r="D326" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>60071010006</v>
+        <v>60071010004</v>
       </c>
       <c r="B327" t="s">
         <v>411</v>
       </c>
       <c r="D327" t="s">
-        <v>248</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>60071010005</v>
+      </c>
+      <c r="B328" t="s">
+        <v>412</v>
+      </c>
+      <c r="D328" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>60071010006</v>
+      </c>
+      <c r="B329" t="s">
+        <v>413</v>
+      </c>
+      <c r="D329" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="428">
   <si>
     <t>id</t>
   </si>
@@ -440,7 +440,19 @@
     <t>时光沙漏</t>
   </si>
   <si>
-    <t>减少10%魔物复活CD时间</t>
+    <t>减少10%所有魔物复活CD时间</t>
+  </si>
+  <si>
+    <t>钱多多</t>
+  </si>
+  <si>
+    <t>每一次击杀有10%的概率多掉落一次魔晶</t>
+  </si>
+  <si>
+    <t>强征健体</t>
+  </si>
+  <si>
+    <t>所有魔物体力增加10%</t>
   </si>
   <si>
     <t>excel_item_type</t>
@@ -1269,6 +1281,36 @@
   </si>
   <si>
     <t>木制法杖</t>
+  </si>
+  <si>
+    <t>减速-冰</t>
+  </si>
+  <si>
+    <t>excel_buff_info</t>
+  </si>
+  <si>
+    <t>减速-粘液</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>烧伤</t>
+  </si>
+  <si>
+    <t>闪避50%</t>
+  </si>
+  <si>
+    <t>暴击50%</t>
+  </si>
+  <si>
+    <t>狂暴攻击提升</t>
+  </si>
+  <si>
+    <t>狂暴速度提升</t>
   </si>
 </sst>
 </file>
@@ -2236,16 +2278,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="C147" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="62.875" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
@@ -3382,2785 +3424,2928 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>20000000001</v>
+        <v>10000000005</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D92" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>20000000002</v>
+        <v>10000000006</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
       </c>
-      <c r="C93" t="s">
-        <v>140</v>
-      </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>20000000003</v>
+        <v>10000000007</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>20000000004</v>
+        <v>10000000008</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>20000000010</v>
+        <v>20000000001</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D96" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>30000000001</v>
+        <v>20000000002</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>30000000002</v>
+        <v>20000000003</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>30000000003</v>
+        <v>20000000004</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>30000000101</v>
+        <v>20000000010</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>30000000102</v>
+        <v>30000000001</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D101" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>30000000103</v>
+        <v>30000000002</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>30000000201</v>
+        <v>30000000003</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>30000000202</v>
+        <v>30000000101</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>30000000203</v>
+        <v>30000000102</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>30000000301</v>
+        <v>30000000103</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>30000000302</v>
+        <v>30000000201</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>30000000303</v>
+        <v>30000000202</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>30000000401</v>
+        <v>30000000203</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>30000000402</v>
+        <v>30000000301</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>30000000403</v>
+        <v>30000000302</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C111" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>30000999999</v>
+        <v>30000000303</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D112" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>40000000001</v>
+        <v>30000000401</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D113" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>40000000002</v>
+        <v>30000000402</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="C114" t="s">
+        <v>179</v>
       </c>
       <c r="D114" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>40000000003</v>
+        <v>30000000403</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
+        <v>181</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>40000000004</v>
+        <v>30000999999</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
+        <v>182</v>
+      </c>
+      <c r="C116" t="s">
+        <v>183</v>
       </c>
       <c r="D116" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>50000000001</v>
+        <v>40000000001</v>
       </c>
       <c r="B117" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" t="s">
+        <v>184</v>
+      </c>
+      <c r="D117" t="s">
         <v>185</v>
-      </c>
-      <c r="C117" t="s">
-        <v>155</v>
-      </c>
-      <c r="D117" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>50000000002</v>
+        <v>40000000002</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
-      </c>
-      <c r="C118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>50000001001</v>
+        <v>40000000003</v>
       </c>
       <c r="B119" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" t="s">
         <v>185</v>
-      </c>
-      <c r="C119" t="s">
-        <v>155</v>
-      </c>
-      <c r="D119" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>50000002001</v>
+        <v>40000000004</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
-      </c>
-      <c r="C120" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>50000002002</v>
+        <v>50000000001</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C121" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="D121" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>50000002003</v>
+        <v>50000000002</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C122" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D122" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>50000002004</v>
+        <v>50000001001</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C123" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>50000003001</v>
+        <v>50000002001</v>
       </c>
       <c r="B124" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C124" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D124" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>50000003002</v>
+        <v>50000002002</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D125" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>50000003003</v>
+        <v>50000002003</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D126" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>50000003004</v>
+        <v>50000002004</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D127" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>50000004001</v>
+        <v>50000003001</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C128" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D128" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>50000004002</v>
+        <v>50000003002</v>
       </c>
       <c r="B129" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D129" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>50000004003</v>
+        <v>50000003003</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D130" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>50000004004</v>
+        <v>50000003004</v>
       </c>
       <c r="B131" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>50000004005</v>
+        <v>50000004001</v>
       </c>
       <c r="B132" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D132" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>50000005001</v>
+        <v>50000004002</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D133" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>50000005002</v>
+        <v>50000004003</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C134" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D134" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>50000005003</v>
+        <v>50000004004</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C135" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D135" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>50000005004</v>
+        <v>50000004005</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D136" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>50000006001</v>
+        <v>50000005001</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C137" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D137" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>50000006002</v>
+        <v>50000005002</v>
       </c>
       <c r="B138" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C138" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D138" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>50000006003</v>
+        <v>50000005003</v>
       </c>
       <c r="B139" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C139" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D139" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>50000006004</v>
+        <v>50000005004</v>
       </c>
       <c r="B140" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D140" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>50000006005</v>
+        <v>50000006001</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D141" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>50000007001</v>
+        <v>50000006002</v>
       </c>
       <c r="B142" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C142" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>50000007002</v>
+        <v>50000006003</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C143" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D143" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>50000007003</v>
+        <v>50000006004</v>
       </c>
       <c r="B144" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D144" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>50000007004</v>
+        <v>50000006005</v>
       </c>
       <c r="B145" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C145" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D145" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>50000101001</v>
+        <v>50000007001</v>
       </c>
       <c r="B146" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C146" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D146" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>50000102001</v>
+        <v>50000007002</v>
       </c>
       <c r="B147" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C147" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D147" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>50000103001</v>
+        <v>50000007003</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C148" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D148" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>50000103002</v>
+        <v>50000007004</v>
       </c>
       <c r="B149" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C149" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D149" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>60010100001</v>
+        <v>50000101001</v>
       </c>
       <c r="B150" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="C150" t="s">
+        <v>246</v>
       </c>
       <c r="D150" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>60010100002</v>
+        <v>50000102001</v>
       </c>
       <c r="B151" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="C151" t="s">
+        <v>248</v>
       </c>
       <c r="D151" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>60010100003</v>
+        <v>50000103001</v>
       </c>
       <c r="B152" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="C152" t="s">
+        <v>250</v>
       </c>
       <c r="D152" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>60010100004</v>
+        <v>50000103002</v>
       </c>
       <c r="B153" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="C153" t="s">
+        <v>252</v>
       </c>
       <c r="D153" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>60010200001</v>
+        <v>60010100001</v>
       </c>
       <c r="B154" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D154" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>60010200002</v>
+        <v>60010100002</v>
       </c>
       <c r="B155" t="s">
         <v>255</v>
       </c>
       <c r="D155" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>60010200003</v>
+        <v>60010100003</v>
       </c>
       <c r="B156" t="s">
         <v>256</v>
       </c>
       <c r="D156" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>60010200004</v>
+        <v>60010100004</v>
       </c>
       <c r="B157" t="s">
         <v>257</v>
       </c>
       <c r="D157" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>60010300001</v>
+        <v>60010200001</v>
       </c>
       <c r="B158" t="s">
         <v>258</v>
       </c>
       <c r="D158" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>60010300002</v>
+        <v>60010200002</v>
       </c>
       <c r="B159" t="s">
         <v>259</v>
       </c>
       <c r="D159" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>60010300003</v>
+        <v>60010200003</v>
       </c>
       <c r="B160" t="s">
         <v>260</v>
       </c>
       <c r="D160" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>60010300004</v>
+        <v>60010200004</v>
       </c>
       <c r="B161" t="s">
         <v>261</v>
       </c>
       <c r="D161" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>60011000001</v>
+        <v>60010300001</v>
       </c>
       <c r="B162" t="s">
         <v>262</v>
       </c>
       <c r="D162" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>60011000002</v>
+        <v>60010300002</v>
       </c>
       <c r="B163" t="s">
         <v>263</v>
       </c>
       <c r="D163" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>60011000003</v>
+        <v>60010300003</v>
       </c>
       <c r="B164" t="s">
         <v>264</v>
       </c>
       <c r="D164" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>60011000004</v>
+        <v>60010300004</v>
       </c>
       <c r="B165" t="s">
         <v>265</v>
       </c>
       <c r="D165" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>60011000005</v>
+        <v>60011000001</v>
       </c>
       <c r="B166" t="s">
         <v>266</v>
       </c>
       <c r="D166" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>60011000006</v>
+        <v>60011000002</v>
       </c>
       <c r="B167" t="s">
         <v>267</v>
       </c>
       <c r="D167" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>60011000007</v>
+        <v>60011000003</v>
       </c>
       <c r="B168" t="s">
         <v>268</v>
       </c>
       <c r="D168" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>60011000008</v>
+        <v>60011000004</v>
       </c>
       <c r="B169" t="s">
         <v>269</v>
       </c>
       <c r="D169" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>60011000009</v>
+        <v>60011000005</v>
       </c>
       <c r="B170" t="s">
         <v>270</v>
       </c>
       <c r="D170" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>60011010001</v>
+        <v>60011000006</v>
       </c>
       <c r="B171" t="s">
         <v>271</v>
       </c>
       <c r="D171" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>60020100001</v>
+        <v>60011000007</v>
       </c>
       <c r="B172" t="s">
         <v>272</v>
       </c>
       <c r="D172" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>60020100002</v>
+        <v>60011000008</v>
       </c>
       <c r="B173" t="s">
         <v>273</v>
       </c>
       <c r="D173" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>60020100003</v>
+        <v>60011000009</v>
       </c>
       <c r="B174" t="s">
         <v>274</v>
       </c>
       <c r="D174" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>60020100004</v>
+        <v>60011010001</v>
       </c>
       <c r="B175" t="s">
         <v>275</v>
       </c>
       <c r="D175" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>60020100005</v>
+        <v>60020100001</v>
       </c>
       <c r="B176" t="s">
         <v>276</v>
       </c>
       <c r="D176" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>60020100006</v>
+        <v>60020100002</v>
       </c>
       <c r="B177" t="s">
         <v>277</v>
       </c>
       <c r="D177" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>60020100007</v>
+        <v>60020100003</v>
       </c>
       <c r="B178" t="s">
         <v>278</v>
       </c>
       <c r="D178" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>60020200001</v>
+        <v>60020100004</v>
       </c>
       <c r="B179" t="s">
         <v>279</v>
       </c>
       <c r="D179" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>60020200002</v>
+        <v>60020100005</v>
       </c>
       <c r="B180" t="s">
         <v>280</v>
       </c>
       <c r="D180" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>60020200003</v>
+        <v>60020100006</v>
       </c>
       <c r="B181" t="s">
         <v>281</v>
       </c>
       <c r="D181" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>60020200004</v>
+        <v>60020100007</v>
       </c>
       <c r="B182" t="s">
         <v>282</v>
       </c>
       <c r="D182" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>60020200005</v>
+        <v>60020200001</v>
       </c>
       <c r="B183" t="s">
         <v>283</v>
       </c>
       <c r="D183" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>60020200006</v>
+        <v>60020200002</v>
       </c>
       <c r="B184" t="s">
         <v>284</v>
       </c>
       <c r="D184" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>60020200007</v>
+        <v>60020200003</v>
       </c>
       <c r="B185" t="s">
         <v>285</v>
       </c>
       <c r="D185" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>60020200008</v>
+        <v>60020200004</v>
       </c>
       <c r="B186" t="s">
         <v>286</v>
       </c>
       <c r="D186" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>60020200009</v>
+        <v>60020200005</v>
       </c>
       <c r="B187" t="s">
         <v>287</v>
       </c>
       <c r="D187" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>60020200010</v>
+        <v>60020200006</v>
       </c>
       <c r="B188" t="s">
         <v>288</v>
       </c>
       <c r="D188" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>60020200011</v>
+        <v>60020200007</v>
       </c>
       <c r="B189" t="s">
         <v>289</v>
       </c>
       <c r="D189" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>60020300001</v>
+        <v>60020200008</v>
       </c>
       <c r="B190" t="s">
         <v>290</v>
       </c>
       <c r="D190" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>60020300002</v>
+        <v>60020200009</v>
       </c>
       <c r="B191" t="s">
         <v>291</v>
       </c>
       <c r="D191" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>60020300003</v>
+        <v>60020200010</v>
       </c>
       <c r="B192" t="s">
         <v>292</v>
       </c>
       <c r="D192" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>60020300004</v>
+        <v>60020200011</v>
       </c>
       <c r="B193" t="s">
         <v>293</v>
       </c>
       <c r="D193" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>60020300005</v>
+        <v>60020300001</v>
       </c>
       <c r="B194" t="s">
         <v>294</v>
       </c>
       <c r="D194" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>60021000001</v>
+        <v>60020300002</v>
       </c>
       <c r="B195" t="s">
         <v>295</v>
       </c>
       <c r="D195" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>60021000002</v>
+        <v>60020300003</v>
       </c>
       <c r="B196" t="s">
         <v>296</v>
       </c>
       <c r="D196" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>60021000003</v>
+        <v>60020300004</v>
       </c>
       <c r="B197" t="s">
         <v>297</v>
       </c>
       <c r="D197" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>60021000004</v>
+        <v>60020300005</v>
       </c>
       <c r="B198" t="s">
         <v>298</v>
       </c>
       <c r="D198" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>60021000005</v>
+        <v>60021000001</v>
       </c>
       <c r="B199" t="s">
         <v>299</v>
       </c>
       <c r="D199" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>60021000006</v>
+        <v>60021000002</v>
       </c>
       <c r="B200" t="s">
         <v>300</v>
       </c>
       <c r="D200" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>60021000007</v>
+        <v>60021000003</v>
       </c>
       <c r="B201" t="s">
         <v>301</v>
       </c>
       <c r="D201" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>60021000008</v>
+        <v>60021000004</v>
       </c>
       <c r="B202" t="s">
         <v>302</v>
       </c>
       <c r="D202" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>60021000009</v>
+        <v>60021000005</v>
       </c>
       <c r="B203" t="s">
         <v>303</v>
       </c>
       <c r="D203" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>60021000010</v>
+        <v>60021000006</v>
       </c>
       <c r="B204" t="s">
         <v>304</v>
       </c>
       <c r="D204" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>60021010001</v>
+        <v>60021000007</v>
       </c>
       <c r="B205" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D205" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>60021010002</v>
+        <v>60021000008</v>
       </c>
       <c r="B206" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="D206" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>60021010003</v>
+        <v>60021000009</v>
       </c>
       <c r="B207" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="D207" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>60021010004</v>
+        <v>60021000010</v>
       </c>
       <c r="B208" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D208" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>60021010005</v>
+        <v>60021010001</v>
       </c>
       <c r="B209" t="s">
         <v>267</v>
       </c>
       <c r="D209" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>60021010006</v>
+        <v>60021010002</v>
       </c>
       <c r="B210" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="D210" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>60021010007</v>
+        <v>60021010003</v>
       </c>
       <c r="B211" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="D211" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>60021010008</v>
+        <v>60021010004</v>
       </c>
       <c r="B212" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D212" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>60021010009</v>
+        <v>60021010005</v>
       </c>
       <c r="B213" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="D213" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>60021010010</v>
+        <v>60021010006</v>
       </c>
       <c r="B214" t="s">
         <v>309</v>
       </c>
       <c r="D214" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>60021010011</v>
+        <v>60021010007</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="D215" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>60021010012</v>
+        <v>60021010008</v>
       </c>
       <c r="B216" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="D216" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>60021010013</v>
+        <v>60021010009</v>
       </c>
       <c r="B217" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D217" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>60021010014</v>
+        <v>60021010010</v>
       </c>
       <c r="B218" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="D218" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>60021010015</v>
+        <v>60021010011</v>
       </c>
       <c r="B219" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="D219" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>60021010016</v>
+        <v>60021010012</v>
       </c>
       <c r="B220" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="D220" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>60021010017</v>
+        <v>60021010013</v>
       </c>
       <c r="B221" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D221" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>60021010018</v>
+        <v>60021010014</v>
       </c>
       <c r="B222" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="D222" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>60021010019</v>
+        <v>60021010015</v>
       </c>
       <c r="B223" t="s">
         <v>315</v>
       </c>
       <c r="D223" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>60021010020</v>
+        <v>60021010016</v>
       </c>
       <c r="B224" t="s">
         <v>316</v>
       </c>
       <c r="D224" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>60030100001</v>
+        <v>60021010017</v>
       </c>
       <c r="B225" t="s">
         <v>317</v>
       </c>
       <c r="D225" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>60030100002</v>
+        <v>60021010018</v>
       </c>
       <c r="B226" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="D226" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>60030100003</v>
+        <v>60021010019</v>
       </c>
       <c r="B227" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D227" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>60030100004</v>
+        <v>60021010020</v>
       </c>
       <c r="B228" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="D228" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>60030100005</v>
+        <v>60030100001</v>
       </c>
       <c r="B229" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D229" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>60030100006</v>
+        <v>60030100002</v>
       </c>
       <c r="B230" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="D230" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>60030100007</v>
+        <v>60030100003</v>
       </c>
       <c r="B231" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D231" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>60030100008</v>
+        <v>60030100004</v>
       </c>
       <c r="B232" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="D232" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>60030100009</v>
+        <v>60030100005</v>
       </c>
       <c r="B233" t="s">
         <v>323</v>
       </c>
       <c r="D233" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>60030100010</v>
+        <v>60030100006</v>
       </c>
       <c r="B234" t="s">
         <v>324</v>
       </c>
       <c r="D234" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>60030100011</v>
+        <v>60030100007</v>
       </c>
       <c r="B235" t="s">
         <v>325</v>
       </c>
       <c r="D235" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>60030100012</v>
+        <v>60030100008</v>
       </c>
       <c r="B236" t="s">
         <v>326</v>
       </c>
       <c r="D236" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>60030100013</v>
+        <v>60030100009</v>
       </c>
       <c r="B237" t="s">
         <v>327</v>
       </c>
       <c r="D237" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>60030100014</v>
+        <v>60030100010</v>
       </c>
       <c r="B238" t="s">
         <v>328</v>
       </c>
       <c r="D238" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>60030100015</v>
+        <v>60030100011</v>
       </c>
       <c r="B239" t="s">
         <v>329</v>
       </c>
       <c r="D239" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>60030100016</v>
+        <v>60030100012</v>
       </c>
       <c r="B240" t="s">
         <v>330</v>
       </c>
       <c r="D240" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>60030100017</v>
+        <v>60030100013</v>
       </c>
       <c r="B241" t="s">
         <v>331</v>
       </c>
       <c r="D241" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>60030100018</v>
+        <v>60030100014</v>
       </c>
       <c r="B242" t="s">
         <v>332</v>
       </c>
       <c r="D242" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>60030100019</v>
+        <v>60030100015</v>
       </c>
       <c r="B243" t="s">
         <v>333</v>
       </c>
       <c r="D243" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>60030100020</v>
+        <v>60030100016</v>
       </c>
       <c r="B244" t="s">
         <v>334</v>
       </c>
       <c r="D244" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>60040100001</v>
+        <v>60030100017</v>
       </c>
       <c r="B245" t="s">
         <v>335</v>
       </c>
       <c r="D245" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>60040200001</v>
+        <v>60030100018</v>
       </c>
       <c r="B246" t="s">
         <v>336</v>
       </c>
       <c r="D246" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>60040200002</v>
+        <v>60030100019</v>
       </c>
       <c r="B247" t="s">
         <v>337</v>
       </c>
       <c r="D247" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>60040200003</v>
+        <v>60030100020</v>
       </c>
       <c r="B248" t="s">
         <v>338</v>
       </c>
       <c r="D248" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>60040200004</v>
+        <v>60040100001</v>
       </c>
       <c r="B249" t="s">
         <v>339</v>
       </c>
       <c r="D249" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>60040200005</v>
+        <v>60040200001</v>
       </c>
       <c r="B250" t="s">
         <v>340</v>
       </c>
       <c r="D250" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>60040200006</v>
+        <v>60040200002</v>
       </c>
       <c r="B251" t="s">
         <v>341</v>
       </c>
       <c r="D251" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>60040300001</v>
+        <v>60040200003</v>
       </c>
       <c r="B252" t="s">
         <v>342</v>
       </c>
       <c r="D252" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>60040300002</v>
+        <v>60040200004</v>
       </c>
       <c r="B253" t="s">
         <v>343</v>
       </c>
       <c r="D253" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>60040300003</v>
+        <v>60040200005</v>
       </c>
       <c r="B254" t="s">
         <v>344</v>
       </c>
       <c r="D254" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>60040300004</v>
+        <v>60040200006</v>
       </c>
       <c r="B255" t="s">
         <v>345</v>
       </c>
       <c r="D255" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>60041000001</v>
+        <v>60040300001</v>
       </c>
       <c r="B256" t="s">
         <v>346</v>
       </c>
       <c r="D256" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>60041000002</v>
+        <v>60040300002</v>
       </c>
       <c r="B257" t="s">
         <v>347</v>
       </c>
       <c r="D257" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>60041000003</v>
+        <v>60040300003</v>
       </c>
       <c r="B258" t="s">
         <v>348</v>
       </c>
       <c r="D258" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>60041000004</v>
+        <v>60040300004</v>
       </c>
       <c r="B259" t="s">
         <v>349</v>
       </c>
       <c r="D259" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>60041000005</v>
+        <v>60041000001</v>
       </c>
       <c r="B260" t="s">
         <v>350</v>
       </c>
       <c r="D260" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>60050100001</v>
+        <v>60041000002</v>
       </c>
       <c r="B261" t="s">
         <v>351</v>
       </c>
       <c r="D261" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>60050100002</v>
+        <v>60041000003</v>
       </c>
       <c r="B262" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="D262" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>60050100003</v>
+        <v>60041000004</v>
       </c>
       <c r="B263" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D263" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>60050200001</v>
+        <v>60041000005</v>
       </c>
       <c r="B264" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D264" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>60050200002</v>
+        <v>60050100001</v>
       </c>
       <c r="B265" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>60050200003</v>
+        <v>60050100002</v>
       </c>
       <c r="B266" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D266" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>60050300001</v>
+        <v>60050100003</v>
       </c>
       <c r="B267" t="s">
         <v>356</v>
       </c>
       <c r="D267" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>60050300002</v>
+        <v>60050200001</v>
       </c>
       <c r="B268" t="s">
         <v>357</v>
       </c>
       <c r="D268" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>60050500001</v>
+        <v>60050200002</v>
       </c>
       <c r="B269" t="s">
         <v>358</v>
       </c>
       <c r="D269" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>60050500002</v>
+        <v>60050200003</v>
       </c>
       <c r="B270" t="s">
         <v>359</v>
       </c>
       <c r="D270" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>60050500003</v>
+        <v>60050300001</v>
       </c>
       <c r="B271" t="s">
         <v>360</v>
       </c>
       <c r="D271" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>60050500004</v>
+        <v>60050300002</v>
       </c>
       <c r="B272" t="s">
         <v>361</v>
       </c>
       <c r="D272" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>60050500005</v>
+        <v>60050500001</v>
       </c>
       <c r="B273" t="s">
         <v>362</v>
       </c>
       <c r="D273" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>60051010001</v>
+        <v>60050500002</v>
       </c>
       <c r="B274" t="s">
         <v>363</v>
       </c>
       <c r="D274" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>60051010002</v>
+        <v>60050500003</v>
       </c>
       <c r="B275" t="s">
         <v>364</v>
       </c>
       <c r="D275" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>60051010003</v>
+        <v>60050500004</v>
       </c>
       <c r="B276" t="s">
         <v>365</v>
       </c>
       <c r="D276" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>60060100001</v>
+        <v>60050500005</v>
       </c>
       <c r="B277" t="s">
         <v>366</v>
       </c>
       <c r="D277" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>60060100002</v>
+        <v>60051010001</v>
       </c>
       <c r="B278" t="s">
         <v>367</v>
       </c>
       <c r="D278" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>60060100003</v>
+        <v>60051010002</v>
       </c>
       <c r="B279" t="s">
         <v>368</v>
       </c>
       <c r="D279" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>60060100004</v>
+        <v>60051010003</v>
       </c>
       <c r="B280" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D280" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>60060100005</v>
+        <v>60060100001</v>
       </c>
       <c r="B281" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D281" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>60060100006</v>
+        <v>60060100002</v>
       </c>
       <c r="B282" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D282" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>60060100007</v>
+        <v>60060100003</v>
       </c>
       <c r="B283" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D283" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>60060100008</v>
+        <v>60060100004</v>
       </c>
       <c r="B284" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D284" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>60060100009</v>
+        <v>60060100005</v>
       </c>
       <c r="B285" t="s">
         <v>373</v>
       </c>
       <c r="D285" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>60060100010</v>
+        <v>60060100006</v>
       </c>
       <c r="B286" t="s">
         <v>374</v>
       </c>
       <c r="D286" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>60060200001</v>
+        <v>60060100007</v>
       </c>
       <c r="B287" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="D287" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>60060200002</v>
+        <v>60060100008</v>
       </c>
       <c r="B288" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D288" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>60060300001</v>
+        <v>60060100009</v>
       </c>
       <c r="B289" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D289" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>60060300002</v>
+        <v>60060100010</v>
       </c>
       <c r="B290" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D290" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>60060300003</v>
+        <v>60060200001</v>
       </c>
       <c r="B291" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="D291" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>60060300004</v>
+        <v>60060200002</v>
       </c>
       <c r="B292" t="s">
         <v>379</v>
       </c>
       <c r="D292" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>60060300005</v>
+        <v>60060300001</v>
       </c>
       <c r="B293" t="s">
         <v>380</v>
       </c>
       <c r="D293" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>60061010001</v>
+        <v>60060300002</v>
       </c>
       <c r="B294" t="s">
         <v>381</v>
       </c>
       <c r="D294" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>60061010002</v>
+        <v>60060300003</v>
       </c>
       <c r="B295" t="s">
-        <v>271</v>
+        <v>382</v>
       </c>
       <c r="D295" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>60061010003</v>
+        <v>60060300004</v>
       </c>
       <c r="B296" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D296" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>60061010004</v>
+        <v>60060300005</v>
       </c>
       <c r="B297" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D297" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>60061010005</v>
+        <v>60061010001</v>
       </c>
       <c r="B298" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D298" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>60061010006</v>
+        <v>60061010002</v>
       </c>
       <c r="B299" t="s">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="D299" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>60061010007</v>
+        <v>60061010003</v>
       </c>
       <c r="B300" t="s">
         <v>386</v>
       </c>
       <c r="D300" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>60061010008</v>
+        <v>60061010004</v>
       </c>
       <c r="B301" t="s">
         <v>387</v>
       </c>
       <c r="D301" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>60061010009</v>
+        <v>60061010005</v>
       </c>
       <c r="B302" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="D302" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>60061010010</v>
+        <v>60061010006</v>
       </c>
       <c r="B303" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D303" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>60061010011</v>
+        <v>60061010007</v>
       </c>
       <c r="B304" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D304" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>60061010012</v>
+        <v>60061010008</v>
       </c>
       <c r="B305" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D305" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>60061010013</v>
+        <v>60061010009</v>
       </c>
       <c r="B306" t="s">
-        <v>391</v>
+        <v>267</v>
       </c>
       <c r="D306" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>60061010014</v>
+        <v>60061010010</v>
       </c>
       <c r="B307" t="s">
         <v>392</v>
       </c>
       <c r="D307" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>60061010015</v>
+        <v>60061010011</v>
       </c>
       <c r="B308" t="s">
         <v>393</v>
       </c>
       <c r="D308" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>60061010016</v>
+        <v>60061010012</v>
       </c>
       <c r="B309" t="s">
         <v>394</v>
       </c>
       <c r="D309" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>60061010017</v>
+        <v>60061010013</v>
       </c>
       <c r="B310" t="s">
         <v>395</v>
       </c>
       <c r="D310" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>60061010018</v>
+        <v>60061010014</v>
       </c>
       <c r="B311" t="s">
         <v>396</v>
       </c>
       <c r="D311" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>60061010019</v>
+        <v>60061010015</v>
       </c>
       <c r="B312" t="s">
         <v>397</v>
       </c>
       <c r="D312" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>60061010020</v>
+        <v>60061010016</v>
       </c>
       <c r="B313" t="s">
         <v>398</v>
       </c>
       <c r="D313" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>60070100001</v>
+        <v>60061010017</v>
       </c>
       <c r="B314" t="s">
         <v>399</v>
       </c>
       <c r="D314" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>60070200001</v>
+        <v>60061010018</v>
       </c>
       <c r="B315" t="s">
         <v>400</v>
       </c>
       <c r="D315" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>60070200002</v>
+        <v>60061010019</v>
       </c>
       <c r="B316" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="D316" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>60070300001</v>
+        <v>60061010020</v>
       </c>
       <c r="B317" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D317" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>60070300002</v>
+        <v>60070100001</v>
       </c>
       <c r="B318" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D318" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>60070300003</v>
+        <v>60070200001</v>
       </c>
       <c r="B319" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D319" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>60070300004</v>
+        <v>60070200002</v>
       </c>
       <c r="B320" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="D320" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>60071000001</v>
+        <v>60070300001</v>
       </c>
       <c r="B321" t="s">
         <v>405</v>
       </c>
       <c r="D321" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>60071000002</v>
+        <v>60070300002</v>
       </c>
       <c r="B322" t="s">
         <v>406</v>
       </c>
       <c r="D322" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>60071000003</v>
+        <v>60070300003</v>
       </c>
       <c r="B323" t="s">
         <v>407</v>
       </c>
       <c r="D323" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>60071010001</v>
+        <v>60070300004</v>
       </c>
       <c r="B324" t="s">
         <v>408</v>
       </c>
       <c r="D324" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>60071010002</v>
+        <v>60071000001</v>
       </c>
       <c r="B325" t="s">
         <v>409</v>
       </c>
       <c r="D325" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>60071010003</v>
+        <v>60071000002</v>
       </c>
       <c r="B326" t="s">
         <v>410</v>
       </c>
       <c r="D326" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>60071010004</v>
+        <v>60071000003</v>
       </c>
       <c r="B327" t="s">
         <v>411</v>
       </c>
       <c r="D327" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>60071010005</v>
+        <v>60071010001</v>
       </c>
       <c r="B328" t="s">
         <v>412</v>
       </c>
       <c r="D328" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>60071010006</v>
+        <v>60071010002</v>
       </c>
       <c r="B329" t="s">
         <v>413</v>
       </c>
       <c r="D329" t="s">
-        <v>250</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>60071010003</v>
+      </c>
+      <c r="B330" t="s">
+        <v>414</v>
+      </c>
+      <c r="D330" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>60071010004</v>
+      </c>
+      <c r="B331" t="s">
+        <v>415</v>
+      </c>
+      <c r="D331" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>60071010005</v>
+      </c>
+      <c r="B332" t="s">
+        <v>416</v>
+      </c>
+      <c r="D332" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>60071010006</v>
+      </c>
+      <c r="B333" t="s">
+        <v>417</v>
+      </c>
+      <c r="D333" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>70000000001</v>
+      </c>
+      <c r="B334" t="s">
+        <v>418</v>
+      </c>
+      <c r="D334" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>70000000002</v>
+      </c>
+      <c r="B335" t="s">
+        <v>420</v>
+      </c>
+      <c r="D335" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>70000000003</v>
+      </c>
+      <c r="B336" t="s">
+        <v>421</v>
+      </c>
+      <c r="D336" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>70000000004</v>
+      </c>
+      <c r="B337" t="s">
+        <v>422</v>
+      </c>
+      <c r="D337" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
+        <v>70000000005</v>
+      </c>
+      <c r="B338" t="s">
+        <v>423</v>
+      </c>
+      <c r="D338" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339">
+        <v>70000000006</v>
+      </c>
+      <c r="B339" t="s">
+        <v>424</v>
+      </c>
+      <c r="D339" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340">
+        <v>70000000007</v>
+      </c>
+      <c r="B340" t="s">
+        <v>425</v>
+      </c>
+      <c r="D340" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341">
+        <v>70000000008</v>
+      </c>
+      <c r="B341" t="s">
+        <v>426</v>
+      </c>
+      <c r="D341" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
+        <v>70000000009</v>
+      </c>
+      <c r="B342" t="s">
+        <v>427</v>
+      </c>
+      <c r="D342" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="430">
   <si>
     <t>id</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Skip</t>
+  </si>
+  <si>
+    <t>选择奖励</t>
+  </si>
+  <si>
+    <t>剩余可选择次数{0}/{1}</t>
   </si>
   <si>
     <t>开始献祭</t>
@@ -2278,10 +2284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D342"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C147" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3165,7 +3171,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>60001</v>
+        <v>52001</v>
       </c>
       <c r="B69" t="s">
         <v>112</v>
@@ -3176,10 +3182,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>60002</v>
+        <v>52002</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3187,10 +3196,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>61001</v>
+        <v>52003</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3198,10 +3207,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3209,10 +3218,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>62001</v>
+        <v>60002</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3220,10 +3229,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>62002</v>
+        <v>61001</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3231,10 +3240,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>80001</v>
+        <v>61002</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3242,10 +3251,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>80002</v>
+        <v>62001</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3253,10 +3262,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>80003</v>
+        <v>62002</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -3264,10 +3273,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>80004</v>
+        <v>80001</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -3275,10 +3284,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -3286,10 +3295,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3297,10 +3306,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3308,10 +3317,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3319,10 +3328,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3330,13 +3339,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3344,13 +3350,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1000002</v>
+        <v>80008</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3358,10 +3361,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>2000001</v>
+        <v>80009</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3369,10 +3372,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>3000001</v>
+        <v>1000001</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="C87" t="s">
+        <v>130</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3380,2972 +3386,3008 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>10000000001</v>
+        <v>1000002</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>10000000002</v>
+        <v>2000001</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>10000000003</v>
+        <v>3000001</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>10000000004</v>
+        <v>10000000001</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>10000000005</v>
+        <v>10000000002</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>10000000006</v>
+        <v>10000000003</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>10000000007</v>
+        <v>10000000004</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>10000000008</v>
+        <v>10000000005</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>20000000001</v>
+        <v>10000000006</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>20000000002</v>
+        <v>10000000007</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D97" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>20000000003</v>
+        <v>10000000008</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>20000000004</v>
+        <v>20000000001</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>20000000010</v>
+        <v>20000000002</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>30000000001</v>
+        <v>20000000003</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>30000000002</v>
+        <v>20000000004</v>
       </c>
       <c r="B102" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>30000000003</v>
+        <v>20000000010</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>30000000101</v>
+        <v>30000000001</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D104" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>30000000102</v>
+        <v>30000000002</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>30000000103</v>
+        <v>30000000003</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>30000000201</v>
+        <v>30000000101</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D107" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>30000000202</v>
+        <v>30000000102</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D108" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>30000000203</v>
+        <v>30000000103</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D109" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>30000000301</v>
+        <v>30000000201</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C110" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>30000000302</v>
+        <v>30000000202</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>30000000303</v>
+        <v>30000000203</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>30000000401</v>
+        <v>30000000301</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>30000000402</v>
+        <v>30000000302</v>
       </c>
       <c r="B114" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D114" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>30000000403</v>
+        <v>30000000303</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C115" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>30000999999</v>
+        <v>30000000401</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C116" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>40000000001</v>
+        <v>30000000402</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>40000000002</v>
+        <v>30000000403</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="C118" t="s">
+        <v>183</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>40000000003</v>
+        <v>30000999999</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="C119" t="s">
+        <v>185</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>40000000004</v>
+        <v>40000000001</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>153</v>
+      </c>
+      <c r="C120" t="s">
+        <v>186</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>50000000001</v>
+        <v>40000000002</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
-      </c>
-      <c r="C121" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="D121" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>50000000002</v>
+        <v>40000000003</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
-      </c>
-      <c r="C122" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>50000001001</v>
+        <v>40000000004</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
-      </c>
-      <c r="C123" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D123" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>50000002001</v>
+        <v>50000000001</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D124" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>50000002002</v>
+        <v>50000000002</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C125" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D125" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>50000002003</v>
+        <v>50000001001</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C126" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D126" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>50000002004</v>
+        <v>50000002001</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C127" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D127" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>50000003001</v>
+        <v>50000002002</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C128" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D128" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>50000003002</v>
+        <v>50000002003</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C129" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D129" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>50000003003</v>
+        <v>50000002004</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C130" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D130" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>50000003004</v>
+        <v>50000003001</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D131" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>50000004001</v>
+        <v>50000003002</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C132" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D132" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>50000004002</v>
+        <v>50000003003</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D133" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>50000004003</v>
+        <v>50000003004</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C134" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D134" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>50000004004</v>
+        <v>50000004001</v>
       </c>
       <c r="B135" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D135" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>50000004005</v>
+        <v>50000004002</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>50000005001</v>
+        <v>50000004003</v>
       </c>
       <c r="B137" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D137" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>50000005002</v>
+        <v>50000004004</v>
       </c>
       <c r="B138" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D138" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>50000005003</v>
+        <v>50000004005</v>
       </c>
       <c r="B139" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C139" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D139" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>50000005004</v>
+        <v>50000005001</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C140" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D140" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>50000006001</v>
+        <v>50000005002</v>
       </c>
       <c r="B141" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D141" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>50000006002</v>
+        <v>50000005003</v>
       </c>
       <c r="B142" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C142" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D142" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>50000006003</v>
+        <v>50000005004</v>
       </c>
       <c r="B143" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C143" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D143" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>50000006004</v>
+        <v>50000006001</v>
       </c>
       <c r="B144" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C144" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D144" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>50000006005</v>
+        <v>50000006002</v>
       </c>
       <c r="B145" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D145" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>50000007001</v>
+        <v>50000006003</v>
       </c>
       <c r="B146" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D146" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>50000007002</v>
+        <v>50000006004</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C147" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D147" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>50000007003</v>
+        <v>50000006005</v>
       </c>
       <c r="B148" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C148" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D148" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>50000007004</v>
+        <v>50000007001</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C149" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D149" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>50000101001</v>
+        <v>50000007002</v>
       </c>
       <c r="B150" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C150" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D150" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>50000102001</v>
+        <v>50000007003</v>
       </c>
       <c r="B151" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D151" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>50000103001</v>
+        <v>50000007004</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C152" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D152" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>50000103002</v>
+        <v>50000101001</v>
       </c>
       <c r="B153" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C153" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>60010100001</v>
+        <v>50000102001</v>
       </c>
       <c r="B154" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="C154" t="s">
+        <v>250</v>
       </c>
       <c r="D154" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>60010100002</v>
+        <v>50000103001</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="C155" t="s">
+        <v>252</v>
       </c>
       <c r="D155" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>60010100003</v>
+        <v>50000103002</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="C156" t="s">
+        <v>254</v>
       </c>
       <c r="D156" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>60010100004</v>
+        <v>60010100001</v>
       </c>
       <c r="B157" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D157" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>60010200001</v>
+        <v>60010100002</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D158" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>60010200002</v>
+        <v>60010100003</v>
       </c>
       <c r="B159" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D159" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>60010200003</v>
+        <v>60010100004</v>
       </c>
       <c r="B160" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D160" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>60010200004</v>
+        <v>60010200001</v>
       </c>
       <c r="B161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D161" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>60010300001</v>
+        <v>60010200002</v>
       </c>
       <c r="B162" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D162" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>60010300002</v>
+        <v>60010200003</v>
       </c>
       <c r="B163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D163" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>60010300003</v>
+        <v>60010200004</v>
       </c>
       <c r="B164" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D164" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>60010300004</v>
+        <v>60010300001</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D165" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>60011000001</v>
+        <v>60010300002</v>
       </c>
       <c r="B166" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D166" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>60011000002</v>
+        <v>60010300003</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D167" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>60011000003</v>
+        <v>60010300004</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D168" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>60011000004</v>
+        <v>60011000001</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D169" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>60011000005</v>
+        <v>60011000002</v>
       </c>
       <c r="B170" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D170" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>60011000006</v>
+        <v>60011000003</v>
       </c>
       <c r="B171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D171" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>60011000007</v>
+        <v>60011000004</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D172" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>60011000008</v>
+        <v>60011000005</v>
       </c>
       <c r="B173" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D173" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>60011000009</v>
+        <v>60011000006</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D174" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>60011010001</v>
+        <v>60011000007</v>
       </c>
       <c r="B175" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D175" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>60020100001</v>
+        <v>60011000008</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D176" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>60020100002</v>
+        <v>60011000009</v>
       </c>
       <c r="B177" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>60020100003</v>
+        <v>60011010001</v>
       </c>
       <c r="B178" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D178" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>60020100004</v>
+        <v>60020100001</v>
       </c>
       <c r="B179" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D179" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>60020100005</v>
+        <v>60020100002</v>
       </c>
       <c r="B180" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D180" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>60020100006</v>
+        <v>60020100003</v>
       </c>
       <c r="B181" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D181" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>60020100007</v>
+        <v>60020100004</v>
       </c>
       <c r="B182" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D182" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>60020200001</v>
+        <v>60020100005</v>
       </c>
       <c r="B183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D183" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>60020200002</v>
+        <v>60020100006</v>
       </c>
       <c r="B184" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D184" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>60020200003</v>
+        <v>60020100007</v>
       </c>
       <c r="B185" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D185" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>60020200004</v>
+        <v>60020200001</v>
       </c>
       <c r="B186" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D186" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>60020200005</v>
+        <v>60020200002</v>
       </c>
       <c r="B187" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D187" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>60020200006</v>
+        <v>60020200003</v>
       </c>
       <c r="B188" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D188" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>60020200007</v>
+        <v>60020200004</v>
       </c>
       <c r="B189" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D189" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>60020200008</v>
+        <v>60020200005</v>
       </c>
       <c r="B190" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D190" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>60020200009</v>
+        <v>60020200006</v>
       </c>
       <c r="B191" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D191" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>60020200010</v>
+        <v>60020200007</v>
       </c>
       <c r="B192" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D192" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>60020200011</v>
+        <v>60020200008</v>
       </c>
       <c r="B193" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D193" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>60020300001</v>
+        <v>60020200009</v>
       </c>
       <c r="B194" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D194" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>60020300002</v>
+        <v>60020200010</v>
       </c>
       <c r="B195" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D195" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>60020300003</v>
+        <v>60020200011</v>
       </c>
       <c r="B196" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D196" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>60020300004</v>
+        <v>60020300001</v>
       </c>
       <c r="B197" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D197" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>60020300005</v>
+        <v>60020300002</v>
       </c>
       <c r="B198" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D198" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>60021000001</v>
+        <v>60020300003</v>
       </c>
       <c r="B199" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D199" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>60021000002</v>
+        <v>60020300004</v>
       </c>
       <c r="B200" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D200" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>60021000003</v>
+        <v>60020300005</v>
       </c>
       <c r="B201" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D201" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>60021000004</v>
+        <v>60021000001</v>
       </c>
       <c r="B202" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D202" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>60021000005</v>
+        <v>60021000002</v>
       </c>
       <c r="B203" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D203" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>60021000006</v>
+        <v>60021000003</v>
       </c>
       <c r="B204" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D204" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>60021000007</v>
+        <v>60021000004</v>
       </c>
       <c r="B205" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D205" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>60021000008</v>
+        <v>60021000005</v>
       </c>
       <c r="B206" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D206" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>60021000009</v>
+        <v>60021000006</v>
       </c>
       <c r="B207" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D207" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>60021000010</v>
+        <v>60021000007</v>
       </c>
       <c r="B208" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D208" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>60021010001</v>
+        <v>60021000008</v>
       </c>
       <c r="B209" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="D209" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>60021010002</v>
+        <v>60021000009</v>
       </c>
       <c r="B210" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="D210" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>60021010003</v>
+        <v>60021000010</v>
       </c>
       <c r="B211" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="D211" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>60021010004</v>
+        <v>60021010001</v>
       </c>
       <c r="B212" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D212" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>60021010005</v>
+        <v>60021010002</v>
       </c>
       <c r="B213" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D213" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>60021010006</v>
+        <v>60021010003</v>
       </c>
       <c r="B214" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="D214" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>60021010007</v>
+        <v>60021010004</v>
       </c>
       <c r="B215" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="D215" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>60021010008</v>
+        <v>60021010005</v>
       </c>
       <c r="B216" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="D216" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>60021010009</v>
+        <v>60021010006</v>
       </c>
       <c r="B217" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D217" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>60021010010</v>
+        <v>60021010007</v>
       </c>
       <c r="B218" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D218" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>60021010011</v>
+        <v>60021010008</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="D219" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>60021010012</v>
+        <v>60021010009</v>
       </c>
       <c r="B220" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="D220" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>60021010013</v>
+        <v>60021010010</v>
       </c>
       <c r="B221" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D221" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>60021010014</v>
+        <v>60021010011</v>
       </c>
       <c r="B222" t="s">
         <v>274</v>
       </c>
       <c r="D222" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>60021010015</v>
+        <v>60021010012</v>
       </c>
       <c r="B223" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="D223" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>60021010016</v>
+        <v>60021010013</v>
       </c>
       <c r="B224" t="s">
         <v>316</v>
       </c>
       <c r="D224" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>60021010017</v>
+        <v>60021010014</v>
       </c>
       <c r="B225" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="D225" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>60021010018</v>
+        <v>60021010015</v>
       </c>
       <c r="B226" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D226" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>60021010019</v>
+        <v>60021010016</v>
       </c>
       <c r="B227" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D227" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>60021010020</v>
+        <v>60021010017</v>
       </c>
       <c r="B228" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D228" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>60030100001</v>
+        <v>60021010018</v>
       </c>
       <c r="B229" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D229" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>60030100002</v>
+        <v>60021010019</v>
       </c>
       <c r="B230" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="D230" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>60030100003</v>
+        <v>60021010020</v>
       </c>
       <c r="B231" t="s">
         <v>322</v>
       </c>
       <c r="D231" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>60030100004</v>
+        <v>60030100001</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="D232" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>60030100005</v>
+        <v>60030100002</v>
       </c>
       <c r="B233" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D233" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>60030100006</v>
+        <v>60030100003</v>
       </c>
       <c r="B234" t="s">
         <v>324</v>
       </c>
       <c r="D234" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>60030100007</v>
+        <v>60030100004</v>
       </c>
       <c r="B235" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="D235" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>60030100008</v>
+        <v>60030100005</v>
       </c>
       <c r="B236" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D236" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>60030100009</v>
+        <v>60030100006</v>
       </c>
       <c r="B237" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D237" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>60030100010</v>
+        <v>60030100007</v>
       </c>
       <c r="B238" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D238" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>60030100011</v>
+        <v>60030100008</v>
       </c>
       <c r="B239" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D239" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>60030100012</v>
+        <v>60030100009</v>
       </c>
       <c r="B240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D240" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>60030100013</v>
+        <v>60030100010</v>
       </c>
       <c r="B241" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D241" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>60030100014</v>
+        <v>60030100011</v>
       </c>
       <c r="B242" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D242" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>60030100015</v>
+        <v>60030100012</v>
       </c>
       <c r="B243" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D243" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>60030100016</v>
+        <v>60030100013</v>
       </c>
       <c r="B244" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D244" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>60030100017</v>
+        <v>60030100014</v>
       </c>
       <c r="B245" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D245" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>60030100018</v>
+        <v>60030100015</v>
       </c>
       <c r="B246" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D246" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>60030100019</v>
+        <v>60030100016</v>
       </c>
       <c r="B247" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D247" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>60030100020</v>
+        <v>60030100017</v>
       </c>
       <c r="B248" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D248" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>60040100001</v>
+        <v>60030100018</v>
       </c>
       <c r="B249" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D249" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>60040200001</v>
+        <v>60030100019</v>
       </c>
       <c r="B250" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D250" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>60040200002</v>
+        <v>60030100020</v>
       </c>
       <c r="B251" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D251" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>60040200003</v>
+        <v>60040100001</v>
       </c>
       <c r="B252" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D252" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>60040200004</v>
+        <v>60040200001</v>
       </c>
       <c r="B253" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D253" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>60040200005</v>
+        <v>60040200002</v>
       </c>
       <c r="B254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D254" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>60040200006</v>
+        <v>60040200003</v>
       </c>
       <c r="B255" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D255" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>60040300001</v>
+        <v>60040200004</v>
       </c>
       <c r="B256" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D256" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>60040300002</v>
+        <v>60040200005</v>
       </c>
       <c r="B257" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D257" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>60040300003</v>
+        <v>60040200006</v>
       </c>
       <c r="B258" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D258" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>60040300004</v>
+        <v>60040300001</v>
       </c>
       <c r="B259" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D259" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>60041000001</v>
+        <v>60040300002</v>
       </c>
       <c r="B260" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D260" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>60041000002</v>
+        <v>60040300003</v>
       </c>
       <c r="B261" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D261" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>60041000003</v>
+        <v>60040300004</v>
       </c>
       <c r="B262" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D262" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>60041000004</v>
+        <v>60041000001</v>
       </c>
       <c r="B263" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D263" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>60041000005</v>
+        <v>60041000002</v>
       </c>
       <c r="B264" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D264" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>60050100001</v>
+        <v>60041000003</v>
       </c>
       <c r="B265" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D265" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>60050100002</v>
+        <v>60041000004</v>
       </c>
       <c r="B266" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>60050100003</v>
+        <v>60041000005</v>
       </c>
       <c r="B267" t="s">
         <v>356</v>
       </c>
       <c r="D267" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>60050200001</v>
+        <v>60050100001</v>
       </c>
       <c r="B268" t="s">
         <v>357</v>
       </c>
       <c r="D268" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>60050200002</v>
+        <v>60050100002</v>
       </c>
       <c r="B269" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D269" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>60050200003</v>
+        <v>60050100003</v>
       </c>
       <c r="B270" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D270" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>60050300001</v>
+        <v>60050200001</v>
       </c>
       <c r="B271" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D271" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>60050300002</v>
+        <v>60050200002</v>
       </c>
       <c r="B272" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D272" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>60050500001</v>
+        <v>60050200003</v>
       </c>
       <c r="B273" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D273" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>60050500002</v>
+        <v>60050300001</v>
       </c>
       <c r="B274" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D274" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>60050500003</v>
+        <v>60050300002</v>
       </c>
       <c r="B275" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D275" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>60050500004</v>
+        <v>60050500001</v>
       </c>
       <c r="B276" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D276" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>60050500005</v>
+        <v>60050500002</v>
       </c>
       <c r="B277" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D277" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>60051010001</v>
+        <v>60050500003</v>
       </c>
       <c r="B278" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D278" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>60051010002</v>
+        <v>60050500004</v>
       </c>
       <c r="B279" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D279" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>60051010003</v>
+        <v>60050500005</v>
       </c>
       <c r="B280" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D280" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>60060100001</v>
+        <v>60051010001</v>
       </c>
       <c r="B281" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D281" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>60060100002</v>
+        <v>60051010002</v>
       </c>
       <c r="B282" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D282" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>60060100003</v>
+        <v>60051010003</v>
       </c>
       <c r="B283" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D283" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>60060100004</v>
+        <v>60060100001</v>
       </c>
       <c r="B284" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D284" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>60060100005</v>
+        <v>60060100002</v>
       </c>
       <c r="B285" t="s">
         <v>373</v>
       </c>
       <c r="D285" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>60060100006</v>
+        <v>60060100003</v>
       </c>
       <c r="B286" t="s">
         <v>374</v>
       </c>
       <c r="D286" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>60060100007</v>
+        <v>60060100004</v>
       </c>
       <c r="B287" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D287" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>60060100008</v>
+        <v>60060100005</v>
       </c>
       <c r="B288" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D288" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>60060100009</v>
+        <v>60060100006</v>
       </c>
       <c r="B289" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D289" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>60060100010</v>
+        <v>60060100007</v>
       </c>
       <c r="B290" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D290" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>60060200001</v>
+        <v>60060100008</v>
       </c>
       <c r="B291" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="D291" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>60060200002</v>
+        <v>60060100009</v>
       </c>
       <c r="B292" t="s">
         <v>379</v>
       </c>
       <c r="D292" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>60060300001</v>
+        <v>60060100010</v>
       </c>
       <c r="B293" t="s">
         <v>380</v>
       </c>
       <c r="D293" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>60060300002</v>
+        <v>60060200001</v>
       </c>
       <c r="B294" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="D294" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>60060300003</v>
+        <v>60060200002</v>
       </c>
       <c r="B295" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D295" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>60060300004</v>
+        <v>60060300001</v>
       </c>
       <c r="B296" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D296" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>60060300005</v>
+        <v>60060300002</v>
       </c>
       <c r="B297" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D297" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>60061010001</v>
+        <v>60060300003</v>
       </c>
       <c r="B298" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D298" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>60061010002</v>
+        <v>60060300004</v>
       </c>
       <c r="B299" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
       <c r="D299" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>60061010003</v>
+        <v>60060300005</v>
       </c>
       <c r="B300" t="s">
         <v>386</v>
       </c>
       <c r="D300" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>60061010004</v>
+        <v>60061010001</v>
       </c>
       <c r="B301" t="s">
         <v>387</v>
       </c>
       <c r="D301" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>60061010005</v>
+        <v>60061010002</v>
       </c>
       <c r="B302" t="s">
-        <v>388</v>
+        <v>277</v>
       </c>
       <c r="D302" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>60061010006</v>
+        <v>60061010003</v>
       </c>
       <c r="B303" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D303" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>60061010007</v>
+        <v>60061010004</v>
       </c>
       <c r="B304" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D304" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>60061010008</v>
+        <v>60061010005</v>
       </c>
       <c r="B305" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D305" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>60061010009</v>
+        <v>60061010006</v>
       </c>
       <c r="B306" t="s">
-        <v>267</v>
+        <v>391</v>
       </c>
       <c r="D306" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>60061010010</v>
+        <v>60061010007</v>
       </c>
       <c r="B307" t="s">
         <v>392</v>
       </c>
       <c r="D307" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>60061010011</v>
+        <v>60061010008</v>
       </c>
       <c r="B308" t="s">
         <v>393</v>
       </c>
       <c r="D308" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>60061010012</v>
+        <v>60061010009</v>
       </c>
       <c r="B309" t="s">
-        <v>394</v>
+        <v>269</v>
       </c>
       <c r="D309" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>60061010013</v>
+        <v>60061010010</v>
       </c>
       <c r="B310" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D310" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>60061010014</v>
+        <v>60061010011</v>
       </c>
       <c r="B311" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D311" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>60061010015</v>
+        <v>60061010012</v>
       </c>
       <c r="B312" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D312" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>60061010016</v>
+        <v>60061010013</v>
       </c>
       <c r="B313" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D313" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>60061010017</v>
+        <v>60061010014</v>
       </c>
       <c r="B314" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D314" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>60061010018</v>
+        <v>60061010015</v>
       </c>
       <c r="B315" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D315" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>60061010019</v>
+        <v>60061010016</v>
       </c>
       <c r="B316" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D316" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>60061010020</v>
+        <v>60061010017</v>
       </c>
       <c r="B317" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D317" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>60070100001</v>
+        <v>60061010018</v>
       </c>
       <c r="B318" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D318" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>60070200001</v>
+        <v>60061010019</v>
       </c>
       <c r="B319" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D319" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>60070200002</v>
+        <v>60061010020</v>
       </c>
       <c r="B320" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="D320" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>60070300001</v>
+        <v>60070100001</v>
       </c>
       <c r="B321" t="s">
         <v>405</v>
       </c>
       <c r="D321" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>60070300002</v>
+        <v>60070200001</v>
       </c>
       <c r="B322" t="s">
         <v>406</v>
       </c>
       <c r="D322" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>60070300003</v>
+        <v>60070200002</v>
       </c>
       <c r="B323" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="D323" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>60070300004</v>
+        <v>60070300001</v>
       </c>
       <c r="B324" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D324" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>60071000001</v>
+        <v>60070300002</v>
       </c>
       <c r="B325" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D325" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>60071000002</v>
+        <v>60070300003</v>
       </c>
       <c r="B326" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D326" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>60071000003</v>
+        <v>60070300004</v>
       </c>
       <c r="B327" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D327" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>60071010001</v>
+        <v>60071000001</v>
       </c>
       <c r="B328" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D328" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>60071010002</v>
+        <v>60071000002</v>
       </c>
       <c r="B329" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D329" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>60071010003</v>
+        <v>60071000003</v>
       </c>
       <c r="B330" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D330" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>60071010004</v>
+        <v>60071010001</v>
       </c>
       <c r="B331" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D331" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>60071010005</v>
+        <v>60071010002</v>
       </c>
       <c r="B332" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D332" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>60071010006</v>
+        <v>60071010003</v>
       </c>
       <c r="B333" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D333" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>70000000001</v>
+        <v>60071010004</v>
       </c>
       <c r="B334" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D334" t="s">
-        <v>419</v>
+        <v>256</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>70000000002</v>
+        <v>60071010005</v>
       </c>
       <c r="B335" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D335" t="s">
-        <v>419</v>
+        <v>256</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>70000000003</v>
+        <v>60071010006</v>
       </c>
       <c r="B336" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D336" t="s">
-        <v>419</v>
+        <v>256</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>70000000004</v>
+        <v>70000000001</v>
       </c>
       <c r="B337" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D337" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>70000000005</v>
+        <v>70000000002</v>
       </c>
       <c r="B338" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D338" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>70000000006</v>
+        <v>70000000003</v>
       </c>
       <c r="B339" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D339" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>70000000007</v>
+        <v>70000000004</v>
       </c>
       <c r="B340" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D340" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>70000000008</v>
+        <v>70000000005</v>
       </c>
       <c r="B341" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D341" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
+        <v>70000000006</v>
+      </c>
+      <c r="B342" t="s">
+        <v>426</v>
+      </c>
+      <c r="D342" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343">
+        <v>70000000007</v>
+      </c>
+      <c r="B343" t="s">
+        <v>427</v>
+      </c>
+      <c r="D343" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344">
+        <v>70000000008</v>
+      </c>
+      <c r="B344" t="s">
+        <v>428</v>
+      </c>
+      <c r="D344" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345">
         <v>70000000009</v>
       </c>
-      <c r="B342" t="s">
-        <v>427</v>
-      </c>
-      <c r="D342" t="s">
-        <v>419</v>
+      <c r="B345" t="s">
+        <v>429</v>
+      </c>
+      <c r="D345" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24195" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="437">
   <si>
     <t>id</t>
   </si>
@@ -371,6 +371,12 @@
     <t>剩余可选择次数{0}/{1}</t>
   </si>
   <si>
+    <t>没有可选择次数</t>
+  </si>
+  <si>
+    <t>还有可选择次数，是否仍要结束选择奖励？</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -1317,6 +1323,21 @@
   </si>
   <si>
     <t>狂暴速度提升</t>
+  </si>
+  <si>
+    <t>想要更多魔晶！</t>
+  </si>
+  <si>
+    <t>excel_doom_council_info</t>
+  </si>
+  <si>
+    <t>下次征服模式获得的魔晶翻倍</t>
+  </si>
+  <si>
+    <t>想要更多经验！</t>
+  </si>
+  <si>
+    <t>下次征服模式获得的经验翻倍</t>
   </si>
 </sst>
 </file>
@@ -2284,10 +2305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D345"/>
+  <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3207,7 +3228,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>60001</v>
+        <v>52004</v>
       </c>
       <c r="B72" t="s">
         <v>114</v>
@@ -3218,7 +3239,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>60002</v>
+        <v>52005</v>
       </c>
       <c r="B73" t="s">
         <v>115</v>
@@ -3229,7 +3250,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>61001</v>
+        <v>60001</v>
       </c>
       <c r="B74" t="s">
         <v>116</v>
@@ -3240,7 +3261,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>61002</v>
+        <v>60002</v>
       </c>
       <c r="B75" t="s">
         <v>117</v>
@@ -3251,7 +3272,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>62001</v>
+        <v>61001</v>
       </c>
       <c r="B76" t="s">
         <v>118</v>
@@ -3262,7 +3283,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>62002</v>
+        <v>61002</v>
       </c>
       <c r="B77" t="s">
         <v>119</v>
@@ -3273,7 +3294,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>80001</v>
+        <v>62001</v>
       </c>
       <c r="B78" t="s">
         <v>120</v>
@@ -3284,7 +3305,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>80002</v>
+        <v>62002</v>
       </c>
       <c r="B79" t="s">
         <v>121</v>
@@ -3295,7 +3316,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>80003</v>
+        <v>80001</v>
       </c>
       <c r="B80" t="s">
         <v>122</v>
@@ -3306,7 +3327,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>80004</v>
+        <v>80002</v>
       </c>
       <c r="B81" t="s">
         <v>123</v>
@@ -3317,7 +3338,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>80005</v>
+        <v>80003</v>
       </c>
       <c r="B82" t="s">
         <v>124</v>
@@ -3328,7 +3349,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>80006</v>
+        <v>80004</v>
       </c>
       <c r="B83" t="s">
         <v>125</v>
@@ -3339,7 +3360,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>80007</v>
+        <v>80005</v>
       </c>
       <c r="B84" t="s">
         <v>126</v>
@@ -3350,7 +3371,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>80008</v>
+        <v>80006</v>
       </c>
       <c r="B85" t="s">
         <v>127</v>
@@ -3361,7 +3382,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>80009</v>
+        <v>80007</v>
       </c>
       <c r="B86" t="s">
         <v>128</v>
@@ -3372,27 +3393,21 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1000001</v>
+        <v>80008</v>
       </c>
       <c r="B87" t="s">
         <v>129</v>
       </c>
-      <c r="C87" t="s">
-        <v>130</v>
-      </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>1000002</v>
+        <v>80009</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
-      </c>
-      <c r="C88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3400,10 +3415,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="C89" t="s">
+        <v>132</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3411,9 +3429,12 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>3000001</v>
+        <v>1000002</v>
       </c>
       <c r="B90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" t="s">
         <v>134</v>
       </c>
       <c r="D90" t="s">
@@ -3422,478 +3443,472 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>10000000001</v>
+        <v>2000001</v>
       </c>
       <c r="B91" t="s">
         <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>10000000002</v>
+        <v>3000001</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>10000000003</v>
+        <v>10000000001</v>
       </c>
       <c r="B93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" t="s">
         <v>138</v>
-      </c>
-      <c r="D93" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>10000000004</v>
+        <v>10000000002</v>
       </c>
       <c r="B94" t="s">
         <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>10000000005</v>
+        <v>10000000003</v>
       </c>
       <c r="B95" t="s">
         <v>140</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>10000000006</v>
+        <v>10000000004</v>
       </c>
       <c r="B96" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>10000000007</v>
+        <v>10000000005</v>
       </c>
       <c r="B97" t="s">
         <v>142</v>
       </c>
       <c r="D97" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>10000000008</v>
+        <v>10000000006</v>
       </c>
       <c r="B98" t="s">
         <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>20000000001</v>
+        <v>10000000007</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>20000000002</v>
+        <v>10000000008</v>
       </c>
       <c r="B100" t="s">
         <v>145</v>
       </c>
-      <c r="C100" t="s">
-        <v>146</v>
-      </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>20000000003</v>
+        <v>20000000001</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>20000000004</v>
+        <v>20000000002</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D102" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>20000000010</v>
+        <v>20000000003</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>30000000001</v>
+        <v>20000000004</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D104" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>30000000002</v>
+        <v>20000000010</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>30000000003</v>
+        <v>30000000001</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>30000000101</v>
+        <v>30000000002</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>30000000102</v>
+        <v>30000000003</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C108" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>30000000103</v>
+        <v>30000000101</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D109" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>30000000201</v>
+        <v>30000000102</v>
       </c>
       <c r="B110" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D110" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>30000000202</v>
+        <v>30000000103</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D111" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>30000000203</v>
+        <v>30000000201</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D112" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>30000000301</v>
+        <v>30000000202</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D113" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>30000000302</v>
+        <v>30000000203</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>30000000303</v>
+        <v>30000000301</v>
       </c>
       <c r="B115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>30000000401</v>
+        <v>30000000302</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D116" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>30000000402</v>
+        <v>30000000303</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C117" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>30000000403</v>
+        <v>30000000401</v>
       </c>
       <c r="B118" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>30000999999</v>
+        <v>30000000402</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D119" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>40000000001</v>
+        <v>30000000403</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D120" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>40000000002</v>
+        <v>30000999999</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="C121" t="s">
+        <v>187</v>
       </c>
       <c r="D121" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>40000000003</v>
+        <v>40000000001</v>
       </c>
       <c r="B122" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" t="s">
         <v>189</v>
-      </c>
-      <c r="D122" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>40000000004</v>
+        <v>40000000002</v>
       </c>
       <c r="B123" t="s">
         <v>190</v>
       </c>
       <c r="D123" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>50000000001</v>
+        <v>40000000003</v>
       </c>
       <c r="B124" t="s">
         <v>191</v>
       </c>
-      <c r="C124" t="s">
-        <v>161</v>
-      </c>
       <c r="D124" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>50000000002</v>
+        <v>40000000004</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
-      </c>
-      <c r="C125" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D125" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>50000001001</v>
+        <v>50000000001</v>
       </c>
       <c r="B126" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D126" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>50000002001</v>
+        <v>50000000002</v>
       </c>
       <c r="B127" t="s">
         <v>195</v>
@@ -3902,2492 +3917,2564 @@
         <v>196</v>
       </c>
       <c r="D127" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>50000002002</v>
+        <v>50000001001</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="D128" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>50000002003</v>
+        <v>50000002001</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C129" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D129" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>50000002004</v>
+        <v>50000002002</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C130" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>50000003001</v>
+        <v>50000002003</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C131" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D131" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>50000003002</v>
+        <v>50000002004</v>
       </c>
       <c r="B132" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D132" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>50000003003</v>
+        <v>50000003001</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D133" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>50000003004</v>
+        <v>50000003002</v>
       </c>
       <c r="B134" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D134" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>50000004001</v>
+        <v>50000003003</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C135" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D135" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>50000004002</v>
+        <v>50000003004</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D136" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>50000004003</v>
+        <v>50000004001</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D137" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>50000004004</v>
+        <v>50000004002</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D138" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>50000004005</v>
+        <v>50000004003</v>
       </c>
       <c r="B139" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>50000005001</v>
+        <v>50000004004</v>
       </c>
       <c r="B140" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D140" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>50000005002</v>
+        <v>50000004005</v>
       </c>
       <c r="B141" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C141" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D141" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>50000005003</v>
+        <v>50000005001</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C142" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D142" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>50000005004</v>
+        <v>50000005002</v>
       </c>
       <c r="B143" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D143" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>50000006001</v>
+        <v>50000005003</v>
       </c>
       <c r="B144" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>50000006002</v>
+        <v>50000005004</v>
       </c>
       <c r="B145" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C145" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D145" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>50000006003</v>
+        <v>50000006001</v>
       </c>
       <c r="B146" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C146" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D146" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>50000006004</v>
+        <v>50000006002</v>
       </c>
       <c r="B147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C147" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D147" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>50000006005</v>
+        <v>50000006003</v>
       </c>
       <c r="B148" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>50000007001</v>
+        <v>50000006004</v>
       </c>
       <c r="B149" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C149" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D149" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>50000007002</v>
+        <v>50000006005</v>
       </c>
       <c r="B150" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C150" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D150" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>50000007003</v>
+        <v>50000007001</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C151" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D151" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>50000007004</v>
+        <v>50000007002</v>
       </c>
       <c r="B152" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C152" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D152" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>50000101001</v>
+        <v>50000007003</v>
       </c>
       <c r="B153" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C153" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D153" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>50000102001</v>
+        <v>50000007004</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C154" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D154" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>50000103001</v>
+        <v>50000101001</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D155" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>50000103002</v>
+        <v>50000102001</v>
       </c>
       <c r="B156" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C156" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D156" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>60010100001</v>
+        <v>50000103001</v>
       </c>
       <c r="B157" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="C157" t="s">
+        <v>254</v>
       </c>
       <c r="D157" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>60010100002</v>
+        <v>50000103002</v>
       </c>
       <c r="B158" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="C158" t="s">
+        <v>256</v>
       </c>
       <c r="D158" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>60010100003</v>
+        <v>60010100001</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D159" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>60010100004</v>
+        <v>60010100002</v>
       </c>
       <c r="B160" t="s">
         <v>259</v>
       </c>
       <c r="D160" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>60010200001</v>
+        <v>60010100003</v>
       </c>
       <c r="B161" t="s">
         <v>260</v>
       </c>
       <c r="D161" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>60010200002</v>
+        <v>60010100004</v>
       </c>
       <c r="B162" t="s">
         <v>261</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>60010200003</v>
+        <v>60010200001</v>
       </c>
       <c r="B163" t="s">
         <v>262</v>
       </c>
       <c r="D163" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>60010200004</v>
+        <v>60010200002</v>
       </c>
       <c r="B164" t="s">
         <v>263</v>
       </c>
       <c r="D164" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>60010300001</v>
+        <v>60010200003</v>
       </c>
       <c r="B165" t="s">
         <v>264</v>
       </c>
       <c r="D165" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>60010300002</v>
+        <v>60010200004</v>
       </c>
       <c r="B166" t="s">
         <v>265</v>
       </c>
       <c r="D166" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>60010300003</v>
+        <v>60010300001</v>
       </c>
       <c r="B167" t="s">
         <v>266</v>
       </c>
       <c r="D167" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>60010300004</v>
+        <v>60010300002</v>
       </c>
       <c r="B168" t="s">
         <v>267</v>
       </c>
       <c r="D168" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>60011000001</v>
+        <v>60010300003</v>
       </c>
       <c r="B169" t="s">
         <v>268</v>
       </c>
       <c r="D169" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>60011000002</v>
+        <v>60010300004</v>
       </c>
       <c r="B170" t="s">
         <v>269</v>
       </c>
       <c r="D170" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>60011000003</v>
+        <v>60011000001</v>
       </c>
       <c r="B171" t="s">
         <v>270</v>
       </c>
       <c r="D171" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>60011000004</v>
+        <v>60011000002</v>
       </c>
       <c r="B172" t="s">
         <v>271</v>
       </c>
       <c r="D172" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>60011000005</v>
+        <v>60011000003</v>
       </c>
       <c r="B173" t="s">
         <v>272</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>60011000006</v>
+        <v>60011000004</v>
       </c>
       <c r="B174" t="s">
         <v>273</v>
       </c>
       <c r="D174" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>60011000007</v>
+        <v>60011000005</v>
       </c>
       <c r="B175" t="s">
         <v>274</v>
       </c>
       <c r="D175" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>60011000008</v>
+        <v>60011000006</v>
       </c>
       <c r="B176" t="s">
         <v>275</v>
       </c>
       <c r="D176" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>60011000009</v>
+        <v>60011000007</v>
       </c>
       <c r="B177" t="s">
         <v>276</v>
       </c>
       <c r="D177" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>60011010001</v>
+        <v>60011000008</v>
       </c>
       <c r="B178" t="s">
         <v>277</v>
       </c>
       <c r="D178" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>60020100001</v>
+        <v>60011000009</v>
       </c>
       <c r="B179" t="s">
         <v>278</v>
       </c>
       <c r="D179" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>60020100002</v>
+        <v>60011010001</v>
       </c>
       <c r="B180" t="s">
         <v>279</v>
       </c>
       <c r="D180" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>60020100003</v>
+        <v>60020100001</v>
       </c>
       <c r="B181" t="s">
         <v>280</v>
       </c>
       <c r="D181" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>60020100004</v>
+        <v>60020100002</v>
       </c>
       <c r="B182" t="s">
         <v>281</v>
       </c>
       <c r="D182" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>60020100005</v>
+        <v>60020100003</v>
       </c>
       <c r="B183" t="s">
         <v>282</v>
       </c>
       <c r="D183" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>60020100006</v>
+        <v>60020100004</v>
       </c>
       <c r="B184" t="s">
         <v>283</v>
       </c>
       <c r="D184" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>60020100007</v>
+        <v>60020100005</v>
       </c>
       <c r="B185" t="s">
         <v>284</v>
       </c>
       <c r="D185" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>60020200001</v>
+        <v>60020100006</v>
       </c>
       <c r="B186" t="s">
         <v>285</v>
       </c>
       <c r="D186" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>60020200002</v>
+        <v>60020100007</v>
       </c>
       <c r="B187" t="s">
         <v>286</v>
       </c>
       <c r="D187" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>60020200003</v>
+        <v>60020200001</v>
       </c>
       <c r="B188" t="s">
         <v>287</v>
       </c>
       <c r="D188" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>60020200004</v>
+        <v>60020200002</v>
       </c>
       <c r="B189" t="s">
         <v>288</v>
       </c>
       <c r="D189" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>60020200005</v>
+        <v>60020200003</v>
       </c>
       <c r="B190" t="s">
         <v>289</v>
       </c>
       <c r="D190" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>60020200006</v>
+        <v>60020200004</v>
       </c>
       <c r="B191" t="s">
         <v>290</v>
       </c>
       <c r="D191" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>60020200007</v>
+        <v>60020200005</v>
       </c>
       <c r="B192" t="s">
         <v>291</v>
       </c>
       <c r="D192" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>60020200008</v>
+        <v>60020200006</v>
       </c>
       <c r="B193" t="s">
         <v>292</v>
       </c>
       <c r="D193" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>60020200009</v>
+        <v>60020200007</v>
       </c>
       <c r="B194" t="s">
         <v>293</v>
       </c>
       <c r="D194" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>60020200010</v>
+        <v>60020200008</v>
       </c>
       <c r="B195" t="s">
         <v>294</v>
       </c>
       <c r="D195" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>60020200011</v>
+        <v>60020200009</v>
       </c>
       <c r="B196" t="s">
         <v>295</v>
       </c>
       <c r="D196" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>60020300001</v>
+        <v>60020200010</v>
       </c>
       <c r="B197" t="s">
         <v>296</v>
       </c>
       <c r="D197" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>60020300002</v>
+        <v>60020200011</v>
       </c>
       <c r="B198" t="s">
         <v>297</v>
       </c>
       <c r="D198" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>60020300003</v>
+        <v>60020300001</v>
       </c>
       <c r="B199" t="s">
         <v>298</v>
       </c>
       <c r="D199" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>60020300004</v>
+        <v>60020300002</v>
       </c>
       <c r="B200" t="s">
         <v>299</v>
       </c>
       <c r="D200" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>60020300005</v>
+        <v>60020300003</v>
       </c>
       <c r="B201" t="s">
         <v>300</v>
       </c>
       <c r="D201" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>60021000001</v>
+        <v>60020300004</v>
       </c>
       <c r="B202" t="s">
         <v>301</v>
       </c>
       <c r="D202" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>60021000002</v>
+        <v>60020300005</v>
       </c>
       <c r="B203" t="s">
         <v>302</v>
       </c>
       <c r="D203" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>60021000003</v>
+        <v>60021000001</v>
       </c>
       <c r="B204" t="s">
         <v>303</v>
       </c>
       <c r="D204" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>60021000004</v>
+        <v>60021000002</v>
       </c>
       <c r="B205" t="s">
         <v>304</v>
       </c>
       <c r="D205" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>60021000005</v>
+        <v>60021000003</v>
       </c>
       <c r="B206" t="s">
         <v>305</v>
       </c>
       <c r="D206" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>60021000006</v>
+        <v>60021000004</v>
       </c>
       <c r="B207" t="s">
         <v>306</v>
       </c>
       <c r="D207" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>60021000007</v>
+        <v>60021000005</v>
       </c>
       <c r="B208" t="s">
         <v>307</v>
       </c>
       <c r="D208" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>60021000008</v>
+        <v>60021000006</v>
       </c>
       <c r="B209" t="s">
         <v>308</v>
       </c>
       <c r="D209" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>60021000009</v>
+        <v>60021000007</v>
       </c>
       <c r="B210" t="s">
         <v>309</v>
       </c>
       <c r="D210" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>60021000010</v>
+        <v>60021000008</v>
       </c>
       <c r="B211" t="s">
         <v>310</v>
       </c>
       <c r="D211" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>60021010001</v>
+        <v>60021000009</v>
       </c>
       <c r="B212" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="D212" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>60021010002</v>
+        <v>60021000010</v>
       </c>
       <c r="B213" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="D213" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>60021010003</v>
+        <v>60021010001</v>
       </c>
       <c r="B214" t="s">
         <v>271</v>
       </c>
       <c r="D214" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>60021010004</v>
+        <v>60021010002</v>
       </c>
       <c r="B215" t="s">
         <v>272</v>
       </c>
       <c r="D215" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>60021010005</v>
+        <v>60021010003</v>
       </c>
       <c r="B216" t="s">
         <v>273</v>
       </c>
       <c r="D216" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>60021010006</v>
+        <v>60021010004</v>
       </c>
       <c r="B217" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="D217" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>60021010007</v>
+        <v>60021010005</v>
       </c>
       <c r="B218" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="D218" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>60021010008</v>
+        <v>60021010006</v>
       </c>
       <c r="B219" t="s">
         <v>313</v>
       </c>
       <c r="D219" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>60021010009</v>
+        <v>60021010007</v>
       </c>
       <c r="B220" t="s">
         <v>314</v>
       </c>
       <c r="D220" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>60021010010</v>
+        <v>60021010008</v>
       </c>
       <c r="B221" t="s">
         <v>315</v>
       </c>
       <c r="D221" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>60021010011</v>
+        <v>60021010009</v>
       </c>
       <c r="B222" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="D222" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>60021010012</v>
+        <v>60021010010</v>
       </c>
       <c r="B223" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="D223" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>60021010013</v>
+        <v>60021010011</v>
       </c>
       <c r="B224" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="D224" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>60021010014</v>
+        <v>60021010012</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D225" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>60021010015</v>
+        <v>60021010013</v>
       </c>
       <c r="B226" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D226" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>60021010016</v>
+        <v>60021010014</v>
       </c>
       <c r="B227" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="D227" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>60021010017</v>
+        <v>60021010015</v>
       </c>
       <c r="B228" t="s">
         <v>319</v>
       </c>
       <c r="D228" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>60021010018</v>
+        <v>60021010016</v>
       </c>
       <c r="B229" t="s">
         <v>320</v>
       </c>
       <c r="D229" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>60021010019</v>
+        <v>60021010017</v>
       </c>
       <c r="B230" t="s">
         <v>321</v>
       </c>
       <c r="D230" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>60021010020</v>
+        <v>60021010018</v>
       </c>
       <c r="B231" t="s">
         <v>322</v>
       </c>
       <c r="D231" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>60030100001</v>
+        <v>60021010019</v>
       </c>
       <c r="B232" t="s">
         <v>323</v>
       </c>
       <c r="D232" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>60030100002</v>
+        <v>60021010020</v>
       </c>
       <c r="B233" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="D233" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>60030100003</v>
+        <v>60030100001</v>
       </c>
       <c r="B234" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D234" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>60030100004</v>
+        <v>60030100002</v>
       </c>
       <c r="B235" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D235" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>60030100005</v>
+        <v>60030100003</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D236" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>60030100006</v>
+        <v>60030100004</v>
       </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="D237" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>60030100007</v>
+        <v>60030100005</v>
       </c>
       <c r="B238" t="s">
         <v>327</v>
       </c>
       <c r="D238" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>60030100008</v>
+        <v>60030100006</v>
       </c>
       <c r="B239" t="s">
         <v>328</v>
       </c>
       <c r="D239" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>60030100009</v>
+        <v>60030100007</v>
       </c>
       <c r="B240" t="s">
         <v>329</v>
       </c>
       <c r="D240" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>60030100010</v>
+        <v>60030100008</v>
       </c>
       <c r="B241" t="s">
         <v>330</v>
       </c>
       <c r="D241" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>60030100011</v>
+        <v>60030100009</v>
       </c>
       <c r="B242" t="s">
         <v>331</v>
       </c>
       <c r="D242" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>60030100012</v>
+        <v>60030100010</v>
       </c>
       <c r="B243" t="s">
         <v>332</v>
       </c>
       <c r="D243" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>60030100013</v>
+        <v>60030100011</v>
       </c>
       <c r="B244" t="s">
         <v>333</v>
       </c>
       <c r="D244" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>60030100014</v>
+        <v>60030100012</v>
       </c>
       <c r="B245" t="s">
         <v>334</v>
       </c>
       <c r="D245" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>60030100015</v>
+        <v>60030100013</v>
       </c>
       <c r="B246" t="s">
         <v>335</v>
       </c>
       <c r="D246" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>60030100016</v>
+        <v>60030100014</v>
       </c>
       <c r="B247" t="s">
         <v>336</v>
       </c>
       <c r="D247" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>60030100017</v>
+        <v>60030100015</v>
       </c>
       <c r="B248" t="s">
         <v>337</v>
       </c>
       <c r="D248" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>60030100018</v>
+        <v>60030100016</v>
       </c>
       <c r="B249" t="s">
         <v>338</v>
       </c>
       <c r="D249" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>60030100019</v>
+        <v>60030100017</v>
       </c>
       <c r="B250" t="s">
         <v>339</v>
       </c>
       <c r="D250" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>60030100020</v>
+        <v>60030100018</v>
       </c>
       <c r="B251" t="s">
         <v>340</v>
       </c>
       <c r="D251" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>60040100001</v>
+        <v>60030100019</v>
       </c>
       <c r="B252" t="s">
         <v>341</v>
       </c>
       <c r="D252" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>60040200001</v>
+        <v>60030100020</v>
       </c>
       <c r="B253" t="s">
         <v>342</v>
       </c>
       <c r="D253" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>60040200002</v>
+        <v>60040100001</v>
       </c>
       <c r="B254" t="s">
         <v>343</v>
       </c>
       <c r="D254" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>60040200003</v>
+        <v>60040200001</v>
       </c>
       <c r="B255" t="s">
         <v>344</v>
       </c>
       <c r="D255" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>60040200004</v>
+        <v>60040200002</v>
       </c>
       <c r="B256" t="s">
         <v>345</v>
       </c>
       <c r="D256" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>60040200005</v>
+        <v>60040200003</v>
       </c>
       <c r="B257" t="s">
         <v>346</v>
       </c>
       <c r="D257" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>60040200006</v>
+        <v>60040200004</v>
       </c>
       <c r="B258" t="s">
         <v>347</v>
       </c>
       <c r="D258" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>60040300001</v>
+        <v>60040200005</v>
       </c>
       <c r="B259" t="s">
         <v>348</v>
       </c>
       <c r="D259" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>60040300002</v>
+        <v>60040200006</v>
       </c>
       <c r="B260" t="s">
         <v>349</v>
       </c>
       <c r="D260" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>60040300003</v>
+        <v>60040300001</v>
       </c>
       <c r="B261" t="s">
         <v>350</v>
       </c>
       <c r="D261" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>60040300004</v>
+        <v>60040300002</v>
       </c>
       <c r="B262" t="s">
         <v>351</v>
       </c>
       <c r="D262" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>60041000001</v>
+        <v>60040300003</v>
       </c>
       <c r="B263" t="s">
         <v>352</v>
       </c>
       <c r="D263" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>60041000002</v>
+        <v>60040300004</v>
       </c>
       <c r="B264" t="s">
         <v>353</v>
       </c>
       <c r="D264" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>60041000003</v>
+        <v>60041000001</v>
       </c>
       <c r="B265" t="s">
         <v>354</v>
       </c>
       <c r="D265" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>60041000004</v>
+        <v>60041000002</v>
       </c>
       <c r="B266" t="s">
         <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>60041000005</v>
+        <v>60041000003</v>
       </c>
       <c r="B267" t="s">
         <v>356</v>
       </c>
       <c r="D267" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>60050100001</v>
+        <v>60041000004</v>
       </c>
       <c r="B268" t="s">
         <v>357</v>
       </c>
       <c r="D268" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>60050100002</v>
+        <v>60041000005</v>
       </c>
       <c r="B269" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="D269" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>60050100003</v>
+        <v>60050100001</v>
       </c>
       <c r="B270" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D270" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>60050200001</v>
+        <v>60050100002</v>
       </c>
       <c r="B271" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D271" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>60050200002</v>
+        <v>60050100003</v>
       </c>
       <c r="B272" t="s">
         <v>360</v>
       </c>
       <c r="D272" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>60050200003</v>
+        <v>60050200001</v>
       </c>
       <c r="B273" t="s">
         <v>361</v>
       </c>
       <c r="D273" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>60050300001</v>
+        <v>60050200002</v>
       </c>
       <c r="B274" t="s">
         <v>362</v>
       </c>
       <c r="D274" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>60050300002</v>
+        <v>60050200003</v>
       </c>
       <c r="B275" t="s">
         <v>363</v>
       </c>
       <c r="D275" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>60050500001</v>
+        <v>60050300001</v>
       </c>
       <c r="B276" t="s">
         <v>364</v>
       </c>
       <c r="D276" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>60050500002</v>
+        <v>60050300002</v>
       </c>
       <c r="B277" t="s">
         <v>365</v>
       </c>
       <c r="D277" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>60050500003</v>
+        <v>60050500001</v>
       </c>
       <c r="B278" t="s">
         <v>366</v>
       </c>
       <c r="D278" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>60050500004</v>
+        <v>60050500002</v>
       </c>
       <c r="B279" t="s">
         <v>367</v>
       </c>
       <c r="D279" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>60050500005</v>
+        <v>60050500003</v>
       </c>
       <c r="B280" t="s">
         <v>368</v>
       </c>
       <c r="D280" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>60051010001</v>
+        <v>60050500004</v>
       </c>
       <c r="B281" t="s">
         <v>369</v>
       </c>
       <c r="D281" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>60051010002</v>
+        <v>60050500005</v>
       </c>
       <c r="B282" t="s">
         <v>370</v>
       </c>
       <c r="D282" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>60051010003</v>
+        <v>60051010001</v>
       </c>
       <c r="B283" t="s">
         <v>371</v>
       </c>
       <c r="D283" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>60060100001</v>
+        <v>60051010002</v>
       </c>
       <c r="B284" t="s">
         <v>372</v>
       </c>
       <c r="D284" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>60060100002</v>
+        <v>60051010003</v>
       </c>
       <c r="B285" t="s">
         <v>373</v>
       </c>
       <c r="D285" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>60060100003</v>
+        <v>60060100001</v>
       </c>
       <c r="B286" t="s">
         <v>374</v>
       </c>
       <c r="D286" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>60060100004</v>
+        <v>60060100002</v>
       </c>
       <c r="B287" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="D287" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>60060100005</v>
+        <v>60060100003</v>
       </c>
       <c r="B288" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D288" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>60060100006</v>
+        <v>60060100004</v>
       </c>
       <c r="B289" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D289" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>60060100007</v>
+        <v>60060100005</v>
       </c>
       <c r="B290" t="s">
         <v>377</v>
       </c>
       <c r="D290" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>60060100008</v>
+        <v>60060100006</v>
       </c>
       <c r="B291" t="s">
         <v>378</v>
       </c>
       <c r="D291" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>60060100009</v>
+        <v>60060100007</v>
       </c>
       <c r="B292" t="s">
         <v>379</v>
       </c>
       <c r="D292" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>60060100010</v>
+        <v>60060100008</v>
       </c>
       <c r="B293" t="s">
         <v>380</v>
       </c>
       <c r="D293" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>60060200001</v>
+        <v>60060100009</v>
       </c>
       <c r="B294" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="D294" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>60060200002</v>
+        <v>60060100010</v>
       </c>
       <c r="B295" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D295" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>60060300001</v>
+        <v>60060200001</v>
       </c>
       <c r="B296" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="D296" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>60060300002</v>
+        <v>60060200002</v>
       </c>
       <c r="B297" t="s">
         <v>383</v>
       </c>
       <c r="D297" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>60060300003</v>
+        <v>60060300001</v>
       </c>
       <c r="B298" t="s">
         <v>384</v>
       </c>
       <c r="D298" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>60060300004</v>
+        <v>60060300002</v>
       </c>
       <c r="B299" t="s">
         <v>385</v>
       </c>
       <c r="D299" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>60060300005</v>
+        <v>60060300003</v>
       </c>
       <c r="B300" t="s">
         <v>386</v>
       </c>
       <c r="D300" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>60061010001</v>
+        <v>60060300004</v>
       </c>
       <c r="B301" t="s">
         <v>387</v>
       </c>
       <c r="D301" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>60061010002</v>
+        <v>60060300005</v>
       </c>
       <c r="B302" t="s">
-        <v>277</v>
+        <v>388</v>
       </c>
       <c r="D302" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>60061010003</v>
+        <v>60061010001</v>
       </c>
       <c r="B303" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D303" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>60061010004</v>
+        <v>60061010002</v>
       </c>
       <c r="B304" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="D304" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>60061010005</v>
+        <v>60061010003</v>
       </c>
       <c r="B305" t="s">
         <v>390</v>
       </c>
       <c r="D305" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>60061010006</v>
+        <v>60061010004</v>
       </c>
       <c r="B306" t="s">
         <v>391</v>
       </c>
       <c r="D306" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>60061010007</v>
+        <v>60061010005</v>
       </c>
       <c r="B307" t="s">
         <v>392</v>
       </c>
       <c r="D307" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>60061010008</v>
+        <v>60061010006</v>
       </c>
       <c r="B308" t="s">
         <v>393</v>
       </c>
       <c r="D308" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>60061010009</v>
+        <v>60061010007</v>
       </c>
       <c r="B309" t="s">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="D309" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>60061010010</v>
+        <v>60061010008</v>
       </c>
       <c r="B310" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D310" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>60061010011</v>
+        <v>60061010009</v>
       </c>
       <c r="B311" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="D311" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>60061010012</v>
+        <v>60061010010</v>
       </c>
       <c r="B312" t="s">
         <v>396</v>
       </c>
       <c r="D312" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>60061010013</v>
+        <v>60061010011</v>
       </c>
       <c r="B313" t="s">
         <v>397</v>
       </c>
       <c r="D313" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>60061010014</v>
+        <v>60061010012</v>
       </c>
       <c r="B314" t="s">
         <v>398</v>
       </c>
       <c r="D314" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>60061010015</v>
+        <v>60061010013</v>
       </c>
       <c r="B315" t="s">
         <v>399</v>
       </c>
       <c r="D315" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>60061010016</v>
+        <v>60061010014</v>
       </c>
       <c r="B316" t="s">
         <v>400</v>
       </c>
       <c r="D316" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>60061010017</v>
+        <v>60061010015</v>
       </c>
       <c r="B317" t="s">
         <v>401</v>
       </c>
       <c r="D317" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>60061010018</v>
+        <v>60061010016</v>
       </c>
       <c r="B318" t="s">
         <v>402</v>
       </c>
       <c r="D318" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>60061010019</v>
+        <v>60061010017</v>
       </c>
       <c r="B319" t="s">
         <v>403</v>
       </c>
       <c r="D319" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>60061010020</v>
+        <v>60061010018</v>
       </c>
       <c r="B320" t="s">
         <v>404</v>
       </c>
       <c r="D320" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>60070100001</v>
+        <v>60061010019</v>
       </c>
       <c r="B321" t="s">
         <v>405</v>
       </c>
       <c r="D321" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>60070200001</v>
+        <v>60061010020</v>
       </c>
       <c r="B322" t="s">
         <v>406</v>
       </c>
       <c r="D322" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>60070200002</v>
+        <v>60070100001</v>
       </c>
       <c r="B323" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="D323" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>60070300001</v>
+        <v>60070200001</v>
       </c>
       <c r="B324" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D324" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>60070300002</v>
+        <v>60070200002</v>
       </c>
       <c r="B325" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D325" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>60070300003</v>
+        <v>60070300001</v>
       </c>
       <c r="B326" t="s">
         <v>409</v>
       </c>
       <c r="D326" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>60070300004</v>
+        <v>60070300002</v>
       </c>
       <c r="B327" t="s">
         <v>410</v>
       </c>
       <c r="D327" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>60071000001</v>
+        <v>60070300003</v>
       </c>
       <c r="B328" t="s">
         <v>411</v>
       </c>
       <c r="D328" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>60071000002</v>
+        <v>60070300004</v>
       </c>
       <c r="B329" t="s">
         <v>412</v>
       </c>
       <c r="D329" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>60071000003</v>
+        <v>60071000001</v>
       </c>
       <c r="B330" t="s">
         <v>413</v>
       </c>
       <c r="D330" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>60071010001</v>
+        <v>60071000002</v>
       </c>
       <c r="B331" t="s">
         <v>414</v>
       </c>
       <c r="D331" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>60071010002</v>
+        <v>60071000003</v>
       </c>
       <c r="B332" t="s">
         <v>415</v>
       </c>
       <c r="D332" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>60071010003</v>
+        <v>60071010001</v>
       </c>
       <c r="B333" t="s">
         <v>416</v>
       </c>
       <c r="D333" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>60071010004</v>
+        <v>60071010002</v>
       </c>
       <c r="B334" t="s">
         <v>417</v>
       </c>
       <c r="D334" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>60071010005</v>
+        <v>60071010003</v>
       </c>
       <c r="B335" t="s">
         <v>418</v>
       </c>
       <c r="D335" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>60071010006</v>
+        <v>60071010004</v>
       </c>
       <c r="B336" t="s">
         <v>419</v>
       </c>
       <c r="D336" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>70000000001</v>
+        <v>60071010005</v>
       </c>
       <c r="B337" t="s">
         <v>420</v>
       </c>
       <c r="D337" t="s">
-        <v>421</v>
+        <v>258</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>70000000002</v>
+        <v>60071010006</v>
       </c>
       <c r="B338" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D338" t="s">
-        <v>421</v>
+        <v>258</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>70000000003</v>
+        <v>70000000001</v>
       </c>
       <c r="B339" t="s">
+        <v>422</v>
+      </c>
+      <c r="D339" t="s">
         <v>423</v>
-      </c>
-      <c r="D339" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>70000000004</v>
+        <v>70000000002</v>
       </c>
       <c r="B340" t="s">
         <v>424</v>
       </c>
       <c r="D340" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>70000000005</v>
+        <v>70000000003</v>
       </c>
       <c r="B341" t="s">
         <v>425</v>
       </c>
       <c r="D341" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>70000000006</v>
+        <v>70000000004</v>
       </c>
       <c r="B342" t="s">
         <v>426</v>
       </c>
       <c r="D342" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>70000000007</v>
+        <v>70000000005</v>
       </c>
       <c r="B343" t="s">
         <v>427</v>
       </c>
       <c r="D343" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>70000000008</v>
+        <v>70000000006</v>
       </c>
       <c r="B344" t="s">
         <v>428</v>
       </c>
       <c r="D344" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>70000000009</v>
+        <v>70000000007</v>
       </c>
       <c r="B345" t="s">
         <v>429</v>
       </c>
       <c r="D345" t="s">
-        <v>421</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>70000000008</v>
+      </c>
+      <c r="B346" t="s">
+        <v>430</v>
+      </c>
+      <c r="D346" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347">
+        <v>70000000009</v>
+      </c>
+      <c r="B347" t="s">
+        <v>431</v>
+      </c>
+      <c r="D347" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348">
+        <v>80000000001</v>
+      </c>
+      <c r="B348" t="s">
+        <v>432</v>
+      </c>
+      <c r="D348" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349">
+        <v>80000000002</v>
+      </c>
+      <c r="B349" t="s">
+        <v>434</v>
+      </c>
+      <c r="D349" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350">
+        <v>80000000003</v>
+      </c>
+      <c r="B350" t="s">
+        <v>435</v>
+      </c>
+      <c r="D350" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>80000000004</v>
+      </c>
+      <c r="B351" t="s">
+        <v>436</v>
+      </c>
+      <c r="D351" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="26355" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="445">
   <si>
     <t>id</t>
   </si>
@@ -385,6 +385,15 @@
     <t>还有可选择次数，是否仍要结束选择奖励？</t>
   </si>
   <si>
+    <t>选择一个议案</t>
+  </si>
+  <si>
+    <t>是否提交议案《{0}》，并且前往终焉议会？</t>
+  </si>
+  <si>
+    <t>通过率   {0}%</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -446,6 +455,9 @@
   </si>
   <si>
     <t>没有足够的魔晶</t>
+  </si>
+  <si>
+    <t>没有足够的声望</t>
   </si>
   <si>
     <t>增殖</t>
@@ -2325,10 +2337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3270,7 +3282,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>60001</v>
+        <v>53001</v>
       </c>
       <c r="B74" t="s">
         <v>116</v>
@@ -3281,7 +3293,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>60002</v>
+        <v>53002</v>
       </c>
       <c r="B75" t="s">
         <v>117</v>
@@ -3292,7 +3304,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>61001</v>
+        <v>53003</v>
       </c>
       <c r="B76" t="s">
         <v>118</v>
@@ -3303,7 +3315,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="B77" t="s">
         <v>119</v>
@@ -3314,7 +3326,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>62001</v>
+        <v>60002</v>
       </c>
       <c r="B78" t="s">
         <v>120</v>
@@ -3325,7 +3337,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>62002</v>
+        <v>61001</v>
       </c>
       <c r="B79" t="s">
         <v>121</v>
@@ -3336,7 +3348,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>80001</v>
+        <v>61002</v>
       </c>
       <c r="B80" t="s">
         <v>122</v>
@@ -3347,7 +3359,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>80002</v>
+        <v>62001</v>
       </c>
       <c r="B81" t="s">
         <v>123</v>
@@ -3358,7 +3370,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>80003</v>
+        <v>62002</v>
       </c>
       <c r="B82" t="s">
         <v>124</v>
@@ -3369,7 +3381,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>80004</v>
+        <v>80001</v>
       </c>
       <c r="B83" t="s">
         <v>125</v>
@@ -3380,7 +3392,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="B84" t="s">
         <v>126</v>
@@ -3391,7 +3403,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="B85" t="s">
         <v>127</v>
@@ -3402,7 +3414,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="B86" t="s">
         <v>128</v>
@@ -3413,7 +3425,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="B87" t="s">
         <v>129</v>
@@ -3424,7 +3436,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="B88" t="s">
         <v>130</v>
@@ -3435,27 +3447,21 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="B89" t="s">
         <v>131</v>
       </c>
-      <c r="C89" t="s">
-        <v>132</v>
-      </c>
       <c r="D89" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1000002</v>
+        <v>80008</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3463,10 +3469,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>2000001</v>
+        <v>80009</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -3474,12 +3480,62 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
+        <v>1000001</v>
+      </c>
+      <c r="B92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>1000002</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>2000001</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
         <v>3000001</v>
       </c>
-      <c r="B92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>3000002</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3554,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3565,10 +3621,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3576,10 +3632,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3587,10 +3643,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3598,10 +3654,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
         <v>142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3609,10 +3665,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3620,10 +3676,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3631,10 +3687,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3713,7 +3769,7 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3721,13 +3777,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3735,13 +3791,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
         <v>150</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3749,13 +3805,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3763,13 +3819,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3842,10 +3898,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3853,10 +3909,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3864,10 +3920,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3875,10 +3931,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3886,10 +3942,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3897,10 +3953,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3908,10 +3964,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3919,10 +3975,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3930,10 +3986,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3941,10 +3997,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3952,10 +4008,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3963,10 +4019,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3974,10 +4030,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3985,10 +4041,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3996,10 +4052,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4007,10 +4063,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4018,10 +4074,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4029,10 +4085,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4040,10 +4096,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4051,10 +4107,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4062,10 +4118,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4073,10 +4129,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4084,10 +4140,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4095,10 +4151,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4106,10 +4162,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4117,10 +4173,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4128,10 +4184,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4139,10 +4195,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4150,10 +4206,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4161,10 +4217,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4172,10 +4228,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4183,10 +4239,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4194,10 +4250,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4205,10 +4261,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4216,10 +4272,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4227,10 +4283,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4238,10 +4294,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4249,10 +4305,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4260,10 +4316,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4271,10 +4327,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4282,10 +4338,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4293,10 +4349,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4304,10 +4360,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4315,10 +4371,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4326,10 +4382,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4337,10 +4393,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4348,10 +4404,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4359,10 +4415,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4370,10 +4426,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4381,10 +4437,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4392,10 +4448,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4403,10 +4459,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4414,10 +4470,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4425,10 +4481,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4436,10 +4492,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4447,10 +4503,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4458,10 +4514,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4469,10 +4525,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4480,10 +4536,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4491,10 +4547,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4502,10 +4558,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4513,10 +4569,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4524,10 +4580,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4535,10 +4591,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4546,10 +4602,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4557,10 +4613,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4568,10 +4624,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4579,10 +4635,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4590,10 +4646,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4601,10 +4657,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4612,10 +4668,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4623,10 +4679,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4634,10 +4690,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4645,10 +4701,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4656,10 +4712,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4667,10 +4723,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4678,10 +4734,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4689,10 +4745,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4700,10 +4756,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4711,10 +4767,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4722,10 +4778,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4733,10 +4789,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4744,10 +4800,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4755,10 +4811,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4766,10 +4822,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4777,10 +4833,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4788,10 +4844,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4799,10 +4855,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4810,10 +4866,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4821,10 +4877,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4832,10 +4888,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4843,10 +4899,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4854,10 +4910,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4865,10 +4921,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4876,10 +4932,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4887,10 +4943,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4898,10 +4954,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4909,10 +4965,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4920,10 +4976,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4931,10 +4987,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D103" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4942,10 +4998,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4953,10 +5009,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4964,10 +5020,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4975,10 +5031,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D107" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4986,10 +5042,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D108" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4997,10 +5053,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D109" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5008,10 +5064,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D110" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5019,10 +5075,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D111" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5030,10 +5086,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D112" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5041,10 +5097,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D113" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5052,10 +5108,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D114" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5063,10 +5119,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5074,10 +5130,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5085,10 +5141,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D117" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5096,10 +5152,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D118" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5107,10 +5163,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D119" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5118,10 +5174,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D120" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5129,10 +5185,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D121" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5140,10 +5196,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D122" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5151,10 +5207,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D123" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5162,10 +5218,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D124" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5173,10 +5229,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D125" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5184,10 +5240,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D126" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5195,10 +5251,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5206,10 +5262,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D128" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5217,10 +5273,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D129" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5228,10 +5284,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D130" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5239,10 +5295,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D131" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5250,10 +5306,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D132" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5261,10 +5317,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D133" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5272,10 +5328,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5283,10 +5339,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D135" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5294,10 +5350,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D136" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5305,10 +5361,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D137" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5316,10 +5372,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5327,10 +5383,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D139" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5338,10 +5394,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5349,10 +5405,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5360,10 +5416,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5371,10 +5427,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5382,10 +5438,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D144" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5393,10 +5449,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D145" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5404,10 +5460,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D146" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5415,10 +5471,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D147" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5426,10 +5482,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5437,10 +5493,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5448,10 +5504,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D150" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5459,10 +5515,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D151" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5470,10 +5526,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D152" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5481,10 +5537,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D153" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5492,10 +5548,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D154" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5503,10 +5559,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D155" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5514,10 +5570,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D156" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5525,10 +5581,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D157" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5536,10 +5592,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D158" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5547,10 +5603,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D159" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5558,10 +5614,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D160" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5569,10 +5625,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D161" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5580,10 +5636,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D162" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5591,10 +5647,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D163" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5602,10 +5658,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D164" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5613,10 +5669,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D165" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5624,10 +5680,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D166" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5635,10 +5691,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D167" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5646,10 +5702,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D168" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5657,10 +5713,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D169" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5668,10 +5724,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D170" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5679,10 +5735,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D171" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5690,10 +5746,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D172" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5701,10 +5757,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5712,10 +5768,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D174" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5723,10 +5779,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D175" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5734,10 +5790,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D176" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5745,10 +5801,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D177" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5756,10 +5812,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D178" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5767,10 +5823,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D179" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5778,10 +5834,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D180" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5789,10 +5845,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D181" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5800,10 +5856,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D182" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5811,10 +5867,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D183" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5887,10 +5943,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5898,10 +5954,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5909,10 +5965,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5920,10 +5976,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5931,10 +5987,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" t="s">
         <v>325</v>
-      </c>
-      <c r="D8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5942,10 +5998,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5953,10 +6009,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5964,10 +6020,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5975,10 +6031,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5986,10 +6042,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5997,10 +6053,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6008,10 +6064,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6019,10 +6075,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6095,10 +6151,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6106,10 +6162,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6117,10 +6173,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6128,10 +6184,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6204,13 +6260,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6218,13 +6274,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6232,13 +6288,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" t="s">
         <v>345</v>
-      </c>
-      <c r="D6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6246,13 +6302,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6260,13 +6316,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6274,13 +6330,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6288,13 +6344,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6302,13 +6358,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6316,13 +6372,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D12" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6330,13 +6386,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6344,13 +6400,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6358,13 +6414,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C15" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D15" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6372,13 +6428,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6386,13 +6442,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C17" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D17" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6400,13 +6456,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C18" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6414,13 +6470,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6493,13 +6549,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6507,10 +6563,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6518,10 +6574,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6529,10 +6585,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6546,7 +6602,7 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A36"/>
     </sheetView>
   </sheetViews>
@@ -6605,13 +6661,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6619,13 +6675,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6633,13 +6689,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6647,13 +6703,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" t="s">
         <v>382</v>
-      </c>
-      <c r="D7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6661,13 +6717,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6675,13 +6731,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6689,13 +6745,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6703,13 +6759,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D11" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6717,13 +6773,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6731,13 +6787,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6745,13 +6801,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6759,13 +6815,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6773,13 +6829,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C16" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6787,13 +6843,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6801,13 +6857,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6815,13 +6871,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6829,13 +6885,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C20" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6843,13 +6899,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C21" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6857,13 +6913,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D22" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6871,13 +6927,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C23" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D23" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6885,13 +6941,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C24" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D24" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6899,13 +6955,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D25" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6913,13 +6969,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6927,13 +6983,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C27" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6941,13 +6997,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C28" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6955,13 +7011,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C29" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D29" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6969,13 +7025,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C30" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D30" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6983,13 +7039,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6997,13 +7053,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D32" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7011,13 +7067,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C33" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D33" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7025,13 +7081,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C34" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D34" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7039,13 +7095,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C35" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D35" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7053,13 +7109,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C36" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -16,6 +16,7 @@
     <sheet name="StoreGashaponmachineInfo" sheetId="7" r:id="rId7"/>
     <sheet name="GameWorldInfo" sheetId="8" r:id="rId8"/>
     <sheet name="CreatureInfo" sheetId="9" r:id="rId9"/>
+    <sheet name="NpcInfo" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="465">
   <si>
     <t>id</t>
   </si>
@@ -394,6 +395,36 @@
     <t>通过率   {0}%</t>
   </si>
   <si>
+    <t>开始投票</t>
+  </si>
+  <si>
+    <t>离开议会</t>
+  </si>
+  <si>
+    <t>赞成</t>
+  </si>
+  <si>
+    <t>Aye</t>
+  </si>
+  <si>
+    <t>反对</t>
+  </si>
+  <si>
+    <t>Nay</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>否决</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -1370,6 +1401,36 @@
   </si>
   <si>
     <t>Human Mage (Ice)</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>魔法师（火）</t>
+  </si>
+  <si>
+    <t>Mage (Fire)</t>
+  </si>
+  <si>
+    <t>魔法师（冰）</t>
+  </si>
+  <si>
+    <t>Mage (Ice)</t>
+  </si>
+  <si>
+    <t>白剑伟</t>
+  </si>
+  <si>
+    <t>宛家伟</t>
   </si>
 </sst>
 </file>
@@ -2337,10 +2398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3315,7 +3376,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>60001</v>
+        <v>53004</v>
       </c>
       <c r="B77" t="s">
         <v>119</v>
@@ -3326,7 +3387,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>60002</v>
+        <v>53005</v>
       </c>
       <c r="B78" t="s">
         <v>120</v>
@@ -3337,21 +3398,27 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>61001</v>
+        <v>53006</v>
       </c>
       <c r="B79" t="s">
         <v>121</v>
       </c>
+      <c r="C79" t="s">
+        <v>122</v>
+      </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>61002</v>
+        <v>53007</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>124</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3359,10 +3426,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>62001</v>
+        <v>53008</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="C81" t="s">
+        <v>126</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3370,10 +3440,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>62002</v>
+        <v>53009</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="C82" t="s">
+        <v>128</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3381,10 +3454,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>80001</v>
+        <v>60001</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3392,10 +3465,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>80002</v>
+        <v>60002</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3403,10 +3476,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>80003</v>
+        <v>61001</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3414,10 +3487,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>80004</v>
+        <v>61002</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3425,10 +3498,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>80005</v>
+        <v>62001</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3436,10 +3509,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>80006</v>
+        <v>62002</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3447,10 +3520,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>80007</v>
+        <v>80001</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3458,10 +3531,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>80008</v>
+        <v>80002</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3469,10 +3542,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>80009</v>
+        <v>80003</v>
       </c>
       <c r="B91" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -3480,13 +3553,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>1000001</v>
+        <v>80004</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -3494,13 +3564,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>1000002</v>
+        <v>80005</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -3508,10 +3575,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2000001</v>
+        <v>80006</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -3519,10 +3586,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>3000001</v>
+        <v>80007</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -3530,18 +3597,214 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
+        <v>80008</v>
+      </c>
+      <c r="B96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>80009</v>
+      </c>
+      <c r="B97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1000001</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>1000002</v>
+      </c>
+      <c r="B99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>2000001</v>
+      </c>
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>3000001</v>
+      </c>
+      <c r="B101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
         <v>3000002</v>
       </c>
-      <c r="B96" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="B102" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:4">
+      <c r="A8">
+        <v>2000000001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2000000002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3610,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3621,10 +3884,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3632,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3643,10 +3906,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3654,10 +3917,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3665,10 +3928,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3676,10 +3939,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3687,10 +3950,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3769,7 +4032,7 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3777,13 +4040,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3791,13 +4054,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3805,13 +4068,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3819,13 +4082,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3898,10 +4161,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3909,10 +4172,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3920,10 +4183,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3931,10 +4194,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3942,10 +4205,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3953,10 +4216,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3964,10 +4227,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3975,10 +4238,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3986,10 +4249,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3997,10 +4260,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4008,10 +4271,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4019,10 +4282,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4030,10 +4293,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4041,10 +4304,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4052,10 +4315,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4063,10 +4326,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4074,10 +4337,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4085,10 +4348,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4096,10 +4359,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4107,10 +4370,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4118,10 +4381,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4129,10 +4392,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4140,10 +4403,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4151,10 +4414,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4162,10 +4425,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4173,10 +4436,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4184,10 +4447,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4195,10 +4458,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4206,10 +4469,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4217,10 +4480,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4228,10 +4491,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4239,10 +4502,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4250,10 +4513,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4261,10 +4524,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4272,10 +4535,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4283,10 +4546,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4294,10 +4557,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4305,10 +4568,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4316,10 +4579,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4327,10 +4590,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4338,10 +4601,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4349,10 +4612,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4360,10 +4623,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4371,10 +4634,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4382,10 +4645,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4393,10 +4656,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4404,10 +4667,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4415,10 +4678,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4426,10 +4689,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4437,10 +4700,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4448,10 +4711,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4459,10 +4722,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4470,10 +4733,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4481,10 +4744,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4492,10 +4755,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4503,10 +4766,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4514,10 +4777,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4525,10 +4788,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4536,10 +4799,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4547,10 +4810,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4558,10 +4821,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4569,10 +4832,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4580,10 +4843,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4591,10 +4854,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4602,10 +4865,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4613,10 +4876,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4624,10 +4887,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4635,10 +4898,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4646,10 +4909,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4657,10 +4920,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4668,10 +4931,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4679,10 +4942,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4690,10 +4953,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4701,10 +4964,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4712,10 +4975,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4723,10 +4986,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4734,10 +4997,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4745,10 +5008,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4756,10 +5019,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4767,10 +5030,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4778,10 +5041,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4789,10 +5052,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4800,10 +5063,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4811,10 +5074,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4822,10 +5085,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4833,10 +5096,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4844,10 +5107,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4855,10 +5118,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4866,10 +5129,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4877,10 +5140,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4888,10 +5151,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4899,10 +5162,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4910,10 +5173,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4921,10 +5184,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4932,10 +5195,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4943,10 +5206,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4954,10 +5217,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4965,10 +5228,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4976,10 +5239,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4987,10 +5250,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4998,10 +5261,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5009,10 +5272,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5020,10 +5283,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5031,10 +5294,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5042,10 +5305,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D108" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5053,10 +5316,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D109" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5064,10 +5327,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D110" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5075,10 +5338,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5086,10 +5349,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5097,10 +5360,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5108,10 +5371,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5119,10 +5382,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5130,10 +5393,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5141,10 +5404,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5152,10 +5415,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5163,10 +5426,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5174,10 +5437,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5185,10 +5448,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5196,10 +5459,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5207,10 +5470,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5218,10 +5481,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5229,10 +5492,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5240,10 +5503,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5251,10 +5514,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5262,10 +5525,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D128" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5273,10 +5536,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D129" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5284,10 +5547,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5295,10 +5558,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D131" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5306,10 +5569,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D132" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5317,10 +5580,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D133" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5328,10 +5591,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5339,10 +5602,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D135" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5350,10 +5613,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D136" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5361,10 +5624,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D137" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5372,10 +5635,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D138" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5383,10 +5646,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D139" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5394,10 +5657,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5405,10 +5668,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D141" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5416,10 +5679,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5427,10 +5690,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D143" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5438,10 +5701,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D144" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5449,10 +5712,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5460,10 +5723,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D146" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5471,10 +5734,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D147" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5482,10 +5745,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D148" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5493,10 +5756,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5504,10 +5767,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D150" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5515,10 +5778,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D151" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5526,10 +5789,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D152" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5537,10 +5800,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5548,10 +5811,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D154" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5559,10 +5822,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D155" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5570,10 +5833,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D156" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5581,10 +5844,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5592,10 +5855,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D158" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5603,10 +5866,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D159" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5614,10 +5877,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D160" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5625,10 +5888,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D161" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5636,10 +5899,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D162" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5647,10 +5910,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D163" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5658,10 +5921,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="D164" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5669,10 +5932,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D165" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5680,10 +5943,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D166" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5691,10 +5954,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D167" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5702,10 +5965,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D168" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5713,10 +5976,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D169" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5724,10 +5987,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D170" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5735,10 +5998,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D171" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5746,10 +6009,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D172" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5757,10 +6020,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D173" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5768,10 +6031,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D174" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5779,10 +6042,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D175" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5790,10 +6053,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D176" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5801,10 +6064,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D177" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5812,10 +6075,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D178" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5823,10 +6086,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D179" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5834,10 +6097,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D180" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5845,10 +6108,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D181" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5856,10 +6119,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D182" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5867,10 +6130,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D183" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5943,10 +6206,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5954,10 +6217,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5965,10 +6228,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5976,10 +6239,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5987,10 +6250,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5998,10 +6261,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6009,10 +6272,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6020,10 +6283,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6031,10 +6294,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6042,10 +6305,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6053,10 +6316,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" t="s">
         <v>335</v>
-      </c>
-      <c r="D14" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6064,10 +6327,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D15" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6075,10 +6338,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6414,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6162,10 +6425,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D5" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6173,10 +6436,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6184,10 +6447,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -6260,13 +6523,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6274,13 +6537,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6288,13 +6551,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D6" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6302,13 +6565,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6316,13 +6579,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6330,13 +6593,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" t="s">
         <v>355</v>
-      </c>
-      <c r="D9" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6344,13 +6607,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6358,13 +6621,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6372,13 +6635,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6386,13 +6649,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6400,13 +6663,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6414,13 +6677,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6428,13 +6691,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6442,13 +6705,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D17" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6456,13 +6719,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6470,13 +6733,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D19" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6549,13 +6812,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6563,10 +6826,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6574,10 +6837,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6585,10 +6848,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6603,7 +6866,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A36"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6661,13 +6924,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6675,13 +6938,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6689,13 +6952,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6703,13 +6966,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6717,13 +6980,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6731,13 +6994,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6745,13 +7008,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" t="s">
         <v>392</v>
-      </c>
-      <c r="D10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6759,13 +7022,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6773,13 +7036,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6787,13 +7050,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6801,13 +7064,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6815,13 +7078,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6829,13 +7092,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6843,13 +7106,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D17" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6857,13 +7120,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D18" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6871,13 +7134,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6885,13 +7148,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D20" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6899,13 +7162,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C21" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D21" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6913,13 +7176,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6927,13 +7190,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C23" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6941,13 +7204,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D24" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6955,13 +7218,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D25" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6969,13 +7232,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C26" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D26" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6983,13 +7246,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6997,13 +7260,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C28" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7011,13 +7274,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C29" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D29" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7025,13 +7288,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7039,13 +7302,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C31" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D31" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7053,13 +7316,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C32" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7067,13 +7330,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C33" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7081,13 +7344,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C34" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D34" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7095,13 +7358,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C35" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D35" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7109,13 +7372,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C36" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D36" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26355" windowHeight="12045"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="GameWorldInfo" sheetId="8" r:id="rId8"/>
     <sheet name="CreatureInfo" sheetId="9" r:id="rId9"/>
     <sheet name="NpcInfo" sheetId="10" r:id="rId10"/>
+    <sheet name="ConversationCouncilorInfo" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="498">
   <si>
     <t>id</t>
   </si>
@@ -425,6 +426,9 @@
     <t>Reject</t>
   </si>
   <si>
+    <t>暴力说服</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -443,6 +447,9 @@
     <t>是否开启此项研究？花费x{0}魔晶</t>
   </si>
   <si>
+    <t>贿赂</t>
+  </si>
+  <si>
     <t>开始进阶</t>
   </si>
   <si>
@@ -1431,6 +1438,99 @@
   </si>
   <si>
     <t>宛家伟</t>
+  </si>
+  <si>
+    <t>滚开！</t>
+  </si>
+  <si>
+    <t>你的气味让我作呕</t>
+  </si>
+  <si>
+    <t>你胆敢直视我？</t>
+  </si>
+  <si>
+    <t>你的生命在我眼中毫无价值</t>
+  </si>
+  <si>
+    <t>你是如何做到既碍眼又碍事的？我很好奇。</t>
+  </si>
+  <si>
+    <t>我的耐心是有限的</t>
+  </si>
+  <si>
+    <t>有事就说，别浪费我的时间</t>
+  </si>
+  <si>
+    <t>你的存在与否，对我影响不大</t>
+  </si>
+  <si>
+    <t>保持距离，对你我都好</t>
+  </si>
+  <si>
+    <t>交易就是交易，别谈交情</t>
+  </si>
+  <si>
+    <t>我没有兴趣了解你的故事</t>
+  </si>
+  <si>
+    <t>别指望我会给你什么好脸色</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>今天找我，又有什么事？</t>
+  </si>
+  <si>
+    <t>你的提议，我可以考虑一下。</t>
+  </si>
+  <si>
+    <t>看来你并非一无是处。</t>
+  </si>
+  <si>
+    <t>合作可以，但别越界</t>
+  </si>
+  <si>
+    <t>看来你的运气和你的脸皮一样厚，这算是个优点吧</t>
+  </si>
+  <si>
+    <t>我好像有点习惯你这张脸了。。。</t>
+  </si>
+  <si>
+    <t>嘿，你来了！今天有什么趣事吗？</t>
+  </si>
+  <si>
+    <t>只有在你面前，我才能稍微放松一下。</t>
+  </si>
+  <si>
+    <t>你是我漫长生命中，少数几个不讨厌的存在。</t>
+  </si>
+  <si>
+    <t>有你在一旁，统治世界似乎也没那么无聊了。</t>
+  </si>
+  <si>
+    <t>看你活蹦乱跳的，我就知道今天的世界依然不太平。</t>
+  </si>
+  <si>
+    <t>别感动，帮你只是因为你是我的‘专属乐子’。</t>
+  </si>
+  <si>
+    <t>没有你的日子……清净得让我有点不习惯了，真可怕。</t>
+  </si>
+  <si>
+    <t>没有你，永恒的寿命会变得很无聊……这可是我最恶毒的诅咒了，好好接受吧。</t>
+  </si>
+  <si>
+    <t>别离开我太久……我会感到……烦躁。</t>
+  </si>
+  <si>
+    <t>如果我们注定要毁灭，我希望最后一眼看到的是你。</t>
+  </si>
+  <si>
+    <t>别对别人笑……你是我的，只是我的。</t>
+  </si>
+  <si>
+    <t>与我共享永恒吧，这是我能给出的最高契约。</t>
   </si>
 </sst>
 </file>
@@ -1443,13 +1543,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1115"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1115"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1916,138 +2028,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2398,10 +2516,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3454,7 +3572,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>60001</v>
+        <v>53010</v>
       </c>
       <c r="B83" t="s">
         <v>129</v>
@@ -3465,7 +3583,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B84" t="s">
         <v>130</v>
@@ -3476,7 +3594,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B85" t="s">
         <v>131</v>
@@ -3487,7 +3605,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B86" t="s">
         <v>132</v>
@@ -3498,7 +3616,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B87" t="s">
         <v>133</v>
@@ -3509,7 +3627,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B88" t="s">
         <v>134</v>
@@ -3520,7 +3638,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>80001</v>
+        <v>62002</v>
       </c>
       <c r="B89" t="s">
         <v>135</v>
@@ -3531,7 +3649,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>80002</v>
+        <v>70001</v>
       </c>
       <c r="B90" t="s">
         <v>136</v>
@@ -3542,7 +3660,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>80003</v>
+        <v>80001</v>
       </c>
       <c r="B91" t="s">
         <v>137</v>
@@ -3553,7 +3671,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>80004</v>
+        <v>80002</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
@@ -3564,7 +3682,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>80005</v>
+        <v>80003</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
@@ -3575,7 +3693,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>80006</v>
+        <v>80004</v>
       </c>
       <c r="B94" t="s">
         <v>140</v>
@@ -3586,7 +3704,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>80007</v>
+        <v>80005</v>
       </c>
       <c r="B95" t="s">
         <v>141</v>
@@ -3597,7 +3715,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>80008</v>
+        <v>80006</v>
       </c>
       <c r="B96" t="s">
         <v>142</v>
@@ -3608,7 +3726,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>80009</v>
+        <v>80007</v>
       </c>
       <c r="B97" t="s">
         <v>143</v>
@@ -3619,27 +3737,21 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>1000001</v>
+        <v>80008</v>
       </c>
       <c r="B98" t="s">
         <v>144</v>
       </c>
-      <c r="C98" t="s">
-        <v>145</v>
-      </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>1000002</v>
+        <v>80009</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -3647,10 +3759,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>147</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -3658,9 +3773,12 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>3000001</v>
+        <v>1000002</v>
       </c>
       <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
         <v>149</v>
       </c>
       <c r="D101" t="s">
@@ -3669,12 +3787,34 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>3000002</v>
+        <v>2000001</v>
       </c>
       <c r="B102" t="s">
         <v>150</v>
       </c>
       <c r="D102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>3000001</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>3000002</v>
+      </c>
+      <c r="B104" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3691,7 +3831,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3748,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3759,10 +3899,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3770,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3781,10 +3921,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:4">
@@ -3792,7 +3932,7 @@
         <v>2000000001</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3800,7 +3940,318 @@
         <v>2000000002</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="73.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>100000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5">
+        <v>100000002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:4">
+      <c r="A6">
+        <v>100000003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:4">
+      <c r="A7">
+        <v>100000004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8">
+        <v>100000005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9">
+        <v>100000006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:4">
+      <c r="A10">
+        <v>200000001</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:4">
+      <c r="A11">
+        <v>200000002</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:4">
+      <c r="A12">
+        <v>200000003</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:4">
+      <c r="A13">
+        <v>200000004</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:4">
+      <c r="A14">
+        <v>200000005</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
+      <c r="A15">
+        <v>200000006</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16">
+        <v>200000007</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>300000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>300000002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>300000003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>300000004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>300000005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>300000006</v>
+      </c>
+      <c r="B22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>400000001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>400000002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>400000003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>400000004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>400000005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>400000006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>400000007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>500000001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>500000002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>500000003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>500000004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>500000005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -3873,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3884,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3895,10 +4346,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
         <v>154</v>
-      </c>
-      <c r="D6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3906,10 +4357,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3917,10 +4368,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3928,10 +4379,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3939,10 +4390,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3950,10 +4401,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4032,7 +4483,7 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4040,13 +4491,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
         <v>162</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4054,13 +4505,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4068,13 +4519,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4082,13 +4533,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4161,10 +4612,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4172,10 +4623,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4183,10 +4634,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4194,10 +4645,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4205,10 +4656,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4216,10 +4667,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4227,10 +4678,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4238,10 +4689,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4249,10 +4700,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4260,10 +4711,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4271,10 +4722,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4282,10 +4733,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4293,10 +4744,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4304,10 +4755,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4315,10 +4766,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4326,10 +4777,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4337,10 +4788,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4348,10 +4799,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4359,10 +4810,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4370,10 +4821,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4381,10 +4832,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4392,10 +4843,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4403,10 +4854,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4414,10 +4865,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4425,10 +4876,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4436,10 +4887,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4447,10 +4898,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4458,10 +4909,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4469,10 +4920,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4480,10 +4931,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4491,10 +4942,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4502,10 +4953,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4513,10 +4964,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4524,10 +4975,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4535,10 +4986,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4546,10 +4997,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4557,10 +5008,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4568,10 +5019,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4579,10 +5030,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4590,10 +5041,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4601,10 +5052,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4612,10 +5063,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4623,10 +5074,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4634,10 +5085,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4645,10 +5096,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4656,10 +5107,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4667,10 +5118,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4678,10 +5129,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4689,10 +5140,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4700,10 +5151,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4711,10 +5162,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4722,10 +5173,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4733,10 +5184,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4744,10 +5195,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4755,10 +5206,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4766,10 +5217,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4777,10 +5228,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4788,10 +5239,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4799,10 +5250,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4810,10 +5261,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4821,10 +5272,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4832,10 +5283,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4843,10 +5294,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4854,10 +5305,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4865,10 +5316,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4876,10 +5327,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4887,10 +5338,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4898,10 +5349,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4909,10 +5360,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4920,10 +5371,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4931,10 +5382,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4942,10 +5393,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4953,10 +5404,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4964,10 +5415,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D77" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4975,10 +5426,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4986,10 +5437,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D79" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4997,10 +5448,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5008,10 +5459,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5019,10 +5470,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D82" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5030,10 +5481,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5041,10 +5492,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5052,10 +5503,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5063,10 +5514,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5074,10 +5525,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5085,10 +5536,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5096,10 +5547,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5107,10 +5558,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5118,10 +5569,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5129,10 +5580,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5140,10 +5591,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D93" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5151,10 +5602,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D94" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5162,10 +5613,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D95" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5173,10 +5624,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D96" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5184,10 +5635,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D97" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5195,10 +5646,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5206,10 +5657,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5217,10 +5668,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5228,10 +5679,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5239,10 +5690,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D102" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5250,10 +5701,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5261,10 +5712,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5272,10 +5723,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5283,10 +5734,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5294,10 +5745,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5305,10 +5756,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5316,10 +5767,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D109" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5327,10 +5778,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5338,10 +5789,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D111" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5349,10 +5800,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D112" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5360,10 +5811,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5371,10 +5822,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5382,10 +5833,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D115" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5393,10 +5844,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D116" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5404,10 +5855,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D117" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5415,10 +5866,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D118" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5426,10 +5877,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D119" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5437,10 +5888,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D120" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5448,10 +5899,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D121" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5459,10 +5910,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5470,10 +5921,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5481,10 +5932,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D124" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5492,10 +5943,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D125" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5503,10 +5954,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D126" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5514,10 +5965,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D127" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5525,10 +5976,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D128" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5536,10 +5987,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D129" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5547,10 +5998,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D130" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5558,10 +6009,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D131" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5569,10 +6020,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5580,10 +6031,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D133" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5591,10 +6042,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D134" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5602,10 +6053,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D135" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5613,10 +6064,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D136" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5624,10 +6075,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D137" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5635,10 +6086,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5646,10 +6097,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D139" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5657,10 +6108,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5668,10 +6119,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D141" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5679,10 +6130,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D142" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5690,10 +6141,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D143" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5701,10 +6152,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D144" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5712,10 +6163,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D145" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5723,10 +6174,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D146" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5734,10 +6185,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D147" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5745,10 +6196,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D148" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5756,10 +6207,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D149" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5767,10 +6218,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D150" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5778,10 +6229,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D151" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5789,10 +6240,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D152" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5800,10 +6251,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D153" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5811,10 +6262,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D154" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5822,10 +6273,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D155" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5833,10 +6284,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D156" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5844,10 +6295,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D157" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5855,10 +6306,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D158" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5866,10 +6317,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D159" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5877,10 +6328,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D160" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5888,10 +6339,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D161" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5899,10 +6350,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D162" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5910,10 +6361,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D163" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5921,10 +6372,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D164" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5932,10 +6383,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D165" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5943,10 +6394,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D166" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5954,10 +6405,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D167" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5965,10 +6416,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D168" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5976,10 +6427,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D169" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5987,10 +6438,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D170" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5998,10 +6449,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D171" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6009,10 +6460,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D172" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6020,10 +6471,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D173" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6031,10 +6482,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D174" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6042,10 +6493,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D175" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6053,10 +6504,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D176" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6064,10 +6515,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D177" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6075,10 +6526,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D178" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6086,10 +6537,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D179" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6097,10 +6548,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D180" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6108,10 +6559,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D181" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6119,10 +6570,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D182" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6130,10 +6581,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D183" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6206,10 +6657,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6217,10 +6668,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6228,10 +6679,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" t="s">
         <v>337</v>
-      </c>
-      <c r="D6" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6239,10 +6690,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6250,10 +6701,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6261,10 +6712,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6272,10 +6723,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6283,10 +6734,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6294,10 +6745,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6305,10 +6756,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6316,10 +6767,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D14" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6327,10 +6778,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6338,10 +6789,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6414,10 +6865,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6425,10 +6876,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6436,10 +6887,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" t="s">
         <v>351</v>
-      </c>
-      <c r="D6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6447,10 +6898,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -6523,13 +6974,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6537,13 +6988,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" t="s">
         <v>357</v>
-      </c>
-      <c r="D5" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6551,13 +7002,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6565,13 +7016,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6579,13 +7030,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6593,13 +7044,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6607,13 +7058,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6621,13 +7072,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6635,13 +7086,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6649,13 +7100,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6663,13 +7114,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6677,13 +7128,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6691,13 +7142,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6705,13 +7156,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6719,13 +7170,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D18" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6733,13 +7184,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6812,13 +7263,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6826,10 +7277,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6837,10 +7288,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" t="s">
         <v>389</v>
-      </c>
-      <c r="D6" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6848,10 +7299,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6924,13 +7375,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6938,13 +7389,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
         <v>394</v>
-      </c>
-      <c r="D5" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6952,13 +7403,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6966,13 +7417,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6980,13 +7431,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6994,13 +7445,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7008,13 +7459,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7022,13 +7473,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7036,13 +7487,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7050,13 +7501,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7064,13 +7515,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7078,13 +7529,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7092,13 +7543,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7106,13 +7557,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7120,13 +7571,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C18" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7134,13 +7585,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7148,13 +7599,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C20" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7162,13 +7613,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7176,13 +7627,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C22" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D22" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7190,13 +7641,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C23" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D23" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7204,13 +7655,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D24" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7218,13 +7669,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7232,13 +7683,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C26" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D26" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7246,13 +7697,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C27" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D27" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7260,13 +7711,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C28" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7274,13 +7725,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7288,13 +7739,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C30" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D30" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7302,13 +7753,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D31" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7316,13 +7767,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C32" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D32" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7330,13 +7781,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D33" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7344,13 +7795,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D34" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7358,13 +7809,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D35" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7372,13 +7823,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C36" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D36" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="499">
   <si>
     <t>id</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>暴力说服</t>
+  </si>
+  <si>
+    <t>自由活动</t>
   </si>
   <si>
     <t>开始献祭</t>
@@ -2516,10 +2519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3583,7 +3586,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="B84" t="s">
         <v>130</v>
@@ -3594,7 +3597,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B85" t="s">
         <v>131</v>
@@ -3605,7 +3608,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B86" t="s">
         <v>132</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B87" t="s">
         <v>133</v>
@@ -3627,7 +3630,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B88" t="s">
         <v>134</v>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B89" t="s">
         <v>135</v>
@@ -3649,7 +3652,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="B90" t="s">
         <v>136</v>
@@ -3660,7 +3663,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>80001</v>
+        <v>70001</v>
       </c>
       <c r="B91" t="s">
         <v>137</v>
@@ -3671,7 +3674,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
@@ -3682,7 +3685,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B93" t="s">
         <v>139</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B94" t="s">
         <v>140</v>
@@ -3704,7 +3707,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B95" t="s">
         <v>141</v>
@@ -3715,7 +3718,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B96" t="s">
         <v>142</v>
@@ -3726,7 +3729,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B97" t="s">
         <v>143</v>
@@ -3737,7 +3740,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B98" t="s">
         <v>144</v>
@@ -3748,7 +3751,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B99" t="s">
         <v>145</v>
@@ -3759,27 +3762,24 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B100" t="s">
         <v>146</v>
       </c>
-      <c r="C100" t="s">
-        <v>147</v>
-      </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" t="s">
         <v>148</v>
-      </c>
-      <c r="C101" t="s">
-        <v>149</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -3787,9 +3787,12 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B102" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" t="s">
         <v>150</v>
       </c>
       <c r="D102" t="s">
@@ -3798,7 +3801,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="B103" t="s">
         <v>151</v>
@@ -3809,12 +3812,23 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>3000002</v>
+        <v>3000001</v>
       </c>
       <c r="B104" t="s">
         <v>152</v>
       </c>
       <c r="D104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>3000002</v>
+      </c>
+      <c r="B105" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3888,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3899,10 +3913,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3910,10 +3924,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3921,10 +3935,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:4">
@@ -3932,7 +3946,7 @@
         <v>2000000001</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3940,7 +3954,7 @@
         <v>2000000002</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4011,7 +4025,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4019,7 +4033,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -4027,7 +4041,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -4035,7 +4049,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -4043,7 +4057,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -4051,7 +4065,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -4059,7 +4073,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -4067,7 +4081,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -4075,7 +4089,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -4083,7 +4097,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -4091,7 +4105,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -4099,7 +4113,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -4107,7 +4121,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4115,7 +4129,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4123,7 +4137,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4131,7 +4145,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4139,7 +4153,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4147,7 +4161,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4155,7 +4169,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4163,7 +4177,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4171,7 +4185,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4179,7 +4193,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4187,7 +4201,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4195,7 +4209,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4203,7 +4217,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4211,7 +4225,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4219,7 +4233,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4227,7 +4241,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4235,7 +4249,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4243,7 +4257,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4251,7 +4265,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -4324,10 +4338,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4335,10 +4349,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
         <v>155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4346,10 +4360,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4357,10 +4371,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4368,10 +4382,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4379,10 +4393,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4390,10 +4404,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4401,10 +4415,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4497,7 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4491,13 +4505,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
         <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4505,13 +4519,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4519,13 +4533,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4533,13 +4547,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4612,10 +4626,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4623,10 +4637,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4634,10 +4648,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4645,10 +4659,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4656,10 +4670,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4667,10 +4681,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4678,10 +4692,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4689,10 +4703,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4700,10 +4714,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4711,10 +4725,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4722,10 +4736,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4733,10 +4747,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4744,10 +4758,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4755,10 +4769,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4766,10 +4780,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4777,10 +4791,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4788,10 +4802,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4799,10 +4813,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4810,10 +4824,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4821,10 +4835,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4832,10 +4846,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4843,10 +4857,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4854,10 +4868,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4865,10 +4879,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4876,10 +4890,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4887,10 +4901,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4898,10 +4912,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4909,10 +4923,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4920,10 +4934,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4931,10 +4945,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4942,10 +4956,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4953,10 +4967,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4964,10 +4978,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4975,10 +4989,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4986,10 +5000,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4997,10 +5011,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5008,10 +5022,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5019,10 +5033,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5030,10 +5044,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5041,10 +5055,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5052,10 +5066,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5063,10 +5077,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5074,10 +5088,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5085,10 +5099,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5096,10 +5110,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5107,10 +5121,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5118,10 +5132,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5129,10 +5143,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5140,10 +5154,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5151,10 +5165,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5162,10 +5176,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5173,10 +5187,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5184,10 +5198,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5195,10 +5209,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5206,10 +5220,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5217,10 +5231,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5228,10 +5242,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5239,10 +5253,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5250,10 +5264,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5261,10 +5275,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5272,10 +5286,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5283,10 +5297,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5294,10 +5308,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5305,10 +5319,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5316,10 +5330,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5327,10 +5341,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5338,10 +5352,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5349,10 +5363,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5360,10 +5374,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5371,10 +5385,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5382,10 +5396,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5393,10 +5407,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5404,10 +5418,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5415,10 +5429,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5426,10 +5440,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5437,10 +5451,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5448,10 +5462,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5459,10 +5473,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5470,10 +5484,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5481,10 +5495,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5492,10 +5506,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5503,10 +5517,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5514,10 +5528,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5525,10 +5539,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5536,10 +5550,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5547,10 +5561,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5558,10 +5572,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5569,10 +5583,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5580,10 +5594,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5591,10 +5605,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5602,10 +5616,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5613,10 +5627,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5624,10 +5638,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5635,10 +5649,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D97" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5646,10 +5660,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5657,10 +5671,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5668,10 +5682,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5679,10 +5693,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D101" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5690,10 +5704,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D102" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5701,10 +5715,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D103" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5712,10 +5726,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D104" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5723,10 +5737,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D105" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5734,10 +5748,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D106" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5745,10 +5759,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D107" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5756,10 +5770,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D108" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5767,10 +5781,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D109" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5778,10 +5792,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D110" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5789,10 +5803,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D111" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5800,10 +5814,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D112" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5811,10 +5825,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5822,10 +5836,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D114" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5833,10 +5847,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5844,10 +5858,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5855,10 +5869,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D117" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5866,10 +5880,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D118" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5877,10 +5891,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D119" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5888,10 +5902,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D120" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5899,10 +5913,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D121" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5910,10 +5924,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D122" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5921,10 +5935,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D123" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5932,10 +5946,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D124" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5943,10 +5957,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D125" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5954,10 +5968,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D126" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5965,10 +5979,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D127" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5976,10 +5990,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D128" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5987,10 +6001,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D129" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5998,10 +6012,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D130" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6009,10 +6023,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D131" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6020,10 +6034,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D132" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6031,10 +6045,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6042,10 +6056,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D134" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6053,10 +6067,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6064,10 +6078,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D136" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6075,10 +6089,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D137" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6086,10 +6100,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D138" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6097,10 +6111,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D139" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6108,10 +6122,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D140" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6119,10 +6133,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D141" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6130,10 +6144,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D142" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6141,10 +6155,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D143" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6152,10 +6166,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D144" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6163,10 +6177,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6174,10 +6188,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D146" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6185,10 +6199,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D147" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6196,10 +6210,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D148" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6207,10 +6221,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D149" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6218,10 +6232,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D150" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6229,10 +6243,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6240,10 +6254,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D152" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6251,10 +6265,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D153" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6262,10 +6276,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D154" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6273,10 +6287,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D155" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6284,10 +6298,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6295,10 +6309,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D157" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6306,10 +6320,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D158" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6317,10 +6331,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D159" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6328,10 +6342,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D160" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6339,10 +6353,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D161" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6350,10 +6364,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D162" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6361,10 +6375,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D163" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6372,10 +6386,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D164" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6383,10 +6397,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D165" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6394,10 +6408,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D166" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6405,10 +6419,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D167" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6416,10 +6430,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D168" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6427,10 +6441,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D169" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6438,10 +6452,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D170" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6449,10 +6463,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D171" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6460,10 +6474,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6471,10 +6485,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6482,10 +6496,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D174" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6493,10 +6507,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D175" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6504,10 +6518,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D176" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6515,10 +6529,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D177" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6526,10 +6540,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D178" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6537,10 +6551,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D179" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6548,10 +6562,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D180" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6559,10 +6573,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D181" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6570,10 +6584,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D182" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6581,10 +6595,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D183" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6657,10 +6671,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6668,10 +6682,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" t="s">
         <v>338</v>
-      </c>
-      <c r="D5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6679,10 +6693,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6690,10 +6704,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6701,10 +6715,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6712,10 +6726,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6723,10 +6737,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6734,10 +6748,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6745,10 +6759,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6756,10 +6770,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6767,10 +6781,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6778,10 +6792,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6789,10 +6803,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6865,10 +6879,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6876,10 +6890,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" t="s">
         <v>352</v>
-      </c>
-      <c r="D5" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6887,10 +6901,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6898,10 +6912,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6974,13 +6988,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6988,13 +7002,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" t="s">
         <v>358</v>
-      </c>
-      <c r="C5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7002,13 +7016,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7016,13 +7030,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7030,13 +7044,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7044,13 +7058,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7058,13 +7072,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7072,13 +7086,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7086,13 +7100,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7100,13 +7114,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7114,13 +7128,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7128,13 +7142,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7142,13 +7156,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7156,13 +7170,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7170,13 +7184,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7184,13 +7198,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -7263,13 +7277,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7277,10 +7291,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" t="s">
         <v>390</v>
-      </c>
-      <c r="D5" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7288,10 +7302,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7299,10 +7313,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -7375,13 +7389,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7389,13 +7403,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" t="s">
         <v>395</v>
-      </c>
-      <c r="C5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7403,13 +7417,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7417,13 +7431,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7431,13 +7445,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7445,13 +7459,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7459,13 +7473,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7473,13 +7487,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7487,13 +7501,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7501,13 +7515,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7515,13 +7529,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7529,13 +7543,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7543,13 +7557,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7557,13 +7571,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7571,13 +7585,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7585,13 +7599,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7599,13 +7613,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7613,13 +7627,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C21" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7627,13 +7641,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7641,13 +7655,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7655,13 +7669,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7669,13 +7683,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7683,13 +7697,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7697,13 +7711,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7711,13 +7725,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7725,13 +7739,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7739,13 +7753,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7753,13 +7767,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7767,13 +7781,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D32" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7781,13 +7795,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7795,13 +7809,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7809,13 +7823,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7823,13 +7837,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C36" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="CreatureInfo" sheetId="9" r:id="rId9"/>
     <sheet name="NpcInfo" sheetId="10" r:id="rId10"/>
     <sheet name="ConversationCouncilorInfo" sheetId="11" r:id="rId11"/>
+    <sheet name="TitleInfo" sheetId="12" r:id="rId12"/>
+    <sheet name="NpcRelationshipInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="DoomCouncilRatingsInfo" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="546">
   <si>
     <t>id</t>
   </si>
@@ -387,6 +390,12 @@
     <t>还有可选择次数，是否仍要结束选择奖励？</t>
   </si>
   <si>
+    <t>终焉议会</t>
+  </si>
+  <si>
+    <t>Doom Council</t>
+  </si>
+  <si>
     <t>选择一个议案</t>
   </si>
   <si>
@@ -492,6 +501,12 @@
     <t>Cancel</t>
   </si>
   <si>
+    <t>等级.{0}</t>
+  </si>
+  <si>
+    <t>Lv.{0}</t>
+  </si>
+  <si>
     <t>提示</t>
   </si>
   <si>
@@ -1534,6 +1549,135 @@
   </si>
   <si>
     <t>与我共享永恒吧，这是我能给出的最高契约。</t>
+  </si>
+  <si>
+    <t>龙虾终结者</t>
+  </si>
+  <si>
+    <t>吉尔毁灭者</t>
+  </si>
+  <si>
+    <t>程序破灭者</t>
+  </si>
+  <si>
+    <t>深渊回响</t>
+  </si>
+  <si>
+    <t>御前魔君</t>
+  </si>
+  <si>
+    <t>永恒守望者</t>
+  </si>
+  <si>
+    <t>摄魂仲裁官</t>
+  </si>
+  <si>
+    <t>灾厄领主</t>
+  </si>
+  <si>
+    <t>深渊祭祀</t>
+  </si>
+  <si>
+    <t>影帷军师</t>
+  </si>
+  <si>
+    <t>苦痛工匠</t>
+  </si>
+  <si>
+    <t>血契执行者</t>
+  </si>
+  <si>
+    <t>窃语者</t>
+  </si>
+  <si>
+    <t>仇恨</t>
+  </si>
+  <si>
+    <t>Hatred</t>
+  </si>
+  <si>
+    <t>冷淡</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>中立</t>
+  </si>
+  <si>
+    <t>Acquaintance</t>
+  </si>
+  <si>
+    <t>友好</t>
+  </si>
+  <si>
+    <t>FriendShip</t>
+  </si>
+  <si>
+    <t>迷恋</t>
+  </si>
+  <si>
+    <t>Infatuation</t>
+  </si>
+  <si>
+    <t>预备议员</t>
+  </si>
+  <si>
+    <t>Probationary Member</t>
+  </si>
+  <si>
+    <t>列席议员</t>
+  </si>
+  <si>
+    <t>Seated Member</t>
+  </si>
+  <si>
+    <t>初级议员</t>
+  </si>
+  <si>
+    <t>Junior Member</t>
+  </si>
+  <si>
+    <t>理事议员</t>
+  </si>
+  <si>
+    <t>Councillor Member</t>
+  </si>
+  <si>
+    <t>高级议员</t>
+  </si>
+  <si>
+    <t>Senior Member</t>
+  </si>
+  <si>
+    <t>常务议员</t>
+  </si>
+  <si>
+    <t>Executive Member</t>
+  </si>
+  <si>
+    <t>资深议员</t>
+  </si>
+  <si>
+    <t>Elder Member</t>
+  </si>
+  <si>
+    <t>议长议员</t>
+  </si>
+  <si>
+    <t>Speaker Member</t>
+  </si>
+  <si>
+    <t>首席议员</t>
+  </si>
+  <si>
+    <t>Chief Councillor</t>
+  </si>
+  <si>
+    <t>永恒议长</t>
+  </si>
+  <si>
+    <t>Supreme Speaker</t>
   </si>
 </sst>
 </file>
@@ -1546,13 +1690,32 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A9955"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2031,144 +2194,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2519,10 +2694,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3464,21 +3639,24 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="B74" t="s">
         <v>116</v>
       </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3486,10 +3664,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3497,10 +3675,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -3508,10 +3686,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -3519,12 +3697,9 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" t="s">
         <v>122</v>
       </c>
       <c r="D79" t="s">
@@ -3533,7 +3708,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="B80" t="s">
         <v>123</v>
@@ -3547,7 +3722,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="B81" t="s">
         <v>125</v>
@@ -3561,7 +3736,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="B82" t="s">
         <v>127</v>
@@ -3575,21 +3750,24 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="B83" t="s">
         <v>129</v>
       </c>
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3597,10 +3775,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3608,10 +3786,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3619,10 +3797,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3630,10 +3808,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3641,10 +3819,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3652,10 +3830,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3663,10 +3841,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -3674,10 +3852,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>80001</v>
+        <v>70001</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -3685,10 +3863,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -3696,10 +3874,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -3707,10 +3885,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -3718,10 +3896,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3729,10 +3907,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3740,10 +3918,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -3751,10 +3929,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -3762,10 +3940,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -3773,12 +3951,9 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
-      </c>
-      <c r="C101" t="s">
         <v>148</v>
       </c>
       <c r="D101" t="s">
@@ -3787,7 +3962,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B102" t="s">
         <v>149</v>
@@ -3801,21 +3976,27 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B103" t="s">
         <v>151</v>
       </c>
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>3000001</v>
+        <v>1001001</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="C104" t="s">
+        <v>154</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3823,12 +4004,34 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
+        <v>2000001</v>
+      </c>
+      <c r="B105" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>3000001</v>
+      </c>
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
         <v>3000002</v>
       </c>
-      <c r="B105" t="s">
-        <v>153</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="B107" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3902,10 +4105,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3913,10 +4116,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3924,10 +4127,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3935,10 +4138,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:4">
@@ -3946,7 +4149,7 @@
         <v>2000000001</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3954,7 +4157,7 @@
         <v>2000000002</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +4172,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="A1" sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4025,103 +4228,103 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
       <c r="A5">
         <v>100000002</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>469</v>
+      <c r="B5" s="5" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
       <c r="A6">
         <v>100000003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>470</v>
+      <c r="B6" s="6" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
       <c r="A7">
         <v>100000004</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>471</v>
+      <c r="B7" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8">
         <v>100000005</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>472</v>
+      <c r="B8" s="5" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
       <c r="A9">
         <v>100000006</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>473</v>
+      <c r="B9" s="5" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
       <c r="A10">
         <v>200000001</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>474</v>
+      <c r="B10" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
       <c r="A11">
         <v>200000002</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>475</v>
+      <c r="B11" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
       <c r="A12">
         <v>200000003</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>476</v>
+      <c r="B12" s="6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
       <c r="A13">
         <v>200000004</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>477</v>
+      <c r="B13" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
       <c r="A14">
         <v>200000005</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>478</v>
+      <c r="B14" s="6" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
       <c r="A15">
         <v>200000006</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>479</v>
+      <c r="B15" s="5" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16">
         <v>200000007</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>480</v>
+      <c r="B16" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4129,7 +4332,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4137,7 +4340,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4145,7 +4348,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4153,7 +4356,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4161,7 +4364,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4169,7 +4372,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4177,7 +4380,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4185,7 +4388,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4193,7 +4396,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4201,7 +4404,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4209,7 +4412,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4217,7 +4420,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4225,7 +4428,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4233,7 +4436,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4241,7 +4444,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4249,7 +4452,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4257,7 +4460,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4265,8 +4468,481 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>498</v>
-      </c>
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="73.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>544</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:4">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" ht="17.25" spans="3:3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" ht="17.25" spans="3:3">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" ht="17.25" spans="3:3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" ht="17.25" spans="3:3">
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4338,10 +5014,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4349,10 +5025,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4360,10 +5036,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4371,10 +5047,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4382,10 +5058,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4393,10 +5069,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4404,10 +5080,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4415,10 +5091,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4497,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4505,13 +5181,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4519,13 +5195,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
         <v>167</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4533,13 +5209,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4547,13 +5223,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4626,10 +5302,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4637,10 +5313,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4648,10 +5324,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4659,10 +5335,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4670,10 +5346,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4681,10 +5357,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4692,10 +5368,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4703,10 +5379,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4714,10 +5390,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4725,10 +5401,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4736,10 +5412,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4747,10 +5423,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4758,10 +5434,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4769,10 +5445,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4780,10 +5456,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4791,10 +5467,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4802,10 +5478,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4813,10 +5489,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4824,10 +5500,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4835,10 +5511,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4846,10 +5522,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4857,10 +5533,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4868,10 +5544,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4879,10 +5555,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4890,10 +5566,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4901,10 +5577,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4912,10 +5588,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4923,10 +5599,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4934,10 +5610,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4945,10 +5621,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4956,10 +5632,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4967,10 +5643,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4978,10 +5654,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4989,10 +5665,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5000,10 +5676,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5011,10 +5687,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5022,10 +5698,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5033,10 +5709,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5044,10 +5720,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5055,10 +5731,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5066,10 +5742,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5077,10 +5753,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5088,10 +5764,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5099,10 +5775,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5110,10 +5786,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5121,10 +5797,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5132,10 +5808,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5143,10 +5819,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5154,10 +5830,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D52" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5165,10 +5841,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5176,10 +5852,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5187,10 +5863,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5198,10 +5874,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5209,10 +5885,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5220,10 +5896,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5231,10 +5907,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5242,10 +5918,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5253,10 +5929,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5264,10 +5940,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5275,10 +5951,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5286,10 +5962,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D64" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5297,10 +5973,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5308,10 +5984,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5319,10 +5995,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5330,10 +6006,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5341,10 +6017,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5352,10 +6028,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5363,10 +6039,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5374,10 +6050,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5385,10 +6061,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5396,10 +6072,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5407,10 +6083,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5418,10 +6094,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5429,10 +6105,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5440,10 +6116,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5451,10 +6127,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D79" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5462,10 +6138,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5473,10 +6149,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5484,10 +6160,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5495,10 +6171,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5506,10 +6182,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5517,10 +6193,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D85" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5528,10 +6204,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5539,10 +6215,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5550,10 +6226,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D88" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5561,10 +6237,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5572,10 +6248,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5583,10 +6259,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5594,10 +6270,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5605,10 +6281,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D93" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5616,10 +6292,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5627,10 +6303,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5638,10 +6314,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5649,10 +6325,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5660,10 +6336,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D98" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5671,10 +6347,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5682,10 +6358,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5693,10 +6369,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D101" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5704,10 +6380,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D102" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5715,10 +6391,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5726,10 +6402,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D104" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5737,10 +6413,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D105" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5748,10 +6424,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D106" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5759,10 +6435,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5770,10 +6446,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D108" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5781,10 +6457,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5792,10 +6468,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D110" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5803,10 +6479,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D111" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5814,10 +6490,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D112" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5825,10 +6501,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D113" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5836,10 +6512,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5847,10 +6523,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D115" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5858,10 +6534,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D116" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5869,10 +6545,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D117" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5880,10 +6556,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D118" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5891,10 +6567,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D119" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5902,10 +6578,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D120" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5913,10 +6589,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D121" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5924,10 +6600,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D122" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5935,10 +6611,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D123" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5946,10 +6622,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D124" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5957,10 +6633,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D125" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5968,10 +6644,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D126" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5979,10 +6655,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D127" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5990,10 +6666,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D128" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6001,10 +6677,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D129" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6012,10 +6688,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D130" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6023,10 +6699,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D131" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6034,10 +6710,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D132" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6045,10 +6721,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D133" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6056,10 +6732,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D134" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6067,10 +6743,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D135" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6078,10 +6754,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D136" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6089,10 +6765,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D137" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6100,10 +6776,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D138" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6111,10 +6787,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D139" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6122,10 +6798,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D140" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6133,10 +6809,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D141" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6144,10 +6820,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D142" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6155,10 +6831,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D143" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6166,10 +6842,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D144" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6177,10 +6853,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D145" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6188,10 +6864,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D146" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6199,10 +6875,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D147" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6210,10 +6886,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D148" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6221,10 +6897,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6232,10 +6908,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D150" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6243,10 +6919,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D151" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6254,10 +6930,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D152" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6265,10 +6941,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D153" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6276,10 +6952,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D154" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6287,10 +6963,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D155" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6298,10 +6974,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D156" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6309,10 +6985,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D157" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6320,10 +6996,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D158" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6331,10 +7007,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D159" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6342,10 +7018,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D160" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6353,10 +7029,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D161" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6364,10 +7040,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D162" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6375,10 +7051,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D163" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6386,10 +7062,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D164" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6397,10 +7073,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D165" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6408,10 +7084,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D166" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6419,10 +7095,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D167" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6430,10 +7106,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D168" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6441,10 +7117,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D169" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6452,10 +7128,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D170" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6463,10 +7139,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D171" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6474,10 +7150,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D172" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6485,10 +7161,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D173" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6496,10 +7172,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D174" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6507,10 +7183,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D175" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6518,10 +7194,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D176" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6529,10 +7205,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D177" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6540,10 +7216,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D178" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6551,10 +7227,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D179" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6562,10 +7238,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D180" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6573,10 +7249,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D181" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6584,10 +7260,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D182" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6595,10 +7271,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D183" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6671,10 +7347,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6682,10 +7358,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6693,10 +7369,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6704,10 +7380,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6715,10 +7391,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" t="s">
         <v>342</v>
-      </c>
-      <c r="D8" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6726,10 +7402,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6737,10 +7413,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6748,10 +7424,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6759,10 +7435,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6770,10 +7446,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6781,10 +7457,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6792,10 +7468,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6803,10 +7479,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6879,10 +7555,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6890,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6901,10 +7577,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6912,10 +7588,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6988,13 +7664,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7002,13 +7678,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7016,13 +7692,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" t="s">
         <v>362</v>
-      </c>
-      <c r="D6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7030,13 +7706,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7044,13 +7720,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7058,13 +7734,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7072,13 +7748,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7086,13 +7762,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7100,13 +7776,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D12" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7114,13 +7790,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D13" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7128,13 +7804,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7142,13 +7818,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D15" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7156,13 +7832,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7170,13 +7846,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7184,13 +7860,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7198,13 +7874,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C19" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D19" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -7277,13 +7953,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7291,10 +7967,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7302,10 +7978,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7313,10 +7989,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -7389,13 +8065,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7403,13 +8079,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7417,13 +8093,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7431,13 +8107,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" t="s">
         <v>399</v>
-      </c>
-      <c r="D7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7445,13 +8121,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7459,13 +8135,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7473,13 +8149,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7487,13 +8163,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C11" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7501,13 +8177,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7515,13 +8191,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C13" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D13" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7529,13 +8205,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7543,13 +8219,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D15" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7557,13 +8233,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D16" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7571,13 +8247,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7585,13 +8261,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7599,13 +8275,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C19" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7613,13 +8289,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C20" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D20" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7627,13 +8303,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C21" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D21" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7641,13 +8317,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D22" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7655,13 +8331,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C23" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D23" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7669,13 +8345,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C24" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7683,13 +8359,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C25" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7697,13 +8373,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C26" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D26" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7711,13 +8387,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D27" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7725,13 +8401,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C28" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D28" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7739,13 +8415,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D29" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7753,13 +8429,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D30" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7767,13 +8443,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D31" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7781,13 +8457,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C32" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D32" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7795,13 +8471,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C33" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D33" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7809,13 +8485,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C34" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D34" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7823,13 +8499,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C35" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7837,13 +8513,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -1554,10 +1554,10 @@
     <t>龙虾终结者</t>
   </si>
   <si>
+    <t>程序破灭者</t>
+  </si>
+  <si>
     <t>吉尔毁灭者</t>
-  </si>
-  <si>
-    <t>程序破灭者</t>
   </si>
   <si>
     <t>深渊回响</t>
@@ -1690,7 +1690,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1704,12 +1704,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -2194,13 +2188,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2209,122 +2206,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2334,16 +2328,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2696,7 +2687,7 @@
   <sheetPr/>
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
@@ -4235,7 +4226,7 @@
       <c r="A5">
         <v>100000002</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>473</v>
       </c>
     </row>
@@ -4243,7 +4234,7 @@
       <c r="A6">
         <v>100000003</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>474</v>
       </c>
     </row>
@@ -4251,7 +4242,7 @@
       <c r="A7">
         <v>100000004</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>475</v>
       </c>
     </row>
@@ -4259,7 +4250,7 @@
       <c r="A8">
         <v>100000005</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>476</v>
       </c>
     </row>
@@ -4267,7 +4258,7 @@
       <c r="A9">
         <v>100000006</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>477</v>
       </c>
     </row>
@@ -4275,7 +4266,7 @@
       <c r="A10">
         <v>200000001</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>478</v>
       </c>
     </row>
@@ -4283,7 +4274,7 @@
       <c r="A11">
         <v>200000002</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4291,7 +4282,7 @@
       <c r="A12">
         <v>200000003</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>480</v>
       </c>
     </row>
@@ -4299,7 +4290,7 @@
       <c r="A13">
         <v>200000004</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>481</v>
       </c>
     </row>
@@ -4307,7 +4298,7 @@
       <c r="A14">
         <v>200000005</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4315,7 +4306,7 @@
       <c r="A15">
         <v>200000006</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4323,7 +4314,7 @@
       <c r="A16">
         <v>200000007</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>484</v>
       </c>
     </row>
@@ -4482,8 +4473,8 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4705,7 +4696,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>516</v>
       </c>
       <c r="C4" t="s">
@@ -4765,10 +4756,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4928,21 +4919,6 @@
       <c r="C13" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="16" ht="17.25" spans="1:4">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" ht="17.25" spans="3:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" ht="17.25" spans="3:3">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" ht="17.25" spans="3:3">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" ht="17.25" spans="3:3">
-      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="7" activeTab="11"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="TitleInfo" sheetId="12" r:id="rId12"/>
     <sheet name="NpcRelationshipInfo" sheetId="13" r:id="rId13"/>
     <sheet name="DoomCouncilRatingsInfo" sheetId="14" r:id="rId14"/>
+    <sheet name="RarityInfo" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="564">
   <si>
     <t>id</t>
   </si>
@@ -138,6 +139,18 @@
     <t>是否湮灭{0}魔王</t>
   </si>
   <si>
+    <t>数据损坏\n请联系作者</t>
+  </si>
+  <si>
+    <t>打开存档目录</t>
+  </si>
+  <si>
+    <t>使用备份存档</t>
+  </si>
+  <si>
+    <t>注意：使用备份存档会在下一次存档之后覆盖原存档，请谨慎使用！(备份存档不是最新数据)</t>
+  </si>
+  <si>
     <t>确认创建</t>
   </si>
   <si>
@@ -507,6 +520,12 @@
     <t>Lv.{0}</t>
   </si>
   <si>
+    <t>赠送</t>
+  </si>
+  <si>
+    <t>丢弃</t>
+  </si>
+  <si>
     <t>提示</t>
   </si>
   <si>
@@ -1678,6 +1697,42 @@
   </si>
   <si>
     <t>Supreme Speaker</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>稀有</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>超凡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic </t>
+  </si>
+  <si>
+    <t>至尊</t>
+  </si>
+  <si>
+    <t>Ultra</t>
+  </si>
+  <si>
+    <t>神话</t>
+  </si>
+  <si>
+    <t>Mythic</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>Legendary</t>
   </si>
 </sst>
 </file>
@@ -1690,13 +1745,37 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2188,153 +2267,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2685,16 +2776,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="62.875" customWidth="1"/>
+    <col min="2" max="2" width="86" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
@@ -2894,27 +2985,21 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -2922,13 +3007,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -2936,10 +3018,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -2947,10 +3029,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -2958,10 +3043,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -2969,9 +3057,12 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>402</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
@@ -2980,7 +3071,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -2991,7 +3082,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -3002,7 +3093,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
@@ -3013,7 +3104,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
@@ -3024,7 +3115,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
@@ -3035,7 +3126,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>502</v>
+        <v>411</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
@@ -3046,27 +3137,21 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1001</v>
+        <v>412</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1002</v>
+        <v>413</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -3074,13 +3159,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>1003</v>
+        <v>501</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -3088,13 +3170,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>1004</v>
+        <v>502</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -3102,13 +3181,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -3116,13 +3195,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -3130,10 +3209,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>10001</v>
+        <v>1003</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -3141,10 +3223,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>10003</v>
+        <v>1004</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -3152,10 +3237,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>10004</v>
+        <v>1005</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -3163,9 +3251,12 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>10005</v>
+        <v>1006</v>
       </c>
       <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
         <v>63</v>
       </c>
       <c r="D37" t="s">
@@ -3174,24 +3265,21 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="B38" t="s">
         <v>64</v>
       </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>20002</v>
+        <v>10003</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -3199,10 +3287,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>20003</v>
+        <v>10004</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -3210,13 +3298,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>20004</v>
+        <v>10005</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -3224,13 +3309,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>20005</v>
+        <v>20001</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -3238,13 +3323,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -3252,13 +3334,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>30002</v>
+        <v>20003</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -3266,13 +3345,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>30003</v>
+        <v>20004</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -3280,13 +3359,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>30004</v>
+        <v>20005</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -3294,13 +3373,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>40001</v>
+        <v>30001</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -3308,13 +3387,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>40002</v>
+        <v>30002</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -3322,13 +3401,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>40003</v>
+        <v>30003</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -3336,10 +3415,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>40998</v>
+        <v>30004</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -3347,10 +3429,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>40999</v>
+        <v>40001</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -3358,13 +3443,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>41001</v>
+        <v>40002</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -3372,10 +3457,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>42001</v>
+        <v>40003</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>89</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -3383,10 +3471,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>42002</v>
+        <v>40998</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -3394,10 +3482,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>42003</v>
+        <v>40999</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3405,13 +3493,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>43001</v>
+        <v>41001</v>
       </c>
       <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
         <v>93</v>
-      </c>
-      <c r="C56" t="s">
-        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -3419,13 +3507,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>43002</v>
+        <v>42001</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -3433,10 +3518,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>49001</v>
+        <v>42002</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -3444,10 +3529,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>49002</v>
+        <v>42003</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3455,10 +3540,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>49003</v>
+        <v>43001</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -3466,13 +3554,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>50001</v>
+        <v>43002</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -3480,13 +3568,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>50002</v>
+        <v>49001</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -3494,13 +3579,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>50003</v>
+        <v>49002</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -3508,13 +3590,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>50004</v>
+        <v>49003</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -3522,10 +3601,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>50101</v>
+        <v>50001</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -3533,13 +3615,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>51001</v>
+        <v>50002</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -3547,10 +3629,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>51002</v>
+        <v>50003</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -3558,13 +3643,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>51003</v>
+        <v>50004</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -3572,10 +3657,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>52001</v>
+        <v>50101</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3583,13 +3668,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>52002</v>
+        <v>51001</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3597,7 +3682,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>52003</v>
+        <v>51002</v>
       </c>
       <c r="B71" t="s">
         <v>113</v>
@@ -3608,21 +3693,24 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>52004</v>
+        <v>51003</v>
       </c>
       <c r="B72" t="s">
         <v>114</v>
       </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>52005</v>
+        <v>52001</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3630,13 +3718,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>53000</v>
+        <v>52002</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3644,10 +3732,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>53001</v>
+        <v>52003</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3655,10 +3743,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>53002</v>
+        <v>52004</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3666,10 +3754,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>53003</v>
+        <v>52005</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -3677,9 +3765,12 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>53004</v>
+        <v>53000</v>
       </c>
       <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
         <v>121</v>
       </c>
       <c r="D78" t="s">
@@ -3688,7 +3779,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>53005</v>
+        <v>53001</v>
       </c>
       <c r="B79" t="s">
         <v>122</v>
@@ -3699,27 +3790,21 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>53006</v>
+        <v>53002</v>
       </c>
       <c r="B80" t="s">
         <v>123</v>
       </c>
-      <c r="C80" t="s">
-        <v>124</v>
-      </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>53007</v>
+        <v>53003</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3727,13 +3812,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>53008</v>
+        <v>53004</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3741,13 +3823,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53009</v>
+        <v>53005</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3755,10 +3834,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53010</v>
+        <v>53006</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="C84" t="s">
+        <v>128</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3766,10 +3848,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53011</v>
+        <v>53007</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="C85" t="s">
+        <v>130</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3777,10 +3862,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>60001</v>
+        <v>53008</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="C86" t="s">
+        <v>132</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3788,9 +3876,12 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>60002</v>
+        <v>53009</v>
       </c>
       <c r="B87" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" t="s">
         <v>134</v>
       </c>
       <c r="D87" t="s">
@@ -3799,7 +3890,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>61001</v>
+        <v>53010</v>
       </c>
       <c r="B88" t="s">
         <v>135</v>
@@ -3810,7 +3901,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>61002</v>
+        <v>53011</v>
       </c>
       <c r="B89" t="s">
         <v>136</v>
@@ -3821,7 +3912,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>62001</v>
+        <v>60001</v>
       </c>
       <c r="B90" t="s">
         <v>137</v>
@@ -3832,7 +3923,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>62002</v>
+        <v>60002</v>
       </c>
       <c r="B91" t="s">
         <v>138</v>
@@ -3843,7 +3934,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>70001</v>
+        <v>61001</v>
       </c>
       <c r="B92" t="s">
         <v>139</v>
@@ -3854,7 +3945,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>80001</v>
+        <v>61002</v>
       </c>
       <c r="B93" t="s">
         <v>140</v>
@@ -3865,7 +3956,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>80002</v>
+        <v>62001</v>
       </c>
       <c r="B94" t="s">
         <v>141</v>
@@ -3876,7 +3967,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>80003</v>
+        <v>62002</v>
       </c>
       <c r="B95" t="s">
         <v>142</v>
@@ -3887,7 +3978,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>80004</v>
+        <v>70001</v>
       </c>
       <c r="B96" t="s">
         <v>143</v>
@@ -3898,7 +3989,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>80005</v>
+        <v>80001</v>
       </c>
       <c r="B97" t="s">
         <v>144</v>
@@ -3909,7 +4000,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>80006</v>
+        <v>80002</v>
       </c>
       <c r="B98" t="s">
         <v>145</v>
@@ -3920,7 +4011,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>80007</v>
+        <v>80003</v>
       </c>
       <c r="B99" t="s">
         <v>146</v>
@@ -3931,7 +4022,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>80008</v>
+        <v>80004</v>
       </c>
       <c r="B100" t="s">
         <v>147</v>
@@ -3942,7 +4033,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>80009</v>
+        <v>80005</v>
       </c>
       <c r="B101" t="s">
         <v>148</v>
@@ -3953,27 +4044,21 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>1000001</v>
+        <v>80006</v>
       </c>
       <c r="B102" t="s">
         <v>149</v>
       </c>
-      <c r="C102" t="s">
-        <v>150</v>
-      </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>1000002</v>
+        <v>80007</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
-      </c>
-      <c r="C103" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -3981,13 +4066,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>1001001</v>
+        <v>80008</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
-      </c>
-      <c r="C104" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3995,10 +4077,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>2000001</v>
+        <v>80009</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -4006,10 +4088,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>3000001</v>
+        <v>1000001</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="C106" t="s">
+        <v>154</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -4017,12 +4102,84 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
+        <v>1000002</v>
+      </c>
+      <c r="B107" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>1001001</v>
+      </c>
+      <c r="B108" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1002001</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1002002</v>
+      </c>
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>2000001</v>
+      </c>
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>3000001</v>
+      </c>
+      <c r="B112" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
         <v>3000002</v>
       </c>
-      <c r="B107" t="s">
-        <v>157</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4096,10 +4253,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4107,10 +4264,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4118,10 +4275,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4129,10 +4286,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:4">
@@ -4140,7 +4297,7 @@
         <v>2000000001</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4148,7 +4305,7 @@
         <v>2000000002</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4219,103 +4376,103 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
       <c r="A5">
         <v>100000002</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>473</v>
+      <c r="B5" s="8" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
       <c r="A6">
         <v>100000003</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>474</v>
+      <c r="B6" s="9" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
       <c r="A7">
         <v>100000004</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>475</v>
+      <c r="B7" s="9" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8">
         <v>100000005</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>476</v>
+      <c r="B8" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
       <c r="A9">
         <v>100000006</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>477</v>
+      <c r="B9" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
       <c r="A10">
         <v>200000001</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>478</v>
+      <c r="B10" s="9" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
       <c r="A11">
         <v>200000002</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>479</v>
+      <c r="B11" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
       <c r="A12">
         <v>200000003</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>480</v>
+      <c r="B12" s="9" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
       <c r="A13">
         <v>200000004</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>481</v>
+      <c r="B13" s="9" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
       <c r="A14">
         <v>200000005</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>482</v>
+      <c r="B14" s="9" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
       <c r="A15">
         <v>200000006</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>483</v>
+      <c r="B15" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16">
         <v>200000007</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>484</v>
+      <c r="B16" s="8" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4323,7 +4480,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4331,7 +4488,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4339,7 +4496,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4347,7 +4504,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4355,7 +4512,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4363,7 +4520,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4371,7 +4528,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4379,7 +4536,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4387,7 +4544,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4395,7 +4552,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4403,7 +4560,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4411,7 +4568,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4419,7 +4576,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4427,7 +4584,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4435,7 +4592,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4443,7 +4600,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4451,7 +4608,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4459,7 +4616,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4473,7 +4630,7 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -4531,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4539,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4547,7 +4704,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4555,7 +4712,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4563,7 +4720,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4571,7 +4728,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4579,7 +4736,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4587,7 +4744,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4595,7 +4752,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4603,7 +4760,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4611,7 +4768,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4619,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4627,7 +4784,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4696,11 +4853,11 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>516</v>
+      <c r="B4" s="7" t="s">
+        <v>522</v>
       </c>
       <c r="C4" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4708,10 +4865,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C5" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4719,10 +4876,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C6" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4730,10 +4887,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4741,10 +4898,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +4916,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4815,10 +4972,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>526</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4826,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -4837,10 +4994,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -4848,10 +5005,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -4859,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>534</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -4870,10 +5027,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -4881,10 +5038,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -4892,10 +5049,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>540</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -4903,10 +5060,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>542</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -4914,10 +5071,139 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>544</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4990,10 +5276,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5001,10 +5287,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5012,10 +5298,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5023,10 +5309,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5034,10 +5320,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5045,10 +5331,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5056,10 +5342,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
         <v>165</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5067,10 +5353,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5429,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5157,13 +5443,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5171,13 +5457,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5185,13 +5471,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
         <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5199,13 +5485,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5278,10 +5564,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5289,10 +5575,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5300,10 +5586,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5311,10 +5597,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5322,10 +5608,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5333,10 +5619,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5344,10 +5630,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5355,10 +5641,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5366,10 +5652,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5377,10 +5663,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5388,10 +5674,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5399,10 +5685,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5410,10 +5696,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5421,10 +5707,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5432,10 +5718,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5443,10 +5729,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5454,10 +5740,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5465,10 +5751,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5476,10 +5762,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5487,10 +5773,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5498,10 +5784,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5509,10 +5795,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5520,10 +5806,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5531,10 +5817,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5542,10 +5828,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5553,10 +5839,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5564,10 +5850,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5575,10 +5861,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5586,10 +5872,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5597,10 +5883,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5608,10 +5894,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5619,10 +5905,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5630,10 +5916,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5641,10 +5927,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5652,10 +5938,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5663,10 +5949,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5674,10 +5960,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5685,10 +5971,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5696,10 +5982,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5707,10 +5993,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5718,10 +6004,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5729,10 +6015,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5740,10 +6026,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5751,10 +6037,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5762,10 +6048,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5773,10 +6059,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5784,10 +6070,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5795,10 +6081,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5806,10 +6092,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D52" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5817,10 +6103,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5828,10 +6114,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5839,10 +6125,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5850,10 +6136,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5861,10 +6147,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5872,10 +6158,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5883,10 +6169,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5894,10 +6180,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5905,10 +6191,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5916,10 +6202,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5927,10 +6213,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5938,10 +6224,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5949,10 +6235,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5960,10 +6246,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5971,10 +6257,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5982,10 +6268,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5993,10 +6279,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6004,10 +6290,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6015,10 +6301,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6026,10 +6312,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6037,10 +6323,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6048,10 +6334,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6059,10 +6345,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6070,10 +6356,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D76" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6081,10 +6367,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6092,10 +6378,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6103,10 +6389,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6114,10 +6400,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6125,10 +6411,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6136,10 +6422,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6147,10 +6433,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D83" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6158,10 +6444,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6169,10 +6455,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -6180,10 +6466,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D86" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6191,10 +6477,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D87" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6202,10 +6488,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6213,10 +6499,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6224,10 +6510,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D90" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6235,10 +6521,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D91" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6246,10 +6532,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D92" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6257,10 +6543,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D93" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6268,10 +6554,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D94" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -6279,10 +6565,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D95" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6290,10 +6576,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6301,10 +6587,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6312,10 +6598,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D98" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6323,10 +6609,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6334,10 +6620,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6345,10 +6631,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D101" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6356,10 +6642,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D102" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6367,10 +6653,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D103" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6378,10 +6664,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D104" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6389,10 +6675,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D105" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6400,10 +6686,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D106" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6411,10 +6697,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D107" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -6422,10 +6708,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D108" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6433,10 +6719,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6444,10 +6730,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D110" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6455,10 +6741,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D111" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6466,10 +6752,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D112" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6477,10 +6763,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D113" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6488,10 +6774,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6499,10 +6785,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D115" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6510,10 +6796,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D116" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6521,10 +6807,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D117" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6532,10 +6818,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D118" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6543,10 +6829,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D119" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6554,10 +6840,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D120" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6565,10 +6851,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D121" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6576,10 +6862,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D122" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6587,10 +6873,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D123" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6598,10 +6884,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D124" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6609,10 +6895,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D125" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6620,10 +6906,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D126" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6631,10 +6917,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D127" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6642,10 +6928,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D128" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6653,10 +6939,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D129" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6664,10 +6950,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D130" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6675,10 +6961,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D131" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6686,10 +6972,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D132" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6697,10 +6983,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D133" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6708,10 +6994,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D134" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6719,10 +7005,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D135" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6730,10 +7016,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D136" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6741,10 +7027,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D137" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6752,10 +7038,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D138" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6763,10 +7049,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D139" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6774,10 +7060,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D140" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6785,10 +7071,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D141" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6796,10 +7082,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D142" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6807,10 +7093,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D143" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6818,10 +7104,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D144" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6829,10 +7115,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D145" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6840,10 +7126,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D146" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6851,10 +7137,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D147" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6862,10 +7148,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D148" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6873,10 +7159,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D149" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6884,10 +7170,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D150" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6895,10 +7181,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D151" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6906,10 +7192,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D152" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6917,10 +7203,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D153" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6928,10 +7214,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D154" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6939,10 +7225,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D155" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6950,10 +7236,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D156" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6961,10 +7247,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D157" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6972,10 +7258,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D158" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6983,10 +7269,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D159" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6994,10 +7280,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D160" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7005,10 +7291,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D161" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7016,10 +7302,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D162" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7027,10 +7313,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D163" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7038,10 +7324,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D164" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7049,10 +7335,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D165" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -7060,10 +7346,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D166" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7071,10 +7357,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D167" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7082,10 +7368,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D168" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7093,10 +7379,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D169" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7104,10 +7390,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D170" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7115,10 +7401,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D171" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7126,10 +7412,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D172" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7137,10 +7423,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D173" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7148,10 +7434,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D174" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7159,10 +7445,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D175" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7170,10 +7456,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D176" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7181,10 +7467,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D177" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7192,10 +7478,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D178" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7203,10 +7489,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D179" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7214,10 +7500,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D180" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7225,10 +7511,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D181" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7236,10 +7522,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D182" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7247,10 +7533,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D183" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7323,10 +7609,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7334,10 +7620,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7345,10 +7631,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7356,10 +7642,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7367,10 +7653,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7378,10 +7664,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7389,10 +7675,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
         <v>348</v>
-      </c>
-      <c r="D10" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7400,10 +7686,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7411,10 +7697,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7422,10 +7708,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7433,10 +7719,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7444,10 +7730,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D15" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7455,10 +7741,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D16" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7531,10 +7817,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7542,10 +7828,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7553,10 +7839,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7564,10 +7850,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -7640,13 +7926,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7654,13 +7940,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7668,13 +7954,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7682,13 +7968,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" t="s">
         <v>368</v>
-      </c>
-      <c r="D7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7696,13 +7982,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7710,13 +7996,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7724,13 +8010,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7738,13 +8024,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7752,13 +8038,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7766,13 +8052,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7780,13 +8066,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7794,13 +8080,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C15" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7808,13 +8094,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C16" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7822,13 +8108,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7836,13 +8122,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C18" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7850,13 +8136,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C19" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -7929,13 +8215,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7943,10 +8229,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7954,10 +8240,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7965,10 +8251,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -8041,13 +8327,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8055,13 +8341,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D5" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8069,13 +8355,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8083,13 +8369,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8097,13 +8383,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" t="s">
         <v>405</v>
-      </c>
-      <c r="D8" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8111,13 +8397,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8125,13 +8411,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8139,13 +8425,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8153,13 +8439,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8167,13 +8453,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8181,13 +8467,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C14" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D14" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8195,13 +8481,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C15" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D15" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8209,13 +8495,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C16" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8223,13 +8509,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C17" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8237,13 +8523,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C18" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D18" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8251,13 +8537,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8265,13 +8551,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C20" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D20" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8279,13 +8565,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C21" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8293,13 +8579,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C22" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8307,13 +8593,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C23" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8321,13 +8607,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C24" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D24" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8335,13 +8621,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C25" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8349,13 +8635,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C26" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D26" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8363,13 +8649,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C27" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D27" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8377,13 +8663,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D28" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8391,13 +8677,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C29" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8405,13 +8691,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C30" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8419,13 +8705,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C31" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8433,13 +8719,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D32" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8447,13 +8733,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C33" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D33" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8461,13 +8747,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D34" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8475,13 +8761,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C35" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D35" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8489,13 +8775,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D36" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
     <sheet name="AbyssalBlessingInfo" sheetId="5" r:id="rId2"/>
-    <sheet name="ItemType" sheetId="6" r:id="rId3"/>
+    <sheet name="ItemsType" sheetId="6" r:id="rId3"/>
     <sheet name="ItemsInfo" sheetId="2" r:id="rId4"/>
     <sheet name="BuffInfo" sheetId="3" r:id="rId5"/>
     <sheet name="DoomCouncilInfo" sheetId="4" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="576">
   <si>
     <t>id</t>
   </si>
@@ -235,6 +235,27 @@
     <t>Mouth</t>
   </si>
   <si>
+    <t>监视之塔</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>终焉议会</t>
+  </si>
+  <si>
+    <t>发言席</t>
+  </si>
+  <si>
+    <t>Dispatch Box</t>
+  </si>
+  <si>
+    <t>议员</t>
+  </si>
+  <si>
+    <t>Councilor</t>
+  </si>
+  <si>
     <t>购买</t>
   </si>
   <si>
@@ -403,9 +424,6 @@
     <t>还有可选择次数，是否仍要结束选择奖励？</t>
   </si>
   <si>
-    <t>终焉议会</t>
-  </si>
-  <si>
     <t>Doom Council</t>
   </si>
   <si>
@@ -529,6 +547,12 @@
     <t>提示</t>
   </si>
   <si>
+    <t>魔晶</t>
+  </si>
+  <si>
+    <t>声望</t>
+  </si>
+  <si>
     <t>没有足够的魔晶</t>
   </si>
   <si>
@@ -583,6 +607,12 @@
     <t>Shoes</t>
   </si>
   <si>
+    <t>鼻环</t>
+  </si>
+  <si>
+    <t>NoiseRing</t>
+  </si>
+  <si>
     <t>武器</t>
   </si>
   <si>
@@ -934,9 +964,6 @@
     <t>石头</t>
   </si>
   <si>
-    <t>魔晶</t>
-  </si>
-  <si>
     <t>宝箱</t>
   </si>
   <si>
@@ -1445,6 +1472,15 @@
   </si>
   <si>
     <t>Human Mage (Ice)</t>
+  </si>
+  <si>
+    <t>没头脑的爪牙</t>
+  </si>
+  <si>
+    <t>不高兴的爪牙</t>
+  </si>
+  <si>
+    <t>忠诚的爪牙</t>
   </si>
   <si>
     <t>战士</t>
@@ -2397,7 +2433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2426,6 +2462,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2776,10 +2815,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3265,7 +3304,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>10001</v>
+        <v>2001</v>
       </c>
       <c r="B38" t="s">
         <v>64</v>
@@ -3276,7 +3315,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>10003</v>
+        <v>2002</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
@@ -3287,7 +3326,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>10004</v>
+        <v>2003</v>
       </c>
       <c r="B40" t="s">
         <v>66</v>
@@ -3298,24 +3337,27 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>10005</v>
+        <v>2004</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
       </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>20001</v>
+        <v>2005</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -3323,10 +3365,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>20002</v>
+        <v>10001</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -3334,10 +3376,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>20003</v>
+        <v>10003</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -3345,12 +3387,9 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>20004</v>
+        <v>10004</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s">
         <v>73</v>
       </c>
       <c r="D45" t="s">
@@ -3359,27 +3398,24 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>20005</v>
+        <v>10005</v>
       </c>
       <c r="B46" t="s">
         <v>74</v>
       </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
         <v>76</v>
-      </c>
-      <c r="C47" t="s">
-        <v>77</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -3387,13 +3423,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>30002</v>
+        <v>20002</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -3401,13 +3434,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>30003</v>
+        <v>20003</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -3415,13 +3445,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>30004</v>
+        <v>20004</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -3429,13 +3459,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>40001</v>
+        <v>20005</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -3443,13 +3473,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>40002</v>
+        <v>30001</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -3457,13 +3487,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>40003</v>
+        <v>30002</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -3471,10 +3501,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>40998</v>
+        <v>30003</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -3482,10 +3515,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>40999</v>
+        <v>30004</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3493,13 +3529,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>41001</v>
+        <v>40001</v>
       </c>
       <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
         <v>92</v>
-      </c>
-      <c r="C56" t="s">
-        <v>93</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -3507,9 +3543,12 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>42001</v>
+        <v>40002</v>
       </c>
       <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
         <v>94</v>
       </c>
       <c r="D57" t="s">
@@ -3518,21 +3557,24 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>42002</v>
+        <v>40003</v>
       </c>
       <c r="B58" t="s">
         <v>95</v>
       </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>42003</v>
+        <v>40998</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3540,12 +3582,9 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>43001</v>
+        <v>40999</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" t="s">
         <v>98</v>
       </c>
       <c r="D60" t="s">
@@ -3554,7 +3593,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>43002</v>
+        <v>41001</v>
       </c>
       <c r="B61" t="s">
         <v>99</v>
@@ -3568,10 +3607,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>49001</v>
+        <v>42001</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -3579,10 +3618,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>49002</v>
+        <v>42002</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -3590,10 +3629,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>49003</v>
+        <v>42003</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -3601,13 +3640,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>50001</v>
+        <v>43001</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -3615,13 +3654,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>50002</v>
+        <v>43002</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -3629,13 +3668,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>50003</v>
+        <v>49001</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -3643,24 +3679,21 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>50004</v>
+        <v>49002</v>
       </c>
       <c r="B68" t="s">
         <v>108</v>
       </c>
-      <c r="C68" t="s">
-        <v>109</v>
-      </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>50101</v>
+        <v>49003</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3668,13 +3701,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>51001</v>
+        <v>50001</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3682,10 +3715,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>51002</v>
+        <v>50002</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3693,13 +3729,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>51003</v>
+        <v>50003</v>
       </c>
       <c r="B72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" t="s">
         <v>114</v>
-      </c>
-      <c r="C72" t="s">
-        <v>115</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3707,9 +3743,12 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>52001</v>
+        <v>50004</v>
       </c>
       <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" t="s">
         <v>116</v>
       </c>
       <c r="D73" t="s">
@@ -3718,13 +3757,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>52002</v>
+        <v>50101</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3732,10 +3768,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>52003</v>
+        <v>51001</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -3743,10 +3782,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>52004</v>
+        <v>51002</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -3754,10 +3793,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>52005</v>
+        <v>51003</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
+        <v>122</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -3765,13 +3807,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>53000</v>
+        <v>52001</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -3779,9 +3818,12 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>53001</v>
+        <v>52002</v>
       </c>
       <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s">
         <v>122</v>
       </c>
       <c r="D79" t="s">
@@ -3790,10 +3832,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>53002</v>
+        <v>52003</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3801,10 +3843,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>53003</v>
+        <v>52004</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3812,10 +3854,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>53004</v>
+        <v>52005</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3823,10 +3865,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53005</v>
+        <v>53000</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>66</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3834,12 +3879,9 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53006</v>
+        <v>53001</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" t="s">
         <v>128</v>
       </c>
       <c r="D84" t="s">
@@ -3848,27 +3890,21 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53007</v>
+        <v>53002</v>
       </c>
       <c r="B85" t="s">
         <v>129</v>
       </c>
-      <c r="C85" t="s">
-        <v>130</v>
-      </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>53008</v>
+        <v>53003</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3876,13 +3912,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>53009</v>
+        <v>53004</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3890,10 +3923,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>53010</v>
+        <v>53005</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3901,10 +3934,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>53011</v>
+        <v>53006</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C89" t="s">
+        <v>134</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -3912,10 +3948,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>60001</v>
+        <v>53007</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="C90" t="s">
+        <v>136</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3923,9 +3962,12 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>60002</v>
+        <v>53008</v>
       </c>
       <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" t="s">
         <v>138</v>
       </c>
       <c r="D91" t="s">
@@ -3934,21 +3976,24 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>61001</v>
+        <v>53009</v>
       </c>
       <c r="B92" t="s">
         <v>139</v>
       </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>61002</v>
+        <v>53010</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -3956,10 +4001,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>62001</v>
+        <v>53011</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -3967,10 +4012,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>62002</v>
+        <v>60001</v>
       </c>
       <c r="B95" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -3978,10 +4023,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>70001</v>
+        <v>60002</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -3989,10 +4034,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>80001</v>
+        <v>61001</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -4000,10 +4045,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>80002</v>
+        <v>61002</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -4011,10 +4056,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>80003</v>
+        <v>62001</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -4022,10 +4067,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>80004</v>
+        <v>62002</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -4033,10 +4078,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>80005</v>
+        <v>70001</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -4044,10 +4089,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>80006</v>
+        <v>80001</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -4055,10 +4100,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>80007</v>
+        <v>80002</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -4066,10 +4111,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>80008</v>
+        <v>80003</v>
       </c>
       <c r="B104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -4077,10 +4122,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>80009</v>
+        <v>80004</v>
       </c>
       <c r="B105" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -4088,12 +4133,9 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>1000001</v>
+        <v>80005</v>
       </c>
       <c r="B106" t="s">
-        <v>153</v>
-      </c>
-      <c r="C106" t="s">
         <v>154</v>
       </c>
       <c r="D106" t="s">
@@ -4102,27 +4144,21 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>1000002</v>
+        <v>80006</v>
       </c>
       <c r="B107" t="s">
         <v>155</v>
       </c>
-      <c r="C107" t="s">
-        <v>156</v>
-      </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>1001001</v>
+        <v>80007</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -4130,10 +4166,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>1002001</v>
+        <v>80008</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -4141,10 +4177,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>1002002</v>
+        <v>80009</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -4152,10 +4188,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="B111" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="C111" t="s">
+        <v>160</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -4163,9 +4202,12 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>3000001</v>
+        <v>1000002</v>
       </c>
       <c r="B112" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" t="s">
         <v>162</v>
       </c>
       <c r="D112" t="s">
@@ -4174,12 +4216,92 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>3000002</v>
+        <v>1001001</v>
       </c>
       <c r="B113" t="s">
         <v>163</v>
       </c>
+      <c r="C113" t="s">
+        <v>164</v>
+      </c>
       <c r="D113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1002001</v>
+      </c>
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>1002002</v>
+      </c>
+      <c r="B115" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>2000001</v>
+      </c>
+      <c r="B116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>2000002</v>
+      </c>
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>2000003</v>
+      </c>
+      <c r="B118" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>3000001</v>
+      </c>
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>3000002</v>
+      </c>
+      <c r="B120" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4193,10 +4315,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4253,10 +4375,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4264,10 +4383,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C5" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4275,37 +4391,67 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C6" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>4</v>
+      <c r="A7" s="10">
+        <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1" spans="1:4">
-      <c r="A8">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10">
+        <v>1020010001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10">
+        <v>1030010001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <v>1030020001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" ht="12" customHeight="1" spans="1:4">
+      <c r="A11">
         <v>2000000001</v>
       </c>
-      <c r="B8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="B11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>2000000002</v>
       </c>
-      <c r="B9" t="s">
-        <v>477</v>
+      <c r="B12" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4522,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4384,7 +4530,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -4392,7 +4538,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -4400,7 +4546,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -4408,7 +4554,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -4416,7 +4562,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -4424,7 +4570,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -4432,7 +4578,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -4440,7 +4586,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -4448,7 +4594,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -4456,7 +4602,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -4464,7 +4610,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -4472,7 +4618,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4480,7 +4626,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4488,7 +4634,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4496,7 +4642,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4504,7 +4650,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4512,7 +4658,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4520,7 +4666,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4528,7 +4674,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4536,7 +4682,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4544,7 +4690,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4552,7 +4698,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4560,7 +4706,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4568,7 +4714,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4576,7 +4722,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4584,7 +4730,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4592,7 +4738,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4600,7 +4746,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4608,7 +4754,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4616,7 +4762,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -4688,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4696,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4704,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4712,7 +4858,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4720,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4728,7 +4874,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4736,7 +4882,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4744,7 +4890,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4752,7 +4898,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4760,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4768,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4776,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4784,7 +4930,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4854,10 +5000,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4865,10 +5011,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C5" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4876,10 +5022,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C6" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4887,10 +5033,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4898,10 +5044,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C8" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4972,10 +5118,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4983,10 +5129,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -4994,10 +5140,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5005,10 +5151,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5016,10 +5162,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5027,10 +5173,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5038,10 +5184,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5049,10 +5195,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5060,10 +5206,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5071,10 +5217,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5145,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5156,10 +5302,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5167,10 +5313,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5178,10 +5324,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5189,10 +5335,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5200,10 +5346,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="C9" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -5276,10 +5422,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5287,10 +5433,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5298,10 +5444,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5309,10 +5455,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5320,10 +5466,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5331,10 +5477,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5342,10 +5488,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5353,10 +5499,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5368,13 +5514,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
@@ -5435,7 +5581,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5443,13 +5589,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5457,13 +5603,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5471,27 +5617,41 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" t="s">
         <v>181</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5564,10 +5724,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5575,10 +5735,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5586,10 +5746,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5597,10 +5757,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5608,10 +5768,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5619,10 +5779,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5630,10 +5790,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5641,10 +5801,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5652,10 +5812,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5663,10 +5823,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5674,10 +5834,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5685,10 +5845,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5696,10 +5856,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5707,10 +5867,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5718,10 +5878,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5729,10 +5889,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5740,10 +5900,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5751,10 +5911,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5762,10 +5922,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5773,10 +5933,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5784,10 +5944,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5795,10 +5955,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5806,10 +5966,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5817,10 +5977,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5828,10 +5988,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5839,10 +5999,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5850,10 +6010,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5861,10 +6021,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5872,10 +6032,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5883,10 +6043,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5894,10 +6054,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5905,10 +6065,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5916,10 +6076,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5927,10 +6087,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5938,10 +6098,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5949,10 +6109,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5960,10 +6120,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5971,10 +6131,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5982,10 +6142,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5993,10 +6153,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6004,10 +6164,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6015,10 +6175,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6026,10 +6186,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6037,10 +6197,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6048,10 +6208,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6059,10 +6219,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6070,10 +6230,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6081,10 +6241,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6092,10 +6252,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6103,10 +6263,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6114,10 +6274,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6125,10 +6285,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6136,10 +6296,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6147,10 +6307,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6158,10 +6318,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6169,10 +6329,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6180,10 +6340,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6191,10 +6351,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6202,10 +6362,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6213,10 +6373,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6224,10 +6384,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6235,10 +6395,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6246,10 +6406,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6257,10 +6417,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6268,10 +6428,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6279,10 +6439,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6290,10 +6450,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6301,10 +6461,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6312,10 +6472,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6323,10 +6483,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6334,10 +6494,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6345,10 +6505,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6356,10 +6516,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D76" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6367,10 +6527,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6378,10 +6538,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6389,10 +6549,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D79" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6400,10 +6560,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6411,10 +6571,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6422,10 +6582,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6433,10 +6593,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6444,10 +6604,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6455,10 +6615,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -6466,10 +6626,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6477,10 +6637,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6488,10 +6648,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6499,10 +6659,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6510,10 +6670,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D90" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6521,10 +6681,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6532,10 +6692,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6543,10 +6703,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6554,10 +6714,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -6565,10 +6725,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6576,10 +6736,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6587,10 +6747,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6598,10 +6758,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D98" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6609,10 +6769,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6620,10 +6780,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6631,10 +6791,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6642,10 +6802,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6653,10 +6813,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6664,10 +6824,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6675,10 +6835,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6686,10 +6846,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6697,10 +6857,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -6708,10 +6868,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6719,10 +6879,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6730,10 +6890,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D110" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6741,10 +6901,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6752,10 +6912,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D112" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6763,10 +6923,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6774,10 +6934,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6785,10 +6945,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6796,10 +6956,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6807,10 +6967,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6818,10 +6978,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D118" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6829,10 +6989,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D119" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6840,10 +7000,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D120" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6851,10 +7011,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D121" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6862,10 +7022,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6873,10 +7033,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D123" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6884,10 +7044,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D124" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6895,10 +7055,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D125" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6906,10 +7066,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D126" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6917,10 +7077,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D127" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6928,10 +7088,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6939,10 +7099,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="D129" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6950,10 +7110,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D130" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6961,10 +7121,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D131" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6972,10 +7132,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D132" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6983,10 +7143,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D133" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6994,10 +7154,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D134" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7005,10 +7165,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D135" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7016,10 +7176,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D136" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7027,10 +7187,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D137" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -7038,10 +7198,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D138" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -7049,10 +7209,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D139" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -7060,10 +7220,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D140" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -7071,10 +7231,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D141" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -7082,10 +7242,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D142" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -7093,10 +7253,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D143" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -7104,10 +7264,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D144" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -7115,10 +7275,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D145" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -7126,10 +7286,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D146" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -7137,10 +7297,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D147" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -7148,10 +7308,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -7159,10 +7319,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D149" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7170,10 +7330,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D150" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -7181,10 +7341,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D151" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -7192,10 +7352,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D152" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -7203,10 +7363,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D153" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7214,10 +7374,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D154" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -7225,10 +7385,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D155" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7236,10 +7396,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D156" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7247,10 +7407,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="D157" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7258,10 +7418,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="D158" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -7269,10 +7429,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D159" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7280,10 +7440,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D160" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7291,10 +7451,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D161" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7302,10 +7462,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D162" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7313,10 +7473,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D163" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7324,10 +7484,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D164" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7335,10 +7495,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D165" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -7346,10 +7506,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D166" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7357,10 +7517,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D167" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7368,10 +7528,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D168" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7379,10 +7539,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D169" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7390,10 +7550,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D170" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7401,10 +7561,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="D171" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7412,10 +7572,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D172" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7423,10 +7583,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D173" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7434,10 +7594,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D174" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7445,10 +7605,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D175" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7456,10 +7616,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D176" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7467,10 +7627,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D177" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7478,10 +7638,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D178" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7489,10 +7649,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D179" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7500,10 +7660,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D180" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7511,10 +7671,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D181" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7522,10 +7682,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D182" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7533,10 +7693,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D183" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7609,10 +7769,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7620,10 +7780,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7631,10 +7791,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7642,10 +7802,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7653,10 +7813,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7664,10 +7824,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D9" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7675,10 +7835,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7686,10 +7846,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7697,10 +7857,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7708,10 +7868,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" t="s">
         <v>357</v>
-      </c>
-      <c r="D13" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7719,10 +7879,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7730,10 +7890,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7741,10 +7901,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -7817,10 +7977,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7828,10 +7988,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7839,10 +7999,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7850,10 +8010,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7926,13 +8086,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7940,13 +8100,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7954,13 +8114,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7968,13 +8128,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7982,13 +8142,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7996,13 +8156,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" t="s">
         <v>377</v>
-      </c>
-      <c r="C9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8010,13 +8170,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8024,13 +8184,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8038,13 +8198,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8052,13 +8212,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8066,13 +8226,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C14" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D14" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8080,13 +8240,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8094,13 +8254,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8108,13 +8268,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8122,13 +8282,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8136,13 +8296,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -8215,13 +8375,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D4" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8229,10 +8389,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8240,10 +8400,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8251,10 +8411,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -8327,13 +8487,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8341,13 +8501,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C5" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8355,13 +8515,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8369,13 +8529,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8383,13 +8543,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8397,13 +8557,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8411,13 +8571,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" t="s">
         <v>414</v>
-      </c>
-      <c r="C10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8425,13 +8585,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8439,13 +8599,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="D12" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8453,13 +8613,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8467,13 +8627,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C14" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D14" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8481,13 +8641,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C15" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D15" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8495,13 +8655,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D16" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8509,13 +8669,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C17" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D17" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8523,13 +8683,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D18" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8537,13 +8697,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C19" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8551,13 +8711,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="D20" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8565,13 +8725,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8579,13 +8739,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D22" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8593,13 +8753,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D23" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8607,13 +8767,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D24" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8621,13 +8781,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C25" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D25" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8635,13 +8795,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C26" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8649,13 +8809,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C27" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D27" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8663,13 +8823,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C28" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D28" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8677,13 +8837,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="C29" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D29" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8691,13 +8851,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D30" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8705,13 +8865,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C31" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D31" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8719,13 +8879,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C32" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D32" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8733,13 +8893,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C33" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D33" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8747,13 +8907,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C34" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D34" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8761,13 +8921,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C35" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D35" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8775,13 +8935,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C36" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D36" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -22,6 +22,7 @@
     <sheet name="NpcRelationshipInfo" sheetId="13" r:id="rId13"/>
     <sheet name="DoomCouncilRatingsInfo" sheetId="14" r:id="rId14"/>
     <sheet name="RarityInfo" sheetId="15" r:id="rId15"/>
+    <sheet name="ResearchInfo" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="592">
   <si>
     <t>id</t>
   </si>
@@ -316,6 +317,12 @@
     <t>N</t>
   </si>
   <si>
+    <t>阵容 {0}</t>
+  </si>
+  <si>
+    <t>Lineup {0}</t>
+  </si>
+  <si>
     <t>游戏</t>
   </si>
   <si>
@@ -490,6 +497,12 @@
     <t>是否开启此项研究？花费x{0}魔晶</t>
   </si>
   <si>
+    <t>设施</t>
+  </si>
+  <si>
+    <t>强化</t>
+  </si>
+  <si>
     <t>贿赂</t>
   </si>
   <si>
@@ -1769,6 +1782,42 @@
   </si>
   <si>
     <t>Legendary</t>
+  </si>
+  <si>
+    <t>开启进阶设施</t>
+  </si>
+  <si>
+    <t>excel_research_info</t>
+  </si>
+  <si>
+    <t>进阶设施+1</t>
+  </si>
+  <si>
+    <t>开启献祭设施</t>
+  </si>
+  <si>
+    <t>开启终焉议会</t>
+  </si>
+  <si>
+    <t>传送门可选择世界+1</t>
+  </si>
+  <si>
+    <t>阵容上限+1</t>
+  </si>
+  <si>
+    <t>解锁第二阵容</t>
+  </si>
+  <si>
+    <t>解锁第三阵容</t>
+  </si>
+  <si>
+    <t>解锁第四阵容</t>
+  </si>
+  <si>
+    <t>解锁第五阵容</t>
+  </si>
+  <si>
+    <t>种族：人类</t>
   </si>
 </sst>
 </file>
@@ -2815,10 +2864,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3529,7 +3578,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>40001</v>
+        <v>30005</v>
       </c>
       <c r="B56" t="s">
         <v>91</v>
@@ -3543,7 +3592,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B57" t="s">
         <v>93</v>
@@ -3557,7 +3606,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B58" t="s">
         <v>95</v>
@@ -3571,21 +3620,24 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B59" t="s">
         <v>97</v>
       </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -3593,12 +3645,9 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" t="s">
         <v>100</v>
       </c>
       <c r="D61" t="s">
@@ -3607,21 +3656,24 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B62" t="s">
         <v>101</v>
       </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -3629,10 +3681,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -3640,12 +3692,9 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" t="s">
         <v>105</v>
       </c>
       <c r="D65" t="s">
@@ -3654,7 +3703,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B66" t="s">
         <v>106</v>
@@ -3668,10 +3717,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>49001</v>
+        <v>43002</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
+        <v>109</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -3679,10 +3731,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>49002</v>
+        <v>49001</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -3690,10 +3742,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>49003</v>
+        <v>49002</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3701,13 +3753,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>50001</v>
+        <v>49003</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3715,7 +3764,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B71" t="s">
         <v>111</v>
@@ -3729,7 +3778,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B72" t="s">
         <v>113</v>
@@ -3743,7 +3792,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B73" t="s">
         <v>115</v>
@@ -3757,23 +3806,23 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>50101</v>
+        <v>50004</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
       </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>51001</v>
+        <v>50101</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" t="s">
         <v>119</v>
       </c>
       <c r="D75" t="s">
@@ -3782,23 +3831,23 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>51002</v>
+        <v>51001</v>
       </c>
       <c r="B76" t="s">
         <v>120</v>
       </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>51003</v>
+        <v>51002</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" t="s">
         <v>122</v>
       </c>
       <c r="D77" t="s">
@@ -3807,24 +3856,24 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>52001</v>
+        <v>51003</v>
       </c>
       <c r="B78" t="s">
         <v>123</v>
       </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>52002</v>
+        <v>52001</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -3832,9 +3881,12 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>52003</v>
+        <v>52002</v>
       </c>
       <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
         <v>124</v>
       </c>
       <c r="D80" t="s">
@@ -3843,10 +3895,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>52004</v>
+        <v>52003</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3854,10 +3906,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>52005</v>
+        <v>52004</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3865,13 +3917,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53000</v>
+        <v>52005</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -3879,10 +3928,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>129</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -3890,10 +3942,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3901,10 +3953,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="B86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3912,10 +3964,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -3923,10 +3975,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3934,12 +3986,9 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89" t="s">
         <v>134</v>
       </c>
       <c r="D89" t="s">
@@ -3948,7 +3997,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
@@ -3962,7 +4011,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="B91" t="s">
         <v>137</v>
@@ -3976,7 +4025,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="B92" t="s">
         <v>139</v>
@@ -3990,21 +4039,24 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="B93" t="s">
         <v>141</v>
       </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -4012,10 +4064,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -4023,10 +4075,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -4034,10 +4086,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -4045,10 +4097,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -4056,10 +4108,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -4067,10 +4119,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>62002</v>
+        <v>61003</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -4078,10 +4130,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>70001</v>
+        <v>62001</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -4089,10 +4141,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>80001</v>
+        <v>62002</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -4100,10 +4152,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>80002</v>
+        <v>62003</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -4111,10 +4163,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>80003</v>
+        <v>62004</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -4122,7 +4174,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>80004</v>
+        <v>70001</v>
       </c>
       <c r="B105" t="s">
         <v>153</v>
@@ -4133,7 +4185,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>80005</v>
+        <v>80001</v>
       </c>
       <c r="B106" t="s">
         <v>154</v>
@@ -4144,7 +4196,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>80006</v>
+        <v>80002</v>
       </c>
       <c r="B107" t="s">
         <v>155</v>
@@ -4155,7 +4207,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>80007</v>
+        <v>80003</v>
       </c>
       <c r="B108" t="s">
         <v>156</v>
@@ -4166,7 +4218,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>80008</v>
+        <v>80004</v>
       </c>
       <c r="B109" t="s">
         <v>157</v>
@@ -4177,7 +4229,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>80009</v>
+        <v>80005</v>
       </c>
       <c r="B110" t="s">
         <v>158</v>
@@ -4188,27 +4240,21 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>1000001</v>
+        <v>80006</v>
       </c>
       <c r="B111" t="s">
         <v>159</v>
       </c>
-      <c r="C111" t="s">
-        <v>160</v>
-      </c>
       <c r="D111" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>1000002</v>
+        <v>80007</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -4216,13 +4262,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>1001001</v>
+        <v>80008</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -4230,10 +4273,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>1002001</v>
+        <v>80009</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -4241,10 +4284,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>1002002</v>
+        <v>1000001</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="C115" t="s">
+        <v>164</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -4252,10 +4298,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="C116" t="s">
+        <v>166</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -4263,9 +4312,12 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>2000002</v>
+        <v>1001001</v>
       </c>
       <c r="B117" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" t="s">
         <v>168</v>
       </c>
       <c r="D117" t="s">
@@ -4274,7 +4326,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>2000003</v>
+        <v>1002001</v>
       </c>
       <c r="B118" t="s">
         <v>169</v>
@@ -4285,7 +4337,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>3000001</v>
+        <v>1002002</v>
       </c>
       <c r="B119" t="s">
         <v>170</v>
@@ -4296,12 +4348,56 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>3000002</v>
+        <v>2000001</v>
       </c>
       <c r="B120" t="s">
         <v>171</v>
       </c>
       <c r="D120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>2000002</v>
+      </c>
+      <c r="B121" t="s">
+        <v>172</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>2000003</v>
+      </c>
+      <c r="B122" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>3000001</v>
+      </c>
+      <c r="B123" t="s">
+        <v>174</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>3000002</v>
+      </c>
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+      <c r="D124" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4375,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4383,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4391,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4399,10 +4495,10 @@
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4410,10 +4506,10 @@
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4421,10 +4517,10 @@
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4432,10 +4528,10 @@
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -4443,7 +4539,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4451,7 +4547,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4522,7 +4618,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4530,7 +4626,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -4538,7 +4634,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -4546,7 +4642,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -4554,7 +4650,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -4562,7 +4658,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -4570,7 +4666,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -4578,7 +4674,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -4586,7 +4682,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -4594,7 +4690,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -4602,7 +4698,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -4610,7 +4706,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -4618,7 +4714,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4626,7 +4722,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4634,7 +4730,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4642,7 +4738,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4650,7 +4746,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4658,7 +4754,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4666,7 +4762,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4674,7 +4770,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4682,7 +4778,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4690,7 +4786,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4698,7 +4794,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4706,7 +4802,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4714,7 +4810,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4722,7 +4818,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4730,7 +4826,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4738,7 +4834,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4746,7 +4842,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4754,7 +4850,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4762,7 +4858,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4834,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4842,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4850,7 +4946,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4858,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4866,7 +4962,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4874,7 +4970,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4882,7 +4978,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4890,7 +4986,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4898,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4906,7 +5002,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4914,7 +5010,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4922,7 +5018,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4930,7 +5026,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -5000,10 +5096,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5011,10 +5107,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5022,10 +5118,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5033,10 +5129,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5044,10 +5140,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C8" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -5118,10 +5214,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5129,10 +5225,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5140,10 +5236,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5151,10 +5247,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5162,10 +5258,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5173,10 +5269,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5184,10 +5280,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5195,10 +5291,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5206,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5217,10 +5313,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -5235,7 +5331,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5291,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5302,10 +5398,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5313,10 +5409,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5324,10 +5420,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5335,10 +5431,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5346,10 +5442,438 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C9" t="s">
-        <v>575</v>
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>100000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>100000002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>100000003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>100000004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>100000005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>100000006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>100100001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>100200001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>100300001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>100300002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>100300003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>100300004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>585</v>
+      </c>
+      <c r="D15" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>100300005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>100300006</v>
+      </c>
+      <c r="B17" t="s">
+        <v>585</v>
+      </c>
+      <c r="D17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>100300007</v>
+      </c>
+      <c r="B18" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>100300008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>585</v>
+      </c>
+      <c r="D19" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>100300009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>100300010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>585</v>
+      </c>
+      <c r="D21" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>200000001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>586</v>
+      </c>
+      <c r="D22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>200000002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>586</v>
+      </c>
+      <c r="D23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>200000003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>586</v>
+      </c>
+      <c r="D24" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>200000004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D25" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>200000005</v>
+      </c>
+      <c r="B26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D26" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>200000006</v>
+      </c>
+      <c r="B27" t="s">
+        <v>586</v>
+      </c>
+      <c r="D27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>200000007</v>
+      </c>
+      <c r="B28" t="s">
+        <v>586</v>
+      </c>
+      <c r="D28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>200000008</v>
+      </c>
+      <c r="B29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D29" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>200000009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>586</v>
+      </c>
+      <c r="D30" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>200000010</v>
+      </c>
+      <c r="B31" t="s">
+        <v>586</v>
+      </c>
+      <c r="D31" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>200100001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>587</v>
+      </c>
+      <c r="D32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>200100002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>588</v>
+      </c>
+      <c r="D33" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>200100003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>589</v>
+      </c>
+      <c r="D34" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>200100004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>590</v>
+      </c>
+      <c r="D35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>300000000</v>
+      </c>
+      <c r="B36" t="s">
+        <v>591</v>
+      </c>
+      <c r="D36" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5422,10 +5946,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5433,10 +5957,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5444,10 +5968,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5455,10 +5979,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5466,10 +5990,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" t="s">
         <v>177</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5477,10 +6001,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5488,10 +6012,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5499,10 +6023,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5581,7 +6105,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5589,13 +6113,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5603,13 +6127,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
         <v>185</v>
-      </c>
-      <c r="D6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5617,13 +6141,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5631,13 +6155,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5645,13 +6169,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5724,10 +6248,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5735,10 +6259,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5746,10 +6270,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5757,10 +6281,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5768,10 +6292,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5779,10 +6303,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5790,10 +6314,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5801,10 +6325,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5812,10 +6336,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5823,10 +6347,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5834,10 +6358,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5845,10 +6369,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5856,10 +6380,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5867,10 +6391,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5878,10 +6402,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5889,10 +6413,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5900,10 +6424,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5911,10 +6435,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5922,10 +6446,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5933,10 +6457,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5944,10 +6468,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5955,10 +6479,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5966,10 +6490,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5977,10 +6501,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5988,10 +6512,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5999,10 +6523,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6010,10 +6534,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6021,10 +6545,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6032,10 +6556,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6043,10 +6567,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6054,10 +6578,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6065,10 +6589,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6076,10 +6600,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6087,10 +6611,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6098,10 +6622,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6109,10 +6633,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6120,10 +6644,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6131,10 +6655,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6142,10 +6666,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6153,10 +6677,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6164,10 +6688,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6175,10 +6699,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6186,10 +6710,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6197,10 +6721,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6208,10 +6732,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6219,10 +6743,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6230,10 +6754,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6241,10 +6765,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6252,10 +6776,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6263,10 +6787,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6274,10 +6798,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6285,10 +6809,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6296,10 +6820,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6307,10 +6831,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6318,10 +6842,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6329,10 +6853,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6340,10 +6864,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6351,10 +6875,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6362,10 +6886,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6373,10 +6897,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6384,10 +6908,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6395,10 +6919,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6406,10 +6930,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D66" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6417,10 +6941,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6428,10 +6952,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6439,10 +6963,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6450,10 +6974,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6461,10 +6985,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6472,10 +6996,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6483,10 +7007,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6494,10 +7018,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -6505,10 +7029,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -6516,10 +7040,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -6527,10 +7051,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -6538,10 +7062,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D78" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -6549,10 +7073,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D79" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -6560,10 +7084,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D80" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -6571,10 +7095,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D81" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -6582,10 +7106,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6593,10 +7117,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -6604,10 +7128,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -6615,10 +7139,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -6626,10 +7150,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D86" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -6637,10 +7161,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D87" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6648,10 +7172,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D88" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -6659,10 +7183,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -6670,10 +7194,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D90" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -6681,10 +7205,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D91" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -6692,10 +7216,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -6703,10 +7227,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D93" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -6714,10 +7238,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -6725,10 +7249,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D95" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -6736,10 +7260,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6747,10 +7271,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6758,10 +7282,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6769,10 +7293,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D99" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6780,10 +7304,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D100" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6791,10 +7315,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D101" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6802,10 +7326,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D102" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6813,10 +7337,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D103" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6824,10 +7348,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6835,10 +7359,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D105" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6846,10 +7370,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D106" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6857,10 +7381,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D107" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -6868,10 +7392,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D108" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6879,10 +7403,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D109" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6890,10 +7414,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D110" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6901,10 +7425,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D111" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -6912,10 +7436,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D112" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6923,10 +7447,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D113" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6934,10 +7458,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6945,10 +7469,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D115" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6956,10 +7480,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6967,10 +7491,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D117" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6978,10 +7502,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D118" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6989,10 +7513,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D119" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -7000,10 +7524,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D120" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -7011,10 +7535,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D121" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -7022,10 +7546,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D122" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -7033,10 +7557,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D123" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -7044,10 +7568,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D124" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -7055,10 +7579,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D125" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -7066,10 +7590,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D126" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -7077,10 +7601,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D127" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7088,10 +7612,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D128" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -7099,10 +7623,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D129" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7110,10 +7634,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D130" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -7121,10 +7645,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D131" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -7132,10 +7656,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D132" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -7143,10 +7667,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D133" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -7154,10 +7678,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D134" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7165,10 +7689,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D135" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7176,10 +7700,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7187,10 +7711,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D137" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -7198,10 +7722,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D138" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -7209,10 +7733,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -7220,10 +7744,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D140" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -7231,10 +7755,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D141" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -7242,10 +7766,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D142" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -7253,10 +7777,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D143" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -7264,10 +7788,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D144" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -7275,10 +7799,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D145" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -7286,10 +7810,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D146" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -7297,10 +7821,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D147" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -7308,10 +7832,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D148" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -7319,10 +7843,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D149" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7330,10 +7854,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D150" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -7341,10 +7865,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D151" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -7352,10 +7876,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D152" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -7363,10 +7887,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D153" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7374,10 +7898,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D154" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -7385,10 +7909,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D155" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7396,10 +7920,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D156" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7407,10 +7931,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D157" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7418,10 +7942,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D158" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -7429,10 +7953,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D159" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7440,10 +7964,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D160" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7451,10 +7975,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D161" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7462,10 +7986,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D162" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7473,10 +7997,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D163" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7484,10 +8008,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D164" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7495,10 +8019,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D165" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -7506,10 +8030,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D166" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7517,10 +8041,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D167" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7528,10 +8052,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D168" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7539,10 +8063,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D169" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7550,10 +8074,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D170" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7561,10 +8085,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D171" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7572,10 +8096,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D172" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7583,10 +8107,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D173" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -7594,10 +8118,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D174" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7605,10 +8129,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D175" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7616,10 +8140,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D176" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7627,10 +8151,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D177" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7638,10 +8162,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D178" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7649,10 +8173,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D179" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7660,10 +8184,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D180" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7671,10 +8195,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D181" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7682,10 +8206,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D182" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7693,10 +8217,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D183" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7769,10 +8293,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7780,10 +8304,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7791,10 +8315,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7802,10 +8326,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7813,10 +8337,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" t="s">
         <v>361</v>
-      </c>
-      <c r="D8" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7824,10 +8348,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7835,10 +8359,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7846,10 +8370,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7857,10 +8381,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7868,10 +8392,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7879,10 +8403,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7890,10 +8414,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7901,10 +8425,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +8501,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7988,10 +8512,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7999,10 +8523,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8010,10 +8534,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8086,13 +8610,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8100,13 +8624,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8114,13 +8638,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" t="s">
         <v>381</v>
-      </c>
-      <c r="D6" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8128,13 +8652,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8142,13 +8666,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8156,13 +8680,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8170,13 +8694,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8184,13 +8708,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8198,13 +8722,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D12" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8212,13 +8736,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8226,13 +8750,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8240,13 +8764,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D15" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8254,13 +8778,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D16" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8268,13 +8792,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C17" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D17" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8282,13 +8806,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D18" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8296,13 +8820,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C19" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -8375,13 +8899,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8389,10 +8913,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8400,10 +8924,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D6" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8411,10 +8935,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -8487,13 +9011,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8501,13 +9025,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D5" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8515,13 +9039,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8529,13 +9053,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" t="s">
         <v>418</v>
-      </c>
-      <c r="D7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8543,13 +9067,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8557,13 +9081,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8571,13 +9095,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8585,13 +9109,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8599,13 +9123,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D12" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8613,13 +9137,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8627,13 +9151,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D14" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8641,13 +9165,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C15" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D15" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8655,13 +9179,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C16" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8669,13 +9193,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C17" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D17" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8683,13 +9207,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D18" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8697,13 +9221,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8711,13 +9235,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8725,13 +9249,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8739,13 +9263,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8753,13 +9277,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8767,13 +9291,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8781,13 +9305,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C25" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8795,13 +9319,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D26" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8809,13 +9333,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C27" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D27" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8823,13 +9347,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D28" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8837,13 +9361,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C29" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D29" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8851,13 +9375,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D30" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8865,13 +9389,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D31" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8879,13 +9403,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C32" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D32" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8893,13 +9417,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C33" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D33" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8907,13 +9431,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C34" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D34" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8921,13 +9445,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C35" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D35" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8935,13 +9459,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C36" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="594">
   <si>
     <t>id</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>丢弃</t>
+  </si>
+  <si>
+    <t>研究等级.{0}</t>
+  </si>
+  <si>
+    <t>研究等级.最大</t>
   </si>
   <si>
     <t>提示</t>
@@ -2864,10 +2870,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4348,7 +4354,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>2000001</v>
+        <v>1003001</v>
       </c>
       <c r="B120" t="s">
         <v>171</v>
@@ -4359,7 +4365,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>2000002</v>
+        <v>1003002</v>
       </c>
       <c r="B121" t="s">
         <v>172</v>
@@ -4370,7 +4376,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="B122" t="s">
         <v>173</v>
@@ -4381,7 +4387,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>3000001</v>
+        <v>2000002</v>
       </c>
       <c r="B123" t="s">
         <v>174</v>
@@ -4392,12 +4398,34 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>3000002</v>
+        <v>2000003</v>
       </c>
       <c r="B124" t="s">
         <v>175</v>
       </c>
       <c r="D124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>3000001</v>
+      </c>
+      <c r="B125" t="s">
+        <v>176</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>3000002</v>
+      </c>
+      <c r="B126" t="s">
+        <v>177</v>
+      </c>
+      <c r="D126" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4471,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4479,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4487,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4495,10 +4523,10 @@
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4506,10 +4534,10 @@
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4517,10 +4545,10 @@
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4528,10 +4556,10 @@
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -4539,7 +4567,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4547,7 +4575,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -4618,7 +4646,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4626,7 +4654,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -4634,7 +4662,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -4642,7 +4670,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -4650,7 +4678,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -4658,7 +4686,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -4666,7 +4694,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -4674,7 +4702,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -4682,7 +4710,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -4690,7 +4718,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -4698,7 +4726,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -4706,7 +4734,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -4714,7 +4742,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4722,7 +4750,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4730,7 +4758,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4738,7 +4766,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4746,7 +4774,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4754,7 +4782,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4762,7 +4790,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4770,7 +4798,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4778,7 +4806,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4786,7 +4814,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4794,7 +4822,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4802,7 +4830,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4810,7 +4838,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4818,7 +4846,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4826,7 +4854,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4834,7 +4862,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4842,7 +4870,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4850,7 +4878,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4858,7 +4886,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -4930,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4938,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4946,7 +4974,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4954,7 +4982,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4962,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4970,7 +4998,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4978,7 +5006,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4986,7 +5014,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4994,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5002,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5010,7 +5038,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5018,7 +5046,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5026,7 +5054,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -5096,10 +5124,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5107,10 +5135,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5118,10 +5146,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5129,10 +5157,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5140,10 +5168,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -5214,10 +5242,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5225,10 +5253,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5236,10 +5264,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5247,10 +5275,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5258,10 +5286,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5269,10 +5297,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5280,10 +5308,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5291,10 +5319,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5302,10 +5330,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5313,10 +5341,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -5387,10 +5415,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5398,10 +5426,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5409,10 +5437,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5420,10 +5448,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5431,10 +5459,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5442,10 +5470,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5457,10 +5485,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B36"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5515,365 +5543,321 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>100000001</v>
+        <v>100000000</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>100000002</v>
+        <v>100000001</v>
       </c>
       <c r="B5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>100000003</v>
+        <v>100100001</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D6" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>100000004</v>
+        <v>100200001</v>
       </c>
       <c r="B7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>100000005</v>
+        <v>100300001</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>100000006</v>
+        <v>100300002</v>
       </c>
       <c r="B9" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>100100001</v>
+        <v>100300003</v>
       </c>
       <c r="B10" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" t="s">
         <v>583</v>
-      </c>
-      <c r="D10" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>100200001</v>
+        <v>100300004</v>
       </c>
       <c r="B11" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>100300001</v>
+        <v>100300005</v>
       </c>
       <c r="B12" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D12" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>100300002</v>
+        <v>100300006</v>
       </c>
       <c r="B13" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>100300003</v>
+        <v>100300007</v>
       </c>
       <c r="B14" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D14" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>100300004</v>
+        <v>100300008</v>
       </c>
       <c r="B15" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D15" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>100300005</v>
+        <v>100300009</v>
       </c>
       <c r="B16" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>100300006</v>
+        <v>100300010</v>
       </c>
       <c r="B17" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>100300007</v>
+        <v>200000001</v>
       </c>
       <c r="B18" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D18" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>100300008</v>
+        <v>200000002</v>
       </c>
       <c r="B19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D19" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>100300009</v>
+        <v>200000003</v>
       </c>
       <c r="B20" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D20" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>100300010</v>
+        <v>200000004</v>
       </c>
       <c r="B21" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D21" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>200000001</v>
+        <v>200000005</v>
       </c>
       <c r="B22" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D22" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>200000002</v>
+        <v>200000006</v>
       </c>
       <c r="B23" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D23" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>200000003</v>
+        <v>200000007</v>
       </c>
       <c r="B24" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D24" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>200000004</v>
+        <v>200000008</v>
       </c>
       <c r="B25" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D25" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>200000005</v>
+        <v>200000009</v>
       </c>
       <c r="B26" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D26" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>200000006</v>
+        <v>200000010</v>
       </c>
       <c r="B27" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D27" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>200000007</v>
+        <v>200100001</v>
       </c>
       <c r="B28" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D28" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>200000008</v>
+        <v>200100002</v>
       </c>
       <c r="B29" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>200000009</v>
+        <v>200100003</v>
       </c>
       <c r="B30" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D30" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>200000010</v>
+        <v>200100004</v>
       </c>
       <c r="B31" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D31" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>200100001</v>
+        <v>300000000</v>
       </c>
       <c r="B32" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D32" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>200100002</v>
-      </c>
-      <c r="B33" t="s">
-        <v>588</v>
-      </c>
-      <c r="D33" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>200100003</v>
-      </c>
-      <c r="B34" t="s">
-        <v>589</v>
-      </c>
-      <c r="D34" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>200100004</v>
-      </c>
-      <c r="B35" t="s">
-        <v>590</v>
-      </c>
-      <c r="D35" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>300000000</v>
-      </c>
-      <c r="B36" t="s">
-        <v>591</v>
-      </c>
-      <c r="D36" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5946,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5957,10 +5941,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5968,10 +5952,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
         <v>179</v>
-      </c>
-      <c r="D6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5979,10 +5963,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5990,10 +5974,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6001,10 +5985,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6012,10 +5996,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6023,10 +6007,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6105,7 +6089,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6113,13 +6097,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
         <v>187</v>
-      </c>
-      <c r="D5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6127,13 +6111,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6141,13 +6125,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6155,13 +6139,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6169,13 +6153,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6248,10 +6232,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6259,10 +6243,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6270,10 +6254,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6281,10 +6265,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6292,10 +6276,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6303,10 +6287,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6314,10 +6298,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6325,10 +6309,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6336,10 +6320,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6347,10 +6331,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6358,10 +6342,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6369,10 +6353,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6380,10 +6364,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6391,10 +6375,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6402,10 +6386,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6413,10 +6397,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6424,10 +6408,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6435,10 +6419,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6446,10 +6430,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6457,10 +6441,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6468,10 +6452,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6479,10 +6463,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6490,10 +6474,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6501,10 +6485,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6512,10 +6496,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6523,10 +6507,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6534,10 +6518,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6545,10 +6529,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6556,10 +6540,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6567,10 +6551,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6578,10 +6562,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6589,10 +6573,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6600,10 +6584,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6611,10 +6595,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6622,10 +6606,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6633,10 +6617,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6644,10 +6628,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6655,10 +6639,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6666,10 +6650,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6677,10 +6661,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6688,10 +6672,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6699,10 +6683,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6710,10 +6694,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6721,10 +6705,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6732,10 +6716,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6743,10 +6727,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6754,10 +6738,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6765,10 +6749,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6776,10 +6760,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6787,10 +6771,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6798,10 +6782,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6809,10 +6793,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6820,10 +6804,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6831,10 +6815,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6842,10 +6826,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6853,10 +6837,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6864,10 +6848,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6875,10 +6859,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6886,10 +6870,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6897,10 +6881,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6908,10 +6892,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6919,10 +6903,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6930,10 +6914,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6941,10 +6925,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6952,10 +6936,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6963,10 +6947,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6974,10 +6958,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6985,10 +6969,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6996,10 +6980,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7007,10 +6991,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7018,10 +7002,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7029,10 +7013,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7040,10 +7024,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7051,10 +7035,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7062,10 +7046,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7073,10 +7057,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7084,10 +7068,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7095,10 +7079,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7106,10 +7090,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7117,10 +7101,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7128,10 +7112,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7139,10 +7123,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7150,10 +7134,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7161,10 +7145,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7172,10 +7156,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7183,10 +7167,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7194,10 +7178,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7205,10 +7189,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7216,10 +7200,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7227,10 +7211,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7238,10 +7222,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7249,10 +7233,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7260,10 +7244,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7271,10 +7255,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7282,10 +7266,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7293,10 +7277,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D99" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7304,10 +7288,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7315,10 +7299,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7326,10 +7310,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7337,10 +7321,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7348,10 +7332,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7359,10 +7343,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7370,10 +7354,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7381,10 +7365,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D107" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7392,10 +7376,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7403,10 +7387,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D109" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7414,10 +7398,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D110" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7425,10 +7409,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D111" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -7436,10 +7420,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D112" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -7447,10 +7431,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D113" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -7458,10 +7442,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D114" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -7469,10 +7453,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D115" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -7480,10 +7464,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -7491,10 +7475,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D117" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -7502,10 +7486,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D118" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -7513,10 +7497,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D119" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -7524,10 +7508,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D120" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -7535,10 +7519,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D121" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -7546,10 +7530,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D122" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -7557,10 +7541,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D123" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -7568,10 +7552,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -7579,10 +7563,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D125" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -7590,10 +7574,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -7601,10 +7585,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D127" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7612,10 +7596,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D128" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -7623,10 +7607,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D129" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7634,10 +7618,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D130" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -7645,10 +7629,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D131" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -7656,10 +7640,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D132" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -7667,10 +7651,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D133" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -7678,10 +7662,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D134" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7689,10 +7673,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D135" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7700,10 +7684,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D136" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7711,10 +7695,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D137" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -7722,10 +7706,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D138" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -7733,10 +7717,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D139" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -7744,10 +7728,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D140" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -7755,10 +7739,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D141" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -7766,10 +7750,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -7777,10 +7761,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D143" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -7788,10 +7772,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D144" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -7799,10 +7783,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D145" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -7810,10 +7794,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D146" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -7821,10 +7805,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D147" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -7832,10 +7816,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D148" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -7843,10 +7827,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D149" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7854,10 +7838,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -7865,10 +7849,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D151" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -7876,10 +7860,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -7887,10 +7871,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D153" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7898,10 +7882,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D154" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -7909,10 +7893,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D155" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7920,10 +7904,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D156" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7931,10 +7915,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D157" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7942,10 +7926,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D158" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -7953,10 +7937,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D159" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7964,10 +7948,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D160" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7975,10 +7959,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D161" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7986,10 +7970,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D162" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7997,10 +7981,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D163" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8008,10 +7992,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D164" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8019,10 +8003,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D165" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8030,10 +8014,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D166" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8041,10 +8025,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D167" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8052,10 +8036,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D168" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8063,10 +8047,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D169" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8074,10 +8058,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D170" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8085,10 +8069,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8096,10 +8080,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D172" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8107,10 +8091,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D173" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8118,10 +8102,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D174" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8129,10 +8113,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D175" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -8140,10 +8124,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D176" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -8151,10 +8135,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D177" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -8162,10 +8146,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D178" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -8173,10 +8157,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D179" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -8184,10 +8168,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -8195,10 +8179,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -8206,10 +8190,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D182" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -8217,10 +8201,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D183" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -8293,10 +8277,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8304,10 +8288,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8315,10 +8299,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" t="s">
         <v>363</v>
-      </c>
-      <c r="D6" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8326,10 +8310,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8337,10 +8321,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8348,10 +8332,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8359,10 +8343,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8370,10 +8354,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8381,10 +8365,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8392,10 +8376,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8403,10 +8387,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8414,10 +8398,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8425,10 +8409,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -8501,10 +8485,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8512,10 +8496,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8523,10 +8507,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" t="s">
         <v>377</v>
-      </c>
-      <c r="D6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8534,10 +8518,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -8610,13 +8594,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8624,13 +8608,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" t="s">
         <v>383</v>
-      </c>
-      <c r="D5" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8638,13 +8622,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8652,13 +8636,13 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8666,13 +8650,13 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8680,13 +8664,13 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8694,13 +8678,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8708,13 +8692,13 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8722,13 +8706,13 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8736,13 +8720,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8750,13 +8734,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8764,13 +8748,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8778,13 +8762,13 @@
         <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8792,13 +8776,13 @@
         <v>402</v>
       </c>
       <c r="B17" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8806,13 +8790,13 @@
         <v>403</v>
       </c>
       <c r="B18" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8820,13 +8804,13 @@
         <v>999999</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D19" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -8899,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8913,10 +8897,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8924,10 +8908,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D6" t="s">
         <v>415</v>
-      </c>
-      <c r="D6" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8935,10 +8919,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -9011,13 +8995,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9025,13 +9009,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" t="s">
         <v>420</v>
-      </c>
-      <c r="D5" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9039,13 +9023,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9053,13 +9037,13 @@
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9067,13 +9051,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9081,13 +9065,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9095,13 +9079,13 @@
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9109,13 +9093,13 @@
         <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9123,13 +9107,13 @@
         <v>3002</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9137,13 +9121,13 @@
         <v>3003</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9151,13 +9135,13 @@
         <v>3004</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9165,13 +9149,13 @@
         <v>4001</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9179,13 +9163,13 @@
         <v>4002</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D16" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9193,13 +9177,13 @@
         <v>4003</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D17" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9207,13 +9191,13 @@
         <v>4004</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D18" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9221,13 +9205,13 @@
         <v>4005</v>
       </c>
       <c r="B19" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9235,13 +9219,13 @@
         <v>5001</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C20" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9249,13 +9233,13 @@
         <v>5002</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9263,13 +9247,13 @@
         <v>5003</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9277,13 +9261,13 @@
         <v>5004</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C23" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9291,13 +9275,13 @@
         <v>6001</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D24" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9305,13 +9289,13 @@
         <v>6002</v>
       </c>
       <c r="B25" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D25" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9319,13 +9303,13 @@
         <v>6003</v>
       </c>
       <c r="B26" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D26" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9333,13 +9317,13 @@
         <v>6004</v>
       </c>
       <c r="B27" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C27" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D27" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9347,13 +9331,13 @@
         <v>6005</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D28" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9361,13 +9345,13 @@
         <v>7001</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C29" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D29" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9375,13 +9359,13 @@
         <v>7002</v>
       </c>
       <c r="B30" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C30" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D30" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9389,13 +9373,13 @@
         <v>7003</v>
       </c>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C31" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -9403,13 +9387,13 @@
         <v>7004</v>
       </c>
       <c r="B32" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C32" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D32" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9417,13 +9401,13 @@
         <v>101001</v>
       </c>
       <c r="B33" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D33" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9431,13 +9415,13 @@
         <v>102001</v>
       </c>
       <c r="B34" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D34" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -9445,13 +9429,13 @@
         <v>103001</v>
       </c>
       <c r="B35" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C35" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D35" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9459,13 +9443,13 @@
         <v>103002</v>
       </c>
       <c r="B36" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C36" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D36" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="723"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="723" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="653">
   <si>
     <t>id</t>
   </si>
@@ -323,6 +323,9 @@
     <t>Lineup {0}</t>
   </si>
   <si>
+    <t>超过阵容魔物上限！</t>
+  </si>
+  <si>
     <t>游戏</t>
   </si>
   <si>
@@ -1187,105 +1190,138 @@
     <t>下次征服模式获得的经验翻倍</t>
   </si>
   <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>excel_store_gashaponmachine_info</t>
+  </si>
+  <si>
+    <t>人类x5</t>
+  </si>
+  <si>
+    <t>Human x5</t>
+  </si>
+  <si>
+    <t>人类x10</t>
+  </si>
+  <si>
+    <t>Human x10</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t>骷髅x5</t>
+  </si>
+  <si>
+    <t>Undead x5</t>
+  </si>
+  <si>
+    <t>骷髅x10</t>
+  </si>
+  <si>
+    <t>Undead x10</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>史莱姆x5</t>
+  </si>
+  <si>
+    <t>Slime x5</t>
+  </si>
+  <si>
+    <t>史莱姆x10</t>
+  </si>
+  <si>
+    <t>Slime x10</t>
+  </si>
+  <si>
+    <t>魅魔</t>
+  </si>
+  <si>
+    <t>Succubus</t>
+  </si>
+  <si>
+    <t>魅魔x5</t>
+  </si>
+  <si>
+    <t>Succubus x5</t>
+  </si>
+  <si>
+    <t>魅魔x10</t>
+  </si>
+  <si>
+    <t>Succubus x10</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>牛头人x5</t>
+  </si>
+  <si>
+    <t>Minotaur x5</t>
+  </si>
+  <si>
+    <t>牛头人x10</t>
+  </si>
+  <si>
+    <t>Minotaur x10</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>哥布林x5</t>
+  </si>
+  <si>
+    <t>Goblin x5</t>
+  </si>
+  <si>
+    <t>哥布林x10</t>
+  </si>
+  <si>
+    <t>Goblin x10</t>
+  </si>
+  <si>
+    <t>兽人</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>兽人x5</t>
+  </si>
+  <si>
+    <t>Orc x5</t>
+  </si>
+  <si>
+    <t>兽人x10</t>
+  </si>
+  <si>
+    <t>Orc x10</t>
+  </si>
+  <si>
     <t>剑与魔法</t>
   </si>
   <si>
-    <t>Sword and Sorcery</t>
-  </si>
-  <si>
-    <t>excel_store_gashaponmachine_info</t>
-  </si>
-  <si>
-    <t>剑与魔法x5</t>
-  </si>
-  <si>
-    <t>Sword and Sorcery x5</t>
-  </si>
-  <si>
-    <t>剑与魔法x10</t>
-  </si>
-  <si>
-    <t>Sword and Sorcery x10</t>
-  </si>
-  <si>
-    <t>人族</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>人族x5</t>
-  </si>
-  <si>
-    <t>Human x5</t>
-  </si>
-  <si>
-    <t>人族x10</t>
-  </si>
-  <si>
-    <t>Human x10</t>
-  </si>
-  <si>
-    <t>不死族</t>
-  </si>
-  <si>
-    <t>Undead</t>
-  </si>
-  <si>
-    <t>不死族x5</t>
-  </si>
-  <si>
-    <t>Undead x5</t>
-  </si>
-  <si>
-    <t>不死族x10</t>
-  </si>
-  <si>
-    <t>Undead x10</t>
-  </si>
-  <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>史莱姆x5</t>
-  </si>
-  <si>
-    <t>Slime x5</t>
-  </si>
-  <si>
-    <t>史莱姆x10</t>
-  </si>
-  <si>
-    <t>Slime x10</t>
-  </si>
-  <si>
-    <t>魅魔</t>
-  </si>
-  <si>
-    <t>Succubus</t>
-  </si>
-  <si>
-    <t>魅魔x5</t>
-  </si>
-  <si>
-    <t>Succubus x5</t>
-  </si>
-  <si>
-    <t>魅魔x10</t>
-  </si>
-  <si>
-    <t>Succubus x10</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Sword and Magic</t>
   </si>
   <si>
@@ -1301,18 +1337,36 @@
     <t>魔法世界</t>
   </si>
   <si>
-    <t>人类</t>
-  </si>
-  <si>
     <t>excel_creature_info</t>
   </si>
   <si>
-    <t>骷髅</t>
-  </si>
-  <si>
     <t>Skeleton</t>
   </si>
   <si>
+    <t>人类战士</t>
+  </si>
+  <si>
+    <t>Human Warrior</t>
+  </si>
+  <si>
+    <t>人类弓箭手</t>
+  </si>
+  <si>
+    <t>Human Archer</t>
+  </si>
+  <si>
+    <t>人类魔法师（火）</t>
+  </si>
+  <si>
+    <t>Human Mage (Fire)</t>
+  </si>
+  <si>
+    <t>人类魔法师（冰）</t>
+  </si>
+  <si>
+    <t>Human Mage (Ice)</t>
+  </si>
+  <si>
     <t>骷髅战士</t>
   </si>
   <si>
@@ -1472,27 +1526,15 @@
     <t>人类-战士</t>
   </si>
   <si>
-    <t>Human Warrior</t>
-  </si>
-  <si>
     <t>人类-弓箭手</t>
   </si>
   <si>
-    <t>Human Archer</t>
-  </si>
-  <si>
     <t>人类-魔法师（火）</t>
   </si>
   <si>
-    <t>Human Mage (Fire)</t>
-  </si>
-  <si>
     <t>人类-魔法师（冰）</t>
   </si>
   <si>
-    <t>Human Mage (Ice)</t>
-  </si>
-  <si>
     <t>没头脑的爪牙</t>
   </si>
   <si>
@@ -1811,19 +1853,154 @@
     <t>阵容上限+1</t>
   </si>
   <si>
-    <t>解锁第二阵容</t>
-  </si>
-  <si>
-    <t>解锁第三阵容</t>
-  </si>
-  <si>
-    <t>解锁第四阵容</t>
-  </si>
-  <si>
-    <t>解锁第五阵容</t>
-  </si>
-  <si>
-    <t>种族：人类</t>
+    <t>解锁一个新阵容</t>
+  </si>
+  <si>
+    <t>解锁种族：人类</t>
+  </si>
+  <si>
+    <t>解锁职业：人类战士</t>
+  </si>
+  <si>
+    <t>解锁职业：人类弓箭手</t>
+  </si>
+  <si>
+    <t>解锁职业：人类魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：人类魔法师（冰）</t>
+  </si>
+  <si>
+    <t>孕育人类x5</t>
+  </si>
+  <si>
+    <t>孕育人类x10</t>
+  </si>
+  <si>
+    <t>解锁种族：骷髅</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅战士</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅投手</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅魔法师（冰）</t>
+  </si>
+  <si>
+    <t>孕育骷髅x5</t>
+  </si>
+  <si>
+    <t>孕育骷髅x10</t>
+  </si>
+  <si>
+    <t>解锁种族：史莱姆</t>
+  </si>
+  <si>
+    <t>解锁职业：守护史莱姆</t>
+  </si>
+  <si>
+    <t>解锁职业：自爆史莱姆</t>
+  </si>
+  <si>
+    <t>解锁职业：烂泥史莱姆</t>
+  </si>
+  <si>
+    <t>解锁职业：毒液史莱姆</t>
+  </si>
+  <si>
+    <t>孕育史莱姆x5</t>
+  </si>
+  <si>
+    <t>孕育史莱姆x10</t>
+  </si>
+  <si>
+    <t>解锁种族：魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：战之魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：愈之魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：惑之魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：奥之魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：盾之魅魔</t>
+  </si>
+  <si>
+    <t>孕育魅魔x5</t>
+  </si>
+  <si>
+    <t>孕育魅魔x10</t>
+  </si>
+  <si>
+    <t>解锁种族：牛头人</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人战士</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人投手</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人魔法师（冰）</t>
+  </si>
+  <si>
+    <t>孕育牛头人x5</t>
+  </si>
+  <si>
+    <t>孕育牛头人x10</t>
+  </si>
+  <si>
+    <t>解锁种族：哥布林</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林刺客</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林弓箭手</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林敢死队</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林魔法师（冰）</t>
+  </si>
+  <si>
+    <t>解锁种族：兽人</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人战士</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人弓箭手</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人魔法师（冰）</t>
+  </si>
+  <si>
+    <t>孕育兽人x5</t>
+  </si>
+  <si>
+    <t>孕育兽人x10</t>
   </si>
 </sst>
 </file>
@@ -2492,6 +2669,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2517,9 +2697,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2870,10 +3047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3598,27 +3775,24 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>40001</v>
+        <v>30006</v>
       </c>
       <c r="B57" t="s">
         <v>93</v>
       </c>
-      <c r="C57" t="s">
-        <v>94</v>
-      </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
         <v>95</v>
-      </c>
-      <c r="C58" t="s">
-        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -3626,13 +3800,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
         <v>97</v>
-      </c>
-      <c r="C59" t="s">
-        <v>98</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3640,9 +3814,12 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
         <v>99</v>
       </c>
       <c r="D60" t="s">
@@ -3651,7 +3828,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B61" t="s">
         <v>100</v>
@@ -3662,23 +3839,23 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B62" t="s">
         <v>101</v>
       </c>
-      <c r="C62" t="s">
-        <v>102</v>
-      </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" t="s">
         <v>103</v>
       </c>
       <c r="D63" t="s">
@@ -3687,7 +3864,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B64" t="s">
         <v>104</v>
@@ -3698,7 +3875,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B65" t="s">
         <v>105</v>
@@ -3709,27 +3886,24 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B66" t="s">
         <v>106</v>
       </c>
-      <c r="C66" t="s">
-        <v>107</v>
-      </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
         <v>108</v>
-      </c>
-      <c r="C67" t="s">
-        <v>109</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -3737,10 +3911,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>49001</v>
+        <v>43002</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -3748,10 +3925,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>49002</v>
+        <v>49001</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3759,10 +3936,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>49003</v>
+        <v>49002</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3770,13 +3947,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>50001</v>
+        <v>49003</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3784,13 +3958,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" t="s">
         <v>113</v>
-      </c>
-      <c r="C72" t="s">
-        <v>114</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3798,13 +3972,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" t="s">
         <v>115</v>
-      </c>
-      <c r="C73" t="s">
-        <v>116</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3812,13 +3986,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" t="s">
         <v>117</v>
-      </c>
-      <c r="C74" t="s">
-        <v>118</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -3826,9 +4000,12 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>50101</v>
+        <v>50004</v>
       </c>
       <c r="B75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" t="s">
         <v>119</v>
       </c>
       <c r="D75" t="s">
@@ -3837,23 +4014,23 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>51001</v>
+        <v>50101</v>
       </c>
       <c r="B76" t="s">
         <v>120</v>
       </c>
-      <c r="C76" t="s">
-        <v>121</v>
-      </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>51002</v>
+        <v>51001</v>
       </c>
       <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
         <v>122</v>
       </c>
       <c r="D77" t="s">
@@ -3862,23 +4039,23 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>51003</v>
+        <v>51002</v>
       </c>
       <c r="B78" t="s">
         <v>123</v>
       </c>
-      <c r="C78" t="s">
-        <v>124</v>
-      </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>52001</v>
+        <v>51003</v>
       </c>
       <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
         <v>125</v>
       </c>
       <c r="D79" t="s">
@@ -3887,13 +4064,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>52002</v>
+        <v>52001</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3901,10 +4075,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>52003</v>
+        <v>52002</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="C81" t="s">
+        <v>125</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3912,7 +4089,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>52004</v>
+        <v>52003</v>
       </c>
       <c r="B82" t="s">
         <v>127</v>
@@ -3923,7 +4100,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>52005</v>
+        <v>52004</v>
       </c>
       <c r="B83" t="s">
         <v>128</v>
@@ -3934,12 +4111,9 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53000</v>
+        <v>52005</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" t="s">
         <v>129</v>
       </c>
       <c r="D84" t="s">
@@ -3948,9 +4122,12 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" t="s">
         <v>130</v>
       </c>
       <c r="D85" t="s">
@@ -3959,7 +4136,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="B86" t="s">
         <v>131</v>
@@ -3970,7 +4147,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="B87" t="s">
         <v>132</v>
@@ -3981,7 +4158,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="B88" t="s">
         <v>133</v>
@@ -3992,7 +4169,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="B89" t="s">
         <v>134</v>
@@ -4003,27 +4180,24 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
       </c>
-      <c r="C90" t="s">
-        <v>136</v>
-      </c>
       <c r="D90" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
         <v>137</v>
-      </c>
-      <c r="C91" t="s">
-        <v>138</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -4031,13 +4205,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="s">
         <v>139</v>
-      </c>
-      <c r="C92" t="s">
-        <v>140</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -4045,13 +4219,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="B93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" t="s">
         <v>141</v>
-      </c>
-      <c r="C93" t="s">
-        <v>142</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -4059,9 +4233,12 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="B94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" t="s">
         <v>143</v>
       </c>
       <c r="D94" t="s">
@@ -4070,7 +4247,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="B95" t="s">
         <v>144</v>
@@ -4081,7 +4258,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="B96" t="s">
         <v>145</v>
@@ -4092,7 +4269,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B97" t="s">
         <v>146</v>
@@ -4103,7 +4280,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B98" t="s">
         <v>147</v>
@@ -4114,7 +4291,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B99" t="s">
         <v>148</v>
@@ -4125,7 +4302,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="B100" t="s">
         <v>149</v>
@@ -4136,7 +4313,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="B101" t="s">
         <v>150</v>
@@ -4147,7 +4324,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B102" t="s">
         <v>151</v>
@@ -4158,7 +4335,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="B103" t="s">
         <v>152</v>
@@ -4169,10 +4346,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -4180,10 +4357,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>70001</v>
+        <v>62004</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -4191,7 +4368,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>80001</v>
+        <v>70001</v>
       </c>
       <c r="B106" t="s">
         <v>154</v>
@@ -4202,7 +4379,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B107" t="s">
         <v>155</v>
@@ -4213,7 +4390,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B108" t="s">
         <v>156</v>
@@ -4224,7 +4401,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B109" t="s">
         <v>157</v>
@@ -4235,7 +4412,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B110" t="s">
         <v>158</v>
@@ -4246,7 +4423,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B111" t="s">
         <v>159</v>
@@ -4257,7 +4434,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B112" t="s">
         <v>160</v>
@@ -4268,7 +4445,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B113" t="s">
         <v>161</v>
@@ -4279,7 +4456,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B114" t="s">
         <v>162</v>
@@ -4290,27 +4467,24 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B115" t="s">
         <v>163</v>
       </c>
-      <c r="C115" t="s">
-        <v>164</v>
-      </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B116" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" t="s">
         <v>165</v>
-      </c>
-      <c r="C116" t="s">
-        <v>166</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -4318,13 +4492,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>1001001</v>
+        <v>1000002</v>
       </c>
       <c r="B117" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" t="s">
         <v>167</v>
-      </c>
-      <c r="C117" t="s">
-        <v>168</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -4332,9 +4506,12 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>1002001</v>
+        <v>1001001</v>
       </c>
       <c r="B118" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" t="s">
         <v>169</v>
       </c>
       <c r="D118" t="s">
@@ -4343,7 +4520,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>1002002</v>
+        <v>1002001</v>
       </c>
       <c r="B119" t="s">
         <v>170</v>
@@ -4354,7 +4531,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>1003001</v>
+        <v>1002002</v>
       </c>
       <c r="B120" t="s">
         <v>171</v>
@@ -4365,7 +4542,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>1003002</v>
+        <v>1003001</v>
       </c>
       <c r="B121" t="s">
         <v>172</v>
@@ -4376,7 +4553,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>2000001</v>
+        <v>1003002</v>
       </c>
       <c r="B122" t="s">
         <v>173</v>
@@ -4387,7 +4564,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B123" t="s">
         <v>174</v>
@@ -4398,7 +4575,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B124" t="s">
         <v>175</v>
@@ -4409,7 +4586,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>3000001</v>
+        <v>2000003</v>
       </c>
       <c r="B125" t="s">
         <v>176</v>
@@ -4420,12 +4597,23 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>3000002</v>
+        <v>3000001</v>
       </c>
       <c r="B126" t="s">
         <v>177</v>
       </c>
       <c r="D126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>3000002</v>
+      </c>
+      <c r="B127" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4499,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4507,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4515,51 +4703,51 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10">
+      <c r="A7" s="1">
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10">
+      <c r="A8" s="1">
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="C8" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10">
+      <c r="A9" s="1">
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="C9" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10">
+      <c r="A10" s="1">
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="C10" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -4567,7 +4755,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4575,7 +4763,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -4646,103 +4834,103 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
       <c r="A5">
         <v>100000002</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>497</v>
+      <c r="B5" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
       <c r="A6">
         <v>100000003</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>498</v>
+      <c r="B6" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
       <c r="A7">
         <v>100000004</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>499</v>
+      <c r="B7" s="10" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8">
         <v>100000005</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>500</v>
+      <c r="B8" s="9" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
       <c r="A9">
         <v>100000006</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>501</v>
+      <c r="B9" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
       <c r="A10">
         <v>200000001</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>502</v>
+      <c r="B10" s="10" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
       <c r="A11">
         <v>200000002</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>503</v>
+      <c r="B11" s="10" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
       <c r="A12">
         <v>200000003</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>504</v>
+      <c r="B12" s="10" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
       <c r="A13">
         <v>200000004</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>505</v>
+      <c r="B13" s="10" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
       <c r="A14">
         <v>200000005</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>506</v>
+      <c r="B14" s="10" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
       <c r="A15">
         <v>200000006</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>507</v>
+      <c r="B15" s="9" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16">
         <v>200000007</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>508</v>
+      <c r="B16" s="9" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4750,7 +4938,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4758,7 +4946,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4766,7 +4954,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4774,7 +4962,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4782,7 +4970,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4790,7 +4978,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4798,7 +4986,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4806,7 +4994,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4814,7 +5002,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4822,7 +5010,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4830,7 +5018,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4838,7 +5026,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4846,7 +5034,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4854,7 +5042,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4862,7 +5050,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4870,7 +5058,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4878,7 +5066,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4886,7 +5074,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4966,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4974,7 +5162,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4982,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4990,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4998,7 +5186,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5006,7 +5194,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5014,7 +5202,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5022,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5030,7 +5218,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5038,7 +5226,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5046,7 +5234,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5054,7 +5242,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5123,11 +5311,11 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>540</v>
+      <c r="B4" s="8" t="s">
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5135,10 +5323,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="C5" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5146,10 +5334,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5157,10 +5345,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5168,10 +5356,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="C8" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5242,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>550</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>551</v>
+        <v>564</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5253,10 +5441,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>553</v>
+        <v>566</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5264,10 +5452,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>555</v>
+        <v>568</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5275,10 +5463,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>557</v>
+        <v>570</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5286,10 +5474,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>558</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>559</v>
+        <v>572</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5297,10 +5485,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>560</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>561</v>
+        <v>574</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5308,10 +5496,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>563</v>
+        <v>576</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5319,10 +5507,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>564</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>565</v>
+        <v>578</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5330,10 +5518,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>566</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>567</v>
+        <v>580</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5341,10 +5529,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>568</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>569</v>
+        <v>582</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5415,21 +5603,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>571</v>
+        <v>584</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>573</v>
+      <c r="B5" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5437,32 +5625,32 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>575</v>
+        <v>588</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>577</v>
+      <c r="B7" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>579</v>
+      <c r="B8" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5470,10 +5658,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5485,16 +5673,16 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
@@ -5546,10 +5734,10 @@
         <v>100000000</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5557,10 +5745,10 @@
         <v>100000001</v>
       </c>
       <c r="B5" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="D5" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5568,10 +5756,10 @@
         <v>100100001</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="D6" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5579,10 +5767,10 @@
         <v>100200001</v>
       </c>
       <c r="B7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="D7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5590,274 +5778,593 @@
         <v>100300001</v>
       </c>
       <c r="B8" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="D8" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>100300002</v>
+        <v>200000001</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D9" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>100300003</v>
+        <v>200100001</v>
       </c>
       <c r="B10" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D10" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>100300004</v>
+      <c r="A11" s="1">
+        <v>300100000</v>
       </c>
       <c r="B11" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
-        <v>100300005</v>
+      <c r="A12" s="1">
+        <v>300100001</v>
       </c>
       <c r="B12" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="D12" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>100300006</v>
+      <c r="A13" s="1">
+        <v>300100002</v>
       </c>
       <c r="B13" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="D13" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14">
-        <v>100300007</v>
+      <c r="A14" s="1">
+        <v>300100003</v>
       </c>
       <c r="B14" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D14" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15">
-        <v>100300008</v>
+      <c r="A15" s="1">
+        <v>300100004</v>
       </c>
       <c r="B15" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="D15" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16">
-        <v>100300009</v>
-      </c>
-      <c r="B16" t="s">
-        <v>587</v>
+      <c r="A16" s="1">
+        <v>300100101</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="D16" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17">
-        <v>100300010</v>
-      </c>
-      <c r="B17" t="s">
-        <v>587</v>
+      <c r="A17" s="1">
+        <v>300100102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="D17" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18">
-        <v>200000001</v>
+      <c r="A18" s="1">
+        <v>300200000</v>
       </c>
       <c r="B18" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="D18" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>200000002</v>
+        <v>300200001</v>
       </c>
       <c r="B19" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="D19" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>200000003</v>
+        <v>300200002</v>
       </c>
       <c r="B20" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="D20" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>200000004</v>
+        <v>300200003</v>
       </c>
       <c r="B21" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="D21" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>200000005</v>
+        <v>300200004</v>
       </c>
       <c r="B22" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="D22" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23">
-        <v>200000006</v>
+      <c r="A23" s="1">
+        <v>300200101</v>
       </c>
       <c r="B23" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="D23" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24">
-        <v>200000007</v>
+      <c r="A24" s="1">
+        <v>300200102</v>
       </c>
       <c r="B24" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="D24" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25">
-        <v>200000008</v>
-      </c>
-      <c r="B25" t="s">
-        <v>588</v>
+      <c r="A25" s="1">
+        <v>300300000</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="D25" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>200000009</v>
+        <v>300300001</v>
       </c>
       <c r="B26" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="D26" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>200000010</v>
+        <v>300300002</v>
       </c>
       <c r="B27" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="D27" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>200100001</v>
+        <v>300300003</v>
       </c>
       <c r="B28" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="D28" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>200100002</v>
+        <v>300300004</v>
       </c>
       <c r="B29" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D29" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>200100003</v>
+        <v>300300101</v>
       </c>
       <c r="B30" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="D30" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>200100004</v>
+        <v>300300102</v>
       </c>
       <c r="B31" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="D31" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32">
-        <v>300000000</v>
-      </c>
-      <c r="B32" t="s">
-        <v>593</v>
+      <c r="A32" s="1">
+        <v>300400000</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="D32" t="s">
-        <v>583</v>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>300400001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>626</v>
+      </c>
+      <c r="D33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>300400002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>627</v>
+      </c>
+      <c r="D34" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>300400003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>628</v>
+      </c>
+      <c r="D35" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>300400004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>629</v>
+      </c>
+      <c r="D36" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>300400005</v>
+      </c>
+      <c r="B37" t="s">
+        <v>630</v>
+      </c>
+      <c r="D37" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>300400101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>631</v>
+      </c>
+      <c r="D38" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>300400102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>632</v>
+      </c>
+      <c r="D39" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>300500000</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D40" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>300500001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>634</v>
+      </c>
+      <c r="D41" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>300500002</v>
+      </c>
+      <c r="B42" t="s">
+        <v>635</v>
+      </c>
+      <c r="D42" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>300500003</v>
+      </c>
+      <c r="B43" t="s">
+        <v>636</v>
+      </c>
+      <c r="D43" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>300500004</v>
+      </c>
+      <c r="B44" t="s">
+        <v>637</v>
+      </c>
+      <c r="D44" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>300500101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>638</v>
+      </c>
+      <c r="D45" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>300500102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>639</v>
+      </c>
+      <c r="D46" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>300600000</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D47" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>300600001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D48" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>300600002</v>
+      </c>
+      <c r="B49" t="s">
+        <v>642</v>
+      </c>
+      <c r="D49" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>300600003</v>
+      </c>
+      <c r="B50" t="s">
+        <v>643</v>
+      </c>
+      <c r="D50" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>300600004</v>
+      </c>
+      <c r="B51" t="s">
+        <v>644</v>
+      </c>
+      <c r="D51" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>300600005</v>
+      </c>
+      <c r="B52" t="s">
+        <v>645</v>
+      </c>
+      <c r="D52" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>300600101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>631</v>
+      </c>
+      <c r="D53" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>300600102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>632</v>
+      </c>
+      <c r="D54" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>300700000</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D55" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>300700001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>647</v>
+      </c>
+      <c r="D56" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>300700002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>648</v>
+      </c>
+      <c r="D57" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>300700003</v>
+      </c>
+      <c r="B58" t="s">
+        <v>649</v>
+      </c>
+      <c r="D58" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>300700004</v>
+      </c>
+      <c r="B59" t="s">
+        <v>650</v>
+      </c>
+      <c r="D59" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>300700101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>651</v>
+      </c>
+      <c r="D60" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>300700102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>652</v>
+      </c>
+      <c r="D61" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -5930,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5941,10 +6448,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
         <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5952,10 +6459,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5963,10 +6470,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5974,10 +6481,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5985,10 +6492,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5996,10 +6503,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6007,10 +6514,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6089,7 +6596,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6097,13 +6604,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
         <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6111,13 +6618,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6125,13 +6632,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6139,13 +6646,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6153,13 +6660,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6232,10 +6739,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6243,10 +6750,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6254,10 +6761,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6265,10 +6772,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6276,10 +6783,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6287,10 +6794,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6298,10 +6805,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6309,10 +6816,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6320,10 +6827,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6331,10 +6838,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6342,10 +6849,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6353,10 +6860,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6364,10 +6871,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6375,10 +6882,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6386,10 +6893,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6397,10 +6904,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6408,10 +6915,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6419,10 +6926,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6430,10 +6937,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6441,10 +6948,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6452,10 +6959,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6463,10 +6970,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6474,10 +6981,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6485,10 +6992,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6496,10 +7003,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6507,10 +7014,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6518,10 +7025,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6529,10 +7036,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6540,10 +7047,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6551,10 +7058,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6562,10 +7069,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6573,10 +7080,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6584,10 +7091,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6595,10 +7102,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6606,10 +7113,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6617,10 +7124,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6628,10 +7135,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6639,10 +7146,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6650,10 +7157,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6661,10 +7168,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6672,10 +7179,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6683,10 +7190,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6694,10 +7201,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6705,10 +7212,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6716,10 +7223,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6727,10 +7234,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6738,10 +7245,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6749,10 +7256,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6760,10 +7267,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6771,10 +7278,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6782,10 +7289,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6793,10 +7300,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6804,10 +7311,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6815,10 +7322,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6826,10 +7333,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6837,10 +7344,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6848,10 +7355,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6859,10 +7366,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6870,10 +7377,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6881,10 +7388,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6892,10 +7399,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6903,10 +7410,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6914,10 +7421,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6925,10 +7432,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6936,10 +7443,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6947,10 +7454,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6958,10 +7465,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6969,10 +7476,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6980,10 +7487,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6991,10 +7498,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7002,10 +7509,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7013,10 +7520,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7024,10 +7531,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7035,10 +7542,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7046,10 +7553,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7057,10 +7564,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7068,10 +7575,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7079,10 +7586,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7090,10 +7597,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7101,10 +7608,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7112,10 +7619,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7123,10 +7630,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7134,10 +7641,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7145,10 +7652,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7156,10 +7663,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7167,10 +7674,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7178,10 +7685,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7189,10 +7696,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7200,10 +7707,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7211,10 +7718,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7222,10 +7729,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7233,10 +7740,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7244,10 +7751,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7255,10 +7762,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7266,10 +7773,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7277,10 +7784,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7288,10 +7795,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7299,10 +7806,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7310,10 +7817,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7321,10 +7828,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7332,10 +7839,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7343,10 +7850,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7354,10 +7861,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7365,10 +7872,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7376,10 +7883,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7387,10 +7894,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7398,10 +7905,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7409,10 +7916,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -7420,10 +7927,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -7431,10 +7938,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -7442,10 +7949,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D114" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -7453,10 +7960,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -7464,10 +7971,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -7475,10 +7982,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D117" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -7486,10 +7993,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -7497,10 +8004,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D119" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -7508,10 +8015,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D120" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -7519,10 +8026,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D121" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -7530,10 +8037,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D122" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -7541,10 +8048,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -7552,10 +8059,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D124" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -7563,10 +8070,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D125" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -7574,10 +8081,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D126" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -7585,10 +8092,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D127" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -7596,10 +8103,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D128" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -7607,10 +8114,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D129" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -7618,10 +8125,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D130" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -7629,10 +8136,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D131" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -7640,10 +8147,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D132" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -7651,10 +8158,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D133" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -7662,10 +8169,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D134" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -7673,10 +8180,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D135" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7684,10 +8191,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D136" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7695,10 +8202,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D137" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -7706,10 +8213,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D138" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -7717,10 +8224,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D139" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -7728,10 +8235,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D140" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -7739,10 +8246,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D141" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -7750,10 +8257,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D142" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -7761,10 +8268,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D143" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -7772,10 +8279,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -7783,10 +8290,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D145" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -7794,10 +8301,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D146" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -7805,10 +8312,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D147" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -7816,10 +8323,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -7827,10 +8334,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D149" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -7838,10 +8345,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D150" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -7849,10 +8356,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D151" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -7860,10 +8367,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D152" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -7871,10 +8378,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D153" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -7882,10 +8389,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D154" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -7893,10 +8400,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D155" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7904,10 +8411,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D156" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7915,10 +8422,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7926,10 +8433,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D158" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -7937,10 +8444,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7948,10 +8455,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D160" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7959,10 +8466,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D161" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7970,10 +8477,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D162" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7981,10 +8488,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D163" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7992,10 +8499,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8003,10 +8510,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D165" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8014,10 +8521,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D166" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8025,10 +8532,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D167" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8036,10 +8543,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D168" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8047,10 +8554,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D169" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8058,10 +8565,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D170" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8069,10 +8576,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D171" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8080,10 +8587,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D172" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8091,10 +8598,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D173" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8102,10 +8609,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D174" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8113,10 +8620,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D175" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -8124,10 +8631,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -8135,10 +8642,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D177" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -8146,10 +8653,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -8157,10 +8664,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D179" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -8168,10 +8675,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D180" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -8179,10 +8686,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D181" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -8190,10 +8697,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D182" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -8201,10 +8708,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D183" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8277,10 +8784,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8288,10 +8795,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" t="s">
         <v>364</v>
-      </c>
-      <c r="D5" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8299,10 +8806,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8310,10 +8817,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8321,10 +8828,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8332,10 +8839,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8343,10 +8850,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8354,10 +8861,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8365,10 +8872,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8376,10 +8883,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8387,10 +8894,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8398,10 +8905,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8409,10 +8916,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -8485,10 +8992,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8496,10 +9003,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" t="s">
         <v>378</v>
-      </c>
-      <c r="D5" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8507,10 +9014,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8518,10 +9025,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8533,10 +9040,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8591,226 +9098,296 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" t="s">
         <v>384</v>
-      </c>
-      <c r="C5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>101</v>
+        <v>20001</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>102</v>
+        <v>20002</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>103</v>
+        <v>20003</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>201</v>
+        <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>202</v>
+        <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>203</v>
+        <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>301</v>
+        <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>302</v>
+        <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>303</v>
+        <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>401</v>
+        <v>50001</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>402</v>
+        <v>50002</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>403</v>
+        <v>50003</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>999999</v>
+        <v>60001</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D19" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>60002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>60003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>70001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>70002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>70003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" t="s">
+        <v>424</v>
+      </c>
+      <c r="D24" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8883,13 +9460,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D4" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8897,10 +9474,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8908,10 +9485,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8919,10 +9496,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -8934,10 +9511,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8995,13 +9572,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9009,13 +9586,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9023,433 +9600,475 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>2002</v>
+        <v>1003</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>2003</v>
+        <v>1004</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C10" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="B11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" t="s">
         <v>431</v>
-      </c>
-      <c r="C11" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>3002</v>
+        <v>2003</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>3003</v>
+        <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C14" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D14" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>4001</v>
+        <v>3002</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D15" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>4002</v>
+        <v>3003</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>4003</v>
+        <v>3004</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C18" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="B19" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>5001</v>
+        <v>4003</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D20" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5002</v>
+        <v>4004</v>
       </c>
       <c r="B21" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C21" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D21" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>5003</v>
+        <v>4005</v>
       </c>
       <c r="B22" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>5004</v>
+        <v>5001</v>
       </c>
       <c r="B23" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C23" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D23" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="B24" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C24" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D24" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>6002</v>
+        <v>5003</v>
       </c>
       <c r="B25" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C25" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D25" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>6003</v>
+        <v>5004</v>
       </c>
       <c r="B26" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D26" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="B27" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C27" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D27" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>6005</v>
+        <v>6002</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C28" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>7001</v>
+        <v>6003</v>
       </c>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C29" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D29" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>7002</v>
+        <v>6004</v>
       </c>
       <c r="B30" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C30" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D30" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>7003</v>
+        <v>6005</v>
       </c>
       <c r="B31" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D31" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>7004</v>
+        <v>7001</v>
       </c>
       <c r="B32" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D32" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>101001</v>
+        <v>7002</v>
       </c>
       <c r="B33" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C33" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D33" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>102001</v>
+        <v>7003</v>
       </c>
       <c r="B34" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C34" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D34" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>103001</v>
+        <v>7004</v>
       </c>
       <c r="B35" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C35" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
+        <v>101001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" t="s">
+        <v>434</v>
+      </c>
+      <c r="D36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>102001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C37" t="s">
+        <v>436</v>
+      </c>
+      <c r="D37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>103001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>495</v>
+      </c>
+      <c r="C38" t="s">
+        <v>438</v>
+      </c>
+      <c r="D38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
         <v>103002</v>
       </c>
-      <c r="B36" t="s">
-        <v>481</v>
-      </c>
-      <c r="C36" t="s">
-        <v>482</v>
-      </c>
-      <c r="D36" t="s">
-        <v>420</v>
+      <c r="B39" t="s">
+        <v>496</v>
+      </c>
+      <c r="C39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D39" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="723" activeTab="6"/>
+    <workbookView windowWidth="30765" windowHeight="10620" tabRatio="723" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="656">
   <si>
     <t>id</t>
   </si>
@@ -1190,154 +1190,163 @@
     <t>下次征服模式获得的经验翻倍</t>
   </si>
   <si>
+    <t>人类x1</t>
+  </si>
+  <si>
+    <t>Human x1</t>
+  </si>
+  <si>
+    <t>excel_store_gashaponmachine_info</t>
+  </si>
+  <si>
+    <t>人类x5</t>
+  </si>
+  <si>
+    <t>Human x5</t>
+  </si>
+  <si>
+    <t>人类x10</t>
+  </si>
+  <si>
+    <t>Human x10</t>
+  </si>
+  <si>
+    <t>骷髅x1</t>
+  </si>
+  <si>
+    <t>Undead x1</t>
+  </si>
+  <si>
+    <t>骷髅x5</t>
+  </si>
+  <si>
+    <t>Undead x5</t>
+  </si>
+  <si>
+    <t>骷髅x10</t>
+  </si>
+  <si>
+    <t>Undead x10</t>
+  </si>
+  <si>
+    <t>史莱姆x1</t>
+  </si>
+  <si>
+    <t>Slime x1</t>
+  </si>
+  <si>
+    <t>史莱姆x5</t>
+  </si>
+  <si>
+    <t>Slime x5</t>
+  </si>
+  <si>
+    <t>史莱姆x10</t>
+  </si>
+  <si>
+    <t>Slime x10</t>
+  </si>
+  <si>
+    <t>魅魔x1</t>
+  </si>
+  <si>
+    <t>Succubus x1</t>
+  </si>
+  <si>
+    <t>魅魔x5</t>
+  </si>
+  <si>
+    <t>Succubus x5</t>
+  </si>
+  <si>
+    <t>魅魔x10</t>
+  </si>
+  <si>
+    <t>Succubus x10</t>
+  </si>
+  <si>
+    <t>牛头人x1</t>
+  </si>
+  <si>
+    <t>Minotaur x1</t>
+  </si>
+  <si>
+    <t>牛头人x5</t>
+  </si>
+  <si>
+    <t>Minotaur x5</t>
+  </si>
+  <si>
+    <t>牛头人x10</t>
+  </si>
+  <si>
+    <t>Minotaur x10</t>
+  </si>
+  <si>
+    <t>哥布林x1</t>
+  </si>
+  <si>
+    <t>Goblin x1</t>
+  </si>
+  <si>
+    <t>哥布林x5</t>
+  </si>
+  <si>
+    <t>Goblin x5</t>
+  </si>
+  <si>
+    <t>哥布林x10</t>
+  </si>
+  <si>
+    <t>Goblin x10</t>
+  </si>
+  <si>
+    <t>兽人x1</t>
+  </si>
+  <si>
+    <t>Orc x1</t>
+  </si>
+  <si>
+    <t>兽人x5</t>
+  </si>
+  <si>
+    <t>Orc x5</t>
+  </si>
+  <si>
+    <t>兽人x10</t>
+  </si>
+  <si>
+    <t>Orc x10</t>
+  </si>
+  <si>
+    <t>剑与魔法</t>
+  </si>
+  <si>
+    <t>Sword and Magic</t>
+  </si>
+  <si>
+    <t>excel_game_world_info</t>
+  </si>
+  <si>
+    <t>虚空魔界</t>
+  </si>
+  <si>
+    <t>刀与剑</t>
+  </si>
+  <si>
+    <t>魔法世界</t>
+  </si>
+  <si>
     <t>人类</t>
   </si>
   <si>
     <t>Human</t>
   </si>
   <si>
-    <t>excel_store_gashaponmachine_info</t>
-  </si>
-  <si>
-    <t>人类x5</t>
-  </si>
-  <si>
-    <t>Human x5</t>
-  </si>
-  <si>
-    <t>人类x10</t>
-  </si>
-  <si>
-    <t>Human x10</t>
+    <t>excel_creature_info</t>
   </si>
   <si>
     <t>骷髅</t>
-  </si>
-  <si>
-    <t>Undead</t>
-  </si>
-  <si>
-    <t>骷髅x5</t>
-  </si>
-  <si>
-    <t>Undead x5</t>
-  </si>
-  <si>
-    <t>骷髅x10</t>
-  </si>
-  <si>
-    <t>Undead x10</t>
-  </si>
-  <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>史莱姆x5</t>
-  </si>
-  <si>
-    <t>Slime x5</t>
-  </si>
-  <si>
-    <t>史莱姆x10</t>
-  </si>
-  <si>
-    <t>Slime x10</t>
-  </si>
-  <si>
-    <t>魅魔</t>
-  </si>
-  <si>
-    <t>Succubus</t>
-  </si>
-  <si>
-    <t>魅魔x5</t>
-  </si>
-  <si>
-    <t>Succubus x5</t>
-  </si>
-  <si>
-    <t>魅魔x10</t>
-  </si>
-  <si>
-    <t>Succubus x10</t>
-  </si>
-  <si>
-    <t>牛头人</t>
-  </si>
-  <si>
-    <t>Minotaur</t>
-  </si>
-  <si>
-    <t>牛头人x5</t>
-  </si>
-  <si>
-    <t>Minotaur x5</t>
-  </si>
-  <si>
-    <t>牛头人x10</t>
-  </si>
-  <si>
-    <t>Minotaur x10</t>
-  </si>
-  <si>
-    <t>哥布林</t>
-  </si>
-  <si>
-    <t>Goblin</t>
-  </si>
-  <si>
-    <t>哥布林x5</t>
-  </si>
-  <si>
-    <t>Goblin x5</t>
-  </si>
-  <si>
-    <t>哥布林x10</t>
-  </si>
-  <si>
-    <t>Goblin x10</t>
-  </si>
-  <si>
-    <t>兽人</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>兽人x5</t>
-  </si>
-  <si>
-    <t>Orc x5</t>
-  </si>
-  <si>
-    <t>兽人x10</t>
-  </si>
-  <si>
-    <t>Orc x10</t>
-  </si>
-  <si>
-    <t>剑与魔法</t>
-  </si>
-  <si>
-    <t>Sword and Magic</t>
-  </si>
-  <si>
-    <t>excel_game_world_info</t>
-  </si>
-  <si>
-    <t>虚空魔界</t>
-  </si>
-  <si>
-    <t>刀与剑</t>
-  </si>
-  <si>
-    <t>魔法世界</t>
-  </si>
-  <si>
-    <t>excel_creature_info</t>
   </si>
   <si>
     <t>Skeleton</t>
@@ -4687,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4695,7 +4704,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4703,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4711,10 +4720,10 @@
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4722,10 +4731,10 @@
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4733,10 +4742,10 @@
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4744,10 +4753,10 @@
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -4755,7 +4764,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4763,7 +4772,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4834,7 +4843,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4842,7 +4851,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -4850,7 +4859,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -4858,7 +4867,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -4866,7 +4875,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -4874,7 +4883,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -4882,7 +4891,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -4890,7 +4899,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -4898,7 +4907,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -4906,7 +4915,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -4914,7 +4923,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -4922,7 +4931,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -4930,7 +4939,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4938,7 +4947,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4946,7 +4955,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4954,7 +4963,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4962,7 +4971,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4970,7 +4979,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4978,7 +4987,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4986,7 +4995,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4994,7 +5003,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5002,7 +5011,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5010,7 +5019,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5018,7 +5027,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5026,7 +5035,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5034,7 +5043,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5042,7 +5051,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5050,7 +5059,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5058,7 +5067,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5066,7 +5075,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5074,7 +5083,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -5146,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5154,7 +5163,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5162,7 +5171,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5170,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5178,7 +5187,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5186,7 +5195,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5194,7 +5203,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5202,7 +5211,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5210,7 +5219,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5218,7 +5227,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5226,7 +5235,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5234,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5242,7 +5251,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5312,10 +5321,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5323,10 +5332,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5334,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5345,10 +5354,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5356,10 +5365,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -5430,10 +5439,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5441,10 +5450,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5452,10 +5461,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5463,10 +5472,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5474,10 +5483,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5485,10 +5494,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5496,10 +5505,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5507,10 +5516,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5518,10 +5527,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5529,10 +5538,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5603,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5614,10 +5623,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5625,10 +5634,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5636,10 +5645,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5647,10 +5656,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5658,10 +5667,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C9" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5734,10 +5743,10 @@
         <v>100000000</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D4" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5745,10 +5754,10 @@
         <v>100000001</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5756,10 +5765,10 @@
         <v>100100001</v>
       </c>
       <c r="B6" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D6" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5767,10 +5776,10 @@
         <v>100200001</v>
       </c>
       <c r="B7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" t="s">
         <v>600</v>
-      </c>
-      <c r="D7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5778,10 +5787,10 @@
         <v>100300001</v>
       </c>
       <c r="B8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D8" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5789,10 +5798,10 @@
         <v>200000001</v>
       </c>
       <c r="B9" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D9" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5800,10 +5809,10 @@
         <v>200100001</v>
       </c>
       <c r="B10" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D10" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5811,10 +5820,10 @@
         <v>300100000</v>
       </c>
       <c r="B11" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5822,10 +5831,10 @@
         <v>300100001</v>
       </c>
       <c r="B12" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D12" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5833,10 +5842,10 @@
         <v>300100002</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D13" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5844,10 +5853,10 @@
         <v>300100003</v>
       </c>
       <c r="B14" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D14" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5855,10 +5864,10 @@
         <v>300100004</v>
       </c>
       <c r="B15" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D15" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5866,10 +5875,10 @@
         <v>300100101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D16" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5877,10 +5886,10 @@
         <v>300100102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D17" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5888,10 +5897,10 @@
         <v>300200000</v>
       </c>
       <c r="B18" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D18" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5899,10 +5908,10 @@
         <v>300200001</v>
       </c>
       <c r="B19" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D19" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5910,10 +5919,10 @@
         <v>300200002</v>
       </c>
       <c r="B20" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D20" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5921,10 +5930,10 @@
         <v>300200003</v>
       </c>
       <c r="B21" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D21" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5932,10 +5941,10 @@
         <v>300200004</v>
       </c>
       <c r="B22" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D22" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5943,10 +5952,10 @@
         <v>300200101</v>
       </c>
       <c r="B23" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D23" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5954,10 +5963,10 @@
         <v>300200102</v>
       </c>
       <c r="B24" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D24" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5965,10 +5974,10 @@
         <v>300300000</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D25" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5976,10 +5985,10 @@
         <v>300300001</v>
       </c>
       <c r="B26" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D26" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5987,10 +5996,10 @@
         <v>300300002</v>
       </c>
       <c r="B27" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D27" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5998,10 +6007,10 @@
         <v>300300003</v>
       </c>
       <c r="B28" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D28" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6009,10 +6018,10 @@
         <v>300300004</v>
       </c>
       <c r="B29" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D29" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6020,10 +6029,10 @@
         <v>300300101</v>
       </c>
       <c r="B30" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D30" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6031,10 +6040,10 @@
         <v>300300102</v>
       </c>
       <c r="B31" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D31" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6042,10 +6051,10 @@
         <v>300400000</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D32" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6053,10 +6062,10 @@
         <v>300400001</v>
       </c>
       <c r="B33" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D33" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6064,10 +6073,10 @@
         <v>300400002</v>
       </c>
       <c r="B34" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D34" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6075,10 +6084,10 @@
         <v>300400003</v>
       </c>
       <c r="B35" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D35" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6086,10 +6095,10 @@
         <v>300400004</v>
       </c>
       <c r="B36" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D36" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6097,10 +6106,10 @@
         <v>300400005</v>
       </c>
       <c r="B37" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D37" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6108,10 +6117,10 @@
         <v>300400101</v>
       </c>
       <c r="B38" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D38" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6119,10 +6128,10 @@
         <v>300400102</v>
       </c>
       <c r="B39" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D39" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6130,10 +6139,10 @@
         <v>300500000</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D40" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6141,10 +6150,10 @@
         <v>300500001</v>
       </c>
       <c r="B41" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D41" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6152,10 +6161,10 @@
         <v>300500002</v>
       </c>
       <c r="B42" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D42" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6163,10 +6172,10 @@
         <v>300500003</v>
       </c>
       <c r="B43" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D43" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6174,10 +6183,10 @@
         <v>300500004</v>
       </c>
       <c r="B44" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D44" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6185,10 +6194,10 @@
         <v>300500101</v>
       </c>
       <c r="B45" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D45" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6196,10 +6205,10 @@
         <v>300500102</v>
       </c>
       <c r="B46" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D46" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6207,10 +6216,10 @@
         <v>300600000</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D47" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6218,10 +6227,10 @@
         <v>300600001</v>
       </c>
       <c r="B48" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D48" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6229,10 +6238,10 @@
         <v>300600002</v>
       </c>
       <c r="B49" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D49" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6240,10 +6249,10 @@
         <v>300600003</v>
       </c>
       <c r="B50" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D50" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6251,10 +6260,10 @@
         <v>300600004</v>
       </c>
       <c r="B51" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D51" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6262,10 +6271,10 @@
         <v>300600005</v>
       </c>
       <c r="B52" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D52" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6273,10 +6282,10 @@
         <v>300600101</v>
       </c>
       <c r="B53" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D53" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6284,10 +6293,10 @@
         <v>300600102</v>
       </c>
       <c r="B54" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D54" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6295,10 +6304,10 @@
         <v>300700000</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D55" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6306,10 +6315,10 @@
         <v>300700001</v>
       </c>
       <c r="B56" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D56" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6317,10 +6326,10 @@
         <v>300700002</v>
       </c>
       <c r="B57" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D57" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6328,10 +6337,10 @@
         <v>300700003</v>
       </c>
       <c r="B58" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D58" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6339,10 +6348,10 @@
         <v>300700004</v>
       </c>
       <c r="B59" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D59" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6350,10 +6359,10 @@
         <v>300700101</v>
       </c>
       <c r="B60" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D60" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6361,10 +6370,10 @@
         <v>300700102</v>
       </c>
       <c r="B61" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D61" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -9042,8 +9051,8 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9572,13 +9581,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="D4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9586,13 +9595,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9600,13 +9609,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" t="s">
         <v>433</v>
-      </c>
-      <c r="C6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D6" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9614,13 +9623,13 @@
         <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9628,13 +9637,13 @@
         <v>1003</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9642,13 +9651,13 @@
         <v>1004</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9656,13 +9665,13 @@
         <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9670,13 +9679,13 @@
         <v>2002</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9684,13 +9693,13 @@
         <v>2003</v>
       </c>
       <c r="B12" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9698,13 +9707,13 @@
         <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C13" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D13" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9712,13 +9721,13 @@
         <v>3001</v>
       </c>
       <c r="B14" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9726,13 +9735,13 @@
         <v>3002</v>
       </c>
       <c r="B15" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D15" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9740,13 +9749,13 @@
         <v>3003</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C16" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9754,13 +9763,13 @@
         <v>3004</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9768,13 +9777,13 @@
         <v>4001</v>
       </c>
       <c r="B18" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C18" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9782,13 +9791,13 @@
         <v>4002</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9796,13 +9805,13 @@
         <v>4003</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D20" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9810,13 +9819,13 @@
         <v>4004</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9824,13 +9833,13 @@
         <v>4005</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D22" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9838,13 +9847,13 @@
         <v>5001</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C23" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9852,13 +9861,13 @@
         <v>5002</v>
       </c>
       <c r="B24" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C24" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D24" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9866,13 +9875,13 @@
         <v>5003</v>
       </c>
       <c r="B25" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D25" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9880,13 +9889,13 @@
         <v>5004</v>
       </c>
       <c r="B26" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C26" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D26" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9894,13 +9903,13 @@
         <v>6001</v>
       </c>
       <c r="B27" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C27" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D27" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9908,13 +9917,13 @@
         <v>6002</v>
       </c>
       <c r="B28" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D28" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9922,13 +9931,13 @@
         <v>6003</v>
       </c>
       <c r="B29" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D29" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9936,13 +9945,13 @@
         <v>6004</v>
       </c>
       <c r="B30" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C30" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D30" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9950,13 +9959,13 @@
         <v>6005</v>
       </c>
       <c r="B31" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C31" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -9964,13 +9973,13 @@
         <v>7001</v>
       </c>
       <c r="B32" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C32" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9978,13 +9987,13 @@
         <v>7002</v>
       </c>
       <c r="B33" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C33" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D33" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9992,13 +10001,13 @@
         <v>7003</v>
       </c>
       <c r="B34" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C34" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D34" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -10006,13 +10015,13 @@
         <v>7004</v>
       </c>
       <c r="B35" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C35" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D35" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10020,13 +10029,13 @@
         <v>101001</v>
       </c>
       <c r="B36" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C36" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10034,13 +10043,13 @@
         <v>102001</v>
       </c>
       <c r="B37" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C37" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D37" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -10048,13 +10057,13 @@
         <v>103001</v>
       </c>
       <c r="B38" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C38" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D38" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -10062,13 +10071,13 @@
         <v>103002</v>
       </c>
       <c r="B39" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C39" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D39" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30765" windowHeight="10620" tabRatio="723" activeTab="6"/>
+    <workbookView windowWidth="31725" windowHeight="12960" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="663">
   <si>
     <t>id</t>
   </si>
@@ -263,12 +263,36 @@
     <t>下一个</t>
   </si>
   <si>
+    <t>Next</t>
+  </si>
+  <si>
     <t>结束</t>
   </si>
   <si>
+    <t>Ascend</t>
+  </si>
+  <si>
     <t>再来一次</t>
   </si>
   <si>
+    <t>跳过所有</t>
+  </si>
+  <si>
+    <t>Skip All</t>
+  </si>
+  <si>
+    <t>展示</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>重命名</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
     <t>阵容</t>
   </si>
   <si>
@@ -288,9 +312,6 @@
   </si>
   <si>
     <t>进阶</t>
-  </si>
-  <si>
-    <t>Ascend</t>
   </si>
   <si>
     <t>稀</t>
@@ -3056,10 +3077,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3622,6 +3643,9 @@
       <c r="B44" t="s">
         <v>72</v>
       </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
@@ -3631,7 +3655,10 @@
         <v>10004</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -3642,7 +3669,7 @@
         <v>10005</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -3650,13 +3677,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>20001</v>
+        <v>10006</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -3664,10 +3691,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>20002</v>
+        <v>10007</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -3675,10 +3705,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>20003</v>
+        <v>10008</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -3686,13 +3719,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>20004</v>
+        <v>20001</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -3700,13 +3733,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>20005</v>
+        <v>20002</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -3714,13 +3744,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>30001</v>
+        <v>20003</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -3728,13 +3755,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>30002</v>
+        <v>20004</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -3742,13 +3769,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>30003</v>
+        <v>20005</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -3756,13 +3783,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>30004</v>
+        <v>30001</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3770,13 +3797,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>30005</v>
+        <v>30002</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -3784,10 +3811,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>30006</v>
+        <v>30003</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -3795,13 +3825,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>40001</v>
+        <v>30004</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -3809,13 +3839,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>40002</v>
+        <v>30005</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3823,13 +3853,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>40003</v>
+        <v>30006</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -3837,10 +3864,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>40998</v>
+        <v>40001</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -3848,10 +3878,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>40999</v>
+        <v>40002</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -3859,13 +3892,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>41001</v>
+        <v>40003</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -3873,10 +3906,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>42001</v>
+        <v>40998</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -3884,10 +3917,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>42002</v>
+        <v>40999</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -3895,10 +3928,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>42003</v>
+        <v>41001</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -3906,13 +3942,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>43001</v>
+        <v>42001</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -3920,13 +3953,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>43002</v>
+        <v>42002</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -3934,10 +3964,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>49001</v>
+        <v>42003</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -3945,10 +3975,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>49002</v>
+        <v>43001</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -3956,10 +3989,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>49003</v>
+        <v>43002</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>116</v>
+      </c>
+      <c r="C71" t="s">
+        <v>117</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -3967,13 +4003,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>50001</v>
+        <v>49001</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -3981,13 +4014,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>50002</v>
+        <v>49002</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -3995,13 +4025,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>50003</v>
+        <v>49003</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -4009,13 +4036,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>50004</v>
+        <v>50001</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -4023,10 +4050,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>50101</v>
+        <v>50002</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>122</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -4034,13 +4064,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>51001</v>
+        <v>50003</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -4048,10 +4078,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>51002</v>
+        <v>50004</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>126</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -4059,13 +4092,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>51003</v>
+        <v>50101</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -4073,10 +4103,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>52001</v>
+        <v>51001</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>129</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -4084,13 +4117,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>52002</v>
+        <v>51002</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
-      </c>
-      <c r="C81" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -4098,10 +4128,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>52003</v>
+        <v>51003</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="C82" t="s">
+        <v>132</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -4109,10 +4142,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>52004</v>
+        <v>52001</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -4120,10 +4153,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>52005</v>
+        <v>52002</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="C84" t="s">
+        <v>132</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -4131,13 +4167,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53000</v>
+        <v>52003</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -4145,10 +4178,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>53001</v>
+        <v>52004</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -4156,10 +4189,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>53002</v>
+        <v>52005</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -4167,10 +4200,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>53003</v>
+        <v>53000</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -4178,10 +4214,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>53004</v>
+        <v>53001</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -4189,10 +4225,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>53005</v>
+        <v>53002</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -4200,13 +4236,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>53006</v>
+        <v>53003</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -4214,13 +4247,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>53007</v>
+        <v>53004</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -4228,13 +4258,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>53008</v>
+        <v>53005</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
-      </c>
-      <c r="C93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -4242,13 +4269,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>53009</v>
+        <v>53006</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -4256,10 +4283,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>53010</v>
+        <v>53007</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="C95" t="s">
+        <v>146</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
@@ -4267,10 +4297,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>53011</v>
+        <v>53008</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>148</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
@@ -4278,10 +4311,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>60001</v>
+        <v>53009</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>150</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -4289,10 +4325,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>60002</v>
+        <v>53010</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -4300,10 +4336,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>61001</v>
+        <v>53011</v>
       </c>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -4311,10 +4347,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -4322,10 +4358,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>61003</v>
+        <v>60002</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -4333,10 +4369,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>62001</v>
+        <v>61001</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -4344,10 +4380,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>62002</v>
+        <v>61002</v>
       </c>
       <c r="B103" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -4355,10 +4391,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>62003</v>
+        <v>61003</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -4366,10 +4402,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>62004</v>
+        <v>62001</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -4377,10 +4413,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -4388,10 +4424,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>80001</v>
+        <v>62003</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -4399,10 +4435,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>80002</v>
+        <v>62004</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -4410,10 +4446,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>80003</v>
+        <v>70001</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -4421,10 +4457,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>80004</v>
+        <v>80001</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -4432,10 +4468,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -4443,10 +4479,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -4454,10 +4490,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -4465,10 +4501,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -4476,10 +4512,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -4487,13 +4523,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
-      </c>
-      <c r="C116" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -4501,13 +4534,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>1000002</v>
+        <v>80008</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -4515,13 +4545,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>1001001</v>
+        <v>80009</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
-      </c>
-      <c r="C118" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
@@ -4529,10 +4556,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>1002001</v>
+        <v>1000001</v>
       </c>
       <c r="B119" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="C119" t="s">
+        <v>172</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -4540,10 +4570,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>1002002</v>
+        <v>1000002</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="C120" t="s">
+        <v>174</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -4551,10 +4584,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>1003001</v>
+        <v>1001001</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="C121" t="s">
+        <v>176</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -4562,10 +4598,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>1003002</v>
+        <v>1002001</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -4573,10 +4609,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>2000001</v>
+        <v>1002002</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -4584,10 +4620,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>2000002</v>
+        <v>1003001</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -4595,10 +4631,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>2000003</v>
+        <v>1003002</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -4606,10 +4642,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -4617,12 +4653,45 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
+        <v>2000002</v>
+      </c>
+      <c r="B127" t="s">
+        <v>182</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>2000003</v>
+      </c>
+      <c r="B128" t="s">
+        <v>183</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>3000001</v>
+      </c>
+      <c r="B129" t="s">
+        <v>184</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
         <v>3000002</v>
       </c>
-      <c r="B127" t="s">
-        <v>178</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="B130" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4696,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4704,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4712,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4720,10 +4789,10 @@
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4731,10 +4800,10 @@
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4742,10 +4811,10 @@
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4753,10 +4822,10 @@
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -4764,7 +4833,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4772,7 +4841,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +4912,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4851,7 +4920,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -4859,7 +4928,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -4867,7 +4936,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -4875,7 +4944,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -4883,7 +4952,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -4891,7 +4960,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -4899,7 +4968,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -4907,7 +4976,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -4915,7 +4984,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -4923,7 +4992,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -4931,7 +5000,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -4939,7 +5008,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4947,7 +5016,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4955,7 +5024,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4963,7 +5032,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4971,7 +5040,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4979,7 +5048,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4987,7 +5056,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4995,7 +5064,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5003,7 +5072,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5011,7 +5080,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5019,7 +5088,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5027,7 +5096,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5035,7 +5104,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5043,7 +5112,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5051,7 +5120,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5059,7 +5128,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5067,7 +5136,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5075,7 +5144,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5083,7 +5152,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -5155,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5163,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5171,7 +5240,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5179,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5187,7 +5256,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5195,7 +5264,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5203,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5211,7 +5280,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5219,7 +5288,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5227,7 +5296,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5235,7 +5304,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5243,7 +5312,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5251,7 +5320,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5332,10 +5401,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5343,10 +5412,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5354,10 +5423,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5365,10 +5434,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C8" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5439,10 +5508,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5450,10 +5519,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5461,10 +5530,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5472,10 +5541,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5483,10 +5552,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5494,10 +5563,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5505,10 +5574,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5516,10 +5585,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5527,10 +5596,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5538,10 +5607,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5612,10 +5681,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5623,10 +5692,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5634,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5645,10 +5714,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5656,10 +5725,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5667,10 +5736,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C9" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -5743,10 +5812,10 @@
         <v>100000000</v>
       </c>
       <c r="B4" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D4" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5754,10 +5823,10 @@
         <v>100000001</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5765,10 +5834,10 @@
         <v>100100001</v>
       </c>
       <c r="B6" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D6" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5776,10 +5845,10 @@
         <v>100200001</v>
       </c>
       <c r="B7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5787,10 +5856,10 @@
         <v>100300001</v>
       </c>
       <c r="B8" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D8" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5798,10 +5867,10 @@
         <v>200000001</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D9" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5809,10 +5878,10 @@
         <v>200100001</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D10" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5820,10 +5889,10 @@
         <v>300100000</v>
       </c>
       <c r="B11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D11" t="s">
         <v>607</v>
-      </c>
-      <c r="D11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5831,10 +5900,10 @@
         <v>300100001</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D12" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5842,10 +5911,10 @@
         <v>300100002</v>
       </c>
       <c r="B13" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D13" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5853,10 +5922,10 @@
         <v>300100003</v>
       </c>
       <c r="B14" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D14" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5864,10 +5933,10 @@
         <v>300100004</v>
       </c>
       <c r="B15" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D15" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5875,10 +5944,10 @@
         <v>300100101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="D16" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5886,10 +5955,10 @@
         <v>300100102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5897,10 +5966,10 @@
         <v>300200000</v>
       </c>
       <c r="B18" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="D18" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5908,10 +5977,10 @@
         <v>300200001</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D19" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5919,10 +5988,10 @@
         <v>300200002</v>
       </c>
       <c r="B20" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="D20" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5930,10 +5999,10 @@
         <v>300200003</v>
       </c>
       <c r="B21" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="D21" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5941,10 +6010,10 @@
         <v>300200004</v>
       </c>
       <c r="B22" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D22" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5952,10 +6021,10 @@
         <v>300200101</v>
       </c>
       <c r="B23" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D23" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5963,10 +6032,10 @@
         <v>300200102</v>
       </c>
       <c r="B24" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="D24" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5974,10 +6043,10 @@
         <v>300300000</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D25" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5985,10 +6054,10 @@
         <v>300300001</v>
       </c>
       <c r="B26" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D26" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5996,10 +6065,10 @@
         <v>300300002</v>
       </c>
       <c r="B27" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="D27" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6007,10 +6076,10 @@
         <v>300300003</v>
       </c>
       <c r="B28" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="D28" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6018,10 +6087,10 @@
         <v>300300004</v>
       </c>
       <c r="B29" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="D29" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6029,10 +6098,10 @@
         <v>300300101</v>
       </c>
       <c r="B30" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="D30" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6040,10 +6109,10 @@
         <v>300300102</v>
       </c>
       <c r="B31" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="D31" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6051,10 +6120,10 @@
         <v>300400000</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D32" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6062,10 +6131,10 @@
         <v>300400001</v>
       </c>
       <c r="B33" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D33" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6073,10 +6142,10 @@
         <v>300400002</v>
       </c>
       <c r="B34" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="D34" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6084,10 +6153,10 @@
         <v>300400003</v>
       </c>
       <c r="B35" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D35" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6095,10 +6164,10 @@
         <v>300400004</v>
       </c>
       <c r="B36" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D36" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6106,10 +6175,10 @@
         <v>300400005</v>
       </c>
       <c r="B37" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="D37" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6117,10 +6186,10 @@
         <v>300400101</v>
       </c>
       <c r="B38" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D38" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6128,10 +6197,10 @@
         <v>300400102</v>
       </c>
       <c r="B39" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="D39" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6139,10 +6208,10 @@
         <v>300500000</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="D40" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6150,10 +6219,10 @@
         <v>300500001</v>
       </c>
       <c r="B41" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="D41" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6161,10 +6230,10 @@
         <v>300500002</v>
       </c>
       <c r="B42" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="D42" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6172,10 +6241,10 @@
         <v>300500003</v>
       </c>
       <c r="B43" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D43" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6183,10 +6252,10 @@
         <v>300500004</v>
       </c>
       <c r="B44" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D44" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6194,10 +6263,10 @@
         <v>300500101</v>
       </c>
       <c r="B45" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="D45" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6205,10 +6274,10 @@
         <v>300500102</v>
       </c>
       <c r="B46" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="D46" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6216,10 +6285,10 @@
         <v>300600000</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="D47" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6227,10 +6296,10 @@
         <v>300600001</v>
       </c>
       <c r="B48" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D48" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6238,10 +6307,10 @@
         <v>300600002</v>
       </c>
       <c r="B49" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="D49" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6249,10 +6318,10 @@
         <v>300600003</v>
       </c>
       <c r="B50" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="D50" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6260,10 +6329,10 @@
         <v>300600004</v>
       </c>
       <c r="B51" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="D51" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6271,10 +6340,10 @@
         <v>300600005</v>
       </c>
       <c r="B52" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="D52" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6282,10 +6351,10 @@
         <v>300600101</v>
       </c>
       <c r="B53" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D53" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6293,10 +6362,10 @@
         <v>300600102</v>
       </c>
       <c r="B54" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="D54" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6304,10 +6373,10 @@
         <v>300700000</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D55" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6315,10 +6384,10 @@
         <v>300700001</v>
       </c>
       <c r="B56" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="D56" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6326,10 +6395,10 @@
         <v>300700002</v>
       </c>
       <c r="B57" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="D57" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6337,10 +6406,10 @@
         <v>300700003</v>
       </c>
       <c r="B58" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="D58" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6348,10 +6417,10 @@
         <v>300700004</v>
       </c>
       <c r="B59" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="D59" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6359,10 +6428,10 @@
         <v>300700101</v>
       </c>
       <c r="B60" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D60" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6370,10 +6439,10 @@
         <v>300700102</v>
       </c>
       <c r="B61" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D61" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -6446,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6457,10 +6526,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6468,10 +6537,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6479,10 +6548,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6490,10 +6559,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6501,10 +6570,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6512,10 +6581,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6523,10 +6592,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" t="s">
         <v>187</v>
-      </c>
-      <c r="D11" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6605,7 +6674,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6613,13 +6682,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6627,13 +6696,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6641,13 +6710,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6655,13 +6724,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
         <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6669,13 +6738,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6748,10 +6817,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6759,10 +6828,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6770,10 +6839,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6781,10 +6850,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6792,10 +6861,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6803,10 +6872,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6814,10 +6883,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6825,10 +6894,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6836,10 +6905,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6847,10 +6916,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6858,10 +6927,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6869,10 +6938,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6880,10 +6949,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6891,10 +6960,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6902,10 +6971,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6913,10 +6982,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6924,10 +6993,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6935,10 +7004,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6946,10 +7015,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6957,10 +7026,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6968,10 +7037,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6979,10 +7048,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6990,10 +7059,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7001,10 +7070,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7012,10 +7081,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7023,10 +7092,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7034,10 +7103,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7045,10 +7114,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7056,10 +7125,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7067,10 +7136,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7078,10 +7147,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7089,10 +7158,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7100,10 +7169,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7111,10 +7180,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7122,10 +7191,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7133,10 +7202,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D39" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7144,10 +7213,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7155,10 +7224,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D41" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7166,10 +7235,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7177,10 +7246,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7188,10 +7257,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D44" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7199,10 +7268,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7210,10 +7279,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7221,10 +7290,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7232,10 +7301,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7243,10 +7312,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7254,10 +7323,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7265,10 +7334,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7276,10 +7345,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7287,10 +7356,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7298,10 +7367,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7309,10 +7378,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D55" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7320,10 +7389,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7331,10 +7400,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7342,10 +7411,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7353,10 +7422,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7364,10 +7433,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7375,10 +7444,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7386,10 +7455,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7397,10 +7466,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7408,10 +7477,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D64" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7419,10 +7488,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7430,10 +7499,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7441,10 +7510,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7452,10 +7521,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -7463,10 +7532,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7474,10 +7543,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -7485,10 +7554,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7496,10 +7565,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7507,10 +7576,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7518,10 +7587,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7529,10 +7598,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7540,10 +7609,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7551,10 +7620,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7562,10 +7631,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7573,10 +7642,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7584,10 +7653,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D80" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7595,10 +7664,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7606,10 +7675,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7617,10 +7686,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7628,10 +7697,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7639,10 +7708,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7650,10 +7719,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7661,10 +7730,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7672,10 +7741,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D88" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7683,10 +7752,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7694,10 +7763,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7705,10 +7774,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7716,10 +7785,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7727,10 +7796,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7738,10 +7807,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D94" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7749,10 +7818,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7760,10 +7829,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7771,10 +7840,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7782,10 +7851,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D98" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7793,10 +7862,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7804,10 +7873,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D100" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7815,10 +7884,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D101" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7826,10 +7895,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D102" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7837,10 +7906,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7848,10 +7917,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D104" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7859,10 +7928,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D105" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7870,10 +7939,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7881,10 +7950,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D107" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7892,10 +7961,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D108" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7903,10 +7972,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D109" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7914,10 +7983,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D110" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7925,10 +7994,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D111" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -7936,10 +8005,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -7947,10 +8016,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D113" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -7958,10 +8027,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D114" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -7969,10 +8038,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D115" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -7980,10 +8049,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D116" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -7991,10 +8060,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D117" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8002,10 +8071,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D118" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8013,10 +8082,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8024,10 +8093,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D120" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8035,10 +8104,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D121" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8046,10 +8115,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D122" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8057,10 +8126,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D123" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8068,10 +8137,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D124" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -8079,10 +8148,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D125" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8090,10 +8159,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D126" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8101,10 +8170,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D127" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8112,10 +8181,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D128" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8123,10 +8192,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D129" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8134,10 +8203,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D130" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -8145,10 +8214,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D131" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8156,10 +8225,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D132" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8167,10 +8236,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D133" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8178,10 +8247,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D134" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -8189,10 +8258,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D135" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8200,10 +8269,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D136" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8211,10 +8280,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D137" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8222,10 +8291,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D138" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8233,10 +8302,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D139" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8244,10 +8313,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D140" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8255,10 +8324,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D141" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8266,10 +8335,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D142" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8277,10 +8346,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D143" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8288,10 +8357,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D144" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8299,10 +8368,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D145" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8310,10 +8379,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D146" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8321,10 +8390,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D147" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8332,10 +8401,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D148" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8343,10 +8412,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D149" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8354,10 +8423,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D150" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8365,10 +8434,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D151" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8376,10 +8445,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D152" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8387,10 +8456,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D153" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8398,10 +8467,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D154" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8409,10 +8478,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D155" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8420,10 +8489,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D156" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8431,10 +8500,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D157" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8442,10 +8511,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D158" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -8453,10 +8522,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D159" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8464,10 +8533,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D160" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8475,10 +8544,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D161" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -8486,10 +8555,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D162" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8497,10 +8566,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D163" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8508,10 +8577,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D164" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8519,10 +8588,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D165" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8530,10 +8599,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D166" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8541,10 +8610,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D167" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8552,10 +8621,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8563,10 +8632,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D169" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8574,10 +8643,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D170" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8585,10 +8654,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D171" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8596,10 +8665,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D172" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8607,10 +8676,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D173" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8618,10 +8687,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D174" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8629,10 +8698,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D175" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -8640,10 +8709,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D176" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -8651,10 +8720,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D177" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -8662,10 +8731,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D178" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -8673,10 +8742,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D179" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -8684,10 +8753,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D180" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -8695,10 +8764,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D181" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -8706,10 +8775,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D182" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -8717,10 +8786,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D183" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8793,10 +8862,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8804,10 +8873,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8815,10 +8884,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8826,10 +8895,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8837,10 +8906,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8848,10 +8917,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8859,10 +8928,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8870,10 +8939,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" t="s">
         <v>371</v>
-      </c>
-      <c r="D11" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8881,10 +8950,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8892,10 +8961,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8903,10 +8972,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8914,10 +8983,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D15" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8925,10 +8994,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -9001,10 +9070,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9012,10 +9081,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9023,10 +9092,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9034,10 +9103,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -9051,7 +9120,7 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -9110,13 +9179,13 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9124,13 +9193,13 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9138,13 +9207,13 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9152,13 +9221,13 @@
         <v>20001</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9166,13 +9235,13 @@
         <v>20002</v>
       </c>
       <c r="B8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" t="s">
         <v>391</v>
-      </c>
-      <c r="C8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9180,13 +9249,13 @@
         <v>20003</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9194,13 +9263,13 @@
         <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9208,13 +9277,13 @@
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C11" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9222,13 +9291,13 @@
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D12" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9236,13 +9305,13 @@
         <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9250,13 +9319,13 @@
         <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D14" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9264,13 +9333,13 @@
         <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9278,13 +9347,13 @@
         <v>50001</v>
       </c>
       <c r="B16" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D16" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9292,13 +9361,13 @@
         <v>50002</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9306,13 +9375,13 @@
         <v>50003</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C18" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9320,13 +9389,13 @@
         <v>60001</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C19" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D19" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9334,13 +9403,13 @@
         <v>60002</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D20" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9348,13 +9417,13 @@
         <v>60003</v>
       </c>
       <c r="B21" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D21" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9362,13 +9431,13 @@
         <v>70001</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C22" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9376,13 +9445,13 @@
         <v>70002</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C23" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D23" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9390,13 +9459,13 @@
         <v>70003</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D24" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -9469,13 +9538,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C4" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9483,10 +9552,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9494,10 +9563,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9505,10 +9574,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -9581,13 +9650,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D4" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9595,13 +9664,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9609,13 +9678,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9623,13 +9692,13 @@
         <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9637,13 +9706,13 @@
         <v>1003</v>
       </c>
       <c r="B8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" t="s">
         <v>440</v>
-      </c>
-      <c r="C8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D8" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9651,13 +9720,13 @@
         <v>1004</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9665,13 +9734,13 @@
         <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C10" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D10" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9679,13 +9748,13 @@
         <v>2002</v>
       </c>
       <c r="B11" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9693,13 +9762,13 @@
         <v>2003</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9707,13 +9776,13 @@
         <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C13" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D13" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9721,13 +9790,13 @@
         <v>3001</v>
       </c>
       <c r="B14" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D14" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9735,13 +9804,13 @@
         <v>3002</v>
       </c>
       <c r="B15" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9749,13 +9818,13 @@
         <v>3003</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D16" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9763,13 +9832,13 @@
         <v>3004</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C17" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D17" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9777,13 +9846,13 @@
         <v>4001</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C18" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9791,13 +9860,13 @@
         <v>4002</v>
       </c>
       <c r="B19" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D19" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9805,13 +9874,13 @@
         <v>4003</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C20" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9819,13 +9888,13 @@
         <v>4004</v>
       </c>
       <c r="B21" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C21" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D21" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9833,13 +9902,13 @@
         <v>4005</v>
       </c>
       <c r="B22" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C22" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D22" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9847,13 +9916,13 @@
         <v>5001</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C23" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D23" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9861,13 +9930,13 @@
         <v>5002</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C24" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D24" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9875,13 +9944,13 @@
         <v>5003</v>
       </c>
       <c r="B25" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D25" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9889,13 +9958,13 @@
         <v>5004</v>
       </c>
       <c r="B26" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C26" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D26" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9903,13 +9972,13 @@
         <v>6001</v>
       </c>
       <c r="B27" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C27" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D27" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9917,13 +9986,13 @@
         <v>6002</v>
       </c>
       <c r="B28" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C28" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D28" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9931,13 +10000,13 @@
         <v>6003</v>
       </c>
       <c r="B29" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C29" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D29" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9945,13 +10014,13 @@
         <v>6004</v>
       </c>
       <c r="B30" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C30" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D30" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9959,13 +10028,13 @@
         <v>6005</v>
       </c>
       <c r="B31" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D31" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -9973,13 +10042,13 @@
         <v>7001</v>
       </c>
       <c r="B32" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C32" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9987,13 +10056,13 @@
         <v>7002</v>
       </c>
       <c r="B33" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C33" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10001,13 +10070,13 @@
         <v>7003</v>
       </c>
       <c r="B34" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C34" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -10015,13 +10084,13 @@
         <v>7004</v>
       </c>
       <c r="B35" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C35" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D35" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10029,13 +10098,13 @@
         <v>101001</v>
       </c>
       <c r="B36" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C36" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10043,13 +10112,13 @@
         <v>102001</v>
       </c>
       <c r="B37" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -10057,13 +10126,13 @@
         <v>103001</v>
       </c>
       <c r="B38" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C38" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D38" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -10071,13 +10140,13 @@
         <v>103002</v>
       </c>
       <c r="B39" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C39" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D39" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31725" windowHeight="12960" tabRatio="723"/>
+    <workbookView windowHeight="17655" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="700">
   <si>
     <t>id</t>
   </si>
@@ -503,6 +503,9 @@
     <t>自由活动</t>
   </si>
   <si>
+    <t>是否提交议案《{0}》？</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -587,6 +590,18 @@
     <t>研究等级.最大</t>
   </si>
   <si>
+    <t>取个新名字</t>
+  </si>
+  <si>
+    <t>选择魔物</t>
+  </si>
+  <si>
+    <t>当前选择数量{0}/{1}</t>
+  </si>
+  <si>
+    <t>超过选择数量上限</t>
+  </si>
+  <si>
     <t>提示</t>
   </si>
   <si>
@@ -602,6 +617,12 @@
     <t>没有足够的声望</t>
   </si>
   <si>
+    <t>修改名字成功！</t>
+  </si>
+  <si>
+    <t>还未选择魔物！</t>
+  </si>
+  <si>
     <t>增殖</t>
   </si>
   <si>
@@ -1196,12 +1217,24 @@
     <t>时光沙漏-所有魔物放置CD减少10%</t>
   </si>
   <si>
+    <t>想要给魔物换个新名字！</t>
+  </si>
+  <si>
+    <t>excel_doom_council_info</t>
+  </si>
+  <si>
+    <t>重命名魔物</t>
+  </si>
+  <si>
+    <t>想要给自己换个新名字！</t>
+  </si>
+  <si>
+    <t>重命名魔王</t>
+  </si>
+  <si>
     <t>想要更多魔晶！</t>
   </si>
   <si>
-    <t>excel_doom_council_info</t>
-  </si>
-  <si>
     <t>下次征服模式获得的魔晶翻倍</t>
   </si>
   <si>
@@ -1211,6 +1244,48 @@
     <t>下次征服模式获得的经验翻倍</t>
   </si>
   <si>
+    <t>想要转生成人类！</t>
+  </si>
+  <si>
+    <t>转生成人类</t>
+  </si>
+  <si>
+    <t>想要转生成骷髅！</t>
+  </si>
+  <si>
+    <t>转生成骷髅</t>
+  </si>
+  <si>
+    <t>想要转生成史莱姆！</t>
+  </si>
+  <si>
+    <t>转生成史莱姆</t>
+  </si>
+  <si>
+    <t>想要转生成魅魔！</t>
+  </si>
+  <si>
+    <t>转生成魅魔</t>
+  </si>
+  <si>
+    <t>想要转生成牛头人！</t>
+  </si>
+  <si>
+    <t>转生成牛头人</t>
+  </si>
+  <si>
+    <t>想要转生成哥布林！</t>
+  </si>
+  <si>
+    <t>转生成哥布林</t>
+  </si>
+  <si>
+    <t>想要转生成兽人！</t>
+  </si>
+  <si>
+    <t>转生成兽人</t>
+  </si>
+  <si>
     <t>人类x1</t>
   </si>
   <si>
@@ -1877,9 +1952,18 @@
     <t>开启终焉议会</t>
   </si>
   <si>
+    <t>终焉议会议案：魔物重命名</t>
+  </si>
+  <si>
+    <t>终焉议会议案：魔王重命名</t>
+  </si>
+  <si>
     <t>传送门可选择世界+1</t>
   </si>
   <si>
+    <t>孕育可跳过</t>
+  </si>
+  <si>
     <t>阵容上限+1</t>
   </si>
   <si>
@@ -1907,6 +1991,9 @@
     <t>孕育人类x10</t>
   </si>
   <si>
+    <t>终焉议会议案：转生为人类</t>
+  </si>
+  <si>
     <t>解锁种族：骷髅</t>
   </si>
   <si>
@@ -1928,6 +2015,9 @@
     <t>孕育骷髅x10</t>
   </si>
   <si>
+    <t>终焉议会议案：转生为骷髅</t>
+  </si>
+  <si>
     <t>解锁种族：史莱姆</t>
   </si>
   <si>
@@ -1949,6 +2039,9 @@
     <t>孕育史莱姆x10</t>
   </si>
   <si>
+    <t>终焉议会议案：生为史莱姆</t>
+  </si>
+  <si>
     <t>解锁种族：魅魔</t>
   </si>
   <si>
@@ -1973,6 +2066,9 @@
     <t>孕育魅魔x10</t>
   </si>
   <si>
+    <t>终焉议会议案：转生为魅魔</t>
+  </si>
+  <si>
     <t>解锁种族：牛头人</t>
   </si>
   <si>
@@ -1994,6 +2090,9 @@
     <t>孕育牛头人x10</t>
   </si>
   <si>
+    <t>终焉议会议案：转生为牛头人</t>
+  </si>
+  <si>
     <t>解锁种族：哥布林</t>
   </si>
   <si>
@@ -2012,6 +2111,15 @@
     <t>解锁职业：哥布林魔法师（冰）</t>
   </si>
   <si>
+    <t>孕育哥布林x5</t>
+  </si>
+  <si>
+    <t>孕育哥布林x10</t>
+  </si>
+  <si>
+    <t>终焉议会议案：转生为哥布林</t>
+  </si>
+  <si>
     <t>解锁种族：兽人</t>
   </si>
   <si>
@@ -2031,6 +2139,9 @@
   </si>
   <si>
     <t>孕育兽人x10</t>
+  </si>
+  <si>
+    <t>终焉议会议案：转生兽人</t>
   </si>
 </sst>
 </file>
@@ -3077,10 +3188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4347,7 +4458,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>60001</v>
+        <v>53012</v>
       </c>
       <c r="B100" t="s">
         <v>153</v>
@@ -4358,7 +4469,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B101" t="s">
         <v>154</v>
@@ -4369,7 +4480,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B102" t="s">
         <v>155</v>
@@ -4380,7 +4491,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B103" t="s">
         <v>156</v>
@@ -4391,7 +4502,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="B104" t="s">
         <v>157</v>
@@ -4402,7 +4513,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="B105" t="s">
         <v>158</v>
@@ -4413,7 +4524,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B106" t="s">
         <v>159</v>
@@ -4424,7 +4535,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="B107" t="s">
         <v>160</v>
@@ -4435,10 +4546,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -4446,10 +4557,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>70001</v>
+        <v>62004</v>
       </c>
       <c r="B109" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -4457,7 +4568,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>80001</v>
+        <v>70001</v>
       </c>
       <c r="B110" t="s">
         <v>162</v>
@@ -4468,7 +4579,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B111" t="s">
         <v>163</v>
@@ -4479,7 +4590,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B112" t="s">
         <v>164</v>
@@ -4490,7 +4601,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B113" t="s">
         <v>165</v>
@@ -4501,7 +4612,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B114" t="s">
         <v>166</v>
@@ -4512,7 +4623,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B115" t="s">
         <v>167</v>
@@ -4523,7 +4634,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B116" t="s">
         <v>168</v>
@@ -4534,7 +4645,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B117" t="s">
         <v>169</v>
@@ -4545,7 +4656,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B118" t="s">
         <v>170</v>
@@ -4556,27 +4667,24 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B119" t="s">
         <v>171</v>
       </c>
-      <c r="C119" t="s">
-        <v>172</v>
-      </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B120" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120" t="s">
         <v>173</v>
-      </c>
-      <c r="C120" t="s">
-        <v>174</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -4584,13 +4692,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>1001001</v>
+        <v>1000002</v>
       </c>
       <c r="B121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" t="s">
         <v>175</v>
-      </c>
-      <c r="C121" t="s">
-        <v>176</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -4598,9 +4706,12 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>1002001</v>
+        <v>1001001</v>
       </c>
       <c r="B122" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122" t="s">
         <v>177</v>
       </c>
       <c r="D122" t="s">
@@ -4609,7 +4720,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>1002002</v>
+        <v>1002001</v>
       </c>
       <c r="B123" t="s">
         <v>178</v>
@@ -4620,7 +4731,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>1003001</v>
+        <v>1002002</v>
       </c>
       <c r="B124" t="s">
         <v>179</v>
@@ -4631,7 +4742,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>1003002</v>
+        <v>1003001</v>
       </c>
       <c r="B125" t="s">
         <v>180</v>
@@ -4642,7 +4753,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>2000001</v>
+        <v>1003002</v>
       </c>
       <c r="B126" t="s">
         <v>181</v>
@@ -4653,7 +4764,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>2000002</v>
+        <v>1004001</v>
       </c>
       <c r="B127" t="s">
         <v>182</v>
@@ -4664,10 +4775,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>2000003</v>
+        <v>1004002</v>
       </c>
       <c r="B128" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -4675,10 +4786,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>3000001</v>
+        <v>1005001</v>
       </c>
       <c r="B129" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -4686,12 +4797,100 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
+        <v>1005002</v>
+      </c>
+      <c r="B130" t="s">
+        <v>184</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>1005003</v>
+      </c>
+      <c r="B131" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>2000001</v>
+      </c>
+      <c r="B132" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>2000002</v>
+      </c>
+      <c r="B133" t="s">
+        <v>187</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>2000003</v>
+      </c>
+      <c r="B134" t="s">
+        <v>188</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>3000001</v>
+      </c>
+      <c r="B135" t="s">
+        <v>189</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
         <v>3000002</v>
       </c>
-      <c r="B130" t="s">
-        <v>185</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="B136" t="s">
+        <v>190</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>3000003</v>
+      </c>
+      <c r="B137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>3000004</v>
+      </c>
+      <c r="B138" t="s">
+        <v>192</v>
+      </c>
+      <c r="D138" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4765,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4773,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4781,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4789,10 +4988,10 @@
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C7" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4800,10 +4999,10 @@
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4811,10 +5010,10 @@
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="C9" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4822,10 +5021,10 @@
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="C10" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -4833,7 +5032,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4841,7 +5040,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4912,7 +5111,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -4920,7 +5119,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -4928,7 +5127,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -4936,7 +5135,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -4944,7 +5143,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -4952,7 +5151,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -4960,7 +5159,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -4968,7 +5167,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -4976,7 +5175,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -4984,7 +5183,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -4992,7 +5191,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -5000,7 +5199,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -5008,7 +5207,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5016,7 +5215,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5024,7 +5223,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5032,7 +5231,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5040,7 +5239,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5048,7 +5247,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5056,7 +5255,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5064,7 +5263,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5072,7 +5271,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5080,7 +5279,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5088,7 +5287,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5096,7 +5295,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5104,7 +5303,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5112,7 +5311,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5120,7 +5319,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5128,7 +5327,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5136,7 +5335,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5144,7 +5343,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5152,7 +5351,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -5224,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5232,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5240,7 +5439,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5248,7 +5447,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5256,7 +5455,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5264,7 +5463,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5272,7 +5471,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5280,7 +5479,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5288,7 +5487,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5296,7 +5495,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5304,7 +5503,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5312,7 +5511,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5320,7 +5519,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -5390,10 +5589,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5401,10 +5600,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="C5" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5412,10 +5611,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5423,10 +5622,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="C7" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5434,10 +5633,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="C8" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5508,10 +5707,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5519,10 +5718,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5530,10 +5729,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5541,10 +5740,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5552,10 +5751,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5563,10 +5762,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5574,10 +5773,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5585,10 +5784,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5596,10 +5795,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5607,10 +5806,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -5681,10 +5880,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5692,10 +5891,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5703,10 +5902,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5714,10 +5913,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5725,10 +5924,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5736,10 +5935,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="C9" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -5751,10 +5950,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5812,10 +6011,10 @@
         <v>100000000</v>
       </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="D4" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5823,10 +6022,10 @@
         <v>100000001</v>
       </c>
       <c r="B5" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="D5" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5834,10 +6033,10 @@
         <v>100100001</v>
       </c>
       <c r="B6" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="D6" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5845,604 +6044,714 @@
         <v>100200001</v>
       </c>
       <c r="B7" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="D7" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>100300001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>611</v>
+      <c r="A8" s="1">
+        <v>100200002</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
-        <v>200000001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>612</v>
+      <c r="A9" s="1">
+        <v>100200003</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="D9" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>200100001</v>
+        <v>100300001</v>
       </c>
       <c r="B10" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="D10" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>300100000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>614</v>
+        <v>100400001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>300100001</v>
+      <c r="A12">
+        <v>200000001</v>
       </c>
       <c r="B12" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>300100002</v>
+      <c r="A13">
+        <v>200100001</v>
       </c>
       <c r="B13" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="D13" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>300100003</v>
+        <v>300100000</v>
       </c>
       <c r="B14" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="D14" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>300100004</v>
+        <v>300100001</v>
       </c>
       <c r="B15" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="D15" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>300100101</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>619</v>
+        <v>300100002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>644</v>
       </c>
       <c r="D16" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>300100102</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>620</v>
+        <v>300100003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>645</v>
       </c>
       <c r="D17" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
+        <v>300100004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>646</v>
+      </c>
+      <c r="D18" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>300100101</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>300100102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>300100201</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D21" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>300200000</v>
       </c>
-      <c r="B18" t="s">
-        <v>621</v>
-      </c>
-      <c r="D18" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="B22" t="s">
+        <v>650</v>
+      </c>
+      <c r="D22" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>300200001</v>
       </c>
-      <c r="B19" t="s">
-        <v>622</v>
-      </c>
-      <c r="D19" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="B23" t="s">
+        <v>651</v>
+      </c>
+      <c r="D23" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
         <v>300200002</v>
       </c>
-      <c r="B20" t="s">
-        <v>623</v>
-      </c>
-      <c r="D20" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="B24" t="s">
+        <v>652</v>
+      </c>
+      <c r="D24" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>300200003</v>
       </c>
-      <c r="B21" t="s">
-        <v>624</v>
-      </c>
-      <c r="D21" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>300200004</v>
-      </c>
-      <c r="B22" t="s">
-        <v>625</v>
-      </c>
-      <c r="D22" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>300200101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>626</v>
-      </c>
-      <c r="D23" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>300200102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>627</v>
-      </c>
-      <c r="D24" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>300300000</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>628</v>
+      <c r="B25" t="s">
+        <v>653</v>
       </c>
       <c r="D25" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>300300001</v>
+        <v>300200004</v>
       </c>
       <c r="B26" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="D26" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27">
-        <v>300300002</v>
+      <c r="A27" s="1">
+        <v>300200101</v>
       </c>
       <c r="B27" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="D27" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28">
-        <v>300300003</v>
+      <c r="A28" s="1">
+        <v>300200102</v>
       </c>
       <c r="B28" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="D28" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29">
-        <v>300300004</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="1">
+        <v>300200201</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D29" t="s">
         <v>632</v>
       </c>
-      <c r="D29" t="s">
-        <v>607</v>
-      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30">
-        <v>300300101</v>
-      </c>
-      <c r="B30" t="s">
-        <v>633</v>
+      <c r="A30" s="1">
+        <v>300300000</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="D30" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>300300102</v>
+        <v>300300001</v>
       </c>
       <c r="B31" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="D31" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>300400000</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>635</v>
+      <c r="A32">
+        <v>300300002</v>
+      </c>
+      <c r="B32" t="s">
+        <v>660</v>
       </c>
       <c r="D32" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>300400001</v>
+        <v>300300003</v>
       </c>
       <c r="B33" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="D33" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>300400002</v>
+        <v>300300004</v>
       </c>
       <c r="B34" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="D34" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>300400003</v>
+        <v>300300101</v>
       </c>
       <c r="B35" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="D35" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" ht="14" customHeight="1" spans="1:4">
       <c r="A36">
-        <v>300400004</v>
+        <v>300300102</v>
       </c>
       <c r="B36" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="D36" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>300400005</v>
-      </c>
-      <c r="B37" t="s">
-        <v>640</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" ht="14" customHeight="1" spans="1:4">
+      <c r="A37" s="1">
+        <v>300300201</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="D37" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38">
-        <v>300400101</v>
-      </c>
-      <c r="B38" t="s">
-        <v>641</v>
+      <c r="A38" s="1">
+        <v>300400000</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="D38" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>300400102</v>
+        <v>300400001</v>
       </c>
       <c r="B39" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="D39" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>300500000</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>643</v>
+      <c r="A40">
+        <v>300400002</v>
+      </c>
+      <c r="B40" t="s">
+        <v>668</v>
       </c>
       <c r="D40" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>300500001</v>
+      <c r="A41">
+        <v>300400003</v>
       </c>
       <c r="B41" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="D41" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>300500002</v>
+      <c r="A42">
+        <v>300400004</v>
       </c>
       <c r="B42" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="D42" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>300500003</v>
+      <c r="A43">
+        <v>300400005</v>
       </c>
       <c r="B43" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="D43" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>300500004</v>
+      <c r="A44">
+        <v>300400101</v>
       </c>
       <c r="B44" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="D44" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>300500101</v>
+        <v>300400102</v>
       </c>
       <c r="B45" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="D45" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46">
-        <v>300500102</v>
-      </c>
-      <c r="B46" t="s">
-        <v>649</v>
+      <c r="A46" s="1">
+        <v>300400201</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="D46" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>300600000</v>
+        <v>300500000</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D47" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>300600001</v>
+        <v>300500001</v>
       </c>
       <c r="B48" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="D48" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>300600002</v>
+        <v>300500002</v>
       </c>
       <c r="B49" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="D49" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>300600003</v>
+        <v>300500003</v>
       </c>
       <c r="B50" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
       <c r="D50" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>300600004</v>
+        <v>300500004</v>
       </c>
       <c r="B51" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="D51" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>300600005</v>
+      <c r="A52">
+        <v>300500101</v>
       </c>
       <c r="B52" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="D52" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>300600101</v>
+        <v>300500102</v>
       </c>
       <c r="B53" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="D53" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54">
-        <v>300600102</v>
-      </c>
-      <c r="B54" t="s">
-        <v>642</v>
+      <c r="A54" s="1">
+        <v>300500201</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="D54" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>300700000</v>
+        <v>300600000</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="D55" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>300700001</v>
+        <v>300600001</v>
       </c>
       <c r="B56" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
       <c r="D56" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>300700002</v>
+        <v>300600002</v>
       </c>
       <c r="B57" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="D57" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>300700003</v>
+        <v>300600003</v>
       </c>
       <c r="B58" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="D58" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>300700004</v>
+        <v>300600004</v>
       </c>
       <c r="B59" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="D59" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60">
-        <v>300700101</v>
+      <c r="A60" s="1">
+        <v>300600005</v>
       </c>
       <c r="B60" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="D60" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
+        <v>300600101</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D61" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>300600102</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D62" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>300600201</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D63" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>300700000</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D64" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>300700001</v>
+      </c>
+      <c r="B65" t="s">
+        <v>693</v>
+      </c>
+      <c r="D65" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>300700002</v>
+      </c>
+      <c r="B66" t="s">
+        <v>694</v>
+      </c>
+      <c r="D66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>300700003</v>
+      </c>
+      <c r="B67" t="s">
+        <v>695</v>
+      </c>
+      <c r="D67" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>300700004</v>
+      </c>
+      <c r="B68" t="s">
+        <v>696</v>
+      </c>
+      <c r="D68" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>300700101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>697</v>
+      </c>
+      <c r="D69" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
         <v>300700102</v>
       </c>
-      <c r="B61" t="s">
-        <v>662</v>
-      </c>
-      <c r="D61" t="s">
-        <v>607</v>
+      <c r="B70" t="s">
+        <v>698</v>
+      </c>
+      <c r="D70" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>300700201</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D71" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6515,10 +6824,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6526,10 +6835,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6537,10 +6846,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6548,10 +6857,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6559,10 +6868,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6570,10 +6879,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6581,10 +6890,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6592,10 +6901,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
         <v>194</v>
-      </c>
-      <c r="D11" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6674,7 +6983,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6682,13 +6991,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6696,13 +7005,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6710,13 +7019,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6724,13 +7033,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" t="s">
         <v>202</v>
-      </c>
-      <c r="C8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6738,13 +7047,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6817,10 +7126,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6828,10 +7137,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6839,10 +7148,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6850,10 +7159,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6861,10 +7170,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6872,10 +7181,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6883,10 +7192,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6894,10 +7203,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6905,10 +7214,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6916,10 +7225,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6927,10 +7236,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6938,10 +7247,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6949,10 +7258,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6960,10 +7269,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6971,10 +7280,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6982,10 +7291,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6993,10 +7302,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7004,10 +7313,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7015,10 +7324,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7026,10 +7335,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7037,10 +7346,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7048,10 +7357,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7059,10 +7368,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7070,10 +7379,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7081,10 +7390,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7092,10 +7401,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7103,10 +7412,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7114,10 +7423,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7125,10 +7434,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7136,10 +7445,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7147,10 +7456,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7158,10 +7467,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7169,10 +7478,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7180,10 +7489,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7191,10 +7500,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7202,10 +7511,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7213,10 +7522,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7224,10 +7533,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7235,10 +7544,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7246,10 +7555,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7257,10 +7566,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7268,10 +7577,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7279,10 +7588,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7290,10 +7599,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7301,10 +7610,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7312,10 +7621,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7323,10 +7632,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7334,10 +7643,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7345,10 +7654,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7356,10 +7665,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7367,10 +7676,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7378,10 +7687,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D55" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7389,10 +7698,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7400,10 +7709,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D57" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7411,10 +7720,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7422,10 +7731,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D59" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7433,10 +7742,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7444,10 +7753,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7455,10 +7764,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7466,10 +7775,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7477,10 +7786,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7488,10 +7797,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7499,10 +7808,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7510,10 +7819,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7521,10 +7830,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -7532,10 +7841,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7543,10 +7852,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -7554,10 +7863,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7565,10 +7874,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7576,10 +7885,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7587,10 +7896,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7598,10 +7907,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D75" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7609,10 +7918,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7620,10 +7929,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7631,10 +7940,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7642,10 +7951,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7653,10 +7962,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7664,10 +7973,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7675,10 +7984,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7686,10 +7995,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D83" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7697,10 +8006,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D84" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7708,10 +8017,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D85" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7719,10 +8028,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7730,10 +8039,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D87" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7741,10 +8050,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D88" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7752,10 +8061,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7763,10 +8072,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7774,10 +8083,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7785,10 +8094,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7796,10 +8105,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7807,10 +8116,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D94" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7818,10 +8127,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D95" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7829,10 +8138,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7840,10 +8149,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7851,10 +8160,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7862,10 +8171,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7873,10 +8182,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7884,10 +8193,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D101" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7895,10 +8204,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D102" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7906,10 +8215,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7917,10 +8226,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7928,10 +8237,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D105" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7939,10 +8248,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D106" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7950,10 +8259,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D107" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7961,10 +8270,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D108" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7972,10 +8281,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D109" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7983,10 +8292,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -7994,10 +8303,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D111" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8005,10 +8314,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D112" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8016,10 +8325,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8027,10 +8336,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D114" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8038,10 +8347,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8049,10 +8358,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D116" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8060,10 +8369,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D117" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8071,10 +8380,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D118" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8082,10 +8391,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8093,10 +8402,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D120" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8104,10 +8413,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8115,10 +8424,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D122" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8126,10 +8435,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8137,10 +8446,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D124" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -8148,10 +8457,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D125" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8159,10 +8468,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8170,10 +8479,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8181,10 +8490,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D128" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8192,10 +8501,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D129" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8203,10 +8512,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D130" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -8214,10 +8523,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D131" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8225,10 +8534,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8236,10 +8545,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D133" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8247,10 +8556,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -8258,10 +8567,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8269,10 +8578,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D136" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8280,10 +8589,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D137" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8291,10 +8600,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D138" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8302,10 +8611,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D139" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8313,10 +8622,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D140" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8324,10 +8633,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D141" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8335,10 +8644,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D142" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8346,10 +8655,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D143" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8357,10 +8666,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D144" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8368,10 +8677,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D145" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8379,10 +8688,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D146" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8390,10 +8699,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D147" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8401,10 +8710,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D148" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8412,10 +8721,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D149" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8423,10 +8732,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D150" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8434,10 +8743,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D151" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8445,10 +8754,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D152" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8456,10 +8765,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D153" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8467,10 +8776,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D154" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8478,10 +8787,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D155" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8489,10 +8798,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D156" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8500,10 +8809,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D157" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8511,10 +8820,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D158" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -8522,10 +8831,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D159" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8533,10 +8842,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D160" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8544,10 +8853,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D161" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -8555,10 +8864,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D162" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8566,10 +8875,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D163" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8577,10 +8886,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D164" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8588,10 +8897,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D165" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8599,10 +8908,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D166" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8610,10 +8919,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D167" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8621,10 +8930,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D168" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8632,10 +8941,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D169" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8643,10 +8952,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D170" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8654,10 +8963,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D171" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8665,10 +8974,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D172" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8676,10 +8985,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D173" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8687,10 +8996,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D174" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8698,10 +9007,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D175" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -8709,10 +9018,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D176" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -8720,10 +9029,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D177" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -8731,10 +9040,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D178" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -8742,10 +9051,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D179" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -8753,10 +9062,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D180" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -8764,10 +9073,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -8775,10 +9084,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D182" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -8786,10 +9095,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D183" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8862,10 +9171,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8873,10 +9182,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8884,10 +9193,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8895,10 +9204,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8906,10 +9215,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8917,10 +9226,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8928,10 +9237,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8939,10 +9248,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" t="s">
         <v>378</v>
-      </c>
-      <c r="D11" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8950,10 +9259,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8961,10 +9270,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8972,10 +9281,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8983,10 +9292,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D15" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8994,10 +9303,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -9009,13 +9318,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -9069,33 +9378,33 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>384</v>
+      <c r="B4" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>386</v>
+      <c r="B5" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>387</v>
+      <c r="B6" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9103,10 +9412,208 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>100001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>100002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>100003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>100004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>200001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>200002</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>200003</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>200004</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>200005</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>200006</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>200007</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>200008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>200009</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>200010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>200011</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>200012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>200013</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>200014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D25" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -9179,13 +9686,13 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9193,13 +9700,13 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9207,13 +9714,13 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9221,13 +9728,13 @@
         <v>20001</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9235,13 +9742,13 @@
         <v>20002</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9249,13 +9756,13 @@
         <v>20003</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9263,13 +9770,13 @@
         <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9277,13 +9784,13 @@
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9291,13 +9798,13 @@
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="D12" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9305,13 +9812,13 @@
         <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="C13" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9319,13 +9826,13 @@
         <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9333,13 +9840,13 @@
         <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="C15" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9347,13 +9854,13 @@
         <v>50001</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9361,13 +9868,13 @@
         <v>50002</v>
       </c>
       <c r="B17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" t="s">
         <v>416</v>
-      </c>
-      <c r="C17" t="s">
-        <v>417</v>
-      </c>
-      <c r="D17" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9375,13 +9882,13 @@
         <v>50003</v>
       </c>
       <c r="B18" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9389,13 +9896,13 @@
         <v>60001</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="D19" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9403,13 +9910,13 @@
         <v>60002</v>
       </c>
       <c r="B20" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9417,13 +9924,13 @@
         <v>60003</v>
       </c>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="D21" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9431,13 +9938,13 @@
         <v>70001</v>
       </c>
       <c r="B22" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="C22" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9445,13 +9952,13 @@
         <v>70002</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9459,13 +9966,13 @@
         <v>70003</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -9538,13 +10045,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D4" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9552,10 +10059,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="D5" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9563,10 +10070,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9574,10 +10081,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -9650,13 +10157,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9664,13 +10171,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9678,13 +10185,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9692,13 +10199,13 @@
         <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9706,13 +10213,13 @@
         <v>1003</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9720,13 +10227,13 @@
         <v>1004</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D9" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9734,13 +10241,13 @@
         <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="D10" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9748,13 +10255,13 @@
         <v>2002</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="D11" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9762,13 +10269,13 @@
         <v>2003</v>
       </c>
       <c r="B12" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D12" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9776,13 +10283,13 @@
         <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9790,13 +10297,13 @@
         <v>3001</v>
       </c>
       <c r="B14" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C14" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D14" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9804,13 +10311,13 @@
         <v>3002</v>
       </c>
       <c r="B15" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="C15" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9818,13 +10325,13 @@
         <v>3003</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="D16" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9832,13 +10339,13 @@
         <v>3004</v>
       </c>
       <c r="B17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" t="s">
         <v>465</v>
-      </c>
-      <c r="C17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D17" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9846,13 +10353,13 @@
         <v>4001</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="D18" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9860,13 +10367,13 @@
         <v>4002</v>
       </c>
       <c r="B19" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="C19" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="D19" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9874,13 +10381,13 @@
         <v>4003</v>
       </c>
       <c r="B20" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="C20" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="D20" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9888,13 +10395,13 @@
         <v>4004</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="C21" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9902,13 +10409,13 @@
         <v>4005</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="C22" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="D22" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9916,13 +10423,13 @@
         <v>5001</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C23" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="D23" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9930,13 +10437,13 @@
         <v>5002</v>
       </c>
       <c r="B24" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="C24" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="D24" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9944,13 +10451,13 @@
         <v>5003</v>
       </c>
       <c r="B25" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="C25" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="D25" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9958,13 +10465,13 @@
         <v>5004</v>
       </c>
       <c r="B26" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="C26" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="D26" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9972,13 +10479,13 @@
         <v>6001</v>
       </c>
       <c r="B27" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="C27" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="D27" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9986,13 +10493,13 @@
         <v>6002</v>
       </c>
       <c r="B28" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="C28" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="D28" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10000,13 +10507,13 @@
         <v>6003</v>
       </c>
       <c r="B29" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="C29" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="D29" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -10014,13 +10521,13 @@
         <v>6004</v>
       </c>
       <c r="B30" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="C30" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="D30" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -10028,13 +10535,13 @@
         <v>6005</v>
       </c>
       <c r="B31" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="C31" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="D31" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -10042,13 +10549,13 @@
         <v>7001</v>
       </c>
       <c r="B32" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C32" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="D32" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10056,13 +10563,13 @@
         <v>7002</v>
       </c>
       <c r="B33" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="C33" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D33" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10070,13 +10577,13 @@
         <v>7003</v>
       </c>
       <c r="B34" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="C34" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="D34" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -10084,13 +10591,13 @@
         <v>7004</v>
       </c>
       <c r="B35" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="C35" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="D35" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10098,13 +10605,13 @@
         <v>101001</v>
       </c>
       <c r="B36" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="C36" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10112,13 +10619,13 @@
         <v>102001</v>
       </c>
       <c r="B37" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C37" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="D37" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -10126,13 +10633,13 @@
         <v>103001</v>
       </c>
       <c r="B38" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -10140,13 +10647,13 @@
         <v>103002</v>
       </c>
       <c r="B39" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D39" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="723"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="704">
   <si>
     <t>id</t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>声望</t>
+  </si>
+  <si>
+    <t>排序：稀有度</t>
+  </si>
+  <si>
+    <t>排序：等级</t>
+  </si>
+  <si>
+    <t>排序：阵容</t>
+  </si>
+  <si>
+    <t>排序：名字</t>
   </si>
   <si>
     <t>没有足够的魔晶</t>
@@ -3188,10 +3200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4852,7 +4864,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>3000001</v>
+        <v>2000004</v>
       </c>
       <c r="B135" t="s">
         <v>189</v>
@@ -4863,7 +4875,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>3000002</v>
+        <v>2000005</v>
       </c>
       <c r="B136" t="s">
         <v>190</v>
@@ -4874,7 +4886,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>3000003</v>
+        <v>2000006</v>
       </c>
       <c r="B137" t="s">
         <v>191</v>
@@ -4885,12 +4897,56 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>3000004</v>
+        <v>2000007</v>
       </c>
       <c r="B138" t="s">
         <v>192</v>
       </c>
       <c r="D138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>3000001</v>
+      </c>
+      <c r="B139" t="s">
+        <v>193</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>3000002</v>
+      </c>
+      <c r="B140" t="s">
+        <v>194</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>3000003</v>
+      </c>
+      <c r="B141" t="s">
+        <v>195</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>3000004</v>
+      </c>
+      <c r="B142" t="s">
+        <v>196</v>
+      </c>
+      <c r="D142" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4964,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4972,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4980,7 +5036,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4988,10 +5044,10 @@
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4999,10 +5055,10 @@
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5010,10 +5066,10 @@
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C9" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5021,10 +5077,10 @@
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C10" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -5032,7 +5088,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5040,7 +5096,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5167,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5119,7 +5175,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -5127,7 +5183,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -5135,7 +5191,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5143,7 +5199,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5151,7 +5207,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -5159,7 +5215,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -5167,7 +5223,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -5175,7 +5231,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -5183,7 +5239,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -5191,7 +5247,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -5199,7 +5255,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -5207,7 +5263,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5215,7 +5271,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5223,7 +5279,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5231,7 +5287,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5239,7 +5295,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5247,7 +5303,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5255,7 +5311,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5263,7 +5319,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5271,7 +5327,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5279,7 +5335,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5287,7 +5343,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5295,7 +5351,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5303,7 +5359,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5311,7 +5367,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5319,7 +5375,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5327,7 +5383,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5335,7 +5391,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5343,7 +5399,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5351,7 +5407,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -5423,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5431,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5439,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5447,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5455,7 +5511,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5463,7 +5519,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5471,7 +5527,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5479,7 +5535,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5487,7 +5543,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5495,7 +5551,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5503,7 +5559,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5511,7 +5567,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5519,7 +5575,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5589,10 +5645,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C4" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5600,10 +5656,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5611,10 +5667,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5622,10 +5678,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5633,10 +5689,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C8" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5707,10 +5763,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5718,10 +5774,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5729,10 +5785,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5740,10 +5796,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5751,10 +5807,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5762,10 +5818,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5773,10 +5829,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5784,10 +5840,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5795,10 +5851,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5806,10 +5862,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5880,10 +5936,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5891,10 +5947,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5902,10 +5958,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5913,10 +5969,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5924,10 +5980,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5935,10 +5991,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C9" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -6011,10 +6067,10 @@
         <v>100000000</v>
       </c>
       <c r="B4" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D4" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6022,10 +6078,10 @@
         <v>100000001</v>
       </c>
       <c r="B5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D5" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6033,10 +6089,10 @@
         <v>100100001</v>
       </c>
       <c r="B6" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D6" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6044,10 +6100,10 @@
         <v>100200001</v>
       </c>
       <c r="B7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6055,10 +6111,10 @@
         <v>100200002</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D8" t="s">
         <v>636</v>
-      </c>
-      <c r="D8" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6066,10 +6122,10 @@
         <v>100200003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D9" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6077,10 +6133,10 @@
         <v>100300001</v>
       </c>
       <c r="B10" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D10" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6088,10 +6144,10 @@
         <v>100400001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D11" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6099,10 +6155,10 @@
         <v>200000001</v>
       </c>
       <c r="B12" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D12" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6110,10 +6166,10 @@
         <v>200100001</v>
       </c>
       <c r="B13" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D13" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6121,10 +6177,10 @@
         <v>300100000</v>
       </c>
       <c r="B14" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D14" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6132,10 +6188,10 @@
         <v>300100001</v>
       </c>
       <c r="B15" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D15" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6143,10 +6199,10 @@
         <v>300100002</v>
       </c>
       <c r="B16" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D16" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6154,10 +6210,10 @@
         <v>300100003</v>
       </c>
       <c r="B17" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D17" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6165,10 +6221,10 @@
         <v>300100004</v>
       </c>
       <c r="B18" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D18" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6176,10 +6232,10 @@
         <v>300100101</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D19" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6187,10 +6243,10 @@
         <v>300100102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D20" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6198,10 +6254,10 @@
         <v>300100201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D21" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6209,10 +6265,10 @@
         <v>300200000</v>
       </c>
       <c r="B22" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D22" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6220,10 +6276,10 @@
         <v>300200001</v>
       </c>
       <c r="B23" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D23" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6231,10 +6287,10 @@
         <v>300200002</v>
       </c>
       <c r="B24" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D24" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6242,10 +6298,10 @@
         <v>300200003</v>
       </c>
       <c r="B25" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D25" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6253,10 +6309,10 @@
         <v>300200004</v>
       </c>
       <c r="B26" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D26" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6264,10 +6320,10 @@
         <v>300200101</v>
       </c>
       <c r="B27" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D27" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6275,10 +6331,10 @@
         <v>300200102</v>
       </c>
       <c r="B28" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D28" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6286,10 +6342,10 @@
         <v>300200201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D29" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6297,10 +6353,10 @@
         <v>300300000</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D30" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6308,10 +6364,10 @@
         <v>300300001</v>
       </c>
       <c r="B31" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D31" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6319,10 +6375,10 @@
         <v>300300002</v>
       </c>
       <c r="B32" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D32" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6330,10 +6386,10 @@
         <v>300300003</v>
       </c>
       <c r="B33" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D33" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6341,10 +6397,10 @@
         <v>300300004</v>
       </c>
       <c r="B34" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D34" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6352,10 +6408,10 @@
         <v>300300101</v>
       </c>
       <c r="B35" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D35" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:4">
@@ -6363,10 +6419,10 @@
         <v>300300102</v>
       </c>
       <c r="B36" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D36" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:4">
@@ -6374,10 +6430,10 @@
         <v>300300201</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D37" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6385,10 +6441,10 @@
         <v>300400000</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D38" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6396,10 +6452,10 @@
         <v>300400001</v>
       </c>
       <c r="B39" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D39" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6407,10 +6463,10 @@
         <v>300400002</v>
       </c>
       <c r="B40" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D40" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6418,10 +6474,10 @@
         <v>300400003</v>
       </c>
       <c r="B41" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D41" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6429,10 +6485,10 @@
         <v>300400004</v>
       </c>
       <c r="B42" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D42" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6440,10 +6496,10 @@
         <v>300400005</v>
       </c>
       <c r="B43" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D43" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6451,10 +6507,10 @@
         <v>300400101</v>
       </c>
       <c r="B44" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D44" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6462,10 +6518,10 @@
         <v>300400102</v>
       </c>
       <c r="B45" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D45" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6473,10 +6529,10 @@
         <v>300400201</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D46" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6484,10 +6540,10 @@
         <v>300500000</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D47" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6495,10 +6551,10 @@
         <v>300500001</v>
       </c>
       <c r="B48" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D48" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6506,10 +6562,10 @@
         <v>300500002</v>
       </c>
       <c r="B49" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D49" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6517,10 +6573,10 @@
         <v>300500003</v>
       </c>
       <c r="B50" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D50" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6528,10 +6584,10 @@
         <v>300500004</v>
       </c>
       <c r="B51" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D51" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6539,10 +6595,10 @@
         <v>300500101</v>
       </c>
       <c r="B52" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D52" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6550,10 +6606,10 @@
         <v>300500102</v>
       </c>
       <c r="B53" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D53" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6561,10 +6617,10 @@
         <v>300500201</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D54" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6572,10 +6628,10 @@
         <v>300600000</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D55" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6583,10 +6639,10 @@
         <v>300600001</v>
       </c>
       <c r="B56" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D56" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6594,10 +6650,10 @@
         <v>300600002</v>
       </c>
       <c r="B57" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D57" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6605,10 +6661,10 @@
         <v>300600003</v>
       </c>
       <c r="B58" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D58" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6616,10 +6672,10 @@
         <v>300600004</v>
       </c>
       <c r="B59" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D59" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6627,10 +6683,10 @@
         <v>300600005</v>
       </c>
       <c r="B60" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D60" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6638,10 +6694,10 @@
         <v>300600101</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D61" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6649,10 +6705,10 @@
         <v>300600102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D62" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6660,10 +6716,10 @@
         <v>300600201</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D63" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6671,10 +6727,10 @@
         <v>300700000</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D64" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6682,10 +6738,10 @@
         <v>300700001</v>
       </c>
       <c r="B65" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D65" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6693,10 +6749,10 @@
         <v>300700002</v>
       </c>
       <c r="B66" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D66" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6704,10 +6760,10 @@
         <v>300700003</v>
       </c>
       <c r="B67" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D67" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6715,10 +6771,10 @@
         <v>300700004</v>
       </c>
       <c r="B68" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D68" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6726,10 +6782,10 @@
         <v>300700101</v>
       </c>
       <c r="B69" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D69" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6737,10 +6793,10 @@
         <v>300700102</v>
       </c>
       <c r="B70" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D70" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6748,10 +6804,10 @@
         <v>300700201</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D71" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -6824,10 +6880,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6835,10 +6891,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6846,10 +6902,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6857,10 +6913,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6868,10 +6924,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
         <v>198</v>
-      </c>
-      <c r="D8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6879,10 +6935,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6890,10 +6946,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6901,10 +6957,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6983,7 +7039,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6991,13 +7047,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7005,13 +7061,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" t="s">
         <v>206</v>
-      </c>
-      <c r="D6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7019,13 +7075,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7033,13 +7089,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7047,13 +7103,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7126,10 +7182,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7137,10 +7193,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7148,10 +7204,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7159,10 +7215,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7170,10 +7226,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7181,10 +7237,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7192,10 +7248,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7203,10 +7259,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7214,10 +7270,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7225,10 +7281,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7236,10 +7292,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7247,10 +7303,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7258,10 +7314,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7269,10 +7325,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7280,10 +7336,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7291,10 +7347,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7302,10 +7358,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7313,10 +7369,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7324,10 +7380,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7335,10 +7391,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7346,10 +7402,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7357,10 +7413,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7368,10 +7424,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7379,10 +7435,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7390,10 +7446,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7401,10 +7457,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7412,10 +7468,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7423,10 +7479,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7434,10 +7490,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7445,10 +7501,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7456,10 +7512,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7467,10 +7523,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7478,10 +7534,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7489,10 +7545,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7500,10 +7556,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7511,10 +7567,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7522,10 +7578,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7533,10 +7589,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7544,10 +7600,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7555,10 +7611,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7566,10 +7622,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7577,10 +7633,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7588,10 +7644,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7599,10 +7655,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7610,10 +7666,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7621,10 +7677,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7632,10 +7688,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7643,10 +7699,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7654,10 +7710,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7665,10 +7721,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7676,10 +7732,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7687,10 +7743,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7698,10 +7754,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7709,10 +7765,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7720,10 +7776,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7731,10 +7787,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7742,10 +7798,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7753,10 +7809,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7764,10 +7820,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7775,10 +7831,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7786,10 +7842,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7797,10 +7853,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7808,10 +7864,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7819,10 +7875,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7830,10 +7886,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -7841,10 +7897,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7852,10 +7908,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -7863,10 +7919,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7874,10 +7930,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7885,10 +7941,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7896,10 +7952,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7907,10 +7963,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7918,10 +7974,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7929,10 +7985,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7940,10 +7996,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7951,10 +8007,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7962,10 +8018,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7973,10 +8029,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D81" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7984,10 +8040,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7995,10 +8051,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D83" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8006,10 +8062,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8017,10 +8073,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8028,10 +8084,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8039,10 +8095,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8050,10 +8106,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D88" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8061,10 +8117,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8072,10 +8128,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D90" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -8083,10 +8139,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D91" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8094,10 +8150,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D92" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8105,10 +8161,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D93" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -8116,10 +8172,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8127,10 +8183,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8138,10 +8194,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -8149,10 +8205,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8160,10 +8216,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8171,10 +8227,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -8182,10 +8238,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D100" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -8193,10 +8249,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D101" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -8204,10 +8260,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8215,10 +8271,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -8226,10 +8282,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D104" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -8237,10 +8293,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D105" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8248,10 +8304,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D106" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8259,10 +8315,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D107" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8270,10 +8326,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D108" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8281,10 +8337,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D109" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8292,10 +8348,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D110" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8303,10 +8359,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D111" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8314,10 +8370,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D112" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8325,10 +8381,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D113" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8336,10 +8392,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8347,10 +8403,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D115" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8358,10 +8414,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8369,10 +8425,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8380,10 +8436,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D118" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8391,10 +8447,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8402,10 +8458,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D120" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8413,10 +8469,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D121" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8424,10 +8480,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8435,10 +8491,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D123" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8446,10 +8502,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D124" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -8457,10 +8513,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D125" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8468,10 +8524,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D126" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8479,10 +8535,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D127" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8490,10 +8546,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D128" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8504,7 +8560,7 @@
         <v>187</v>
       </c>
       <c r="D129" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8512,10 +8568,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D130" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -8523,10 +8579,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D131" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8534,10 +8590,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D132" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8545,10 +8601,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D133" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8556,10 +8612,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D134" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -8567,10 +8623,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D135" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8578,10 +8634,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8589,10 +8645,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D137" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8600,10 +8656,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D138" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8611,10 +8667,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D139" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8622,10 +8678,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D140" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8633,10 +8689,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D141" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8644,10 +8700,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D142" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8655,10 +8711,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D143" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8666,10 +8722,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D144" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8677,10 +8733,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D145" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8688,10 +8744,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D146" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8699,10 +8755,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D147" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8710,10 +8766,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D148" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8721,10 +8777,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D149" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8732,10 +8788,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D150" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8743,10 +8799,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D151" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8754,10 +8810,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D152" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8765,10 +8821,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D153" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8776,10 +8832,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D154" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8787,10 +8843,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D155" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8798,10 +8854,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D156" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8809,10 +8865,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8820,10 +8876,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D158" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -8831,10 +8887,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D159" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8842,10 +8898,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D160" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8853,10 +8909,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D161" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -8864,10 +8920,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D162" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8875,10 +8931,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D163" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8886,10 +8942,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D164" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8897,10 +8953,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D165" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8908,10 +8964,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D166" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8919,10 +8975,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D167" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8930,10 +8986,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D168" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8941,10 +8997,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D169" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8952,10 +9008,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D170" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8963,10 +9019,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D171" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8974,10 +9030,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D172" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8985,10 +9041,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D173" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8996,10 +9052,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D174" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9007,10 +9063,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D175" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -9018,10 +9074,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D176" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -9029,10 +9085,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D177" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9040,10 +9096,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D178" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9051,10 +9107,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D179" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9062,10 +9118,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D180" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9073,10 +9129,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D181" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9084,10 +9140,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D182" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9095,10 +9151,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D183" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -9171,10 +9227,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9182,10 +9238,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9193,10 +9249,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9204,10 +9260,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9215,10 +9271,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" t="s">
         <v>382</v>
-      </c>
-      <c r="D8" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9226,10 +9282,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9237,10 +9293,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9248,10 +9304,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9259,10 +9315,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9270,10 +9326,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9281,10 +9337,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D14" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9292,10 +9348,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9303,10 +9359,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -9379,10 +9435,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9390,10 +9446,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9401,10 +9457,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9412,10 +9468,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9423,10 +9479,10 @@
         <v>100001</v>
       </c>
       <c r="B8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" t="s">
         <v>396</v>
-      </c>
-      <c r="D8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9434,10 +9490,10 @@
         <v>100002</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9445,10 +9501,10 @@
         <v>100003</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9456,10 +9512,10 @@
         <v>100004</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9467,10 +9523,10 @@
         <v>200001</v>
       </c>
       <c r="B12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9478,10 +9534,10 @@
         <v>200002</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D13" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9489,10 +9545,10 @@
         <v>200003</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9500,10 +9556,10 @@
         <v>200004</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D15" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9511,10 +9567,10 @@
         <v>200005</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D16" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9522,10 +9578,10 @@
         <v>200006</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9533,10 +9589,10 @@
         <v>200007</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9544,10 +9600,10 @@
         <v>200008</v>
       </c>
       <c r="B19" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9555,10 +9611,10 @@
         <v>200009</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9566,10 +9622,10 @@
         <v>200010</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9577,10 +9633,10 @@
         <v>200011</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D22" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9588,10 +9644,10 @@
         <v>200012</v>
       </c>
       <c r="B23" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9599,10 +9655,10 @@
         <v>200013</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D24" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9610,10 +9666,10 @@
         <v>200014</v>
       </c>
       <c r="B25" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D25" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -9686,13 +9742,13 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9700,13 +9756,13 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9714,13 +9770,13 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" t="s">
         <v>420</v>
-      </c>
-      <c r="D6" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9728,13 +9784,13 @@
         <v>20001</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9742,13 +9798,13 @@
         <v>20002</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9756,13 +9812,13 @@
         <v>20003</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9770,13 +9826,13 @@
         <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9784,13 +9840,13 @@
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9798,13 +9854,13 @@
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C12" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9812,13 +9868,13 @@
         <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C13" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D13" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9826,13 +9882,13 @@
         <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9840,13 +9896,13 @@
         <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9854,13 +9910,13 @@
         <v>50001</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9868,13 +9924,13 @@
         <v>50002</v>
       </c>
       <c r="B17" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9882,13 +9938,13 @@
         <v>50003</v>
       </c>
       <c r="B18" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9896,13 +9952,13 @@
         <v>60001</v>
       </c>
       <c r="B19" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C19" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9910,13 +9966,13 @@
         <v>60002</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C20" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9924,13 +9980,13 @@
         <v>60003</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9938,13 +9994,13 @@
         <v>70001</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D22" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9952,13 +10008,13 @@
         <v>70002</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C23" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D23" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9966,13 +10022,13 @@
         <v>70003</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -10045,13 +10101,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10059,10 +10115,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10070,10 +10126,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D6" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10081,10 +10137,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -10157,13 +10213,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10171,13 +10227,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10185,13 +10241,13 @@
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" t="s">
         <v>469</v>
-      </c>
-      <c r="D6" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10199,13 +10255,13 @@
         <v>1002</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10213,13 +10269,13 @@
         <v>1003</v>
       </c>
       <c r="B8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10227,13 +10283,13 @@
         <v>1004</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10241,13 +10297,13 @@
         <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10255,13 +10311,13 @@
         <v>2002</v>
       </c>
       <c r="B11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D11" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10269,13 +10325,13 @@
         <v>2003</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C12" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10283,13 +10339,13 @@
         <v>2004</v>
       </c>
       <c r="B13" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D13" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10297,13 +10353,13 @@
         <v>3001</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D14" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10311,13 +10367,13 @@
         <v>3002</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C15" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10325,13 +10381,13 @@
         <v>3003</v>
       </c>
       <c r="B16" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C16" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10339,13 +10395,13 @@
         <v>3004</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D17" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -10353,13 +10409,13 @@
         <v>4001</v>
       </c>
       <c r="B18" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C18" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D18" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10367,13 +10423,13 @@
         <v>4002</v>
       </c>
       <c r="B19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -10381,13 +10437,13 @@
         <v>4003</v>
       </c>
       <c r="B20" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D20" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10395,13 +10451,13 @@
         <v>4004</v>
       </c>
       <c r="B21" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C21" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D21" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10409,13 +10465,13 @@
         <v>4005</v>
       </c>
       <c r="B22" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C22" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D22" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10423,13 +10479,13 @@
         <v>5001</v>
       </c>
       <c r="B23" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C23" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D23" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10437,13 +10493,13 @@
         <v>5002</v>
       </c>
       <c r="B24" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C24" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D24" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10451,13 +10507,13 @@
         <v>5003</v>
       </c>
       <c r="B25" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C25" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D25" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -10465,13 +10521,13 @@
         <v>5004</v>
       </c>
       <c r="B26" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C26" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D26" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10479,13 +10535,13 @@
         <v>6001</v>
       </c>
       <c r="B27" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C27" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D27" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -10493,13 +10549,13 @@
         <v>6002</v>
       </c>
       <c r="B28" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C28" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D28" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10507,13 +10563,13 @@
         <v>6003</v>
       </c>
       <c r="B29" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C29" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -10521,13 +10577,13 @@
         <v>6004</v>
       </c>
       <c r="B30" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C30" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D30" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -10535,13 +10591,13 @@
         <v>6005</v>
       </c>
       <c r="B31" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C31" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -10549,13 +10605,13 @@
         <v>7001</v>
       </c>
       <c r="B32" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C32" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D32" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10563,13 +10619,13 @@
         <v>7002</v>
       </c>
       <c r="B33" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C33" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D33" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10577,13 +10633,13 @@
         <v>7003</v>
       </c>
       <c r="B34" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C34" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D34" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -10591,13 +10647,13 @@
         <v>7004</v>
       </c>
       <c r="B35" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C35" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D35" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10605,13 +10661,13 @@
         <v>101001</v>
       </c>
       <c r="B36" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D36" t="s">
         <v>469</v>
-      </c>
-      <c r="D36" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10619,13 +10675,13 @@
         <v>102001</v>
       </c>
       <c r="B37" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C37" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D37" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -10633,13 +10689,13 @@
         <v>103001</v>
       </c>
       <c r="B38" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C38" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D38" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -10647,13 +10703,13 @@
         <v>103002</v>
       </c>
       <c r="B39" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C39" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D39" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="723"/>
+    <workbookView windowHeight="17655" tabRatio="723" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="717">
   <si>
     <t>id</t>
   </si>
@@ -164,7 +164,7 @@
     <t>Input Name...</t>
   </si>
   <si>
-    <t>物种</t>
+    <t>种族</t>
   </si>
   <si>
     <t>Species</t>
@@ -530,6 +530,15 @@
     <t>强化</t>
   </si>
   <si>
+    <t>选择转生魔王外观</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>是否以此外观完成转生？</t>
+  </si>
+  <si>
     <t>贿赂</t>
   </si>
   <si>
@@ -560,9 +569,6 @@
     <t>加速进阶 x{0}</t>
   </si>
   <si>
-    <t>确认</t>
-  </si>
-  <si>
     <t>Confirm</t>
   </si>
   <si>
@@ -635,6 +641,9 @@
     <t>还未选择魔物！</t>
   </si>
   <si>
+    <t>转生成功！</t>
+  </si>
+  <si>
     <t>增殖</t>
   </si>
   <si>
@@ -1458,6 +1467,36 @@
   </si>
   <si>
     <t>Skeleton</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>魅魔</t>
+  </si>
+  <si>
+    <t>Succubus</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>兽人</t>
+  </si>
+  <si>
+    <t>Orc</t>
   </si>
   <si>
     <t>人类战士</t>
@@ -3200,10 +3239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4580,7 +4619,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>70001</v>
+        <v>63001</v>
       </c>
       <c r="B110" t="s">
         <v>162</v>
@@ -4591,7 +4630,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>80001</v>
+        <v>63002</v>
       </c>
       <c r="B111" t="s">
         <v>163</v>
@@ -4602,7 +4641,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>80002</v>
+        <v>63003</v>
       </c>
       <c r="B112" t="s">
         <v>164</v>
@@ -4613,7 +4652,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>80003</v>
+        <v>70001</v>
       </c>
       <c r="B113" t="s">
         <v>165</v>
@@ -4624,7 +4663,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>80004</v>
+        <v>80001</v>
       </c>
       <c r="B114" t="s">
         <v>166</v>
@@ -4635,7 +4674,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="B115" t="s">
         <v>167</v>
@@ -4646,7 +4685,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="B116" t="s">
         <v>168</v>
@@ -4657,7 +4696,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="B117" t="s">
         <v>169</v>
@@ -4668,7 +4707,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="B118" t="s">
         <v>170</v>
@@ -4679,7 +4718,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="B119" t="s">
         <v>171</v>
@@ -4690,27 +4729,21 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="B120" t="s">
         <v>172</v>
       </c>
-      <c r="C120" t="s">
-        <v>173</v>
-      </c>
       <c r="D120" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>1000002</v>
+        <v>80008</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C121" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -4718,13 +4751,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>1001001</v>
+        <v>80009</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
-      </c>
-      <c r="C122" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -4732,10 +4762,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>1002001</v>
+        <v>1000001</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>163</v>
+      </c>
+      <c r="C123" t="s">
+        <v>175</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -4743,10 +4776,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>1002002</v>
+        <v>1000002</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="C124" t="s">
+        <v>177</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -4754,10 +4790,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>1003001</v>
+        <v>1001001</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="C125" t="s">
+        <v>179</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -4765,10 +4804,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>1003002</v>
+        <v>1002001</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -4776,10 +4815,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>1004001</v>
+        <v>1002002</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -4787,10 +4826,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>1004002</v>
+        <v>1003001</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -4798,7 +4837,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>1005001</v>
+        <v>1003002</v>
       </c>
       <c r="B129" t="s">
         <v>183</v>
@@ -4809,7 +4848,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>1005002</v>
+        <v>1004001</v>
       </c>
       <c r="B130" t="s">
         <v>184</v>
@@ -4820,10 +4859,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>1005003</v>
+        <v>1004002</v>
       </c>
       <c r="B131" t="s">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -4831,10 +4870,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>2000001</v>
+        <v>1005001</v>
       </c>
       <c r="B132" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -4842,10 +4881,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>2000002</v>
+        <v>1005002</v>
       </c>
       <c r="B133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -4853,10 +4892,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>2000003</v>
+        <v>1005003</v>
       </c>
       <c r="B134" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -4864,10 +4903,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>2000004</v>
+        <v>2000001</v>
       </c>
       <c r="B135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
@@ -4875,10 +4914,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>2000005</v>
+        <v>2000002</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -4886,10 +4925,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>2000006</v>
+        <v>2000003</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -4897,10 +4936,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>2000007</v>
+        <v>2000004</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -4908,10 +4947,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>3000001</v>
+        <v>2000005</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -4919,10 +4958,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>3000002</v>
+        <v>2000006</v>
       </c>
       <c r="B140" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -4930,10 +4969,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>3000003</v>
+        <v>2000007</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -4941,12 +4980,56 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
+        <v>3000001</v>
+      </c>
+      <c r="B142" t="s">
+        <v>195</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>3000002</v>
+      </c>
+      <c r="B143" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>3000003</v>
+      </c>
+      <c r="B144" t="s">
+        <v>197</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
         <v>3000004</v>
       </c>
-      <c r="B142" t="s">
-        <v>196</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="B145" t="s">
+        <v>198</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>3000005</v>
+      </c>
+      <c r="B146" t="s">
+        <v>199</v>
+      </c>
+      <c r="D146" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5020,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5028,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5036,7 +5119,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5044,10 +5127,10 @@
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5055,10 +5138,10 @@
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C8" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5066,10 +5149,10 @@
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="C9" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5077,10 +5160,10 @@
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C10" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -5088,7 +5171,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5096,7 +5179,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -5167,7 +5250,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5175,7 +5258,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -5183,7 +5266,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -5191,7 +5274,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5199,7 +5282,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5207,7 +5290,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -5215,7 +5298,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -5223,7 +5306,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -5231,7 +5314,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -5239,7 +5322,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -5247,7 +5330,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -5255,7 +5338,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -5263,7 +5346,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5271,7 +5354,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5279,7 +5362,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5287,7 +5370,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5295,7 +5378,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5303,7 +5386,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5311,7 +5394,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5319,7 +5402,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5327,7 +5410,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5335,7 +5418,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5343,7 +5426,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5351,7 +5434,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5359,7 +5442,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5367,7 +5450,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5375,7 +5458,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5383,7 +5466,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5391,7 +5474,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5399,7 +5482,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5407,7 +5490,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5487,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5495,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5503,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5511,7 +5594,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5519,7 +5602,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5527,7 +5610,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5535,7 +5618,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5543,7 +5626,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5551,7 +5634,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5559,7 +5642,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5567,7 +5650,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5575,7 +5658,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -5645,10 +5728,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C4" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5656,10 +5739,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C5" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5667,10 +5750,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="C6" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5678,10 +5761,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="C7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5689,10 +5772,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -5763,10 +5846,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5774,10 +5857,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5785,10 +5868,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5796,10 +5879,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5807,10 +5890,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5818,10 +5901,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5829,10 +5912,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5840,10 +5923,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5851,10 +5934,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5862,10 +5945,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -5936,10 +6019,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5947,10 +6030,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5958,10 +6041,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5969,10 +6052,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5980,10 +6063,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5991,10 +6074,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="C9" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -6067,10 +6150,10 @@
         <v>100000000</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="D4" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6078,10 +6161,10 @@
         <v>100000001</v>
       </c>
       <c r="B5" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="D5" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6089,10 +6172,10 @@
         <v>100100001</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="D6" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6100,10 +6183,10 @@
         <v>100200001</v>
       </c>
       <c r="B7" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="D7" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6111,10 +6194,10 @@
         <v>100200002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="D8" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6122,10 +6205,10 @@
         <v>100200003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="D9" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6133,10 +6216,10 @@
         <v>100300001</v>
       </c>
       <c r="B10" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="D10" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6144,10 +6227,10 @@
         <v>100400001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="D11" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6155,10 +6238,10 @@
         <v>200000001</v>
       </c>
       <c r="B12" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="D12" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6166,10 +6249,10 @@
         <v>200100001</v>
       </c>
       <c r="B13" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="D13" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6177,10 +6260,10 @@
         <v>300100000</v>
       </c>
       <c r="B14" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="D14" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6188,10 +6271,10 @@
         <v>300100001</v>
       </c>
       <c r="B15" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D15" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6199,10 +6282,10 @@
         <v>300100002</v>
       </c>
       <c r="B16" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="D16" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6210,10 +6293,10 @@
         <v>300100003</v>
       </c>
       <c r="B17" t="s">
+        <v>662</v>
+      </c>
+      <c r="D17" t="s">
         <v>649</v>
-      </c>
-      <c r="D17" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6221,10 +6304,10 @@
         <v>300100004</v>
       </c>
       <c r="B18" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="D18" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6232,10 +6315,10 @@
         <v>300100101</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="D19" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6243,10 +6326,10 @@
         <v>300100102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="D20" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6254,10 +6337,10 @@
         <v>300100201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="D21" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6265,10 +6348,10 @@
         <v>300200000</v>
       </c>
       <c r="B22" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6276,10 +6359,10 @@
         <v>300200001</v>
       </c>
       <c r="B23" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="D23" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6287,10 +6370,10 @@
         <v>300200002</v>
       </c>
       <c r="B24" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="D24" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6298,10 +6381,10 @@
         <v>300200003</v>
       </c>
       <c r="B25" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="D25" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6309,10 +6392,10 @@
         <v>300200004</v>
       </c>
       <c r="B26" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="D26" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6320,10 +6403,10 @@
         <v>300200101</v>
       </c>
       <c r="B27" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="D27" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6331,10 +6414,10 @@
         <v>300200102</v>
       </c>
       <c r="B28" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="D28" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6342,10 +6425,10 @@
         <v>300200201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="D29" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6353,10 +6436,10 @@
         <v>300300000</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="D30" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6364,10 +6447,10 @@
         <v>300300001</v>
       </c>
       <c r="B31" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D31" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6375,10 +6458,10 @@
         <v>300300002</v>
       </c>
       <c r="B32" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="D32" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6386,10 +6469,10 @@
         <v>300300003</v>
       </c>
       <c r="B33" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="D33" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6397,10 +6480,10 @@
         <v>300300004</v>
       </c>
       <c r="B34" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="D34" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6408,10 +6491,10 @@
         <v>300300101</v>
       </c>
       <c r="B35" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="D35" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:4">
@@ -6419,10 +6502,10 @@
         <v>300300102</v>
       </c>
       <c r="B36" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="D36" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:4">
@@ -6430,10 +6513,10 @@
         <v>300300201</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D37" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6441,10 +6524,10 @@
         <v>300400000</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="D38" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6452,10 +6535,10 @@
         <v>300400001</v>
       </c>
       <c r="B39" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="D39" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6463,10 +6546,10 @@
         <v>300400002</v>
       </c>
       <c r="B40" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="D40" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6474,10 +6557,10 @@
         <v>300400003</v>
       </c>
       <c r="B41" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="D41" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6485,10 +6568,10 @@
         <v>300400004</v>
       </c>
       <c r="B42" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="D42" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6496,10 +6579,10 @@
         <v>300400005</v>
       </c>
       <c r="B43" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="D43" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6507,10 +6590,10 @@
         <v>300400101</v>
       </c>
       <c r="B44" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="D44" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6518,10 +6601,10 @@
         <v>300400102</v>
       </c>
       <c r="B45" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="D45" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6529,10 +6612,10 @@
         <v>300400201</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="D46" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6540,10 +6623,10 @@
         <v>300500000</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="D47" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6551,10 +6634,10 @@
         <v>300500001</v>
       </c>
       <c r="B48" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="D48" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6562,10 +6645,10 @@
         <v>300500002</v>
       </c>
       <c r="B49" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D49" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6573,10 +6656,10 @@
         <v>300500003</v>
       </c>
       <c r="B50" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="D50" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6584,10 +6667,10 @@
         <v>300500004</v>
       </c>
       <c r="B51" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="D51" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -6595,10 +6678,10 @@
         <v>300500101</v>
       </c>
       <c r="B52" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="D52" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6606,10 +6689,10 @@
         <v>300500102</v>
       </c>
       <c r="B53" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="D53" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -6617,10 +6700,10 @@
         <v>300500201</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="D54" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6628,10 +6711,10 @@
         <v>300600000</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="D55" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -6639,10 +6722,10 @@
         <v>300600001</v>
       </c>
       <c r="B56" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="D56" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -6650,10 +6733,10 @@
         <v>300600002</v>
       </c>
       <c r="B57" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="D57" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -6661,10 +6744,10 @@
         <v>300600003</v>
       </c>
       <c r="B58" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D58" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6672,10 +6755,10 @@
         <v>300600004</v>
       </c>
       <c r="B59" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="D59" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -6683,10 +6766,10 @@
         <v>300600005</v>
       </c>
       <c r="B60" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="D60" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -6694,10 +6777,10 @@
         <v>300600101</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="D61" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -6705,10 +6788,10 @@
         <v>300600102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="D62" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6716,10 +6799,10 @@
         <v>300600201</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="D63" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -6727,10 +6810,10 @@
         <v>300700000</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="D64" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6738,10 +6821,10 @@
         <v>300700001</v>
       </c>
       <c r="B65" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="D65" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -6749,10 +6832,10 @@
         <v>300700002</v>
       </c>
       <c r="B66" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="D66" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6760,10 +6843,10 @@
         <v>300700003</v>
       </c>
       <c r="B67" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="D67" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6771,10 +6854,10 @@
         <v>300700004</v>
       </c>
       <c r="B68" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="D68" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6782,10 +6865,10 @@
         <v>300700101</v>
       </c>
       <c r="B69" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="D69" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6793,10 +6876,10 @@
         <v>300700102</v>
       </c>
       <c r="B70" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="D70" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6804,10 +6887,10 @@
         <v>300700201</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="D71" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -6880,10 +6963,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6891,10 +6974,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6902,10 +6985,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6913,10 +6996,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
         <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6924,10 +7007,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6935,10 +7018,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6946,10 +7029,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6957,10 +7040,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7039,7 +7122,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7047,13 +7130,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7061,13 +7144,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" t="s">
         <v>209</v>
-      </c>
-      <c r="C6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7075,13 +7158,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7089,13 +7172,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7103,13 +7186,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -7182,10 +7265,10 @@
         <v>10100001</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7193,10 +7276,10 @@
         <v>10100002</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7204,10 +7287,10 @@
         <v>10100003</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7215,10 +7298,10 @@
         <v>10100004</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7226,10 +7309,10 @@
         <v>10200001</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7237,10 +7320,10 @@
         <v>10200002</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7248,10 +7331,10 @@
         <v>10200003</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7259,10 +7342,10 @@
         <v>10200004</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7270,10 +7353,10 @@
         <v>10300001</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7281,10 +7364,10 @@
         <v>10300002</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7292,10 +7375,10 @@
         <v>10300003</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7303,10 +7386,10 @@
         <v>10300004</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7314,10 +7397,10 @@
         <v>11000001</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7325,10 +7408,10 @@
         <v>11000002</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7336,10 +7419,10 @@
         <v>11000003</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7347,10 +7430,10 @@
         <v>11000004</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7358,10 +7441,10 @@
         <v>11000005</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7369,10 +7452,10 @@
         <v>11000006</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7380,10 +7463,10 @@
         <v>11000007</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7391,10 +7474,10 @@
         <v>11000008</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7402,10 +7485,10 @@
         <v>11000009</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7413,10 +7496,10 @@
         <v>11010001</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7424,10 +7507,10 @@
         <v>20100001</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7435,10 +7518,10 @@
         <v>20100002</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7446,10 +7529,10 @@
         <v>20100003</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7457,10 +7540,10 @@
         <v>20100004</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7468,10 +7551,10 @@
         <v>20100005</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7479,10 +7562,10 @@
         <v>20100006</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7490,10 +7573,10 @@
         <v>20100007</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7501,10 +7584,10 @@
         <v>20200001</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7512,10 +7595,10 @@
         <v>20200002</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7523,10 +7606,10 @@
         <v>20200003</v>
       </c>
       <c r="B35" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7534,10 +7617,10 @@
         <v>20200004</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7545,10 +7628,10 @@
         <v>20200005</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7556,10 +7639,10 @@
         <v>20200006</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7567,10 +7650,10 @@
         <v>20200007</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7578,10 +7661,10 @@
         <v>20200008</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7589,10 +7672,10 @@
         <v>20200009</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7600,10 +7683,10 @@
         <v>20200010</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7611,10 +7694,10 @@
         <v>20200011</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7622,10 +7705,10 @@
         <v>20300001</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7633,10 +7716,10 @@
         <v>20300002</v>
       </c>
       <c r="B45" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7644,10 +7727,10 @@
         <v>20300003</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7655,10 +7738,10 @@
         <v>20300004</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7666,10 +7749,10 @@
         <v>20300005</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7677,10 +7760,10 @@
         <v>21000001</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7688,10 +7771,10 @@
         <v>21000002</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7699,10 +7782,10 @@
         <v>21000003</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7710,10 +7793,10 @@
         <v>21000004</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7721,10 +7804,10 @@
         <v>21000005</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7732,10 +7815,10 @@
         <v>21000006</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7743,10 +7826,10 @@
         <v>21000007</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7754,10 +7837,10 @@
         <v>21000008</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7765,10 +7848,10 @@
         <v>21000009</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7776,10 +7859,10 @@
         <v>21000010</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7787,10 +7870,10 @@
         <v>21010001</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7798,10 +7881,10 @@
         <v>21010002</v>
       </c>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7809,10 +7892,10 @@
         <v>21010003</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7820,10 +7903,10 @@
         <v>21010004</v>
       </c>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7831,10 +7914,10 @@
         <v>21010005</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7842,10 +7925,10 @@
         <v>21010006</v>
       </c>
       <c r="B64" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7853,10 +7936,10 @@
         <v>21010007</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7864,10 +7947,10 @@
         <v>21010008</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7875,10 +7958,10 @@
         <v>21010009</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7886,10 +7969,10 @@
         <v>21010010</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -7897,10 +7980,10 @@
         <v>21010011</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7908,10 +7991,10 @@
         <v>21010012</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -7919,10 +8002,10 @@
         <v>21010013</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7930,10 +8013,10 @@
         <v>21010014</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7941,10 +8024,10 @@
         <v>21010015</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7952,10 +8035,10 @@
         <v>21010016</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7963,10 +8046,10 @@
         <v>21010017</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7974,10 +8057,10 @@
         <v>21010018</v>
       </c>
       <c r="B76" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7985,10 +8068,10 @@
         <v>21010019</v>
       </c>
       <c r="B77" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7996,10 +8079,10 @@
         <v>21010020</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8007,10 +8090,10 @@
         <v>30100001</v>
       </c>
       <c r="B79" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8018,10 +8101,10 @@
         <v>30100002</v>
       </c>
       <c r="B80" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8029,10 +8112,10 @@
         <v>30100003</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8040,10 +8123,10 @@
         <v>30100004</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -8051,10 +8134,10 @@
         <v>30100005</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8062,10 +8145,10 @@
         <v>30100006</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8073,10 +8156,10 @@
         <v>30100007</v>
       </c>
       <c r="B85" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8084,10 +8167,10 @@
         <v>30100008</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8095,10 +8178,10 @@
         <v>30100009</v>
       </c>
       <c r="B87" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D87" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8106,10 +8189,10 @@
         <v>30100010</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D88" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8117,10 +8200,10 @@
         <v>30100011</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8128,10 +8211,10 @@
         <v>30100012</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -8139,10 +8222,10 @@
         <v>30100013</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8150,10 +8233,10 @@
         <v>30100014</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8161,10 +8244,10 @@
         <v>30100015</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -8172,10 +8255,10 @@
         <v>30100016</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8183,10 +8266,10 @@
         <v>30100017</v>
       </c>
       <c r="B95" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D95" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8194,10 +8277,10 @@
         <v>30100018</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -8205,10 +8288,10 @@
         <v>30100019</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8216,10 +8299,10 @@
         <v>30100020</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8227,10 +8310,10 @@
         <v>40100001</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D99" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -8238,10 +8321,10 @@
         <v>40200001</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D100" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -8249,10 +8332,10 @@
         <v>40200002</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D101" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -8260,10 +8343,10 @@
         <v>40200003</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D102" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8271,10 +8354,10 @@
         <v>40200004</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D103" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -8282,10 +8365,10 @@
         <v>40200005</v>
       </c>
       <c r="B104" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D104" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -8293,10 +8376,10 @@
         <v>40200006</v>
       </c>
       <c r="B105" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8304,10 +8387,10 @@
         <v>40300001</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D106" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8315,10 +8398,10 @@
         <v>40300002</v>
       </c>
       <c r="B107" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D107" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8326,10 +8409,10 @@
         <v>40300003</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D108" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8337,10 +8420,10 @@
         <v>40300004</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D109" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8348,10 +8431,10 @@
         <v>41000001</v>
       </c>
       <c r="B110" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D110" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8359,10 +8442,10 @@
         <v>41000002</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D111" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8370,10 +8453,10 @@
         <v>41000003</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D112" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8381,10 +8464,10 @@
         <v>41000004</v>
       </c>
       <c r="B113" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D113" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8392,10 +8475,10 @@
         <v>41000005</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D114" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8403,10 +8486,10 @@
         <v>50100001</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D115" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8414,10 +8497,10 @@
         <v>50100002</v>
       </c>
       <c r="B116" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D116" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8425,10 +8508,10 @@
         <v>50100003</v>
       </c>
       <c r="B117" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D117" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8436,10 +8519,10 @@
         <v>50200001</v>
       </c>
       <c r="B118" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8447,10 +8530,10 @@
         <v>50200002</v>
       </c>
       <c r="B119" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D119" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8458,10 +8541,10 @@
         <v>50200003</v>
       </c>
       <c r="B120" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D120" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8469,10 +8552,10 @@
         <v>50300001</v>
       </c>
       <c r="B121" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D121" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8480,10 +8563,10 @@
         <v>50300002</v>
       </c>
       <c r="B122" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D122" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8491,10 +8574,10 @@
         <v>50500001</v>
       </c>
       <c r="B123" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D123" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8502,10 +8585,10 @@
         <v>50500002</v>
       </c>
       <c r="B124" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D124" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -8513,10 +8596,10 @@
         <v>50500003</v>
       </c>
       <c r="B125" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D125" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8524,10 +8607,10 @@
         <v>50500004</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D126" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8535,10 +8618,10 @@
         <v>50500005</v>
       </c>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8546,10 +8629,10 @@
         <v>51010001</v>
       </c>
       <c r="B128" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8557,10 +8640,10 @@
         <v>51010002</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D129" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8568,10 +8651,10 @@
         <v>51010003</v>
       </c>
       <c r="B130" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D130" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -8579,10 +8662,10 @@
         <v>60100001</v>
       </c>
       <c r="B131" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D131" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8590,10 +8673,10 @@
         <v>60100002</v>
       </c>
       <c r="B132" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D132" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8601,10 +8684,10 @@
         <v>60100003</v>
       </c>
       <c r="B133" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D133" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8612,10 +8695,10 @@
         <v>60100004</v>
       </c>
       <c r="B134" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D134" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -8623,10 +8706,10 @@
         <v>60100005</v>
       </c>
       <c r="B135" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D135" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8634,10 +8717,10 @@
         <v>60100006</v>
       </c>
       <c r="B136" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D136" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8645,10 +8728,10 @@
         <v>60100007</v>
       </c>
       <c r="B137" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D137" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8656,10 +8739,10 @@
         <v>60100008</v>
       </c>
       <c r="B138" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D138" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8667,10 +8750,10 @@
         <v>60100009</v>
       </c>
       <c r="B139" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D139" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8678,10 +8761,10 @@
         <v>60100010</v>
       </c>
       <c r="B140" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D140" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8689,10 +8772,10 @@
         <v>60200001</v>
       </c>
       <c r="B141" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D141" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8700,10 +8783,10 @@
         <v>60200002</v>
       </c>
       <c r="B142" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D142" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8711,10 +8794,10 @@
         <v>60300001</v>
       </c>
       <c r="B143" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D143" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8722,10 +8805,10 @@
         <v>60300002</v>
       </c>
       <c r="B144" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D144" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8733,10 +8816,10 @@
         <v>60300003</v>
       </c>
       <c r="B145" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D145" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8744,10 +8827,10 @@
         <v>60300004</v>
       </c>
       <c r="B146" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D146" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8755,10 +8838,10 @@
         <v>60300005</v>
       </c>
       <c r="B147" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D147" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8766,10 +8849,10 @@
         <v>61010001</v>
       </c>
       <c r="B148" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D148" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8777,10 +8860,10 @@
         <v>61010002</v>
       </c>
       <c r="B149" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D149" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8788,10 +8871,10 @@
         <v>61010003</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D150" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8799,10 +8882,10 @@
         <v>61010004</v>
       </c>
       <c r="B151" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D151" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8810,10 +8893,10 @@
         <v>61010005</v>
       </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D152" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8821,10 +8904,10 @@
         <v>61010006</v>
       </c>
       <c r="B153" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8832,10 +8915,10 @@
         <v>61010007</v>
       </c>
       <c r="B154" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8843,10 +8926,10 @@
         <v>61010008</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D155" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8854,10 +8937,10 @@
         <v>61010009</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D156" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8865,10 +8948,10 @@
         <v>61010010</v>
       </c>
       <c r="B157" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8876,10 +8959,10 @@
         <v>61010011</v>
       </c>
       <c r="B158" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D158" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -8887,10 +8970,10 @@
         <v>61010012</v>
       </c>
       <c r="B159" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D159" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8898,10 +8981,10 @@
         <v>61010013</v>
       </c>
       <c r="B160" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D160" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8909,10 +8992,10 @@
         <v>61010014</v>
       </c>
       <c r="B161" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D161" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -8920,10 +9003,10 @@
         <v>61010015</v>
       </c>
       <c r="B162" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D162" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8931,10 +9014,10 @@
         <v>61010016</v>
       </c>
       <c r="B163" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D163" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8942,10 +9025,10 @@
         <v>61010017</v>
       </c>
       <c r="B164" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D164" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8953,10 +9036,10 @@
         <v>61010018</v>
       </c>
       <c r="B165" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D165" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8964,10 +9047,10 @@
         <v>61010019</v>
       </c>
       <c r="B166" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D166" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8975,10 +9058,10 @@
         <v>61010020</v>
       </c>
       <c r="B167" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D167" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8986,10 +9069,10 @@
         <v>70100001</v>
       </c>
       <c r="B168" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D168" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8997,10 +9080,10 @@
         <v>70200001</v>
       </c>
       <c r="B169" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D169" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -9008,10 +9091,10 @@
         <v>70200002</v>
       </c>
       <c r="B170" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D170" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -9019,10 +9102,10 @@
         <v>70300001</v>
       </c>
       <c r="B171" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D171" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9030,10 +9113,10 @@
         <v>70300002</v>
       </c>
       <c r="B172" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D172" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -9041,10 +9124,10 @@
         <v>70300003</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D173" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -9052,10 +9135,10 @@
         <v>70300004</v>
       </c>
       <c r="B174" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D174" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9063,10 +9146,10 @@
         <v>71000001</v>
       </c>
       <c r="B175" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D175" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -9074,10 +9157,10 @@
         <v>71000002</v>
       </c>
       <c r="B176" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D176" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -9085,10 +9168,10 @@
         <v>71000003</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D177" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9096,10 +9179,10 @@
         <v>71010001</v>
       </c>
       <c r="B178" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D178" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9107,10 +9190,10 @@
         <v>71010002</v>
       </c>
       <c r="B179" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D179" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9118,10 +9201,10 @@
         <v>71010003</v>
       </c>
       <c r="B180" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D180" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9129,10 +9212,10 @@
         <v>71010004</v>
       </c>
       <c r="B181" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D181" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9140,10 +9223,10 @@
         <v>71010005</v>
       </c>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D182" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9151,10 +9234,10 @@
         <v>71010006</v>
       </c>
       <c r="B183" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D183" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -9227,10 +9310,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9238,10 +9321,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9249,10 +9332,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9260,10 +9343,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" t="s">
         <v>385</v>
-      </c>
-      <c r="D7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9271,10 +9354,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9282,10 +9365,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9293,10 +9376,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9304,10 +9387,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9315,10 +9398,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9326,10 +9409,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9337,10 +9420,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D14" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9348,10 +9431,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9359,10 +9442,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -9435,10 +9518,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9446,10 +9529,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9457,10 +9540,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9468,10 +9551,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
         <v>399</v>
-      </c>
-      <c r="D7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9479,10 +9562,10 @@
         <v>100001</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9490,10 +9573,10 @@
         <v>100002</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9501,10 +9584,10 @@
         <v>100003</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9512,10 +9595,10 @@
         <v>100004</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D11" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9523,10 +9606,10 @@
         <v>200001</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9534,10 +9617,10 @@
         <v>200002</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9545,10 +9628,10 @@
         <v>200003</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9556,10 +9639,10 @@
         <v>200004</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D15" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9567,10 +9650,10 @@
         <v>200005</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9578,10 +9661,10 @@
         <v>200006</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D17" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9589,10 +9672,10 @@
         <v>200007</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9600,10 +9683,10 @@
         <v>200008</v>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9611,10 +9694,10 @@
         <v>200009</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9622,10 +9705,10 @@
         <v>200010</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9633,10 +9716,10 @@
         <v>200011</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D22" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9644,10 +9727,10 @@
         <v>200012</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D23" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9655,10 +9738,10 @@
         <v>200013</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9666,10 +9749,10 @@
         <v>200014</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -9742,13 +9825,13 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9756,13 +9839,13 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9770,13 +9853,13 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" t="s">
         <v>423</v>
-      </c>
-      <c r="C6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D6" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9784,13 +9867,13 @@
         <v>20001</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9798,13 +9881,13 @@
         <v>20002</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9812,13 +9895,13 @@
         <v>20003</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9826,13 +9909,13 @@
         <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9840,13 +9923,13 @@
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9854,13 +9937,13 @@
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9868,13 +9951,13 @@
         <v>40001</v>
       </c>
       <c r="B13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9882,13 +9965,13 @@
         <v>40002</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D14" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9896,13 +9979,13 @@
         <v>40003</v>
       </c>
       <c r="B15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C15" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9910,13 +9993,13 @@
         <v>50001</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D16" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9924,13 +10007,13 @@
         <v>50002</v>
       </c>
       <c r="B17" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9938,13 +10021,13 @@
         <v>50003</v>
       </c>
       <c r="B18" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C18" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9952,13 +10035,13 @@
         <v>60001</v>
       </c>
       <c r="B19" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9966,13 +10049,13 @@
         <v>60002</v>
       </c>
       <c r="B20" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D20" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9980,13 +10063,13 @@
         <v>60003</v>
       </c>
       <c r="B21" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C21" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9994,13 +10077,13 @@
         <v>70001</v>
       </c>
       <c r="B22" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D22" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10008,13 +10091,13 @@
         <v>70002</v>
       </c>
       <c r="B23" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10022,13 +10105,13 @@
         <v>70003</v>
       </c>
       <c r="B24" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -10101,13 +10184,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10115,10 +10198,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10126,10 +10209,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10137,10 +10220,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" t="s">
         <v>466</v>
-      </c>
-      <c r="D7" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -10152,10 +10235,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10213,13 +10296,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10227,489 +10310,559 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1001</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" t="s">
         <v>472</v>
-      </c>
-      <c r="C6" t="s">
-        <v>473</v>
-      </c>
-      <c r="D6" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1002</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1003</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1004</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>2001</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>2002</v>
+        <v>1001</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>2003</v>
+        <v>1002</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C12" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D12" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>2004</v>
+        <v>1003</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>3001</v>
+        <v>1004</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>3002</v>
+        <v>2001</v>
       </c>
       <c r="B15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>3003</v>
+        <v>2002</v>
       </c>
       <c r="B16" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C16" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D16" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>3004</v>
+        <v>2003</v>
       </c>
       <c r="B17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C17" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D17" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>4001</v>
+        <v>2004</v>
       </c>
       <c r="B18" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C18" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D18" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>4002</v>
+        <v>3001</v>
       </c>
       <c r="B19" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C19" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>4003</v>
+        <v>3002</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C20" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D20" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>4004</v>
+        <v>3003</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>4005</v>
+        <v>3004</v>
       </c>
       <c r="B22" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C22" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D22" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="B23" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C23" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D23" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>5002</v>
+        <v>4002</v>
       </c>
       <c r="B24" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C24" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D24" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>5003</v>
+        <v>4003</v>
       </c>
       <c r="B25" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C25" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>5004</v>
+        <v>4004</v>
       </c>
       <c r="B26" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C26" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D26" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>6001</v>
+        <v>4005</v>
       </c>
       <c r="B27" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C27" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D27" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>6002</v>
+        <v>5001</v>
       </c>
       <c r="B28" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C28" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D28" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>6003</v>
+        <v>5002</v>
       </c>
       <c r="B29" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C29" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D29" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>6004</v>
+        <v>5003</v>
       </c>
       <c r="B30" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C30" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D30" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>6005</v>
+        <v>5004</v>
       </c>
       <c r="B31" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C31" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D31" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>7001</v>
+        <v>6001</v>
       </c>
       <c r="B32" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C32" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D32" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>7002</v>
+        <v>6002</v>
       </c>
       <c r="B33" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C33" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D33" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>7003</v>
+        <v>6003</v>
       </c>
       <c r="B34" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C34" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D34" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>7004</v>
+        <v>6004</v>
       </c>
       <c r="B35" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C35" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D35" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>101001</v>
+        <v>6005</v>
       </c>
       <c r="B36" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C36" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="D36" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>102001</v>
+        <v>7001</v>
       </c>
       <c r="B37" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C37" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="D37" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>103001</v>
+        <v>7002</v>
       </c>
       <c r="B38" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C38" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="D38" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
+        <v>7003</v>
+      </c>
+      <c r="B39" t="s">
+        <v>541</v>
+      </c>
+      <c r="C39" t="s">
+        <v>542</v>
+      </c>
+      <c r="D39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>7004</v>
+      </c>
+      <c r="B40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C40" t="s">
+        <v>544</v>
+      </c>
+      <c r="D40" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>101001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>545</v>
+      </c>
+      <c r="C41" t="s">
+        <v>486</v>
+      </c>
+      <c r="D41" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>102001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>546</v>
+      </c>
+      <c r="C42" t="s">
+        <v>488</v>
+      </c>
+      <c r="D42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>103001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" t="s">
+        <v>490</v>
+      </c>
+      <c r="D43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>103002</v>
       </c>
-      <c r="B39" t="s">
-        <v>535</v>
-      </c>
-      <c r="C39" t="s">
-        <v>479</v>
-      </c>
-      <c r="D39" t="s">
-        <v>469</v>
+      <c r="B44" t="s">
+        <v>548</v>
+      </c>
+      <c r="C44" t="s">
+        <v>492</v>
+      </c>
+      <c r="D44" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_language[多语言_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" tabRatio="723" firstSheet="2" activeTab="8"/>
+    <workbookView windowHeight="17655" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="719">
   <si>
     <t>id</t>
   </si>
@@ -506,6 +506,9 @@
     <t>是否提交议案《{0}》？</t>
   </si>
   <si>
+    <t>献祭升级</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -567,6 +570,9 @@
   </si>
   <si>
     <t>加速进阶 x{0}</t>
+  </si>
+  <si>
+    <t>是否溶解&lt;color=#FF6B6B&gt;{0}&lt;/color&gt;对&lt;color=#4ECDC4&gt;{1}&lt;/color&gt;进行进阶？溶解后的魔物将会消失</t>
   </si>
   <si>
     <t>Confirm</t>
@@ -3239,16 +3245,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="86" customWidth="1"/>
+    <col min="2" max="2" width="99.875" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
@@ -4520,7 +4526,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="B101" t="s">
         <v>154</v>
@@ -4531,7 +4537,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B102" t="s">
         <v>155</v>
@@ -4542,7 +4548,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B103" t="s">
         <v>156</v>
@@ -4553,7 +4559,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B104" t="s">
         <v>157</v>
@@ -4564,7 +4570,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="B105" t="s">
         <v>158</v>
@@ -4575,7 +4581,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="B106" t="s">
         <v>159</v>
@@ -4586,7 +4592,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B107" t="s">
         <v>160</v>
@@ -4597,7 +4603,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="B108" t="s">
         <v>161</v>
@@ -4608,10 +4614,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="B109" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -4619,10 +4625,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>63001</v>
+        <v>62004</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -4630,7 +4636,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>63002</v>
+        <v>63001</v>
       </c>
       <c r="B111" t="s">
         <v>163</v>
@@ -4641,7 +4647,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>63003</v>
+        <v>63002</v>
       </c>
       <c r="B112" t="s">
         <v>164</v>
@@ -4652,7 +4658,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>70001</v>
+        <v>63003</v>
       </c>
       <c r="B113" t="s">
         <v>165</v>
@@ -4663,7 +4669,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>80001</v>
+        <v>70001</v>
       </c>
       <c r="B114" t="s">
         <v>166</v>
@@ -4674,7 +4680,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B115" t="s">
         <v>167</v>
@@ -4685,7 +4691,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B116" t="s">
         <v>168</v>
@@ -4696,7 +4702,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B117" t="s">
         <v>169</v>
@@ -4707,7 +4713,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B118" t="s">
         <v>170</v>
@@ -4718,7 +4724,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B119" t="s">
         <v>171</v>
@@ -4729,7 +4735,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B120" t="s">
         <v>172</v>
@@ -4740,7 +4746,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B121" t="s">
         <v>173</v>
@@ -4751,7 +4757,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B122" t="s">
         <v>174</v>
@@ -4762,12 +4768,9 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
-      </c>
-      <c r="C123" t="s">
         <v>175</v>
       </c>
       <c r="D123" t="s">
@@ -4776,27 +4779,24 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>1000002</v>
+        <v>80010</v>
       </c>
       <c r="B124" t="s">
         <v>176</v>
       </c>
-      <c r="C124" t="s">
-        <v>177</v>
-      </c>
       <c r="D124" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>1001001</v>
+        <v>1000001</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -4804,10 +4804,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>1002001</v>
+        <v>1000002</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="C126" t="s">
+        <v>179</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -4815,9 +4818,12 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>1002002</v>
+        <v>1001001</v>
       </c>
       <c r="B127" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" t="s">
         <v>181</v>
       </c>
       <c r="D127" t="s">
@@ -4826,7 +4832,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>1003001</v>
+        <v>1002001</v>
       </c>
       <c r="B128" t="s">
         <v>182</v>
@@ -4837,7 +4843,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>1003002</v>
+        <v>1002002</v>
       </c>
       <c r="B129" t="s">
         <v>183</v>
@@ -4848,7 +4854,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>1004001</v>
+        <v>1003001</v>
       </c>
       <c r="B130" t="s">
         <v>184</v>
@@ -4859,10 +4865,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>1004002</v>
+        <v>1003002</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -4870,10 +4876,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>1005001</v>
+        <v>1004001</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -4881,10 +4887,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>1005002</v>
+        <v>1004002</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -4892,7 +4898,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>1005003</v>
+        <v>1005001</v>
       </c>
       <c r="B134" t="s">
         <v>187</v>
@@ -4903,7 +4909,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>2000001</v>
+        <v>1005002</v>
       </c>
       <c r="B135" t="s">
         <v>188</v>
@@ -4914,7 +4920,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>2000002</v>
+        <v>1005003</v>
       </c>
       <c r="B136" t="s">
         <v>189</v>
@@ -4925,7 +4931,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="B137" t="s">
         <v>190</v>
@@ -4936,7 +4942,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>2000004</v>
+        <v>2000002</v>
       </c>
       <c r="B138" t="s">
         <v>191</v>
@@ -4947,7 +4953,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>2000005</v>
+        <v>2000003</v>
       </c>
       <c r="B139" t="s">
         <v>192</v>
@@ -4958,7 +4964,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>2000006</v>
+        <v>2000004</v>
       </c>
       <c r="B140" t="s">
         <v>193</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>2000007</v>
+        <v>2000005</v>
       </c>
       <c r="B141" t="s">
         <v>194</v>
@@ -4980,7 +4986,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>3000001</v>
+        <v>2000006</v>
       </c>
       <c r="B142" t="s">
         <v>195</v>
@@ -4991,7 +4997,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>3000002</v>
+        <v>2000007</v>
       </c>
       <c r="B143" t="s">
         <v>196</v>
@@ -5002,7 +5008,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>3000003</v>
+        <v>3000001</v>
       </c>
       <c r="B144" t="s">
         <v>197</v>
@@ -5013,7 +5019,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>3000004</v>
+        <v>3000002</v>
       </c>
       <c r="B145" t="s">
         <v>198</v>
@@ -5024,12 +5030,34 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>3000005</v>
+        <v>3000003</v>
       </c>
       <c r="B146" t="s">
         <v>199</v>
       </c>
       <c r="D146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>3000004</v>
+      </c>
+      <c r="B147" t="s">
+        <v>200</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>3000005</v>
+      </c>
+      <c r="B148" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5103,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5111,7 +5139,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5119,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5127,10 +5155,10 @@
         <v>1010010001</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5138,10 +5166,10 @@
         <v>1020010001</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5149,10 +5177,10 @@
         <v>1030010001</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5160,10 +5188,10 @@
         <v>1030020001</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C10" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:4">
@@ -5171,7 +5199,7 @@
         <v>2000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5179,7 +5207,7 @@
         <v>2000000002</v>
       </c>
       <c r="B12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5250,7 +5278,7 @@
         <v>100000001</v>
       </c>
       <c r="B4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5258,7 +5286,7 @@
         <v>100000002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
@@ -5266,7 +5294,7 @@
         <v>100000003</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
@@ -5274,7 +5302,7 @@
         <v>100000004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5282,7 +5310,7 @@
         <v>100000005</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5290,7 +5318,7 @@
         <v>100000006</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
@@ -5298,7 +5326,7 @@
         <v>200000001</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
@@ -5306,7 +5334,7 @@
         <v>200000002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
@@ -5314,7 +5342,7 @@
         <v>200000003</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
@@ -5322,7 +5350,7 @@
         <v>200000004</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
@@ -5330,7 +5358,7 @@
         <v>200000005</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
@@ -5338,7 +5366,7 @@
         <v>200000006</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
@@ -5346,7 +5374,7 @@
         <v>200000007</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5354,7 +5382,7 @@
         <v>300000001</v>
       </c>
       <c r="B17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5362,7 +5390,7 @@
         <v>300000002</v>
       </c>
       <c r="B18" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5370,7 +5398,7 @@
         <v>300000003</v>
       </c>
       <c r="B19" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5378,7 +5406,7 @@
         <v>300000004</v>
       </c>
       <c r="B20" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5386,7 +5414,7 @@
         <v>300000005</v>
       </c>
       <c r="B21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5394,7 +5422,7 @@
         <v>300000006</v>
       </c>
       <c r="B22" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5402,7 +5430,7 @@
         <v>400000001</v>
       </c>
       <c r="B23" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5410,7 +5438,7 @@
         <v>400000002</v>
       </c>
       <c r="B24" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5418,7 +5446,7 @@
         <v>400000003</v>
       </c>
       <c r="B25" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5426,7 +5454,7 @@
         <v>400000004</v>
       </c>
       <c r="B26" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5434,7 +5462,7 @@
         <v>400000005</v>
       </c>
       <c r="B27" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5442,7 +5470,7 @@
         <v>400000006</v>
       </c>
       <c r="B28" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5450,7 +5478,7 @@
         <v>400000007</v>
       </c>
       <c r="B29" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5458,7 +5486,7 @@
         <v>500000001</v>
       </c>
       <c r="B30" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5466,7 +5494,7 @@
         <v>500000002</v>
       </c>
       <c r="B31" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5474,7 +5502,7 @@
         <v>500000003</v>
       </c>
       <c r="B32" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5482,7 +5510,7 @@
         <v>500000004</v>
       </c>
       <c r="B33" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5490,7 +5518,7 @@
         <v>500000005</v>
       </c>
       <c r="B34" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5562,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5570,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5578,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5586,7 +5614,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5594,7 +5622,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5602,7 +5630,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5610,7 +5638,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5618,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5626,7 +5654,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5634,7 +5662,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5642,7 +5670,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5650,7 +5678,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5658,7 +5686,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -5728,10 +5756,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5739,10 +5767,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5750,10 +5778,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5761,10 +5789,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5772,10 +5800,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C8" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -5846,10 +5874,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:4">
@@ -5857,10 +5885,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
@@ -5868,10 +5896,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
@@ -5879,10 +5907,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -5890,10 +5918,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
@@ -5901,10 +5929,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
@@ -5912,10 +5940,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
@@ -5923,10 +5951,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
@@ -5934,10 +5962,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
@@ -5945,10 +5973,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -6019,10 +6047,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6030,10 +6058,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6041,10 +6069,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6052,10 +6080,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6063,10 +6091,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6074,10 +6102,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -6150,10 +6178,10 @@
         <v>100000000</v>
       </c>
       <c r="B4" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D4" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6161,10 +6189,10 @@
         <v>100000001</v>
       </c>
       <c r="B5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6172,10 +6200,10 @@
         <v>100100001</v>
       </c>
       <c r="B6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" t="s">
         <v>651</v>
-      </c>
-      <c r="D6" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6183,10 +6211,10 @@
         <v>100200001</v>
       </c>
       <c r="B7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6194,10 +6222,10 @@
         <v>100200002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D8" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6205,10 +6233,10 @@
         <v>100200003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6216,10 +6244,10 @@
         <v>100300001</v>
       </c>
       <c r="B10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6227,10 +6255,10 @@
         <v>100400001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6238,10 +6266,10 @@
         <v>200000001</v>
       </c>
       <c r="B12" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D12" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6249,10 +6277,10 @@
         <v>200100001</v>
       </c>
       <c r="B13" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6260,10 +6288,10 @@
         <v>300100000</v>
       </c>
       <c r="B14" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D14" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6271,10 +6299,10 @@
         <v>300100001</v>
       </c>
       <c r="B15" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D15" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6282,10 +6310,10 @@
         <v>300100002</v>
       </c>
       <c r="B16" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D16" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6293,10 +6321,10 @@
         <v>300100003</v>
       </c>
       <c r="B17" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D17" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6304,10 +6332,10 @@
         <v>300100004</v>
       </c>
       <c r="B18" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D18" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6315,10 +6343,10 @@
         <v>300100101</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D19" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6326,10 +6354,10 @@
         <v>300100102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D20" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6337,10 +6365,10 @@
         <v>300100201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D21" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6348,10 +6376,10 @@
         <v>300200000</v>
       </c>
       <c r="B22" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D22" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6359,10 +6387,10 @@
         <v>300200001</v>
       </c>
       <c r="B23" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D23" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6370,10 +6398,10 @@
         <v>300200002</v>
       </c>
       <c r="B24" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D24" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6381,10 +6409,10 @@
         <v>300200003</v>
       </c>
       <c r="B25" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D25" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6392,10 +6420,10 @@
         <v>300200004</v>
       </c>
       <c r="B26" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D26" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6403,10 +6431,10 @@
         <v>300200101</v>
       </c>
       <c r="B27" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D27" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6414,10 +6442,10 @@
         <v>300200102</v>
       </c>
       <c r="B28" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D28" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6425,10 +6453,10 @@
         <v>300200201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D29" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6436,10 +6464,10 @@
         <v>300300000</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D30" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6447,10 +6475,10 @@
         <v>300300001</v>
       </c>
       <c r="B31" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D31" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6458,10 +6486,10 @@
         <v>300300002</v>
       </c>
       <c r="B32" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D32" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6469,10 +6497,10 @@
         <v>300300003</v>
       </c>
       <c r="B33" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D33" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6480,10 +6508,10 @@
         <v>300300004</v>
       </c>
       <c r="B34" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D34" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6491,10 +6519,10 @@
         <v>300300101</v>
       </c>
       <c r="B35" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D35" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:4">
@@ -6502,10 +6530,10 @@
         <v>300300102</v>
       </c>
       <c r="B36" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D36" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:4">
@@ -6513,10 +6541,10 @@
         <v>300300201</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D37" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6524,10 +6552,10 @@
         <v>300400000</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D38" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6535,10 +6563,10 @@
         <v>300400001</v>
       </c>
       <c r="B39" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D39" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6546,10 +6574,10 @@
         <v>300400002</v>
       </c>
 